--- a/segment_predictions_cluster_4_3outputs.xlsx
+++ b/segment_predictions_cluster_4_3outputs.xlsx
@@ -508,37 +508,37 @@
         <v>0.331862926265305</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2725270390510559</v>
+        <v>0.2841943502426147</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.05933588721424909</v>
+        <v>-0.04766857602269026</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05933588721424909</v>
+        <v>0.04766857602269026</v>
       </c>
       <c r="F2" t="n">
         <v>0.2982462147539837</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2685220241546631</v>
+        <v>0.2501530647277832</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.02972419059932058</v>
+        <v>-0.04809315002620046</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02972419059932058</v>
+        <v>0.04809315002620046</v>
       </c>
       <c r="J2" t="n">
         <v>0.2794714430366034</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2629537582397461</v>
+        <v>0.2595258057117462</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.01651768479685728</v>
+        <v>-0.01994563732485716</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01651768479685728</v>
+        <v>0.01994563732485716</v>
       </c>
     </row>
     <row r="3">
@@ -549,37 +549,37 @@
         <v>0.3376031348797077</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2711590826511383</v>
+        <v>0.2822328805923462</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.06644405222856936</v>
+        <v>-0.05537025428736148</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06644405222856936</v>
+        <v>0.05537025428736148</v>
       </c>
       <c r="F3" t="n">
         <v>0.3039114070613413</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2669980823993683</v>
+        <v>0.2488896995782852</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.03691332466197306</v>
+        <v>-0.05502170748305613</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03691332466197306</v>
+        <v>0.05502170748305613</v>
       </c>
       <c r="J3" t="n">
         <v>0.2820945301031627</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2630882561206818</v>
+        <v>0.2595193088054657</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.01900627398248089</v>
+        <v>-0.02257522129769696</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01900627398248089</v>
+        <v>0.02257522129769696</v>
       </c>
     </row>
     <row r="4">
@@ -590,37 +590,37 @@
         <v>0.342875381475612</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2702799737453461</v>
+        <v>0.2809078097343445</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.07259540773026596</v>
+        <v>-0.06196757174126755</v>
       </c>
       <c r="E4" t="n">
-        <v>0.07259540773026596</v>
+        <v>0.06196757174126755</v>
       </c>
       <c r="F4" t="n">
         <v>0.3083684006184597</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2660164833068848</v>
+        <v>0.2481212317943573</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.04235191731157489</v>
+        <v>-0.06024716882410236</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04235191731157489</v>
+        <v>0.06024716882410236</v>
       </c>
       <c r="J4" t="n">
         <v>0.2856378020455904</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2632883787155151</v>
+        <v>0.2595798075199127</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.02234942333007522</v>
+        <v>-0.02605799452567764</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02234942333007522</v>
+        <v>0.02605799452567764</v>
       </c>
     </row>
     <row r="5">
@@ -631,37 +631,37 @@
         <v>0.345121710126261</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2699826955795288</v>
+        <v>0.2803177833557129</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.07513901454673216</v>
+        <v>-0.06480392677054808</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07513901454673216</v>
+        <v>0.06480392677054808</v>
       </c>
       <c r="F5" t="n">
         <v>0.310275043776571</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2656866908073425</v>
+        <v>0.2478752732276917</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.04458835296922847</v>
+        <v>-0.06239977054887935</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04458835296922847</v>
+        <v>0.06239977054887935</v>
       </c>
       <c r="J5" t="n">
         <v>0.285340140443725</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2635250687599182</v>
+        <v>0.2597131133079529</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.02181507168380681</v>
+        <v>-0.02562702713577214</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02181507168380681</v>
+        <v>0.02562702713577214</v>
       </c>
     </row>
     <row r="6">
@@ -672,37 +672,37 @@
         <v>0.3441637690322987</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2700732350349426</v>
+        <v>0.2802974283695221</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0740905339973561</v>
+        <v>-0.06386634066277663</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0740905339973561</v>
+        <v>0.06386634066277663</v>
       </c>
       <c r="F6" t="n">
         <v>0.3085427235703064</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2658023834228516</v>
+        <v>0.2480311393737793</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.04274034014745481</v>
+        <v>-0.06051158419652708</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04274034014745481</v>
+        <v>0.06051158419652708</v>
       </c>
       <c r="J6" t="n">
         <v>0.2846459209254197</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2637885510921478</v>
+        <v>0.2599032819271088</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.02085736983327185</v>
+        <v>-0.02474263899831092</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02085736983327185</v>
+        <v>0.02474263899831092</v>
       </c>
     </row>
     <row r="7">
@@ -713,37 +713,37 @@
         <v>0.3249733625319047</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2702717781066895</v>
+        <v>0.2805184125900269</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.05470158442521522</v>
+        <v>-0.04445494994187782</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05470158442521522</v>
+        <v>0.04445494994187782</v>
       </c>
       <c r="F7" t="n">
         <v>0.2907521333678237</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2660522758960724</v>
+        <v>0.2483393102884293</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.02469985747175135</v>
+        <v>-0.04241282307939448</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02469985747175135</v>
+        <v>0.04241282307939448</v>
       </c>
       <c r="J7" t="n">
         <v>0.2862702763763643</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2640246152877808</v>
+        <v>0.2600880265235901</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.02224566108858356</v>
+        <v>-0.02618224985277423</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02224566108858356</v>
+        <v>0.02618224985277423</v>
       </c>
     </row>
     <row r="8">
@@ -754,37 +754,37 @@
         <v>0.2912620505172104</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2697950601577759</v>
+        <v>0.2800745666027069</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0214669903594345</v>
+        <v>-0.01118748391450347</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0214669903594345</v>
+        <v>0.01118748391450347</v>
       </c>
       <c r="F8" t="n">
         <v>0.260904813744696</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2655825614929199</v>
+        <v>0.2480316758155823</v>
       </c>
       <c r="H8" t="n">
-        <v>0.004677747748223882</v>
+        <v>-0.01287313792911376</v>
       </c>
       <c r="I8" t="n">
-        <v>0.004677747748223882</v>
+        <v>0.01287313792911376</v>
       </c>
       <c r="J8" t="n">
         <v>0.2889255449349253</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2641150951385498</v>
+        <v>0.2600874602794647</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.02481044979637553</v>
+        <v>-0.02883808465546062</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02481044979637553</v>
+        <v>0.02883808465546062</v>
       </c>
     </row>
     <row r="9">
@@ -795,37 +795,37 @@
         <v>0.2587419236728813</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2677812278270721</v>
+        <v>0.2778859734535217</v>
       </c>
       <c r="D9" t="n">
-        <v>0.009039304154190797</v>
+        <v>0.01914404978064038</v>
       </c>
       <c r="E9" t="n">
-        <v>0.009039304154190797</v>
+        <v>0.01914404978064038</v>
       </c>
       <c r="F9" t="n">
         <v>0.2329019747465387</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2634826898574829</v>
+        <v>0.2462859600782394</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03058071511094421</v>
+        <v>0.01338398533170074</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03058071511094421</v>
+        <v>0.01338398533170074</v>
       </c>
       <c r="J9" t="n">
         <v>0.2915943049886713</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2640638947486877</v>
+        <v>0.2597738802433014</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.02753041023998359</v>
+        <v>-0.03182042474536995</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02753041023998359</v>
+        <v>0.03182042474536995</v>
       </c>
     </row>
     <row r="10">
@@ -836,37 +836,37 @@
         <v>0.254634302761235</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2640210390090942</v>
+        <v>0.2735410928726196</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00938673624785924</v>
+        <v>0.01890679011138463</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00938673624785924</v>
+        <v>0.01890679011138463</v>
       </c>
       <c r="F10" t="n">
         <v>0.2309116994266977</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2595286071300507</v>
+        <v>0.2428327053785324</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02861690770335298</v>
+        <v>0.01192100595183473</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02861690770335298</v>
+        <v>0.01192100595183473</v>
       </c>
       <c r="J10" t="n">
         <v>0.2906345633751543</v>
       </c>
       <c r="K10" t="n">
-        <v>0.26393061876297</v>
+        <v>0.2591390907764435</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.02670394461218434</v>
+        <v>-0.03149547259871083</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02670394461218434</v>
+        <v>0.03149547259871083</v>
       </c>
     </row>
     <row r="11">
@@ -877,37 +877,37 @@
         <v>0.2762739543589456</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2597212195396423</v>
+        <v>0.268095463514328</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.01655273481930331</v>
+        <v>-0.008178490844617636</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01655273481930331</v>
+        <v>0.008178490844617636</v>
       </c>
       <c r="F11" t="n">
         <v>0.2497897465741117</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2549676299095154</v>
+        <v>0.2385488152503967</v>
       </c>
       <c r="H11" t="n">
-        <v>0.005177883335403699</v>
+        <v>-0.01124093132371495</v>
       </c>
       <c r="I11" t="n">
-        <v>0.005177883335403699</v>
+        <v>0.01124093132371495</v>
       </c>
       <c r="J11" t="n">
         <v>0.2899356026005867</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2640685737133026</v>
+        <v>0.258405327796936</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.02586702888728404</v>
+        <v>-0.03153027480365062</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02586702888728404</v>
+        <v>0.03153027480365062</v>
       </c>
     </row>
     <row r="12">
@@ -918,37 +918,37 @@
         <v>0.2996546821893907</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2565690279006958</v>
+        <v>0.2632900178432465</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.04308565428869487</v>
+        <v>-0.03636466434614422</v>
       </c>
       <c r="E12" t="n">
-        <v>0.04308565428869487</v>
+        <v>0.03636466434614422</v>
       </c>
       <c r="F12" t="n">
         <v>0.2698637674626783</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2512995898723602</v>
+        <v>0.2349502593278885</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.01856417759031809</v>
+        <v>-0.03491350813478983</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01856417759031809</v>
+        <v>0.03491350813478983</v>
       </c>
       <c r="J12" t="n">
         <v>0.287637085162268</v>
       </c>
       <c r="K12" t="n">
-        <v>0.264738917350769</v>
+        <v>0.2579394280910492</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.022898167811499</v>
+        <v>-0.02969765707121885</v>
       </c>
       <c r="M12" t="n">
-        <v>0.022898167811499</v>
+        <v>0.02969765707121885</v>
       </c>
     </row>
     <row r="13">
@@ -959,37 +959,37 @@
         <v>0.315600541553797</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2550080418586731</v>
+        <v>0.2601384818553925</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.06059249969512392</v>
+        <v>-0.05546205969840456</v>
       </c>
       <c r="E13" t="n">
-        <v>0.06059249969512392</v>
+        <v>0.05546205969840456</v>
       </c>
       <c r="F13" t="n">
         <v>0.2842232303973297</v>
       </c>
       <c r="G13" t="n">
-        <v>0.249328076839447</v>
+        <v>0.2329461276531219</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.0348951535578827</v>
+        <v>-0.05127710274420777</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0348951535578827</v>
+        <v>0.05127710274420777</v>
       </c>
       <c r="J13" t="n">
         <v>0.2862728892218083</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2656572759151459</v>
+        <v>0.2580825388431549</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.02061561330666245</v>
+        <v>-0.02819035037865342</v>
       </c>
       <c r="M13" t="n">
-        <v>0.02061561330666245</v>
+        <v>0.02819035037865342</v>
       </c>
     </row>
     <row r="14">
@@ -1000,37 +1000,37 @@
         <v>0.3192064235183714</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2549146115779877</v>
+        <v>0.2587953805923462</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.06429181194038369</v>
+        <v>-0.06041104292602517</v>
       </c>
       <c r="E14" t="n">
-        <v>0.06429181194038369</v>
+        <v>0.06041104292602517</v>
       </c>
       <c r="F14" t="n">
         <v>0.287919078940672</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2488787770271301</v>
+        <v>0.2327548712491989</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.03904030191354185</v>
+        <v>-0.05516420769147307</v>
       </c>
       <c r="I14" t="n">
-        <v>0.03904030191354185</v>
+        <v>0.05516420769147307</v>
       </c>
       <c r="J14" t="n">
         <v>0.285062548182077</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2667978405952454</v>
+        <v>0.2588683366775513</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.01826470758683163</v>
+        <v>-0.02619421150452572</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01826470758683163</v>
+        <v>0.02619421150452572</v>
       </c>
     </row>
     <row r="15">
@@ -1041,37 +1041,37 @@
         <v>0.32038135066928</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2556653618812561</v>
+        <v>0.2590824365615845</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.06471598878802393</v>
+        <v>-0.06129891410769556</v>
       </c>
       <c r="E15" t="n">
-        <v>0.06471598878802393</v>
+        <v>0.06129891410769556</v>
       </c>
       <c r="F15" t="n">
         <v>0.290391574254862</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2495230287313461</v>
+        <v>0.2337079346179962</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.04086854552351588</v>
+        <v>-0.05668363963686579</v>
       </c>
       <c r="I15" t="n">
-        <v>0.04086854552351588</v>
+        <v>0.05668363963686579</v>
       </c>
       <c r="J15" t="n">
         <v>0.2865757520427674</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2677990794181824</v>
+        <v>0.2598442137241364</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.01877667262458499</v>
+        <v>-0.02673153831863101</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01877667262458499</v>
+        <v>0.02673153831863101</v>
       </c>
     </row>
     <row r="16">
@@ -1082,37 +1082,37 @@
         <v>0.3135119094530743</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2569234073162079</v>
+        <v>0.2604284286499023</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.05658850213686645</v>
+        <v>-0.05308348080317199</v>
       </c>
       <c r="E16" t="n">
-        <v>0.05658850213686645</v>
+        <v>0.05308348080317199</v>
       </c>
       <c r="F16" t="n">
         <v>0.283125815749312</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2508967220783234</v>
+        <v>0.2354599684476852</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.03222909367098864</v>
+        <v>-0.04766584730162676</v>
       </c>
       <c r="I16" t="n">
-        <v>0.03222909367098864</v>
+        <v>0.04766584730162676</v>
       </c>
       <c r="J16" t="n">
         <v>0.286927616871731</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2684597373008728</v>
+        <v>0.2605971992015839</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.01846787957085816</v>
+        <v>-0.0263304176701471</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01846787957085816</v>
+        <v>0.0263304176701471</v>
       </c>
     </row>
     <row r="17">
@@ -1123,37 +1123,37 @@
         <v>0.27886858413823</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2580337822437286</v>
+        <v>0.261998325586319</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.02083480189450138</v>
+        <v>-0.01687025855191104</v>
       </c>
       <c r="E17" t="n">
-        <v>0.02083480189450138</v>
+        <v>0.01687025855191104</v>
       </c>
       <c r="F17" t="n">
         <v>0.254041057402823</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2522218227386475</v>
+        <v>0.2371466606855392</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.001819234664175551</v>
+        <v>-0.01689439671728377</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001819234664175551</v>
+        <v>0.01689439671728377</v>
       </c>
       <c r="J17" t="n">
         <v>0.2864683927314987</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2687552273273468</v>
+        <v>0.2609613537788391</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.01771316540415185</v>
+        <v>-0.02550703895265954</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01771316540415185</v>
+        <v>0.02550703895265954</v>
       </c>
     </row>
     <row r="18">
@@ -1164,37 +1164,37 @@
         <v>0.2462619525526814</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2577992677688599</v>
+        <v>0.2623939216136932</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01153731521617851</v>
+        <v>0.01613196906101189</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01153731521617851</v>
+        <v>0.01613196906101189</v>
       </c>
       <c r="F18" t="n">
         <v>0.225489778735492</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2520591914653778</v>
+        <v>0.2374593615531921</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02656941272988581</v>
+        <v>0.01196958281770014</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02656941272988581</v>
+        <v>0.01196958281770014</v>
       </c>
       <c r="J18" t="n">
         <v>0.2865023103504753</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2685917615890503</v>
+        <v>0.2608883082866669</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.017910548761425</v>
+        <v>-0.02561400206380843</v>
       </c>
       <c r="M18" t="n">
-        <v>0.017910548761425</v>
+        <v>0.02561400206380843</v>
       </c>
     </row>
     <row r="19">
@@ -1205,37 +1205,37 @@
         <v>0.21504594322637</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2558595836162567</v>
+        <v>0.2607741057872772</v>
       </c>
       <c r="D19" t="n">
-        <v>0.04081364038988669</v>
+        <v>0.0457281625609072</v>
       </c>
       <c r="E19" t="n">
-        <v>0.04081364038988669</v>
+        <v>0.0457281625609072</v>
       </c>
       <c r="F19" t="n">
         <v>0.1999753860339757</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2499007135629654</v>
+        <v>0.2358097285032272</v>
       </c>
       <c r="H19" t="n">
-        <v>0.04992532752898973</v>
+        <v>0.03583434246925157</v>
       </c>
       <c r="I19" t="n">
-        <v>0.04992532752898973</v>
+        <v>0.03583434246925157</v>
       </c>
       <c r="J19" t="n">
         <v>0.2832515763682853</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2680992186069489</v>
+        <v>0.2603182196617126</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.01515235776133644</v>
+        <v>-0.02293335670657265</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01515235776133644</v>
+        <v>0.02293335670657265</v>
       </c>
     </row>
     <row r="20">
@@ -1246,37 +1246,37 @@
         <v>0.2073126776458883</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2521178424358368</v>
+        <v>0.2569345235824585</v>
       </c>
       <c r="D20" t="n">
-        <v>0.04480516478994845</v>
+        <v>0.04962184593657015</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04480516478994845</v>
+        <v>0.04962184593657015</v>
       </c>
       <c r="F20" t="n">
         <v>0.1930910268638246</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2455579340457916</v>
+        <v>0.2316967844963074</v>
       </c>
       <c r="H20" t="n">
-        <v>0.05246690718196698</v>
+        <v>0.03860575763248272</v>
       </c>
       <c r="I20" t="n">
-        <v>0.05246690718196698</v>
+        <v>0.03860575763248272</v>
       </c>
       <c r="J20" t="n">
         <v>0.2836562768935663</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2675436437129974</v>
+        <v>0.259920060634613</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.01611263318056888</v>
+        <v>-0.02373621625895328</v>
       </c>
       <c r="M20" t="n">
-        <v>0.01611263318056888</v>
+        <v>0.02373621625895328</v>
       </c>
     </row>
     <row r="21">
@@ -1287,37 +1287,37 @@
         <v>0.202473892292009</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2473506033420563</v>
+        <v>0.2515844404697418</v>
       </c>
       <c r="D21" t="n">
-        <v>0.04487671105004729</v>
+        <v>0.04911054817773283</v>
       </c>
       <c r="E21" t="n">
-        <v>0.04487671105004729</v>
+        <v>0.04911054817773283</v>
       </c>
       <c r="F21" t="n">
         <v>0.188123075947316</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2398428618907928</v>
+        <v>0.2258215844631195</v>
       </c>
       <c r="H21" t="n">
-        <v>0.05171978594347681</v>
+        <v>0.03769850851580347</v>
       </c>
       <c r="I21" t="n">
-        <v>0.05171978594347681</v>
+        <v>0.03769850851580347</v>
       </c>
       <c r="J21" t="n">
         <v>0.282270725428681</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2675296068191528</v>
+        <v>0.2606631219387054</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.01474111860952815</v>
+        <v>-0.02160760348997554</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01474111860952815</v>
+        <v>0.02160760348997554</v>
       </c>
     </row>
     <row r="22">
@@ -1328,37 +1328,37 @@
         <v>0.205039173647155</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2418578118085861</v>
+        <v>0.2453635334968567</v>
       </c>
       <c r="D22" t="n">
-        <v>0.03681863816143113</v>
+        <v>0.0403243598497017</v>
       </c>
       <c r="E22" t="n">
-        <v>0.03681863816143113</v>
+        <v>0.0403243598497017</v>
       </c>
       <c r="F22" t="n">
         <v>0.188916617912522</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2330847382545471</v>
+        <v>0.21938756108284</v>
       </c>
       <c r="H22" t="n">
-        <v>0.04416812034202514</v>
+        <v>0.03047094317031798</v>
       </c>
       <c r="I22" t="n">
-        <v>0.04416812034202514</v>
+        <v>0.03047094317031798</v>
       </c>
       <c r="J22" t="n">
         <v>0.2864073546291143</v>
       </c>
       <c r="K22" t="n">
-        <v>0.268871009349823</v>
+        <v>0.2630844712257385</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.01753634527929132</v>
+        <v>-0.02332288340337579</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01753634527929132</v>
+        <v>0.02332288340337579</v>
       </c>
     </row>
     <row r="23">
@@ -1369,37 +1369,37 @@
         <v>0.2080460253748494</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2360475361347198</v>
+        <v>0.2390740960836411</v>
       </c>
       <c r="D23" t="n">
-        <v>0.02800151075987048</v>
+        <v>0.03102807070879168</v>
       </c>
       <c r="E23" t="n">
-        <v>0.02800151075987048</v>
+        <v>0.03102807070879168</v>
       </c>
       <c r="F23" t="n">
         <v>0.191948481805974</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2264371365308762</v>
+        <v>0.2135313600301743</v>
       </c>
       <c r="H23" t="n">
-        <v>0.03448865472490215</v>
+        <v>0.02158287822420024</v>
       </c>
       <c r="I23" t="n">
-        <v>0.03448865472490215</v>
+        <v>0.02158287822420024</v>
       </c>
       <c r="J23" t="n">
         <v>0.2879919294535087</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2719321250915527</v>
+        <v>0.2666230201721191</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.01605980436195592</v>
+        <v>-0.02136890928138951</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01605980436195592</v>
+        <v>0.02136890928138951</v>
       </c>
     </row>
     <row r="24">
@@ -1410,37 +1410,37 @@
         <v>0.2065739934233334</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2304249405860901</v>
+        <v>0.2320616543292999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.02385094716275674</v>
+        <v>0.02548766090596657</v>
       </c>
       <c r="E24" t="n">
-        <v>0.02385094716275674</v>
+        <v>0.02548766090596657</v>
       </c>
       <c r="F24" t="n">
         <v>0.1910735864911153</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2207804322242737</v>
+        <v>0.2095489501953125</v>
       </c>
       <c r="H24" t="n">
-        <v>0.02970684573315838</v>
+        <v>0.0184753637041972</v>
       </c>
       <c r="I24" t="n">
-        <v>0.02970684573315838</v>
+        <v>0.0184753637041972</v>
       </c>
       <c r="J24" t="n">
         <v>0.2926965572797153</v>
       </c>
       <c r="K24" t="n">
-        <v>0.276529848575592</v>
+        <v>0.2725301682949066</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.01616670870412329</v>
+        <v>-0.02016638898480871</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01616670870412329</v>
+        <v>0.02016638898480871</v>
       </c>
     </row>
     <row r="25">
@@ -1451,37 +1451,37 @@
         <v>0.1989607518898854</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2253310680389404</v>
+        <v>0.2253959476947784</v>
       </c>
       <c r="D25" t="n">
-        <v>0.02637031614905508</v>
+        <v>0.02643519580489309</v>
       </c>
       <c r="E25" t="n">
-        <v>0.02637031614905508</v>
+        <v>0.02643519580489309</v>
       </c>
       <c r="F25" t="n">
         <v>0.185403573899135</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2161835581064224</v>
+        <v>0.2066705673933029</v>
       </c>
       <c r="H25" t="n">
-        <v>0.03077998420728742</v>
+        <v>0.02126699349416791</v>
       </c>
       <c r="I25" t="n">
-        <v>0.03077998420728742</v>
+        <v>0.02126699349416791</v>
       </c>
       <c r="J25" t="n">
         <v>0.2896564705967967</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2811379730701447</v>
+        <v>0.2779000103473663</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.008518497526652014</v>
+        <v>-0.01175646024943033</v>
       </c>
       <c r="M25" t="n">
-        <v>0.008518497526652014</v>
+        <v>0.01175646024943033</v>
       </c>
     </row>
     <row r="26">
@@ -1492,37 +1492,37 @@
         <v>0.198324173518148</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2208234220743179</v>
+        <v>0.2196717113256454</v>
       </c>
       <c r="D26" t="n">
-        <v>0.02249924855616992</v>
+        <v>0.02134753780749743</v>
       </c>
       <c r="E26" t="n">
-        <v>0.02249924855616992</v>
+        <v>0.02134753780749743</v>
       </c>
       <c r="F26" t="n">
         <v>0.1842367660527393</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2120166122913361</v>
+        <v>0.2043906003236771</v>
       </c>
       <c r="H26" t="n">
-        <v>0.02777984623859672</v>
+        <v>0.02015383427093773</v>
       </c>
       <c r="I26" t="n">
-        <v>0.02777984623859672</v>
+        <v>0.02015383427093773</v>
       </c>
       <c r="J26" t="n">
         <v>0.2896878136786367</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2852903306484222</v>
+        <v>0.2826468050479889</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.004397483030214422</v>
+        <v>-0.007041008630647771</v>
       </c>
       <c r="M26" t="n">
-        <v>0.004397483030214422</v>
+        <v>0.007041008630647771</v>
       </c>
     </row>
     <row r="27">
@@ -1533,37 +1533,37 @@
         <v>0.1981176845382227</v>
       </c>
       <c r="C27" t="n">
-        <v>0.216887429356575</v>
+        <v>0.2156623303890228</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01876974481835234</v>
+        <v>0.01754464585080015</v>
       </c>
       <c r="E27" t="n">
-        <v>0.01876974481835234</v>
+        <v>0.01754464585080015</v>
       </c>
       <c r="F27" t="n">
         <v>0.1841061036149977</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2081765532493591</v>
+        <v>0.2026184946298599</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02407044963436145</v>
+        <v>0.01851239101486224</v>
       </c>
       <c r="I27" t="n">
-        <v>0.02407044963436145</v>
+        <v>0.01851239101486224</v>
       </c>
       <c r="J27" t="n">
         <v>0.28726510959875</v>
       </c>
       <c r="K27" t="n">
-        <v>0.2883381247520447</v>
+        <v>0.2863370478153229</v>
       </c>
       <c r="L27" t="n">
-        <v>0.001073015153294665</v>
+        <v>-0.0009280617834271365</v>
       </c>
       <c r="M27" t="n">
-        <v>0.001073015153294665</v>
+        <v>0.0009280617834271365</v>
       </c>
     </row>
     <row r="28">
@@ -1574,37 +1574,37 @@
         <v>0.2026503925366977</v>
       </c>
       <c r="C28" t="n">
-        <v>0.213717132806778</v>
+        <v>0.2134785652160645</v>
       </c>
       <c r="D28" t="n">
-        <v>0.01106674027008028</v>
+        <v>0.01082817267936678</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01106674027008028</v>
+        <v>0.01082817267936678</v>
       </c>
       <c r="F28" t="n">
         <v>0.1881079677184013</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2051836997270584</v>
+        <v>0.2012645751237869</v>
       </c>
       <c r="H28" t="n">
-        <v>0.01707573200865709</v>
+        <v>0.0131566074053856</v>
       </c>
       <c r="I28" t="n">
-        <v>0.01707573200865709</v>
+        <v>0.0131566074053856</v>
       </c>
       <c r="J28" t="n">
         <v>0.2886047220876533</v>
       </c>
       <c r="K28" t="n">
-        <v>0.2901637256145477</v>
+        <v>0.2886493504047394</v>
       </c>
       <c r="L28" t="n">
-        <v>0.00155900352689442</v>
+        <v>4.462831708607062e-05</v>
       </c>
       <c r="M28" t="n">
-        <v>0.00155900352689442</v>
+        <v>4.462831708607062e-05</v>
       </c>
     </row>
     <row r="29">
@@ -1615,37 +1615,37 @@
         <v>0.203647885156303</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2120461612939835</v>
+        <v>0.2123103141784668</v>
       </c>
       <c r="D29" t="n">
-        <v>0.008398276137680433</v>
+        <v>0.00866242902216377</v>
       </c>
       <c r="E29" t="n">
-        <v>0.008398276137680433</v>
+        <v>0.00866242902216377</v>
       </c>
       <c r="F29" t="n">
         <v>0.1887814264803243</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2037243247032166</v>
+        <v>0.2004278749227524</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01494289822289221</v>
+        <v>0.01164644844242804</v>
       </c>
       <c r="I29" t="n">
-        <v>0.01494289822289221</v>
+        <v>0.01164644844242804</v>
       </c>
       <c r="J29" t="n">
         <v>0.289500747731677</v>
       </c>
       <c r="K29" t="n">
-        <v>0.2910424470901489</v>
+        <v>0.2897838950157166</v>
       </c>
       <c r="L29" t="n">
-        <v>0.001541699358471926</v>
+        <v>0.0002831472840395532</v>
       </c>
       <c r="M29" t="n">
-        <v>0.001541699358471926</v>
+        <v>0.0002831472840395532</v>
       </c>
     </row>
     <row r="30">
@@ -1656,37 +1656,37 @@
         <v>0.2062518778595683</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2114631086587906</v>
+        <v>0.2118169665336609</v>
       </c>
       <c r="D30" t="n">
-        <v>0.005211230799222255</v>
+        <v>0.005565088674092555</v>
       </c>
       <c r="E30" t="n">
-        <v>0.005211230799222255</v>
+        <v>0.005565088674092555</v>
       </c>
       <c r="F30" t="n">
         <v>0.190617029967052</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2032690942287445</v>
+        <v>0.2001281380653381</v>
       </c>
       <c r="H30" t="n">
-        <v>0.01265206426169249</v>
+        <v>0.00951110809828612</v>
       </c>
       <c r="I30" t="n">
-        <v>0.01265206426169249</v>
+        <v>0.00951110809828612</v>
       </c>
       <c r="J30" t="n">
         <v>0.287641922738561</v>
       </c>
       <c r="K30" t="n">
-        <v>0.2915043532848358</v>
+        <v>0.2902241051197052</v>
       </c>
       <c r="L30" t="n">
-        <v>0.003862430546274831</v>
+        <v>0.002582182381144216</v>
       </c>
       <c r="M30" t="n">
-        <v>0.003862430546274831</v>
+        <v>0.002582182381144216</v>
       </c>
     </row>
     <row r="31">
@@ -1697,37 +1697,37 @@
         <v>0.2052494375370937</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2114092409610748</v>
+        <v>0.211717501282692</v>
       </c>
       <c r="D31" t="n">
-        <v>0.006159803423981147</v>
+        <v>0.006468063745598274</v>
       </c>
       <c r="E31" t="n">
-        <v>0.006159803423981147</v>
+        <v>0.006468063745598274</v>
       </c>
       <c r="F31" t="n">
         <v>0.1897704657459006</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2032910734415054</v>
+        <v>0.2001855224370956</v>
       </c>
       <c r="H31" t="n">
-        <v>0.01352060769560479</v>
+        <v>0.010415056691195</v>
       </c>
       <c r="I31" t="n">
-        <v>0.01352060769560479</v>
+        <v>0.010415056691195</v>
       </c>
       <c r="J31" t="n">
         <v>0.286019680811968</v>
       </c>
       <c r="K31" t="n">
-        <v>0.291696161031723</v>
+        <v>0.2903705537319183</v>
       </c>
       <c r="L31" t="n">
-        <v>0.005676480219755031</v>
+        <v>0.004350872919950344</v>
       </c>
       <c r="M31" t="n">
-        <v>0.005676480219755031</v>
+        <v>0.004350872919950344</v>
       </c>
     </row>
     <row r="32">
@@ -1738,37 +1738,37 @@
         <v>0.2092060931680033</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2115956693887711</v>
+        <v>0.2118212431669235</v>
       </c>
       <c r="D32" t="n">
-        <v>0.002389576220767742</v>
+        <v>0.002615149998920208</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002389576220767742</v>
+        <v>0.002615149998920208</v>
       </c>
       <c r="F32" t="n">
         <v>0.1925981289982923</v>
       </c>
       <c r="G32" t="n">
-        <v>0.203531876206398</v>
+        <v>0.2003772705793381</v>
       </c>
       <c r="H32" t="n">
-        <v>0.01093374720810569</v>
+        <v>0.007779141581045756</v>
       </c>
       <c r="I32" t="n">
-        <v>0.01093374720810569</v>
+        <v>0.007779141581045756</v>
       </c>
       <c r="J32" t="n">
         <v>0.282297746591783</v>
       </c>
       <c r="K32" t="n">
-        <v>0.2916942238807678</v>
+        <v>0.290270060300827</v>
       </c>
       <c r="L32" t="n">
-        <v>0.009396477288984795</v>
+        <v>0.007972313709043999</v>
       </c>
       <c r="M32" t="n">
-        <v>0.009396477288984795</v>
+        <v>0.007972313709043999</v>
       </c>
     </row>
     <row r="33">
@@ -1779,37 +1779,37 @@
         <v>0.213009279014097</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2120790034532547</v>
+        <v>0.2121168524026871</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.0009302755608423252</v>
+        <v>-0.0008924266114099522</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0009302755608423252</v>
+        <v>0.0008924266114099522</v>
       </c>
       <c r="F33" t="n">
         <v>0.1958058914379253</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2040004879236221</v>
+        <v>0.2007161676883698</v>
       </c>
       <c r="H33" t="n">
-        <v>0.008194596485696787</v>
+        <v>0.004910276250444406</v>
       </c>
       <c r="I33" t="n">
-        <v>0.008194596485696787</v>
+        <v>0.004910276250444406</v>
       </c>
       <c r="J33" t="n">
         <v>0.2804082058966567</v>
       </c>
       <c r="K33" t="n">
-        <v>0.2913660109043121</v>
+        <v>0.2899582087993622</v>
       </c>
       <c r="L33" t="n">
-        <v>0.01095780500765547</v>
+        <v>0.009550002902705523</v>
       </c>
       <c r="M33" t="n">
-        <v>0.01095780500765547</v>
+        <v>0.009550002902705523</v>
       </c>
     </row>
     <row r="34">
@@ -1820,37 +1820,37 @@
         <v>0.217329750732902</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2128706723451614</v>
+        <v>0.2125865668058395</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.004459078387740595</v>
+        <v>-0.004743183927062494</v>
       </c>
       <c r="E34" t="n">
-        <v>0.004459078387740595</v>
+        <v>0.004743183927062494</v>
       </c>
       <c r="F34" t="n">
         <v>0.198712784834276</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2047349661588669</v>
+        <v>0.2012985646724701</v>
       </c>
       <c r="H34" t="n">
-        <v>0.00602218132459087</v>
+        <v>0.00258577983819408</v>
       </c>
       <c r="I34" t="n">
-        <v>0.00602218132459087</v>
+        <v>0.00258577983819408</v>
       </c>
       <c r="J34" t="n">
         <v>0.284168277369981</v>
       </c>
       <c r="K34" t="n">
-        <v>0.2907954752445221</v>
+        <v>0.2895044982433319</v>
       </c>
       <c r="L34" t="n">
-        <v>0.006627197874541135</v>
+        <v>0.00533622087335095</v>
       </c>
       <c r="M34" t="n">
-        <v>0.006627197874541135</v>
+        <v>0.00533622087335095</v>
       </c>
     </row>
     <row r="35">
@@ -1861,37 +1861,37 @@
         <v>0.217210403055539</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2140762209892273</v>
+        <v>0.2132604867219925</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.003134182066311691</v>
+        <v>-0.003949916333546494</v>
       </c>
       <c r="E35" t="n">
-        <v>0.003134182066311691</v>
+        <v>0.003949916333546494</v>
       </c>
       <c r="F35" t="n">
         <v>0.1992244091671897</v>
       </c>
       <c r="G35" t="n">
-        <v>0.2058020383119583</v>
+        <v>0.2020232379436493</v>
       </c>
       <c r="H35" t="n">
-        <v>0.006577629144768643</v>
+        <v>0.002798828776459622</v>
       </c>
       <c r="I35" t="n">
-        <v>0.006577629144768643</v>
+        <v>0.002798828776459622</v>
       </c>
       <c r="J35" t="n">
         <v>0.2868018723125443</v>
       </c>
       <c r="K35" t="n">
-        <v>0.290085107088089</v>
+        <v>0.2890315353870392</v>
       </c>
       <c r="L35" t="n">
-        <v>0.003283234775544652</v>
+        <v>0.002229663074494848</v>
       </c>
       <c r="M35" t="n">
-        <v>0.003283234775544652</v>
+        <v>0.002229663074494848</v>
       </c>
     </row>
     <row r="36">
@@ -1902,37 +1902,37 @@
         <v>0.2137150393990463</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2154693901538849</v>
+        <v>0.2141816765069962</v>
       </c>
       <c r="D36" t="n">
-        <v>0.001754350754838541</v>
+        <v>0.0004666371079498077</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001754350754838541</v>
+        <v>0.0004666371079498077</v>
       </c>
       <c r="F36" t="n">
         <v>0.1965960622653127</v>
       </c>
       <c r="G36" t="n">
-        <v>0.207064688205719</v>
+        <v>0.2028060257434845</v>
       </c>
       <c r="H36" t="n">
-        <v>0.01046862594040632</v>
+        <v>0.00620996347817182</v>
       </c>
       <c r="I36" t="n">
-        <v>0.01046862594040632</v>
+        <v>0.00620996347817182</v>
       </c>
       <c r="J36" t="n">
         <v>0.2883384806570466</v>
       </c>
       <c r="K36" t="n">
-        <v>0.2894459068775177</v>
+        <v>0.2884426116943359</v>
       </c>
       <c r="L36" t="n">
-        <v>0.001107426220471053</v>
+        <v>0.0001041310372892901</v>
       </c>
       <c r="M36" t="n">
-        <v>0.001107426220471053</v>
+        <v>0.0001041310372892901</v>
       </c>
     </row>
     <row r="37">
@@ -1943,37 +1943,37 @@
         <v>0.2084897950443374</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2165635824203491</v>
+        <v>0.2150224596261978</v>
       </c>
       <c r="D37" t="n">
-        <v>0.008073787376011748</v>
+        <v>0.006532664581860442</v>
       </c>
       <c r="E37" t="n">
-        <v>0.008073787376011748</v>
+        <v>0.006532664581860442</v>
       </c>
       <c r="F37" t="n">
         <v>0.1927734142542437</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2081109881401062</v>
+        <v>0.2034353911876678</v>
       </c>
       <c r="H37" t="n">
-        <v>0.01533757388586254</v>
+        <v>0.01066197693342419</v>
       </c>
       <c r="I37" t="n">
-        <v>0.01533757388586254</v>
+        <v>0.01066197693342419</v>
       </c>
       <c r="J37" t="n">
         <v>0.285167101068315</v>
       </c>
       <c r="K37" t="n">
-        <v>0.2888911962509155</v>
+        <v>0.2879668474197388</v>
       </c>
       <c r="L37" t="n">
-        <v>0.003724095182600529</v>
+        <v>0.002799746351423771</v>
       </c>
       <c r="M37" t="n">
-        <v>0.003724095182600529</v>
+        <v>0.002799746351423771</v>
       </c>
     </row>
     <row r="38">
@@ -1984,37 +1984,37 @@
         <v>0.2049759004226014</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2171611487865448</v>
+        <v>0.2155274003744125</v>
       </c>
       <c r="D38" t="n">
-        <v>0.01218524836394344</v>
+        <v>0.01055149995181118</v>
       </c>
       <c r="E38" t="n">
-        <v>0.01218524836394344</v>
+        <v>0.01055149995181118</v>
       </c>
       <c r="F38" t="n">
         <v>0.189489587626156</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2086768299341202</v>
+        <v>0.2037313431501389</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0191872423079642</v>
+        <v>0.01424175552398288</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0191872423079642</v>
+        <v>0.01424175552398288</v>
       </c>
       <c r="J38" t="n">
         <v>0.287813079584776</v>
       </c>
       <c r="K38" t="n">
-        <v>0.2884950041770935</v>
+        <v>0.2875230610370636</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0006819245923175288</v>
+        <v>-0.0002900185477123784</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0006819245923175288</v>
+        <v>0.0002900185477123784</v>
       </c>
     </row>
     <row r="39">
@@ -2025,37 +2025,37 @@
         <v>0.2032905616694244</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2171552032232285</v>
+        <v>0.2156205773353577</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0138646415538041</v>
+        <v>0.01233001566593331</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0138646415538041</v>
+        <v>0.01233001566593331</v>
       </c>
       <c r="F39" t="n">
         <v>0.188205423626509</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2086311876773834</v>
+        <v>0.2036502063274384</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0204257640508744</v>
+        <v>0.01544478270092933</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0204257640508744</v>
+        <v>0.01544478270092933</v>
       </c>
       <c r="J39" t="n">
         <v>0.288163467421121</v>
       </c>
       <c r="K39" t="n">
-        <v>0.2883801460266113</v>
+        <v>0.2873713374137878</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0002166786054902947</v>
+        <v>-0.0007921300073331916</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0002166786054902947</v>
+        <v>0.0007921300073331916</v>
       </c>
     </row>
     <row r="40">
@@ -2066,37 +2066,37 @@
         <v>0.2041664361452084</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2167732268571854</v>
+        <v>0.2154255509376526</v>
       </c>
       <c r="D40" t="n">
-        <v>0.01260679071197701</v>
+        <v>0.01125911479244424</v>
       </c>
       <c r="E40" t="n">
-        <v>0.01260679071197701</v>
+        <v>0.01125911479244424</v>
       </c>
       <c r="F40" t="n">
         <v>0.189105018398858</v>
       </c>
       <c r="G40" t="n">
-        <v>0.208198606967926</v>
+        <v>0.2033157199621201</v>
       </c>
       <c r="H40" t="n">
-        <v>0.01909358856906804</v>
+        <v>0.01421070156326207</v>
       </c>
       <c r="I40" t="n">
-        <v>0.01909358856906804</v>
+        <v>0.01421070156326207</v>
       </c>
       <c r="J40" t="n">
         <v>0.287160373273769</v>
       </c>
       <c r="K40" t="n">
-        <v>0.2884727418422699</v>
+        <v>0.2874209880828857</v>
       </c>
       <c r="L40" t="n">
-        <v>0.001312368568500866</v>
+        <v>0.0002606148091167104</v>
       </c>
       <c r="M40" t="n">
-        <v>0.001312368568500866</v>
+        <v>0.0002606148091167104</v>
       </c>
     </row>
     <row r="41">
@@ -2107,37 +2107,37 @@
         <v>0.203557938116441</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2161949872970581</v>
+        <v>0.2150502502918243</v>
       </c>
       <c r="D41" t="n">
-        <v>0.01263704918061712</v>
+        <v>0.01149231217538335</v>
       </c>
       <c r="E41" t="n">
-        <v>0.01263704918061712</v>
+        <v>0.01149231217538335</v>
       </c>
       <c r="F41" t="n">
         <v>0.188458057571033</v>
       </c>
       <c r="G41" t="n">
-        <v>0.2075957357883453</v>
+        <v>0.2028896063566208</v>
       </c>
       <c r="H41" t="n">
-        <v>0.01913767821731235</v>
+        <v>0.01443154878558781</v>
       </c>
       <c r="I41" t="n">
-        <v>0.01913767821731235</v>
+        <v>0.01443154878558781</v>
       </c>
       <c r="J41" t="n">
         <v>0.2847389576227167</v>
       </c>
       <c r="K41" t="n">
-        <v>0.2887335121631622</v>
+        <v>0.2876122891902924</v>
       </c>
       <c r="L41" t="n">
-        <v>0.003994554540445561</v>
+        <v>0.002873331567575688</v>
       </c>
       <c r="M41" t="n">
-        <v>0.003994554540445561</v>
+        <v>0.002873331567575688</v>
       </c>
     </row>
     <row r="42">
@@ -2148,37 +2148,37 @@
         <v>0.203532031129288</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2155591696500778</v>
+        <v>0.2145859450101852</v>
       </c>
       <c r="D42" t="n">
-        <v>0.01202713852078982</v>
+        <v>0.01105391388089724</v>
       </c>
       <c r="E42" t="n">
-        <v>0.01202713852078982</v>
+        <v>0.01105391388089724</v>
       </c>
       <c r="F42" t="n">
         <v>0.187997549050791</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2069705128669739</v>
+        <v>0.2024301588535309</v>
       </c>
       <c r="H42" t="n">
-        <v>0.01897296381618285</v>
+        <v>0.01443260980273986</v>
       </c>
       <c r="I42" t="n">
-        <v>0.01897296381618285</v>
+        <v>0.01443260980273986</v>
       </c>
       <c r="J42" t="n">
         <v>0.2864378327703707</v>
       </c>
       <c r="K42" t="n">
-        <v>0.2889774143695831</v>
+        <v>0.287763774394989</v>
       </c>
       <c r="L42" t="n">
-        <v>0.00253958159921247</v>
+        <v>0.001325941624618354</v>
       </c>
       <c r="M42" t="n">
-        <v>0.00253958159921247</v>
+        <v>0.001325941624618354</v>
       </c>
     </row>
     <row r="43">
@@ -2189,37 +2189,37 @@
         <v>0.2039787079498343</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2148141860961914</v>
+        <v>0.2140416204929352</v>
       </c>
       <c r="D43" t="n">
-        <v>0.01083547814635707</v>
+        <v>0.01006291254310085</v>
       </c>
       <c r="E43" t="n">
-        <v>0.01083547814635707</v>
+        <v>0.01006291254310085</v>
       </c>
       <c r="F43" t="n">
         <v>0.188215132464866</v>
       </c>
       <c r="G43" t="n">
-        <v>0.20627760887146</v>
+        <v>0.2019760459661484</v>
       </c>
       <c r="H43" t="n">
-        <v>0.01806247640659397</v>
+        <v>0.01376091350128239</v>
       </c>
       <c r="I43" t="n">
-        <v>0.01806247640659397</v>
+        <v>0.01376091350128239</v>
       </c>
       <c r="J43" t="n">
         <v>0.2894212646501537</v>
       </c>
       <c r="K43" t="n">
-        <v>0.2893752753734589</v>
+        <v>0.2880529761314392</v>
       </c>
       <c r="L43" t="n">
-        <v>-4.598927669480224e-05</v>
+        <v>-0.001368288518714456</v>
       </c>
       <c r="M43" t="n">
-        <v>4.598927669480224e-05</v>
+        <v>0.001368288518714456</v>
       </c>
     </row>
     <row r="44">
@@ -2230,37 +2230,37 @@
         <v>0.211221707995631</v>
       </c>
       <c r="C44" t="n">
-        <v>0.2140385061502457</v>
+        <v>0.2135145962238312</v>
       </c>
       <c r="D44" t="n">
-        <v>0.002816798154614664</v>
+        <v>0.002292888228200174</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002816798154614664</v>
+        <v>0.002292888228200174</v>
       </c>
       <c r="F44" t="n">
         <v>0.194413573264925</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2055816203355789</v>
+        <v>0.2015904635190964</v>
       </c>
       <c r="H44" t="n">
-        <v>0.01116804707065391</v>
+        <v>0.00717689025417137</v>
       </c>
       <c r="I44" t="n">
-        <v>0.01116804707065391</v>
+        <v>0.00717689025417137</v>
       </c>
       <c r="J44" t="n">
         <v>0.290775144509641</v>
       </c>
       <c r="K44" t="n">
-        <v>0.2899361252784729</v>
+        <v>0.288526862859726</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.0008390192311680811</v>
+        <v>-0.002248281649915029</v>
       </c>
       <c r="M44" t="n">
-        <v>0.0008390192311680811</v>
+        <v>0.002248281649915029</v>
       </c>
     </row>
     <row r="45">
@@ -2271,37 +2271,37 @@
         <v>0.2122922898817417</v>
       </c>
       <c r="C45" t="n">
-        <v>0.2137194126844406</v>
+        <v>0.2133072465658188</v>
       </c>
       <c r="D45" t="n">
-        <v>0.001427122802698938</v>
+        <v>0.001014956684077112</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001427122802698938</v>
+        <v>0.001014956684077112</v>
       </c>
       <c r="F45" t="n">
         <v>0.1953861612265697</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2053351402282715</v>
+        <v>0.2015417814254761</v>
       </c>
       <c r="H45" t="n">
-        <v>0.009948979001701802</v>
+        <v>0.006155620198906392</v>
       </c>
       <c r="I45" t="n">
-        <v>0.009948979001701802</v>
+        <v>0.006155620198906392</v>
       </c>
       <c r="J45" t="n">
         <v>0.2905074626921387</v>
       </c>
       <c r="K45" t="n">
-        <v>0.2903737127780914</v>
+        <v>0.2890591621398926</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.0001337499140472431</v>
+        <v>-0.001448300552246096</v>
       </c>
       <c r="M45" t="n">
-        <v>0.0001337499140472431</v>
+        <v>0.001448300552246096</v>
       </c>
     </row>
     <row r="46">
@@ -2312,37 +2312,37 @@
         <v>0.2131152568577933</v>
       </c>
       <c r="C46" t="n">
-        <v>0.2137844115495682</v>
+        <v>0.2134060561656952</v>
       </c>
       <c r="D46" t="n">
-        <v>0.000669154691774837</v>
+        <v>0.0002907993079018512</v>
       </c>
       <c r="E46" t="n">
-        <v>0.000669154691774837</v>
+        <v>0.0002907993079018512</v>
       </c>
       <c r="F46" t="n">
         <v>0.1956811735245343</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2054440230131149</v>
+        <v>0.2017495632171631</v>
       </c>
       <c r="H46" t="n">
-        <v>0.009762849488580611</v>
+        <v>0.006068389692628767</v>
       </c>
       <c r="I46" t="n">
-        <v>0.009762849488580611</v>
+        <v>0.006068389692628767</v>
       </c>
       <c r="J46" t="n">
         <v>0.2892459101858207</v>
       </c>
       <c r="K46" t="n">
-        <v>0.2906698882579803</v>
+        <v>0.2894544005393982</v>
       </c>
       <c r="L46" t="n">
-        <v>0.00142397807215966</v>
+        <v>0.0002084903535775062</v>
       </c>
       <c r="M46" t="n">
-        <v>0.00142397807215966</v>
+        <v>0.0002084903535775062</v>
       </c>
     </row>
     <row r="47">
@@ -2353,37 +2353,37 @@
         <v>0.2093618905181164</v>
       </c>
       <c r="C47" t="n">
-        <v>0.2141727209091187</v>
+        <v>0.213722437620163</v>
       </c>
       <c r="D47" t="n">
-        <v>0.004810830391002302</v>
+        <v>0.004360547102046614</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004810830391002302</v>
+        <v>0.004360547102046614</v>
       </c>
       <c r="F47" t="n">
         <v>0.1927908593230017</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2058475911617279</v>
+        <v>0.2021507173776627</v>
       </c>
       <c r="H47" t="n">
-        <v>0.01305673183872624</v>
+        <v>0.009359858054660997</v>
       </c>
       <c r="I47" t="n">
-        <v>0.01305673183872624</v>
+        <v>0.009359858054660997</v>
       </c>
       <c r="J47" t="n">
         <v>0.283614314149063</v>
       </c>
       <c r="K47" t="n">
-        <v>0.2907648086547852</v>
+        <v>0.2896255254745483</v>
       </c>
       <c r="L47" t="n">
-        <v>0.007150494505722194</v>
+        <v>0.006011211325485377</v>
       </c>
       <c r="M47" t="n">
-        <v>0.007150494505722194</v>
+        <v>0.006011211325485377</v>
       </c>
     </row>
     <row r="48">
@@ -2394,37 +2394,37 @@
         <v>0.2128292280356393</v>
       </c>
       <c r="C48" t="n">
-        <v>0.2145784348249435</v>
+        <v>0.2140129059553146</v>
       </c>
       <c r="D48" t="n">
-        <v>0.001749206789304208</v>
+        <v>0.001183677919675302</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001749206789304208</v>
+        <v>0.001183677919675302</v>
       </c>
       <c r="F48" t="n">
         <v>0.1963884778537243</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2062803953886032</v>
+        <v>0.2024903446435928</v>
       </c>
       <c r="H48" t="n">
-        <v>0.009891917534878863</v>
+        <v>0.006101866789868488</v>
       </c>
       <c r="I48" t="n">
-        <v>0.009891917534878863</v>
+        <v>0.006101866789868488</v>
       </c>
       <c r="J48" t="n">
         <v>0.282734026574404</v>
       </c>
       <c r="K48" t="n">
-        <v>0.2906158864498138</v>
+        <v>0.2893967628479004</v>
       </c>
       <c r="L48" t="n">
-        <v>0.007881859875409847</v>
+        <v>0.006662736273496395</v>
       </c>
       <c r="M48" t="n">
-        <v>0.007881859875409847</v>
+        <v>0.006662736273496395</v>
       </c>
     </row>
     <row r="49">
@@ -2435,37 +2435,37 @@
         <v>0.2131324130252227</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2152467966079712</v>
+        <v>0.2144151479005814</v>
       </c>
       <c r="D49" t="n">
-        <v>0.002114383582748514</v>
+        <v>0.001282734875358682</v>
       </c>
       <c r="E49" t="n">
-        <v>0.002114383582748514</v>
+        <v>0.001282734875358682</v>
       </c>
       <c r="F49" t="n">
         <v>0.1973895002313253</v>
       </c>
       <c r="G49" t="n">
-        <v>0.206911101937294</v>
+        <v>0.2028704583644867</v>
       </c>
       <c r="H49" t="n">
-        <v>0.009521601705968691</v>
+        <v>0.005480958133161379</v>
       </c>
       <c r="I49" t="n">
-        <v>0.009521601705968691</v>
+        <v>0.005480958133161379</v>
       </c>
       <c r="J49" t="n">
         <v>0.2805695986458083</v>
       </c>
       <c r="K49" t="n">
-        <v>0.2901822626590729</v>
+        <v>0.2888843715190887</v>
       </c>
       <c r="L49" t="n">
-        <v>0.009612664013264549</v>
+        <v>0.008314772873280418</v>
       </c>
       <c r="M49" t="n">
-        <v>0.009612664013264549</v>
+        <v>0.008314772873280418</v>
       </c>
     </row>
     <row r="50">
@@ -2476,37 +2476,37 @@
         <v>0.2142428509530927</v>
       </c>
       <c r="C50" t="n">
-        <v>0.2160449028015137</v>
+        <v>0.214839980006218</v>
       </c>
       <c r="D50" t="n">
-        <v>0.001802051848420971</v>
+        <v>0.000597129053125256</v>
       </c>
       <c r="E50" t="n">
-        <v>0.001802051848420971</v>
+        <v>0.000597129053125256</v>
       </c>
       <c r="F50" t="n">
         <v>0.1980230006783533</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2076671570539474</v>
+        <v>0.2032395154237747</v>
       </c>
       <c r="H50" t="n">
-        <v>0.009644156375594126</v>
+        <v>0.005216514745421397</v>
       </c>
       <c r="I50" t="n">
-        <v>0.009644156375594126</v>
+        <v>0.005216514745421397</v>
       </c>
       <c r="J50" t="n">
         <v>0.2815728561122373</v>
       </c>
       <c r="K50" t="n">
-        <v>0.2894974946975708</v>
+        <v>0.2881908118724823</v>
       </c>
       <c r="L50" t="n">
-        <v>0.007924638585333488</v>
+        <v>0.006617955760244987</v>
       </c>
       <c r="M50" t="n">
-        <v>0.007924638585333488</v>
+        <v>0.006617955760244987</v>
       </c>
     </row>
     <row r="51">
@@ -2517,37 +2517,37 @@
         <v>0.215190912796217</v>
       </c>
       <c r="C51" t="n">
-        <v>0.2167997807264328</v>
+        <v>0.2152612954378128</v>
       </c>
       <c r="D51" t="n">
-        <v>0.001608867930215779</v>
+        <v>7.038264159578422e-05</v>
       </c>
       <c r="E51" t="n">
-        <v>0.001608867930215779</v>
+        <v>7.038264159578422e-05</v>
       </c>
       <c r="F51" t="n">
         <v>0.1984580726855477</v>
       </c>
       <c r="G51" t="n">
-        <v>0.208402082324028</v>
+        <v>0.2035891860723495</v>
       </c>
       <c r="H51" t="n">
-        <v>0.009944009638480328</v>
+        <v>0.005131113386801861</v>
       </c>
       <c r="I51" t="n">
-        <v>0.009944009638480328</v>
+        <v>0.005131113386801861</v>
       </c>
       <c r="J51" t="n">
         <v>0.282220528842802</v>
       </c>
       <c r="K51" t="n">
-        <v>0.2888047099113464</v>
+        <v>0.2875147461891174</v>
       </c>
       <c r="L51" t="n">
-        <v>0.00658418106854447</v>
+        <v>0.005294217346315466</v>
       </c>
       <c r="M51" t="n">
-        <v>0.00658418106854447</v>
+        <v>0.005294217346315466</v>
       </c>
     </row>
     <row r="52">
@@ -2558,37 +2558,37 @@
         <v>0.2180199940037937</v>
       </c>
       <c r="C52" t="n">
-        <v>0.2175414562225342</v>
+        <v>0.2156973779201508</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.0004785377812595026</v>
+        <v>-0.002322616083642925</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0004785377812595026</v>
+        <v>0.002322616083642925</v>
       </c>
       <c r="F52" t="n">
         <v>0.2007671415105997</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2091318219900131</v>
+        <v>0.2039306461811066</v>
       </c>
       <c r="H52" t="n">
-        <v>0.008364680479413439</v>
+        <v>0.003163504670506884</v>
       </c>
       <c r="I52" t="n">
-        <v>0.008364680479413439</v>
+        <v>0.003163504670506884</v>
       </c>
       <c r="J52" t="n">
         <v>0.2828211791255217</v>
       </c>
       <c r="K52" t="n">
-        <v>0.2881776988506317</v>
+        <v>0.2868834435939789</v>
       </c>
       <c r="L52" t="n">
-        <v>0.005356519725110032</v>
+        <v>0.0040622644684572</v>
       </c>
       <c r="M52" t="n">
-        <v>0.005356519725110032</v>
+        <v>0.0040622644684572</v>
       </c>
     </row>
     <row r="53">
@@ -2599,37 +2599,37 @@
         <v>0.218841388212077</v>
       </c>
       <c r="C53" t="n">
-        <v>0.2183240056037903</v>
+        <v>0.216221421957016</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.0005173826082867095</v>
+        <v>-0.002619966255061001</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0005173826082867095</v>
+        <v>0.002619966255061001</v>
       </c>
       <c r="F53" t="n">
         <v>0.202367804684991</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2098871171474457</v>
+        <v>0.2043242007493973</v>
       </c>
       <c r="H53" t="n">
-        <v>0.007519312462454658</v>
+        <v>0.001956396064406257</v>
       </c>
       <c r="I53" t="n">
-        <v>0.007519312462454658</v>
+        <v>0.001956396064406257</v>
       </c>
       <c r="J53" t="n">
         <v>0.2867743387333037</v>
       </c>
       <c r="K53" t="n">
-        <v>0.2875635027885437</v>
+        <v>0.2863090932369232</v>
       </c>
       <c r="L53" t="n">
-        <v>0.0007891640552400436</v>
+        <v>-0.0004652454963804398</v>
       </c>
       <c r="M53" t="n">
-        <v>0.0007891640552400436</v>
+        <v>0.0004652454963804398</v>
       </c>
     </row>
     <row r="54">
@@ -2640,37 +2640,37 @@
         <v>0.214825189258443</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2191121876239777</v>
+        <v>0.2169451713562012</v>
       </c>
       <c r="D54" t="n">
-        <v>0.004286998365534672</v>
+        <v>0.002119982097758183</v>
       </c>
       <c r="E54" t="n">
-        <v>0.004286998365534672</v>
+        <v>0.002119982097758183</v>
       </c>
       <c r="F54" t="n">
         <v>0.200124860140475</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2105886340141296</v>
+        <v>0.2046893239021301</v>
       </c>
       <c r="H54" t="n">
-        <v>0.01046377387365463</v>
+        <v>0.004564463761655119</v>
       </c>
       <c r="I54" t="n">
-        <v>0.01046377387365463</v>
+        <v>0.004564463761655119</v>
       </c>
       <c r="J54" t="n">
         <v>0.2887732703984323</v>
       </c>
       <c r="K54" t="n">
-        <v>0.2870968282222748</v>
+        <v>0.2859874665737152</v>
       </c>
       <c r="L54" t="n">
-        <v>-0.001676442176157533</v>
+        <v>-0.002785803824717104</v>
       </c>
       <c r="M54" t="n">
-        <v>0.001676442176157533</v>
+        <v>0.002785803824717104</v>
       </c>
     </row>
     <row r="55">
@@ -2681,37 +2681,37 @@
         <v>0.2142327244219527</v>
       </c>
       <c r="C55" t="n">
-        <v>0.2195595353841782</v>
+        <v>0.2174668610095978</v>
       </c>
       <c r="D55" t="n">
-        <v>0.005326810962225509</v>
+        <v>0.003234136587645126</v>
       </c>
       <c r="E55" t="n">
-        <v>0.005326810962225509</v>
+        <v>0.003234136587645126</v>
       </c>
       <c r="F55" t="n">
         <v>0.200261270860225</v>
       </c>
       <c r="G55" t="n">
-        <v>0.2109690010547638</v>
+        <v>0.2049608081579208</v>
       </c>
       <c r="H55" t="n">
-        <v>0.01070773019453877</v>
+        <v>0.004699537297695816</v>
       </c>
       <c r="I55" t="n">
-        <v>0.01070773019453877</v>
+        <v>0.004699537297695816</v>
       </c>
       <c r="J55" t="n">
         <v>0.290470138414101</v>
       </c>
       <c r="K55" t="n">
-        <v>0.2869191467761993</v>
+        <v>0.2859309613704681</v>
       </c>
       <c r="L55" t="n">
-        <v>-0.003550991637901679</v>
+        <v>-0.00453917704363288</v>
       </c>
       <c r="M55" t="n">
-        <v>0.003550991637901679</v>
+        <v>0.00453917704363288</v>
       </c>
     </row>
     <row r="56">
@@ -2722,37 +2722,37 @@
         <v>0.211510146683006</v>
       </c>
       <c r="C56" t="n">
-        <v>0.2198218405246735</v>
+        <v>0.2178509533405304</v>
       </c>
       <c r="D56" t="n">
-        <v>0.008311693841667439</v>
+        <v>0.006340806657524373</v>
       </c>
       <c r="E56" t="n">
-        <v>0.008311693841667439</v>
+        <v>0.006340806657524373</v>
       </c>
       <c r="F56" t="n">
         <v>0.196527119335654</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2111927270889282</v>
+        <v>0.2051764130592346</v>
       </c>
       <c r="H56" t="n">
-        <v>0.01466560775327422</v>
+        <v>0.008649293723580614</v>
       </c>
       <c r="I56" t="n">
-        <v>0.01466560775327422</v>
+        <v>0.008649293723580614</v>
       </c>
       <c r="J56" t="n">
         <v>0.293509813200369</v>
       </c>
       <c r="K56" t="n">
-        <v>0.2869620323181152</v>
+        <v>0.2860428690910339</v>
       </c>
       <c r="L56" t="n">
-        <v>-0.006547780882253773</v>
+        <v>-0.007466944109335072</v>
       </c>
       <c r="M56" t="n">
-        <v>0.006547780882253773</v>
+        <v>0.007466944109335072</v>
       </c>
     </row>
     <row r="57">
@@ -2763,37 +2763,37 @@
         <v>0.214575209786125</v>
       </c>
       <c r="C57" t="n">
-        <v>0.2197722345590591</v>
+        <v>0.2179487645626068</v>
       </c>
       <c r="D57" t="n">
-        <v>0.005197024772934128</v>
+        <v>0.003373554776481796</v>
       </c>
       <c r="E57" t="n">
-        <v>0.005197024772934128</v>
+        <v>0.003373554776481796</v>
       </c>
       <c r="F57" t="n">
         <v>0.198098841749791</v>
       </c>
       <c r="G57" t="n">
-        <v>0.211113229393959</v>
+        <v>0.2052474319934845</v>
       </c>
       <c r="H57" t="n">
-        <v>0.01301438764416807</v>
+        <v>0.00714859024369352</v>
       </c>
       <c r="I57" t="n">
-        <v>0.01301438764416807</v>
+        <v>0.00714859024369352</v>
       </c>
       <c r="J57" t="n">
         <v>0.2928223296567403</v>
       </c>
       <c r="K57" t="n">
-        <v>0.2873064577579498</v>
+        <v>0.2863783240318298</v>
       </c>
       <c r="L57" t="n">
-        <v>-0.005515871898790492</v>
+        <v>-0.006444005624910487</v>
       </c>
       <c r="M57" t="n">
-        <v>0.005515871898790492</v>
+        <v>0.006444005624910487</v>
       </c>
     </row>
     <row r="58">
@@ -2804,37 +2804,37 @@
         <v>0.223719990614258</v>
       </c>
       <c r="C58" t="n">
-        <v>0.2197086215019226</v>
+        <v>0.2180131673812866</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.004011369112335433</v>
+        <v>-0.00570682323297142</v>
       </c>
       <c r="E58" t="n">
-        <v>0.004011369112335433</v>
+        <v>0.00570682323297142</v>
       </c>
       <c r="F58" t="n">
         <v>0.2053124087502493</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2110573500394821</v>
+        <v>0.2053223103284836</v>
       </c>
       <c r="H58" t="n">
-        <v>0.00574494128923278</v>
+        <v>9.901578234244868e-06</v>
       </c>
       <c r="I58" t="n">
-        <v>0.00574494128923278</v>
+        <v>9.901578234244868e-06</v>
       </c>
       <c r="J58" t="n">
         <v>0.2991796884544833</v>
       </c>
       <c r="K58" t="n">
-        <v>0.2878205180168152</v>
+        <v>0.2866918444633484</v>
       </c>
       <c r="L58" t="n">
-        <v>-0.01135917043766815</v>
+        <v>-0.01248784399113495</v>
       </c>
       <c r="M58" t="n">
-        <v>0.01135917043766815</v>
+        <v>0.01248784399113495</v>
       </c>
     </row>
     <row r="59">
@@ -2845,37 +2845,37 @@
         <v>0.2411653539166033</v>
       </c>
       <c r="C59" t="n">
-        <v>0.2199525833129883</v>
+        <v>0.2183367758989334</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.02121277060361507</v>
+        <v>-0.02282857801766994</v>
       </c>
       <c r="E59" t="n">
-        <v>0.02121277060361507</v>
+        <v>0.02282857801766994</v>
       </c>
       <c r="F59" t="n">
         <v>0.2206260335041823</v>
       </c>
       <c r="G59" t="n">
-        <v>0.2113445699214935</v>
+        <v>0.2056868076324463</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.009281463582688776</v>
+        <v>-0.01493922587173602</v>
       </c>
       <c r="I59" t="n">
-        <v>0.009281463582688776</v>
+        <v>0.01493922587173602</v>
       </c>
       <c r="J59" t="n">
         <v>0.3003931807571103</v>
       </c>
       <c r="K59" t="n">
-        <v>0.2885369062423706</v>
+        <v>0.2871800065040588</v>
       </c>
       <c r="L59" t="n">
-        <v>-0.0118562745147397</v>
+        <v>-0.01321317425305146</v>
       </c>
       <c r="M59" t="n">
-        <v>0.0118562745147397</v>
+        <v>0.01321317425305146</v>
       </c>
     </row>
     <row r="60">
@@ -2886,37 +2886,37 @@
         <v>0.2608190144570524</v>
       </c>
       <c r="C60" t="n">
-        <v>0.2211650609970093</v>
+        <v>0.2196820676326752</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.03965395346004308</v>
+        <v>-0.04113694682437719</v>
       </c>
       <c r="E60" t="n">
-        <v>0.03965395346004308</v>
+        <v>0.04113694682437719</v>
       </c>
       <c r="F60" t="n">
         <v>0.2391368274589634</v>
       </c>
       <c r="G60" t="n">
-        <v>0.2126676142215729</v>
+        <v>0.2067922949790955</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.02646921323739049</v>
+        <v>-0.0323445324798679</v>
       </c>
       <c r="I60" t="n">
-        <v>0.02646921323739049</v>
+        <v>0.0323445324798679</v>
       </c>
       <c r="J60" t="n">
         <v>0.304178393110156</v>
       </c>
       <c r="K60" t="n">
-        <v>0.2891193032264709</v>
+        <v>0.2874330878257751</v>
       </c>
       <c r="L60" t="n">
-        <v>-0.0150590898836851</v>
+        <v>-0.0167453052843809</v>
       </c>
       <c r="M60" t="n">
-        <v>0.0150590898836851</v>
+        <v>0.0167453052843809</v>
       </c>
     </row>
     <row r="61">
@@ -2927,37 +2927,37 @@
         <v>0.2762794392028811</v>
       </c>
       <c r="C61" t="n">
-        <v>0.2238018661737442</v>
+        <v>0.2225959300994873</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.05247757302913686</v>
+        <v>-0.05368350910339376</v>
       </c>
       <c r="E61" t="n">
-        <v>0.05247757302913686</v>
+        <v>0.05368350910339376</v>
       </c>
       <c r="F61" t="n">
         <v>0.2546357239925003</v>
       </c>
       <c r="G61" t="n">
-        <v>0.2154804617166519</v>
+        <v>0.2089414894580841</v>
       </c>
       <c r="H61" t="n">
-        <v>-0.03915526227584842</v>
+        <v>-0.04569423453441623</v>
       </c>
       <c r="I61" t="n">
-        <v>0.03915526227584842</v>
+        <v>0.04569423453441623</v>
       </c>
       <c r="J61" t="n">
         <v>0.30176542946254</v>
       </c>
       <c r="K61" t="n">
-        <v>0.2893120944499969</v>
+        <v>0.2872163355350494</v>
       </c>
       <c r="L61" t="n">
-        <v>-0.01245333501254303</v>
+        <v>-0.01454909392749054</v>
       </c>
       <c r="M61" t="n">
-        <v>0.01245333501254303</v>
+        <v>0.01454909392749054</v>
       </c>
     </row>
     <row r="62">
@@ -2968,37 +2968,37 @@
         <v>0.2906584385024787</v>
       </c>
       <c r="C62" t="n">
-        <v>0.2277807742357254</v>
+        <v>0.227154940366745</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.06287766426675329</v>
+        <v>-0.06350349813573369</v>
       </c>
       <c r="E62" t="n">
-        <v>0.06287766426675329</v>
+        <v>0.06350349813573369</v>
       </c>
       <c r="F62" t="n">
         <v>0.2698691169047527</v>
       </c>
       <c r="G62" t="n">
-        <v>0.2197243869304657</v>
+        <v>0.2120580077171326</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.05014472997428698</v>
+        <v>-0.05781110918762011</v>
       </c>
       <c r="I62" t="n">
-        <v>0.05014472997428698</v>
+        <v>0.05781110918762011</v>
       </c>
       <c r="J62" t="n">
         <v>0.3018521079604387</v>
       </c>
       <c r="K62" t="n">
-        <v>0.2886601984500885</v>
+        <v>0.2861296534538269</v>
       </c>
       <c r="L62" t="n">
-        <v>-0.01319190951035015</v>
+        <v>-0.01572245450661175</v>
       </c>
       <c r="M62" t="n">
-        <v>0.01319190951035015</v>
+        <v>0.01572245450661175</v>
       </c>
     </row>
     <row r="63">
@@ -3009,37 +3009,37 @@
         <v>0.3034959202488147</v>
       </c>
       <c r="C63" t="n">
-        <v>0.2328571230173111</v>
+        <v>0.2331366539001465</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.07063879723150362</v>
+        <v>-0.07035926634866824</v>
       </c>
       <c r="E63" t="n">
-        <v>0.07063879723150362</v>
+        <v>0.07035926634866824</v>
       </c>
       <c r="F63" t="n">
         <v>0.2859905112202073</v>
       </c>
       <c r="G63" t="n">
-        <v>0.2251467853784561</v>
+        <v>0.215989738702774</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.06084372584175118</v>
+        <v>-0.07000077251743325</v>
       </c>
       <c r="I63" t="n">
-        <v>0.06084372584175118</v>
+        <v>0.07000077251743325</v>
       </c>
       <c r="J63" t="n">
         <v>0.2930568621702513</v>
       </c>
       <c r="K63" t="n">
-        <v>0.2872459292411804</v>
+        <v>0.2840979993343353</v>
       </c>
       <c r="L63" t="n">
-        <v>-0.005810932929070922</v>
+        <v>-0.008958862835916015</v>
       </c>
       <c r="M63" t="n">
-        <v>0.005810932929070922</v>
+        <v>0.008958862835916015</v>
       </c>
     </row>
     <row r="64">
@@ -3050,37 +3050,37 @@
         <v>0.3145761536648971</v>
       </c>
       <c r="C64" t="n">
-        <v>0.2386752665042877</v>
+        <v>0.2399244010448456</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.07590088716060933</v>
+        <v>-0.07465175262005147</v>
       </c>
       <c r="E64" t="n">
-        <v>0.07590088716060933</v>
+        <v>0.07465175262005147</v>
       </c>
       <c r="F64" t="n">
         <v>0.2947722268919084</v>
       </c>
       <c r="G64" t="n">
-        <v>0.2315087169408798</v>
+        <v>0.2212528735399246</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.06326350995102853</v>
+        <v>-0.07351935335198373</v>
       </c>
       <c r="I64" t="n">
-        <v>0.06326350995102853</v>
+        <v>0.07351935335198373</v>
       </c>
       <c r="J64" t="n">
         <v>0.2692517811839587</v>
       </c>
       <c r="K64" t="n">
-        <v>0.2846609055995941</v>
+        <v>0.2808658480644226</v>
       </c>
       <c r="L64" t="n">
-        <v>0.01540912441563541</v>
+        <v>0.0116140668804639</v>
       </c>
       <c r="M64" t="n">
-        <v>0.01540912441563541</v>
+        <v>0.0116140668804639</v>
       </c>
     </row>
     <row r="65">
@@ -3091,37 +3091,37 @@
         <v>0.3348610710927744</v>
       </c>
       <c r="C65" t="n">
-        <v>0.245188295841217</v>
+        <v>0.2473633140325546</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.08967277525155737</v>
+        <v>-0.08749775706021978</v>
       </c>
       <c r="E65" t="n">
-        <v>0.08967277525155737</v>
+        <v>0.08749775706021978</v>
       </c>
       <c r="F65" t="n">
         <v>0.30710189064796</v>
       </c>
       <c r="G65" t="n">
-        <v>0.2378451228141785</v>
+        <v>0.2269610464572906</v>
       </c>
       <c r="H65" t="n">
-        <v>-0.06925676783378149</v>
+        <v>-0.0801408441906693</v>
       </c>
       <c r="I65" t="n">
-        <v>0.06925676783378149</v>
+        <v>0.0801408441906693</v>
       </c>
       <c r="J65" t="n">
         <v>0.2478737761932014</v>
       </c>
       <c r="K65" t="n">
-        <v>0.2802554368972778</v>
+        <v>0.2756629288196564</v>
       </c>
       <c r="L65" t="n">
-        <v>0.03238166070407647</v>
+        <v>0.02778915262645501</v>
       </c>
       <c r="M65" t="n">
-        <v>0.03238166070407647</v>
+        <v>0.02778915262645501</v>
       </c>
     </row>
     <row r="66">
@@ -3132,37 +3132,37 @@
         <v>0.3491582017163167</v>
       </c>
       <c r="C66" t="n">
-        <v>0.2518435716629028</v>
+        <v>0.2546220123767853</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.09731463005341384</v>
+        <v>-0.0945361893395314</v>
       </c>
       <c r="E66" t="n">
-        <v>0.09731463005341384</v>
+        <v>0.0945361893395314</v>
       </c>
       <c r="F66" t="n">
         <v>0.3088283618459047</v>
       </c>
       <c r="G66" t="n">
-        <v>0.2441605925559998</v>
+        <v>0.2327315211296082</v>
       </c>
       <c r="H66" t="n">
-        <v>-0.06466776928990492</v>
+        <v>-0.07609684071629652</v>
       </c>
       <c r="I66" t="n">
-        <v>0.06466776928990492</v>
+        <v>0.07609684071629652</v>
       </c>
       <c r="J66" t="n">
         <v>0.231366599682626</v>
       </c>
       <c r="K66" t="n">
-        <v>0.2749351859092712</v>
+        <v>0.269499659538269</v>
       </c>
       <c r="L66" t="n">
-        <v>0.04356858622664525</v>
+        <v>0.03813305985564305</v>
       </c>
       <c r="M66" t="n">
-        <v>0.04356858622664525</v>
+        <v>0.03813305985564305</v>
       </c>
     </row>
     <row r="67">
@@ -3173,37 +3173,37 @@
         <v>0.3502013580787004</v>
       </c>
       <c r="C67" t="n">
-        <v>0.2569039463996887</v>
+        <v>0.2606069445610046</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.09329741167901168</v>
+        <v>-0.08959441351769576</v>
       </c>
       <c r="E67" t="n">
-        <v>0.09329741167901168</v>
+        <v>0.08959441351769576</v>
       </c>
       <c r="F67" t="n">
         <v>0.3068407476156046</v>
       </c>
       <c r="G67" t="n">
-        <v>0.2506293952465057</v>
+        <v>0.2371773719787598</v>
       </c>
       <c r="H67" t="n">
-        <v>-0.05621135236909891</v>
+        <v>-0.06966337563684488</v>
       </c>
       <c r="I67" t="n">
-        <v>0.05621135236909891</v>
+        <v>0.06966337563684488</v>
       </c>
       <c r="J67" t="n">
         <v>0.2304818170513103</v>
       </c>
       <c r="K67" t="n">
-        <v>0.2706049084663391</v>
+        <v>0.263148695230484</v>
       </c>
       <c r="L67" t="n">
-        <v>0.04012309141502879</v>
+        <v>0.03266687817917369</v>
       </c>
       <c r="M67" t="n">
-        <v>0.04012309141502879</v>
+        <v>0.03266687817917369</v>
       </c>
     </row>
     <row r="68">
@@ -3214,37 +3214,37 @@
         <v>0.32090251008221</v>
       </c>
       <c r="C68" t="n">
-        <v>0.2605880796909332</v>
+        <v>0.2660937011241913</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.06031443039127682</v>
+        <v>-0.05480880895801876</v>
       </c>
       <c r="E68" t="n">
-        <v>0.06031443039127682</v>
+        <v>0.05480880895801876</v>
       </c>
       <c r="F68" t="n">
         <v>0.2840668057556613</v>
       </c>
       <c r="G68" t="n">
-        <v>0.2557134628295898</v>
+        <v>0.2404603958129883</v>
       </c>
       <c r="H68" t="n">
-        <v>-0.02835334292607145</v>
+        <v>-0.04360640994267301</v>
       </c>
       <c r="I68" t="n">
-        <v>0.02835334292607145</v>
+        <v>0.04360640994267301</v>
       </c>
       <c r="J68" t="n">
         <v>0.2182019152905437</v>
       </c>
       <c r="K68" t="n">
-        <v>0.2673843801021576</v>
+        <v>0.2608881294727325</v>
       </c>
       <c r="L68" t="n">
-        <v>0.04918246481161392</v>
+        <v>0.04268621418218888</v>
       </c>
       <c r="M68" t="n">
-        <v>0.04918246481161392</v>
+        <v>0.04268621418218888</v>
       </c>
     </row>
     <row r="69">
@@ -3255,37 +3255,37 @@
         <v>0.2895049021744476</v>
       </c>
       <c r="C69" t="n">
-        <v>0.2625203430652618</v>
+        <v>0.2693939507007599</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.02698455910918579</v>
+        <v>-0.02011095147368774</v>
       </c>
       <c r="E69" t="n">
-        <v>0.02698455910918579</v>
+        <v>0.02011095147368774</v>
       </c>
       <c r="F69" t="n">
         <v>0.2600225751928724</v>
       </c>
       <c r="G69" t="n">
-        <v>0.2576382756233215</v>
+        <v>0.241531565785408</v>
       </c>
       <c r="H69" t="n">
-        <v>-0.00238429956955083</v>
+        <v>-0.01849100940746434</v>
       </c>
       <c r="I69" t="n">
-        <v>0.00238429956955083</v>
+        <v>0.01849100940746434</v>
       </c>
       <c r="J69" t="n">
         <v>0.2140880376000146</v>
       </c>
       <c r="K69" t="n">
-        <v>0.2649528682231903</v>
+        <v>0.2597391903400421</v>
       </c>
       <c r="L69" t="n">
-        <v>0.05086483062317568</v>
+        <v>0.04565115274002748</v>
       </c>
       <c r="M69" t="n">
-        <v>0.05086483062317568</v>
+        <v>0.04565115274002748</v>
       </c>
     </row>
     <row r="70">
@@ -3296,37 +3296,37 @@
         <v>0.268465296070206</v>
       </c>
       <c r="C70" t="n">
-        <v>0.2623676657676697</v>
+        <v>0.2695719301700592</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.00609763030253635</v>
+        <v>0.001106634099853177</v>
       </c>
       <c r="E70" t="n">
-        <v>0.00609763030253635</v>
+        <v>0.001106634099853177</v>
       </c>
       <c r="F70" t="n">
         <v>0.2453703081905406</v>
       </c>
       <c r="G70" t="n">
-        <v>0.2570910155773163</v>
+        <v>0.2403661459684372</v>
       </c>
       <c r="H70" t="n">
-        <v>0.01172070738677564</v>
+        <v>-0.005004162222103453</v>
       </c>
       <c r="I70" t="n">
-        <v>0.01172070738677564</v>
+        <v>0.005004162222103453</v>
       </c>
       <c r="J70" t="n">
         <v>0.213855411118472</v>
       </c>
       <c r="K70" t="n">
-        <v>0.2628279328346252</v>
+        <v>0.2584075331687927</v>
       </c>
       <c r="L70" t="n">
-        <v>0.04897252171615327</v>
+        <v>0.04455212205032075</v>
       </c>
       <c r="M70" t="n">
-        <v>0.04897252171615327</v>
+        <v>0.04455212205032075</v>
       </c>
     </row>
     <row r="71">
@@ -3337,37 +3337,37 @@
         <v>0.2607771941673123</v>
       </c>
       <c r="C71" t="n">
-        <v>0.2601982355117798</v>
+        <v>0.266904354095459</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.0005789586555325354</v>
+        <v>0.006127159928146664</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0005789586555325354</v>
+        <v>0.006127159928146664</v>
       </c>
       <c r="F71" t="n">
         <v>0.2415597409391703</v>
       </c>
       <c r="G71" t="n">
-        <v>0.2544146180152893</v>
+        <v>0.2374598532915115</v>
       </c>
       <c r="H71" t="n">
-        <v>0.01285487707611899</v>
+        <v>-0.004099887647658784</v>
       </c>
       <c r="I71" t="n">
-        <v>0.01285487707611899</v>
+        <v>0.004099887647658784</v>
       </c>
       <c r="J71" t="n">
         <v>0.215918528299899</v>
       </c>
       <c r="K71" t="n">
-        <v>0.2610211074352264</v>
+        <v>0.2570726871490479</v>
       </c>
       <c r="L71" t="n">
-        <v>0.04510257913532745</v>
+        <v>0.04115415884914886</v>
       </c>
       <c r="M71" t="n">
-        <v>0.04510257913532745</v>
+        <v>0.04115415884914886</v>
       </c>
     </row>
     <row r="72">
@@ -3378,37 +3378,37 @@
         <v>0.25861514833906</v>
       </c>
       <c r="C72" t="n">
-        <v>0.2569859325885773</v>
+        <v>0.2625848948955536</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.001629215750482749</v>
+        <v>0.00396974655649357</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001629215750482749</v>
+        <v>0.00396974655649357</v>
       </c>
       <c r="F72" t="n">
         <v>0.2426575210418427</v>
       </c>
       <c r="G72" t="n">
-        <v>0.2506809830665588</v>
+        <v>0.2335672676563263</v>
       </c>
       <c r="H72" t="n">
-        <v>0.008023462024716183</v>
+        <v>-0.009090253385516361</v>
       </c>
       <c r="I72" t="n">
-        <v>0.008023462024716183</v>
+        <v>0.009090253385516361</v>
       </c>
       <c r="J72" t="n">
         <v>0.216822263321521</v>
       </c>
       <c r="K72" t="n">
-        <v>0.2597386538982391</v>
+        <v>0.2558330893516541</v>
       </c>
       <c r="L72" t="n">
-        <v>0.04291639057671812</v>
+        <v>0.03901082603013303</v>
       </c>
       <c r="M72" t="n">
-        <v>0.04291639057671812</v>
+        <v>0.03901082603013303</v>
       </c>
     </row>
     <row r="73">
@@ -3419,37 +3419,37 @@
         <v>0.2506198477454347</v>
       </c>
       <c r="C73" t="n">
-        <v>0.2535183429718018</v>
+        <v>0.2576252222061157</v>
       </c>
       <c r="D73" t="n">
-        <v>0.002898495226367093</v>
+        <v>0.007005374460681058</v>
       </c>
       <c r="E73" t="n">
-        <v>0.002898495226367093</v>
+        <v>0.007005374460681058</v>
       </c>
       <c r="F73" t="n">
         <v>0.2342001328281367</v>
       </c>
       <c r="G73" t="n">
-        <v>0.2466342896223068</v>
+        <v>0.2294274121522903</v>
       </c>
       <c r="H73" t="n">
-        <v>0.01243415679417015</v>
+        <v>-0.004772720675846331</v>
       </c>
       <c r="I73" t="n">
-        <v>0.01243415679417015</v>
+        <v>0.004772720675846331</v>
       </c>
       <c r="J73" t="n">
         <v>0.2195424822560084</v>
       </c>
       <c r="K73" t="n">
-        <v>0.2590190768241882</v>
+        <v>0.2548635005950928</v>
       </c>
       <c r="L73" t="n">
-        <v>0.03947659456817987</v>
+        <v>0.03532101833908441</v>
       </c>
       <c r="M73" t="n">
-        <v>0.03947659456817987</v>
+        <v>0.03532101833908441</v>
       </c>
     </row>
     <row r="74">
@@ -3460,37 +3460,37 @@
         <v>0.2432524562722977</v>
       </c>
       <c r="C74" t="n">
-        <v>0.2499156594276428</v>
+        <v>0.2522782981395721</v>
       </c>
       <c r="D74" t="n">
-        <v>0.00666320315534516</v>
+        <v>0.009025841867274481</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00666320315534516</v>
+        <v>0.009025841867274481</v>
       </c>
       <c r="F74" t="n">
         <v>0.226066718825007</v>
       </c>
       <c r="G74" t="n">
-        <v>0.2424141615629196</v>
+        <v>0.2254472970962524</v>
       </c>
       <c r="H74" t="n">
-        <v>0.01634744273791258</v>
+        <v>-0.0006194217287545933</v>
       </c>
       <c r="I74" t="n">
-        <v>0.01634744273791258</v>
+        <v>0.0006194217287545933</v>
       </c>
       <c r="J74" t="n">
         <v>0.2280612725020577</v>
       </c>
       <c r="K74" t="n">
-        <v>0.2587737441062927</v>
+        <v>0.2542697191238403</v>
       </c>
       <c r="L74" t="n">
-        <v>0.03071247160423507</v>
+        <v>0.02620844662178268</v>
       </c>
       <c r="M74" t="n">
-        <v>0.03071247160423507</v>
+        <v>0.02620844662178268</v>
       </c>
     </row>
     <row r="75">
@@ -3501,37 +3501,37 @@
         <v>0.2338150838726734</v>
       </c>
       <c r="C75" t="n">
-        <v>0.2461394816637039</v>
+        <v>0.2470091730356216</v>
       </c>
       <c r="D75" t="n">
-        <v>0.01232439779103056</v>
+        <v>0.01319408916294829</v>
       </c>
       <c r="E75" t="n">
-        <v>0.01232439779103056</v>
+        <v>0.01319408916294829</v>
       </c>
       <c r="F75" t="n">
         <v>0.2158239607117997</v>
       </c>
       <c r="G75" t="n">
-        <v>0.238480731844902</v>
+        <v>0.2218727320432663</v>
       </c>
       <c r="H75" t="n">
-        <v>0.02265677113310235</v>
+        <v>0.006048771331466612</v>
       </c>
       <c r="I75" t="n">
-        <v>0.02265677113310235</v>
+        <v>0.006048771331466612</v>
       </c>
       <c r="J75" t="n">
         <v>0.238630447073526</v>
       </c>
       <c r="K75" t="n">
-        <v>0.2591295540332794</v>
+        <v>0.2539748251438141</v>
       </c>
       <c r="L75" t="n">
-        <v>0.02049910695975343</v>
+        <v>0.0153443780702881</v>
       </c>
       <c r="M75" t="n">
-        <v>0.02049910695975343</v>
+        <v>0.0153443780702881</v>
       </c>
     </row>
     <row r="76">
@@ -3542,37 +3542,37 @@
         <v>0.22922836348017</v>
       </c>
       <c r="C76" t="n">
-        <v>0.2423224151134491</v>
+        <v>0.242280125617981</v>
       </c>
       <c r="D76" t="n">
-        <v>0.01309405163327906</v>
+        <v>0.01305176213781092</v>
       </c>
       <c r="E76" t="n">
-        <v>0.01309405163327906</v>
+        <v>0.01305176213781092</v>
       </c>
       <c r="F76" t="n">
         <v>0.2110783454149023</v>
       </c>
       <c r="G76" t="n">
-        <v>0.234505370259285</v>
+        <v>0.2186319380998611</v>
       </c>
       <c r="H76" t="n">
-        <v>0.02342702484438264</v>
+        <v>0.00755359268495881</v>
       </c>
       <c r="I76" t="n">
-        <v>0.02342702484438264</v>
+        <v>0.00755359268495881</v>
       </c>
       <c r="J76" t="n">
         <v>0.245864992427809</v>
       </c>
       <c r="K76" t="n">
-        <v>0.2599004507064819</v>
+        <v>0.2546253502368927</v>
       </c>
       <c r="L76" t="n">
-        <v>0.01403545827867295</v>
+        <v>0.008760357809083713</v>
       </c>
       <c r="M76" t="n">
-        <v>0.01403545827867295</v>
+        <v>0.008760357809083713</v>
       </c>
     </row>
     <row r="77">
@@ -3583,37 +3583,37 @@
         <v>0.2313878595499783</v>
       </c>
       <c r="C77" t="n">
-        <v>0.2386900633573532</v>
+        <v>0.2382404953241348</v>
       </c>
       <c r="D77" t="n">
-        <v>0.007302203807374869</v>
+        <v>0.006852635774156485</v>
       </c>
       <c r="E77" t="n">
-        <v>0.007302203807374869</v>
+        <v>0.006852635774156485</v>
       </c>
       <c r="F77" t="n">
         <v>0.212551157730563</v>
       </c>
       <c r="G77" t="n">
-        <v>0.2307345569133759</v>
+        <v>0.215976357460022</v>
       </c>
       <c r="H77" t="n">
-        <v>0.01818339918281286</v>
+        <v>0.003425199729458983</v>
       </c>
       <c r="I77" t="n">
-        <v>0.01818339918281286</v>
+        <v>0.003425199729458983</v>
       </c>
       <c r="J77" t="n">
         <v>0.2557148716039554</v>
       </c>
       <c r="K77" t="n">
-        <v>0.2609629034996033</v>
+        <v>0.2563413083553314</v>
       </c>
       <c r="L77" t="n">
-        <v>0.005248031895647876</v>
+        <v>0.0006264367513760249</v>
       </c>
       <c r="M77" t="n">
-        <v>0.005248031895647876</v>
+        <v>0.0006264367513760249</v>
       </c>
     </row>
     <row r="78">
@@ -3624,37 +3624,37 @@
         <v>0.237731294806062</v>
       </c>
       <c r="C78" t="n">
-        <v>0.23561130464077</v>
+        <v>0.2353142201900482</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.002119990165292074</v>
+        <v>-0.002417074616013815</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002119990165292074</v>
+        <v>0.002417074616013815</v>
       </c>
       <c r="F78" t="n">
         <v>0.2179493229205927</v>
       </c>
       <c r="G78" t="n">
-        <v>0.2275940477848053</v>
+        <v>0.2133221328258514</v>
       </c>
       <c r="H78" t="n">
-        <v>0.009644724864212639</v>
+        <v>-0.004627190094741218</v>
       </c>
       <c r="I78" t="n">
-        <v>0.009644724864212639</v>
+        <v>0.004627190094741218</v>
       </c>
       <c r="J78" t="n">
         <v>0.2504361735672423</v>
       </c>
       <c r="K78" t="n">
-        <v>0.2623305916786194</v>
+        <v>0.2594411373138428</v>
       </c>
       <c r="L78" t="n">
-        <v>0.01189441811137704</v>
+        <v>0.009004963746600425</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01189441811137704</v>
+        <v>0.009004963746600425</v>
       </c>
     </row>
     <row r="79">
@@ -3665,37 +3665,37 @@
         <v>0.2415441855604054</v>
       </c>
       <c r="C79" t="n">
-        <v>0.2335061430931091</v>
+        <v>0.2335030287504196</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.008038042467296225</v>
+        <v>-0.008041156809985739</v>
       </c>
       <c r="E79" t="n">
-        <v>0.008038042467296225</v>
+        <v>0.008041156809985739</v>
       </c>
       <c r="F79" t="n">
         <v>0.22029666374013</v>
       </c>
       <c r="G79" t="n">
-        <v>0.2252324670553207</v>
+        <v>0.2115038931369781</v>
       </c>
       <c r="H79" t="n">
-        <v>0.004935803315190723</v>
+        <v>-0.008792770603151867</v>
       </c>
       <c r="I79" t="n">
-        <v>0.004935803315190723</v>
+        <v>0.008792770603151867</v>
       </c>
       <c r="J79" t="n">
         <v>0.2492919922106906</v>
       </c>
       <c r="K79" t="n">
-        <v>0.2639707922935486</v>
+        <v>0.2626036405563354</v>
       </c>
       <c r="L79" t="n">
-        <v>0.01467880008285793</v>
+        <v>0.0133116483456448</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01467880008285793</v>
+        <v>0.0133116483456448</v>
       </c>
     </row>
     <row r="80">
@@ -3706,37 +3706,37 @@
         <v>0.2378803748914187</v>
       </c>
       <c r="C80" t="n">
-        <v>0.2324071079492569</v>
+        <v>0.2326453626155853</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.00547326694216177</v>
+        <v>-0.00523501227583334</v>
       </c>
       <c r="E80" t="n">
-        <v>0.00547326694216177</v>
+        <v>0.00523501227583334</v>
       </c>
       <c r="F80" t="n">
         <v>0.215208963281733</v>
       </c>
       <c r="G80" t="n">
-        <v>0.2237570136785507</v>
+        <v>0.2105498909950256</v>
       </c>
       <c r="H80" t="n">
-        <v>0.008548050396817719</v>
+        <v>-0.004659072286707366</v>
       </c>
       <c r="I80" t="n">
-        <v>0.008548050396817719</v>
+        <v>0.004659072286707366</v>
       </c>
       <c r="J80" t="n">
         <v>0.2399217963667027</v>
       </c>
       <c r="K80" t="n">
-        <v>0.2653483748435974</v>
+        <v>0.2647958695888519</v>
       </c>
       <c r="L80" t="n">
-        <v>0.02542657847689475</v>
+        <v>0.02487407322214927</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02542657847689475</v>
+        <v>0.02487407322214927</v>
       </c>
     </row>
     <row r="81">
@@ -3747,37 +3747,37 @@
         <v>0.2344885709047017</v>
       </c>
       <c r="C81" t="n">
-        <v>0.2317260354757309</v>
+        <v>0.2319147735834122</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.002762535428970786</v>
+        <v>-0.002573797321289512</v>
       </c>
       <c r="E81" t="n">
-        <v>0.002762535428970786</v>
+        <v>0.002573797321289512</v>
       </c>
       <c r="F81" t="n">
         <v>0.2116482928738407</v>
       </c>
       <c r="G81" t="n">
-        <v>0.2228370755910873</v>
+        <v>0.2101554274559021</v>
       </c>
       <c r="H81" t="n">
-        <v>0.01118878271724666</v>
+        <v>-0.001492865417938583</v>
       </c>
       <c r="I81" t="n">
-        <v>0.01118878271724666</v>
+        <v>0.001492865417938583</v>
       </c>
       <c r="J81" t="n">
         <v>0.2379900039261433</v>
       </c>
       <c r="K81" t="n">
-        <v>0.2662400901317596</v>
+        <v>0.2660820484161377</v>
       </c>
       <c r="L81" t="n">
-        <v>0.02825008620561631</v>
+        <v>0.02809204448999436</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02825008620561631</v>
+        <v>0.02809204448999436</v>
       </c>
     </row>
     <row r="82">
@@ -3788,37 +3788,37 @@
         <v>0.235407863538262</v>
       </c>
       <c r="C82" t="n">
-        <v>0.2311278730630875</v>
+        <v>0.2309498935937881</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.00427999047517455</v>
+        <v>-0.004457969944473866</v>
       </c>
       <c r="E82" t="n">
-        <v>0.00427999047517455</v>
+        <v>0.004457969944473866</v>
       </c>
       <c r="F82" t="n">
         <v>0.211451595408296</v>
       </c>
       <c r="G82" t="n">
-        <v>0.2220546901226044</v>
+        <v>0.2099706530570984</v>
       </c>
       <c r="H82" t="n">
-        <v>0.0106030947143084</v>
+        <v>-0.001480942351197584</v>
       </c>
       <c r="I82" t="n">
-        <v>0.0106030947143084</v>
+        <v>0.001480942351197584</v>
       </c>
       <c r="J82" t="n">
         <v>0.23277252110303</v>
       </c>
       <c r="K82" t="n">
-        <v>0.2668125629425049</v>
+        <v>0.2670110762119293</v>
       </c>
       <c r="L82" t="n">
-        <v>0.03404004183947487</v>
+        <v>0.03423855510889931</v>
       </c>
       <c r="M82" t="n">
-        <v>0.03404004183947487</v>
+        <v>0.03423855510889931</v>
       </c>
     </row>
     <row r="83">
@@ -3829,37 +3829,37 @@
         <v>0.2374924880826207</v>
       </c>
       <c r="C83" t="n">
-        <v>0.2305560111999512</v>
+        <v>0.2299363911151886</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.00693647688266949</v>
+        <v>-0.007556096967432063</v>
       </c>
       <c r="E83" t="n">
-        <v>0.00693647688266949</v>
+        <v>0.007556096967432063</v>
       </c>
       <c r="F83" t="n">
         <v>0.2133194019172633</v>
       </c>
       <c r="G83" t="n">
-        <v>0.2213220000267029</v>
+        <v>0.2097625583410263</v>
       </c>
       <c r="H83" t="n">
-        <v>0.008002598109439568</v>
+        <v>-0.003556843576237007</v>
       </c>
       <c r="I83" t="n">
-        <v>0.008002598109439568</v>
+        <v>0.003556843576237007</v>
       </c>
       <c r="J83" t="n">
         <v>0.2322599659262153</v>
       </c>
       <c r="K83" t="n">
-        <v>0.2670973539352417</v>
+        <v>0.2675824761390686</v>
       </c>
       <c r="L83" t="n">
-        <v>0.03483738800902636</v>
+        <v>0.03532251021285326</v>
       </c>
       <c r="M83" t="n">
-        <v>0.03483738800902636</v>
+        <v>0.03532251021285326</v>
       </c>
     </row>
     <row r="84">
@@ -3870,37 +3870,37 @@
         <v>0.2413295981215107</v>
       </c>
       <c r="C84" t="n">
-        <v>0.230190172791481</v>
+        <v>0.2292517274618149</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.01113942533002965</v>
+        <v>-0.01207787065969579</v>
       </c>
       <c r="E84" t="n">
-        <v>0.01113942533002965</v>
+        <v>0.01207787065969579</v>
       </c>
       <c r="F84" t="n">
         <v>0.2154258804286577</v>
       </c>
       <c r="G84" t="n">
-        <v>0.220922663807869</v>
+        <v>0.2096182256937027</v>
       </c>
       <c r="H84" t="n">
-        <v>0.005496783379211306</v>
+        <v>-0.005807654734954953</v>
       </c>
       <c r="I84" t="n">
-        <v>0.005496783379211306</v>
+        <v>0.005807654734954953</v>
       </c>
       <c r="J84" t="n">
         <v>0.236034503030367</v>
       </c>
       <c r="K84" t="n">
-        <v>0.2671209871768951</v>
+        <v>0.2676321268081665</v>
       </c>
       <c r="L84" t="n">
-        <v>0.03108648414652815</v>
+        <v>0.03159762377779951</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03108648414652815</v>
+        <v>0.03159762377779951</v>
       </c>
     </row>
     <row r="85">
@@ -3911,37 +3911,37 @@
         <v>0.2386142412509777</v>
       </c>
       <c r="C85" t="n">
-        <v>0.2301285564899445</v>
+        <v>0.2290011048316956</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.008485684761033202</v>
+        <v>-0.009613136419282103</v>
       </c>
       <c r="E85" t="n">
-        <v>0.008485684761033202</v>
+        <v>0.009613136419282103</v>
       </c>
       <c r="F85" t="n">
         <v>0.2121878119748154</v>
       </c>
       <c r="G85" t="n">
-        <v>0.2208683788776398</v>
+        <v>0.209610790014267</v>
       </c>
       <c r="H85" t="n">
-        <v>0.008680566902824399</v>
+        <v>-0.002577021960548403</v>
       </c>
       <c r="I85" t="n">
-        <v>0.008680566902824399</v>
+        <v>0.002577021960548403</v>
       </c>
       <c r="J85" t="n">
         <v>0.2353123249578843</v>
       </c>
       <c r="K85" t="n">
-        <v>0.267010897397995</v>
+        <v>0.267425000667572</v>
       </c>
       <c r="L85" t="n">
-        <v>0.03169857244011065</v>
+        <v>0.03211267570968768</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03169857244011065</v>
+        <v>0.03211267570968768</v>
       </c>
     </row>
     <row r="86">
@@ -3952,37 +3952,37 @@
         <v>0.2460396845663703</v>
       </c>
       <c r="C86" t="n">
-        <v>0.230121374130249</v>
+        <v>0.2289565950632095</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.01591831043612132</v>
+        <v>-0.01708308950316081</v>
       </c>
       <c r="E86" t="n">
-        <v>0.01591831043612132</v>
+        <v>0.01708308950316081</v>
       </c>
       <c r="F86" t="n">
         <v>0.217246472856942</v>
       </c>
       <c r="G86" t="n">
-        <v>0.2208913564682007</v>
+        <v>0.2095131874084473</v>
       </c>
       <c r="H86" t="n">
-        <v>0.00364488361125867</v>
+        <v>-0.007733285448494748</v>
       </c>
       <c r="I86" t="n">
-        <v>0.00364488361125867</v>
+        <v>0.007733285448494748</v>
       </c>
       <c r="J86" t="n">
         <v>0.2397891843289783</v>
       </c>
       <c r="K86" t="n">
-        <v>0.2667261362075806</v>
+        <v>0.2669966518878937</v>
       </c>
       <c r="L86" t="n">
-        <v>0.02693695187860223</v>
+        <v>0.02720746755891534</v>
       </c>
       <c r="M86" t="n">
-        <v>0.02693695187860223</v>
+        <v>0.02720746755891534</v>
       </c>
     </row>
     <row r="87">
@@ -3993,37 +3993,37 @@
         <v>0.24154849321513</v>
       </c>
       <c r="C87" t="n">
-        <v>0.2304028868675232</v>
+        <v>0.2292892932891846</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.01114560634760683</v>
+        <v>-0.01225919992594546</v>
       </c>
       <c r="E87" t="n">
-        <v>0.01114560634760683</v>
+        <v>0.01225919992594546</v>
       </c>
       <c r="F87" t="n">
         <v>0.2102696702064757</v>
       </c>
       <c r="G87" t="n">
-        <v>0.2212514579296112</v>
+        <v>0.2096236050128937</v>
       </c>
       <c r="H87" t="n">
-        <v>0.01098178772313552</v>
+        <v>-0.0006460651935820128</v>
       </c>
       <c r="I87" t="n">
-        <v>0.01098178772313552</v>
+        <v>0.0006460651935820128</v>
       </c>
       <c r="J87" t="n">
         <v>0.2387764738576307</v>
       </c>
       <c r="K87" t="n">
-        <v>0.2664828896522522</v>
+        <v>0.2666096389293671</v>
       </c>
       <c r="L87" t="n">
-        <v>0.02770641579462152</v>
+        <v>0.02783316507173639</v>
       </c>
       <c r="M87" t="n">
-        <v>0.02770641579462152</v>
+        <v>0.02783316507173639</v>
       </c>
     </row>
     <row r="88">
@@ -4034,37 +4034,37 @@
         <v>0.2402607932583244</v>
       </c>
       <c r="C88" t="n">
-        <v>0.2304830700159073</v>
+        <v>0.2294756770133972</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.009777723242417075</v>
+        <v>-0.01078511624492715</v>
       </c>
       <c r="E88" t="n">
-        <v>0.009777723242417075</v>
+        <v>0.01078511624492715</v>
       </c>
       <c r="F88" t="n">
         <v>0.2082368661423093</v>
       </c>
       <c r="G88" t="n">
-        <v>0.221390962600708</v>
+        <v>0.2095905840396881</v>
       </c>
       <c r="H88" t="n">
-        <v>0.01315409645839868</v>
+        <v>0.001353717897378787</v>
       </c>
       <c r="I88" t="n">
-        <v>0.01315409645839868</v>
+        <v>0.001353717897378787</v>
       </c>
       <c r="J88" t="n">
         <v>0.2450224568365203</v>
       </c>
       <c r="K88" t="n">
-        <v>0.2662560343742371</v>
+        <v>0.2664074003696442</v>
       </c>
       <c r="L88" t="n">
-        <v>0.02123357753771674</v>
+        <v>0.02138494353312384</v>
       </c>
       <c r="M88" t="n">
-        <v>0.02123357753771674</v>
+        <v>0.02138494353312384</v>
       </c>
     </row>
     <row r="89">
@@ -4075,37 +4075,37 @@
         <v>0.2337152014158647</v>
       </c>
       <c r="C89" t="n">
-        <v>0.2303774803876877</v>
+        <v>0.2294401228427887</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.003337721028176976</v>
+        <v>-0.004275078573075963</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003337721028176976</v>
+        <v>0.004275078573075963</v>
       </c>
       <c r="F89" t="n">
         <v>0.2017711069373737</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2212730199098587</v>
+        <v>0.2095049917697906</v>
       </c>
       <c r="H89" t="n">
-        <v>0.01950191297248505</v>
+        <v>0.007733884832416993</v>
       </c>
       <c r="I89" t="n">
-        <v>0.01950191297248505</v>
+        <v>0.007733884832416993</v>
       </c>
       <c r="J89" t="n">
         <v>0.2450239230981034</v>
       </c>
       <c r="K89" t="n">
-        <v>0.2662440538406372</v>
+        <v>0.2666487097740173</v>
       </c>
       <c r="L89" t="n">
-        <v>0.02122013074253384</v>
+        <v>0.02162478667591397</v>
       </c>
       <c r="M89" t="n">
-        <v>0.02122013074253384</v>
+        <v>0.02162478667591397</v>
       </c>
     </row>
     <row r="90">
@@ -4116,37 +4116,37 @@
         <v>0.231574161383359</v>
       </c>
       <c r="C90" t="n">
-        <v>0.2299119532108307</v>
+        <v>0.2290004938840866</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.001662208172528296</v>
+        <v>-0.002573667499272375</v>
       </c>
       <c r="E90" t="n">
-        <v>0.001662208172528296</v>
+        <v>0.002573667499272375</v>
       </c>
       <c r="F90" t="n">
         <v>0.1990688126621827</v>
       </c>
       <c r="G90" t="n">
-        <v>0.2207227945327759</v>
+        <v>0.2091507613658905</v>
       </c>
       <c r="H90" t="n">
-        <v>0.0216539818705932</v>
+        <v>0.01008194870370782</v>
       </c>
       <c r="I90" t="n">
-        <v>0.0216539818705932</v>
+        <v>0.01008194870370782</v>
       </c>
       <c r="J90" t="n">
         <v>0.248078274529971</v>
       </c>
       <c r="K90" t="n">
-        <v>0.2663254141807556</v>
+        <v>0.2671715617179871</v>
       </c>
       <c r="L90" t="n">
-        <v>0.01824713965078462</v>
+        <v>0.01909328718801606</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01824713965078462</v>
+        <v>0.01909328718801606</v>
       </c>
     </row>
     <row r="91">
@@ -4157,37 +4157,37 @@
         <v>0.2313337078216063</v>
       </c>
       <c r="C91" t="n">
-        <v>0.229334831237793</v>
+        <v>0.2283296585083008</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.001998876583813369</v>
+        <v>-0.003004049313305557</v>
       </c>
       <c r="E91" t="n">
-        <v>0.001998876583813369</v>
+        <v>0.003004049313305557</v>
       </c>
       <c r="F91" t="n">
         <v>0.1975610667219576</v>
       </c>
       <c r="G91" t="n">
-        <v>0.2200338840484619</v>
+        <v>0.2086176127195358</v>
       </c>
       <c r="H91" t="n">
-        <v>0.02247281732650427</v>
+        <v>0.01105654599757819</v>
       </c>
       <c r="I91" t="n">
-        <v>0.02247281732650427</v>
+        <v>0.01105654599757819</v>
       </c>
       <c r="J91" t="n">
         <v>0.2475960872065603</v>
       </c>
       <c r="K91" t="n">
-        <v>0.2665255963802338</v>
+        <v>0.2678132653236389</v>
       </c>
       <c r="L91" t="n">
-        <v>0.01892950917367342</v>
+        <v>0.02021717811707857</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01892950917367342</v>
+        <v>0.02021717811707857</v>
       </c>
     </row>
     <row r="92">
@@ -4198,37 +4198,37 @@
         <v>0.2245181298867186</v>
       </c>
       <c r="C92" t="n">
-        <v>0.2286869883537292</v>
+        <v>0.2274882644414902</v>
       </c>
       <c r="D92" t="n">
-        <v>0.004168858467010622</v>
+        <v>0.002970134554771547</v>
       </c>
       <c r="E92" t="n">
-        <v>0.004168858467010622</v>
+        <v>0.002970134554771547</v>
       </c>
       <c r="F92" t="n">
         <v>0.1898639519464283</v>
       </c>
       <c r="G92" t="n">
-        <v>0.2192592471837997</v>
+        <v>0.207954153418541</v>
       </c>
       <c r="H92" t="n">
-        <v>0.02939529523737142</v>
+        <v>0.01809020147211263</v>
       </c>
       <c r="I92" t="n">
-        <v>0.02939529523737142</v>
+        <v>0.01809020147211263</v>
       </c>
       <c r="J92" t="n">
         <v>0.25039829434849</v>
       </c>
       <c r="K92" t="n">
-        <v>0.2667542099952698</v>
+        <v>0.268517017364502</v>
       </c>
       <c r="L92" t="n">
-        <v>0.0163559156467798</v>
+        <v>0.01811872301601197</v>
       </c>
       <c r="M92" t="n">
-        <v>0.0163559156467798</v>
+        <v>0.01811872301601197</v>
       </c>
     </row>
     <row r="93">
@@ -4239,37 +4239,37 @@
         <v>0.221693384758994</v>
       </c>
       <c r="C93" t="n">
-        <v>0.2277443259954453</v>
+        <v>0.2261734157800674</v>
       </c>
       <c r="D93" t="n">
-        <v>0.006050941236451252</v>
+        <v>0.004480031021073444</v>
       </c>
       <c r="E93" t="n">
-        <v>0.006050941236451252</v>
+        <v>0.004480031021073444</v>
       </c>
       <c r="F93" t="n">
         <v>0.186643102861707</v>
       </c>
       <c r="G93" t="n">
-        <v>0.2181341052055359</v>
+        <v>0.2069308012723923</v>
       </c>
       <c r="H93" t="n">
-        <v>0.03149100234382887</v>
+        <v>0.02028769841068526</v>
       </c>
       <c r="I93" t="n">
-        <v>0.03149100234382887</v>
+        <v>0.02028769841068526</v>
       </c>
       <c r="J93" t="n">
         <v>0.254098784403936</v>
       </c>
       <c r="K93" t="n">
-        <v>0.2670769393444061</v>
+        <v>0.2694464325904846</v>
       </c>
       <c r="L93" t="n">
-        <v>0.01297815494047011</v>
+        <v>0.0153476481865486</v>
       </c>
       <c r="M93" t="n">
-        <v>0.01297815494047011</v>
+        <v>0.0153476481865486</v>
       </c>
     </row>
     <row r="94">
@@ -4280,37 +4280,37 @@
         <v>0.2190875316130207</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2266233265399933</v>
+        <v>0.2245058715343475</v>
       </c>
       <c r="D94" t="n">
-        <v>0.007535794926972622</v>
+        <v>0.00541833992132687</v>
       </c>
       <c r="E94" t="n">
-        <v>0.007535794926972622</v>
+        <v>0.00541833992132687</v>
       </c>
       <c r="F94" t="n">
         <v>0.1843841728188063</v>
       </c>
       <c r="G94" t="n">
-        <v>0.2167014479637146</v>
+        <v>0.2057118713855743</v>
       </c>
       <c r="H94" t="n">
-        <v>0.03231727514490826</v>
+        <v>0.021327698566768</v>
       </c>
       <c r="I94" t="n">
-        <v>0.03231727514490826</v>
+        <v>0.021327698566768</v>
       </c>
       <c r="J94" t="n">
         <v>0.2553552514339654</v>
       </c>
       <c r="K94" t="n">
-        <v>0.2675899267196655</v>
+        <v>0.2706666886806488</v>
       </c>
       <c r="L94" t="n">
-        <v>0.01223467528570016</v>
+        <v>0.01531143724668343</v>
       </c>
       <c r="M94" t="n">
-        <v>0.01223467528570016</v>
+        <v>0.01531143724668343</v>
       </c>
     </row>
     <row r="95">
@@ -4321,37 +4321,37 @@
         <v>0.221553349526793</v>
       </c>
       <c r="C95" t="n">
-        <v>0.2252109944820404</v>
+        <v>0.2226053476333618</v>
       </c>
       <c r="D95" t="n">
-        <v>0.003657644955247424</v>
+        <v>0.001051998106568836</v>
       </c>
       <c r="E95" t="n">
-        <v>0.003657644955247424</v>
+        <v>0.001051998106568836</v>
       </c>
       <c r="F95" t="n">
         <v>0.1867105823866677</v>
       </c>
       <c r="G95" t="n">
-        <v>0.2149382829666138</v>
+        <v>0.2044040113687515</v>
       </c>
       <c r="H95" t="n">
-        <v>0.02822770057994609</v>
+        <v>0.01769342898208384</v>
       </c>
       <c r="I95" t="n">
-        <v>0.02822770057994609</v>
+        <v>0.01769342898208384</v>
       </c>
       <c r="J95" t="n">
         <v>0.2577775277445903</v>
       </c>
       <c r="K95" t="n">
-        <v>0.2684248983860016</v>
+        <v>0.2721092998981476</v>
       </c>
       <c r="L95" t="n">
-        <v>0.01064737064141125</v>
+        <v>0.01433177215355724</v>
       </c>
       <c r="M95" t="n">
-        <v>0.01064737064141125</v>
+        <v>0.01433177215355724</v>
       </c>
     </row>
     <row r="96">
@@ -4362,37 +4362,37 @@
         <v>0.2156110885327547</v>
       </c>
       <c r="C96" t="n">
-        <v>0.2240538448095322</v>
+        <v>0.220890149474144</v>
       </c>
       <c r="D96" t="n">
-        <v>0.008442756276777486</v>
+        <v>0.005279060941389302</v>
       </c>
       <c r="E96" t="n">
-        <v>0.008442756276777486</v>
+        <v>0.005279060941389302</v>
       </c>
       <c r="F96" t="n">
         <v>0.1821441297178017</v>
       </c>
       <c r="G96" t="n">
-        <v>0.2134062647819519</v>
+        <v>0.2032994329929352</v>
       </c>
       <c r="H96" t="n">
-        <v>0.03126213506415024</v>
+        <v>0.02115530327513351</v>
       </c>
       <c r="I96" t="n">
-        <v>0.03126213506415024</v>
+        <v>0.02115530327513351</v>
       </c>
       <c r="J96" t="n">
         <v>0.258056034018445</v>
       </c>
       <c r="K96" t="n">
-        <v>0.2693548798561096</v>
+        <v>0.2735434770584106</v>
       </c>
       <c r="L96" t="n">
-        <v>0.01129884583766461</v>
+        <v>0.01548744303996563</v>
       </c>
       <c r="M96" t="n">
-        <v>0.01129884583766461</v>
+        <v>0.01548744303996563</v>
       </c>
     </row>
     <row r="97">
@@ -4403,37 +4403,37 @@
         <v>0.2079636931791327</v>
       </c>
       <c r="C97" t="n">
-        <v>0.2225628644227982</v>
+        <v>0.2190233319997787</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0145991712436655</v>
+        <v>0.01105963882064609</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0145991712436655</v>
+        <v>0.01105963882064609</v>
       </c>
       <c r="F97" t="n">
         <v>0.1753129854812537</v>
       </c>
       <c r="G97" t="n">
-        <v>0.2116879969835281</v>
+        <v>0.202224925160408</v>
       </c>
       <c r="H97" t="n">
-        <v>0.03637501150227448</v>
+        <v>0.02691193967915437</v>
       </c>
       <c r="I97" t="n">
-        <v>0.03637501150227448</v>
+        <v>0.02691193967915437</v>
       </c>
       <c r="J97" t="n">
         <v>0.2601931428836884</v>
       </c>
       <c r="K97" t="n">
-        <v>0.2707303166389465</v>
+        <v>0.2751224935054779</v>
       </c>
       <c r="L97" t="n">
-        <v>0.01053717375525814</v>
+        <v>0.01492935062178952</v>
       </c>
       <c r="M97" t="n">
-        <v>0.01053717375525814</v>
+        <v>0.01492935062178952</v>
       </c>
     </row>
     <row r="98">
@@ -4444,37 +4444,37 @@
         <v>0.2012663257400713</v>
       </c>
       <c r="C98" t="n">
-        <v>0.2208742946386337</v>
+        <v>0.216989740729332</v>
       </c>
       <c r="D98" t="n">
-        <v>0.01960796889856239</v>
+        <v>0.01572341498926064</v>
       </c>
       <c r="E98" t="n">
-        <v>0.01960796889856239</v>
+        <v>0.01572341498926064</v>
       </c>
       <c r="F98" t="n">
         <v>0.1691645970560106</v>
       </c>
       <c r="G98" t="n">
-        <v>0.2098951190710068</v>
+        <v>0.20125712454319</v>
       </c>
       <c r="H98" t="n">
-        <v>0.04073052201499613</v>
+        <v>0.03209252748717936</v>
       </c>
       <c r="I98" t="n">
-        <v>0.04073052201499613</v>
+        <v>0.03209252748717936</v>
       </c>
       <c r="J98" t="n">
         <v>0.2606660424991694</v>
       </c>
       <c r="K98" t="n">
-        <v>0.2723533511161804</v>
+        <v>0.2766402661800385</v>
       </c>
       <c r="L98" t="n">
-        <v>0.01168730861701106</v>
+        <v>0.01597422368086909</v>
       </c>
       <c r="M98" t="n">
-        <v>0.01168730861701106</v>
+        <v>0.01597422368086909</v>
       </c>
     </row>
     <row r="99">
@@ -4485,37 +4485,37 @@
         <v>0.2046700040355947</v>
       </c>
       <c r="C99" t="n">
-        <v>0.2188524752855301</v>
+        <v>0.214708223938942</v>
       </c>
       <c r="D99" t="n">
-        <v>0.01418247124993544</v>
+        <v>0.0100382199033473</v>
       </c>
       <c r="E99" t="n">
-        <v>0.01418247124993544</v>
+        <v>0.0100382199033473</v>
       </c>
       <c r="F99" t="n">
         <v>0.1719932519320857</v>
       </c>
       <c r="G99" t="n">
-        <v>0.2078552693128586</v>
+        <v>0.2000828236341476</v>
       </c>
       <c r="H99" t="n">
-        <v>0.03586201738077291</v>
+        <v>0.02808957170206197</v>
       </c>
       <c r="I99" t="n">
-        <v>0.03586201738077291</v>
+        <v>0.02808957170206197</v>
       </c>
       <c r="J99" t="n">
         <v>0.264238613807641</v>
       </c>
       <c r="K99" t="n">
-        <v>0.274175763130188</v>
+        <v>0.2781825661659241</v>
       </c>
       <c r="L99" t="n">
-        <v>0.009937149322547023</v>
+        <v>0.01394395235828311</v>
       </c>
       <c r="M99" t="n">
-        <v>0.009937149322547023</v>
+        <v>0.01394395235828311</v>
       </c>
     </row>
     <row r="100">
@@ -4526,37 +4526,37 @@
         <v>0.209469597421481</v>
       </c>
       <c r="C100" t="n">
-        <v>0.2170609086751938</v>
+        <v>0.2127045691013336</v>
       </c>
       <c r="D100" t="n">
-        <v>0.00759131125371279</v>
+        <v>0.003234971679852622</v>
       </c>
       <c r="E100" t="n">
-        <v>0.00759131125371279</v>
+        <v>0.003234971679852622</v>
       </c>
       <c r="F100" t="n">
         <v>0.1757880456891507</v>
       </c>
       <c r="G100" t="n">
-        <v>0.2060667127370834</v>
+        <v>0.1991267651319504</v>
       </c>
       <c r="H100" t="n">
-        <v>0.03027866704793278</v>
+        <v>0.02333871944279972</v>
       </c>
       <c r="I100" t="n">
-        <v>0.03027866704793278</v>
+        <v>0.02333871944279972</v>
       </c>
       <c r="J100" t="n">
         <v>0.2652103877637764</v>
       </c>
       <c r="K100" t="n">
-        <v>0.2759979069232941</v>
+        <v>0.2795107662677765</v>
       </c>
       <c r="L100" t="n">
-        <v>0.0107875191595177</v>
+        <v>0.01430037850400012</v>
       </c>
       <c r="M100" t="n">
-        <v>0.0107875191595177</v>
+        <v>0.01430037850400012</v>
       </c>
     </row>
     <row r="101">
@@ -4567,37 +4567,37 @@
         <v>0.2116167877737643</v>
       </c>
       <c r="C101" t="n">
-        <v>0.2156238108873367</v>
+        <v>0.2112522274255753</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0040070231135724</v>
+        <v>-0.0003645603481890747</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0040070231135724</v>
+        <v>0.0003645603481890747</v>
       </c>
       <c r="F101" t="n">
         <v>0.176884319113865</v>
       </c>
       <c r="G101" t="n">
-        <v>0.2047606408596039</v>
+        <v>0.1984497606754303</v>
       </c>
       <c r="H101" t="n">
-        <v>0.02787632174573887</v>
+        <v>0.02156544156156529</v>
       </c>
       <c r="I101" t="n">
-        <v>0.02787632174573887</v>
+        <v>0.02156544156156529</v>
       </c>
       <c r="J101" t="n">
         <v>0.274689690317315</v>
       </c>
       <c r="K101" t="n">
-        <v>0.2774697840213776</v>
+        <v>0.2807291150093079</v>
       </c>
       <c r="L101" t="n">
-        <v>0.00278009370406257</v>
+        <v>0.006039424691992867</v>
       </c>
       <c r="M101" t="n">
-        <v>0.00278009370406257</v>
+        <v>0.006039424691992867</v>
       </c>
     </row>
     <row r="102">
@@ -4608,37 +4608,37 @@
         <v>0.2156720006859293</v>
       </c>
       <c r="C102" t="n">
-        <v>0.2145164310932159</v>
+        <v>0.2104572504758835</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.001155569592713374</v>
+        <v>-0.005214750210045832</v>
       </c>
       <c r="E102" t="n">
-        <v>0.001155569592713374</v>
+        <v>0.005214750210045832</v>
       </c>
       <c r="F102" t="n">
         <v>0.179775805962017</v>
       </c>
       <c r="G102" t="n">
-        <v>0.2039096802473068</v>
+        <v>0.1979701519012451</v>
       </c>
       <c r="H102" t="n">
-        <v>0.02413387428528982</v>
+        <v>0.01819434593922811</v>
       </c>
       <c r="I102" t="n">
-        <v>0.02413387428528982</v>
+        <v>0.01819434593922811</v>
       </c>
       <c r="J102" t="n">
         <v>0.27913994053486</v>
       </c>
       <c r="K102" t="n">
-        <v>0.2789128124713898</v>
+        <v>0.2822533547878265</v>
       </c>
       <c r="L102" t="n">
-        <v>-0.0002271280634702499</v>
+        <v>0.003113414252966518</v>
       </c>
       <c r="M102" t="n">
-        <v>0.0002271280634702499</v>
+        <v>0.003113414252966518</v>
       </c>
     </row>
     <row r="103">
@@ -4649,37 +4649,37 @@
         <v>0.2137607570472594</v>
       </c>
       <c r="C103" t="n">
-        <v>0.2139913141727448</v>
+        <v>0.2102098762989044</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0002305571254853922</v>
+        <v>-0.00355088074835494</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0002305571254853922</v>
+        <v>0.00355088074835494</v>
       </c>
       <c r="F103" t="n">
         <v>0.1788279556987037</v>
       </c>
       <c r="G103" t="n">
-        <v>0.2036373764276505</v>
+        <v>0.1979369074106216</v>
       </c>
       <c r="H103" t="n">
-        <v>0.02480942072894679</v>
+        <v>0.01910895171191798</v>
       </c>
       <c r="I103" t="n">
-        <v>0.02480942072894679</v>
+        <v>0.01910895171191798</v>
       </c>
       <c r="J103" t="n">
         <v>0.284735021076739</v>
       </c>
       <c r="K103" t="n">
-        <v>0.280333399772644</v>
+        <v>0.283674031496048</v>
       </c>
       <c r="L103" t="n">
-        <v>-0.004401621304094938</v>
+        <v>-0.001060989580691007</v>
       </c>
       <c r="M103" t="n">
-        <v>0.004401621304094938</v>
+        <v>0.001060989580691007</v>
       </c>
     </row>
     <row r="104">
@@ -4690,37 +4690,37 @@
         <v>0.2120574779956093</v>
       </c>
       <c r="C104" t="n">
-        <v>0.2136908024549484</v>
+        <v>0.2102991789579391</v>
       </c>
       <c r="D104" t="n">
-        <v>0.001633324459339086</v>
+        <v>-0.001758299037670191</v>
       </c>
       <c r="E104" t="n">
-        <v>0.001633324459339086</v>
+        <v>0.001758299037670191</v>
       </c>
       <c r="F104" t="n">
         <v>0.1798074587158147</v>
       </c>
       <c r="G104" t="n">
-        <v>0.2036012709140778</v>
+        <v>0.1980960071086884</v>
       </c>
       <c r="H104" t="n">
-        <v>0.02379381219826307</v>
+        <v>0.01828854839287367</v>
       </c>
       <c r="I104" t="n">
-        <v>0.02379381219826307</v>
+        <v>0.01828854839287367</v>
       </c>
       <c r="J104" t="n">
         <v>0.2854351651611557</v>
       </c>
       <c r="K104" t="n">
-        <v>0.2818102538585663</v>
+        <v>0.2850366234779358</v>
       </c>
       <c r="L104" t="n">
-        <v>-0.003624911302589406</v>
+        <v>-0.0003985416832198996</v>
       </c>
       <c r="M104" t="n">
-        <v>0.003624911302589406</v>
+        <v>0.0003985416832198996</v>
       </c>
     </row>
     <row r="105">
@@ -4731,37 +4731,37 @@
         <v>0.2082311511037787</v>
       </c>
       <c r="C105" t="n">
-        <v>0.2134496718645096</v>
+        <v>0.2105080038309097</v>
       </c>
       <c r="D105" t="n">
-        <v>0.005218520760730927</v>
+        <v>0.002276852727131073</v>
       </c>
       <c r="E105" t="n">
-        <v>0.005218520760730927</v>
+        <v>0.002276852727131073</v>
       </c>
       <c r="F105" t="n">
         <v>0.1848092756632267</v>
       </c>
       <c r="G105" t="n">
-        <v>0.2036482095718384</v>
+        <v>0.1983765810728073</v>
       </c>
       <c r="H105" t="n">
-        <v>0.01883893390861169</v>
+        <v>0.01356730540958062</v>
       </c>
       <c r="I105" t="n">
-        <v>0.01883893390861169</v>
+        <v>0.01356730540958062</v>
       </c>
       <c r="J105" t="n">
         <v>0.2958664895039677</v>
       </c>
       <c r="K105" t="n">
-        <v>0.2833693325519562</v>
+        <v>0.2862689197063446</v>
       </c>
       <c r="L105" t="n">
-        <v>-0.01249715695201153</v>
+        <v>-0.009597569797623107</v>
       </c>
       <c r="M105" t="n">
-        <v>0.01249715695201153</v>
+        <v>0.009597569797623107</v>
       </c>
     </row>
     <row r="106">
@@ -4772,37 +4772,37 @@
         <v>0.2042682118230887</v>
       </c>
       <c r="C106" t="n">
-        <v>0.2132029384374619</v>
+        <v>0.2107705324888229</v>
       </c>
       <c r="D106" t="n">
-        <v>0.008934726614373195</v>
+        <v>0.006502320665734279</v>
       </c>
       <c r="E106" t="n">
-        <v>0.008934726614373195</v>
+        <v>0.006502320665734279</v>
       </c>
       <c r="F106" t="n">
         <v>0.190876889476569</v>
       </c>
       <c r="G106" t="n">
-        <v>0.2037346512079239</v>
+        <v>0.1986828595399857</v>
       </c>
       <c r="H106" t="n">
-        <v>0.01285776173135489</v>
+        <v>0.007805970063416656</v>
       </c>
       <c r="I106" t="n">
-        <v>0.01285776173135489</v>
+        <v>0.007805970063416656</v>
       </c>
       <c r="J106" t="n">
         <v>0.326778064983143</v>
       </c>
       <c r="K106" t="n">
-        <v>0.2851899266242981</v>
+        <v>0.2877009809017181</v>
       </c>
       <c r="L106" t="n">
-        <v>-0.04158813835884495</v>
+        <v>-0.03907708408142491</v>
       </c>
       <c r="M106" t="n">
-        <v>0.04158813835884495</v>
+        <v>0.03907708408142491</v>
       </c>
     </row>
     <row r="107">
@@ -4813,37 +4813,37 @@
         <v>0.1971433652608703</v>
       </c>
       <c r="C107" t="n">
-        <v>0.2127212882041931</v>
+        <v>0.2111985981464386</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0155779229433228</v>
+        <v>0.01405523288556829</v>
       </c>
       <c r="E107" t="n">
-        <v>0.0155779229433228</v>
+        <v>0.01405523288556829</v>
       </c>
       <c r="F107" t="n">
         <v>0.1942982416331723</v>
       </c>
       <c r="G107" t="n">
-        <v>0.2036537826061249</v>
+        <v>0.1989549249410629</v>
       </c>
       <c r="H107" t="n">
-        <v>0.009355540972952547</v>
+        <v>0.004656683307890597</v>
       </c>
       <c r="I107" t="n">
-        <v>0.009355540972952547</v>
+        <v>0.004656683307890597</v>
       </c>
       <c r="J107" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K107" t="n">
-        <v>0.2881115674972534</v>
+        <v>0.2899997532367706</v>
       </c>
       <c r="L107" t="n">
-        <v>-0.06342524549012812</v>
+        <v>-0.06153705975061091</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06342524549012812</v>
+        <v>0.06153705975061091</v>
       </c>
     </row>
     <row r="108">
@@ -4854,37 +4854,37 @@
         <v>0.1961257855870943</v>
       </c>
       <c r="C108" t="n">
-        <v>0.2116910070180893</v>
+        <v>0.211520180106163</v>
       </c>
       <c r="D108" t="n">
-        <v>0.01556522143099495</v>
+        <v>0.01539439451906868</v>
       </c>
       <c r="E108" t="n">
-        <v>0.01556522143099495</v>
+        <v>0.01539439451906868</v>
       </c>
       <c r="F108" t="n">
         <v>0.2003755885272997</v>
       </c>
       <c r="G108" t="n">
-        <v>0.2030713856220245</v>
+        <v>0.1995193958282471</v>
       </c>
       <c r="H108" t="n">
-        <v>0.002695797094724867</v>
+        <v>-0.0008561926990525992</v>
       </c>
       <c r="I108" t="n">
-        <v>0.002695797094724867</v>
+        <v>0.0008561926990525992</v>
       </c>
       <c r="J108" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K108" t="n">
-        <v>0.2924488186836243</v>
+        <v>0.2933989465236664</v>
       </c>
       <c r="L108" t="n">
-        <v>-0.05908799430375727</v>
+        <v>-0.05813786646371516</v>
       </c>
       <c r="M108" t="n">
-        <v>0.05908799430375727</v>
+        <v>0.05813786646371516</v>
       </c>
     </row>
     <row r="109">
@@ -4895,37 +4895,37 @@
         <v>0.1964792890722673</v>
       </c>
       <c r="C109" t="n">
-        <v>0.210582435131073</v>
+        <v>0.2118569016456604</v>
       </c>
       <c r="D109" t="n">
-        <v>0.01410314605880567</v>
+        <v>0.01537761257339307</v>
       </c>
       <c r="E109" t="n">
-        <v>0.01410314605880567</v>
+        <v>0.01537761257339307</v>
       </c>
       <c r="F109" t="n">
         <v>0.203993235946781</v>
       </c>
       <c r="G109" t="n">
-        <v>0.2025027126073837</v>
+        <v>0.2002461552619934</v>
       </c>
       <c r="H109" t="n">
-        <v>-0.001490523339397282</v>
+        <v>-0.003747080684787601</v>
       </c>
       <c r="I109" t="n">
-        <v>0.001490523339397282</v>
+        <v>0.003747080684787601</v>
       </c>
       <c r="J109" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K109" t="n">
-        <v>0.2971252202987671</v>
+        <v>0.296929270029068</v>
       </c>
       <c r="L109" t="n">
-        <v>-0.05441159268861445</v>
+        <v>-0.05460754295831355</v>
       </c>
       <c r="M109" t="n">
-        <v>0.05441159268861445</v>
+        <v>0.05460754295831355</v>
       </c>
     </row>
     <row r="110">
@@ -4936,37 +4936,37 @@
         <v>0.1932206625566903</v>
       </c>
       <c r="C110" t="n">
-        <v>0.209383100271225</v>
+        <v>0.2120811939239502</v>
       </c>
       <c r="D110" t="n">
-        <v>0.01616243771453463</v>
+        <v>0.01886053136725985</v>
       </c>
       <c r="E110" t="n">
-        <v>0.01616243771453463</v>
+        <v>0.01886053136725985</v>
       </c>
       <c r="F110" t="n">
         <v>0.2018237426561683</v>
       </c>
       <c r="G110" t="n">
-        <v>0.2018687576055527</v>
+        <v>0.2010367661714554</v>
       </c>
       <c r="H110" t="n">
-        <v>4.501494938433104e-05</v>
+        <v>-0.000786976484712959</v>
       </c>
       <c r="I110" t="n">
-        <v>4.501494938433104e-05</v>
+        <v>0.000786976484712959</v>
       </c>
       <c r="J110" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K110" t="n">
-        <v>0.3018451929092407</v>
+        <v>0.3002481460571289</v>
       </c>
       <c r="L110" t="n">
-        <v>-0.04969162007814082</v>
+        <v>-0.05128866693025264</v>
       </c>
       <c r="M110" t="n">
-        <v>0.04969162007814082</v>
+        <v>0.05128866693025264</v>
       </c>
     </row>
     <row r="111">
@@ -4977,37 +4977,37 @@
         <v>0.1803128039865833</v>
       </c>
       <c r="C111" t="n">
-        <v>0.2077584862709045</v>
+        <v>0.212033286690712</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0274456822843212</v>
+        <v>0.03172048270412864</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0274456822843212</v>
+        <v>0.03172048270412864</v>
       </c>
       <c r="F111" t="n">
         <v>0.1892069067357883</v>
       </c>
       <c r="G111" t="n">
-        <v>0.2008208334445953</v>
+        <v>0.2016894817352295</v>
       </c>
       <c r="H111" t="n">
-        <v>0.01161392670880701</v>
+        <v>0.01248257499944116</v>
       </c>
       <c r="I111" t="n">
-        <v>0.01161392670880701</v>
+        <v>0.01248257499944116</v>
       </c>
       <c r="J111" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K111" t="n">
-        <v>0.3064278662204742</v>
+        <v>0.3031437397003174</v>
       </c>
       <c r="L111" t="n">
-        <v>-0.0451089467669073</v>
+        <v>-0.04839307328706416</v>
       </c>
       <c r="M111" t="n">
-        <v>0.0451089467669073</v>
+        <v>0.04839307328706416</v>
       </c>
     </row>
     <row r="112">
@@ -5018,37 +5018,37 @@
         <v>0.172940109350906</v>
       </c>
       <c r="C112" t="n">
-        <v>0.2053534835577011</v>
+        <v>0.2113466560840607</v>
       </c>
       <c r="D112" t="n">
-        <v>0.03241337420679513</v>
+        <v>0.03840654673315469</v>
       </c>
       <c r="E112" t="n">
-        <v>0.03241337420679513</v>
+        <v>0.03840654673315469</v>
       </c>
       <c r="F112" t="n">
         <v>0.181661915902805</v>
       </c>
       <c r="G112" t="n">
-        <v>0.1989754438400269</v>
+        <v>0.2016481310129166</v>
       </c>
       <c r="H112" t="n">
-        <v>0.01731352793722185</v>
+        <v>0.01998621511011156</v>
       </c>
       <c r="I112" t="n">
-        <v>0.01731352793722185</v>
+        <v>0.01998621511011156</v>
       </c>
       <c r="J112" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K112" t="n">
-        <v>0.3105288147926331</v>
+        <v>0.3055553734302521</v>
       </c>
       <c r="L112" t="n">
-        <v>-0.04100799819474849</v>
+        <v>-0.04598143955712947</v>
       </c>
       <c r="M112" t="n">
-        <v>0.04100799819474849</v>
+        <v>0.04598143955712947</v>
       </c>
     </row>
     <row r="113">
@@ -5059,37 +5059,37 @@
         <v>0.1734547500024383</v>
       </c>
       <c r="C113" t="n">
-        <v>0.2025717347860336</v>
+        <v>0.2098878026008606</v>
       </c>
       <c r="D113" t="n">
-        <v>0.02911698478359528</v>
+        <v>0.03643305259842225</v>
       </c>
       <c r="E113" t="n">
-        <v>0.02911698478359528</v>
+        <v>0.03643305259842225</v>
       </c>
       <c r="F113" t="n">
         <v>0.183200833452436</v>
       </c>
       <c r="G113" t="n">
-        <v>0.1967847347259521</v>
+        <v>0.2008404284715652</v>
       </c>
       <c r="H113" t="n">
-        <v>0.01358390127351614</v>
+        <v>0.01763959501912923</v>
       </c>
       <c r="I113" t="n">
-        <v>0.01358390127351614</v>
+        <v>0.01763959501912923</v>
       </c>
       <c r="J113" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K113" t="n">
-        <v>0.3142389357089996</v>
+        <v>0.3076386451721191</v>
       </c>
       <c r="L113" t="n">
-        <v>-0.03729787727838191</v>
+        <v>-0.0438981678152624</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03729787727838191</v>
+        <v>0.0438981678152624</v>
       </c>
     </row>
     <row r="114">
@@ -5100,37 +5100,37 @@
         <v>0.1641702477371877</v>
       </c>
       <c r="C114" t="n">
-        <v>0.1997431218624115</v>
+        <v>0.2081330716609955</v>
       </c>
       <c r="D114" t="n">
-        <v>0.03557287412522384</v>
+        <v>0.04396282392380782</v>
       </c>
       <c r="E114" t="n">
-        <v>0.03557287412522384</v>
+        <v>0.04396282392380782</v>
       </c>
       <c r="F114" t="n">
         <v>0.1744994628441336</v>
       </c>
       <c r="G114" t="n">
-        <v>0.1945686489343643</v>
+        <v>0.1997335106134415</v>
       </c>
       <c r="H114" t="n">
-        <v>0.02006918609023067</v>
+        <v>0.02523404776930782</v>
       </c>
       <c r="I114" t="n">
-        <v>0.02006918609023067</v>
+        <v>0.02523404776930782</v>
       </c>
       <c r="J114" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K114" t="n">
-        <v>0.3174515664577484</v>
+        <v>0.3093472719192505</v>
       </c>
       <c r="L114" t="n">
-        <v>-0.03408524652963313</v>
+        <v>-0.04218954106813105</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03408524652963313</v>
+        <v>0.04218954106813105</v>
       </c>
     </row>
     <row r="115">
@@ -5141,37 +5141,37 @@
         <v>0.1568245706022757</v>
       </c>
       <c r="C115" t="n">
-        <v>0.1961501687765121</v>
+        <v>0.2059033066034317</v>
       </c>
       <c r="D115" t="n">
-        <v>0.03932559817423648</v>
+        <v>0.04907873600115603</v>
       </c>
       <c r="E115" t="n">
-        <v>0.03932559817423648</v>
+        <v>0.04907873600115603</v>
       </c>
       <c r="F115" t="n">
         <v>0.167557739768299</v>
       </c>
       <c r="G115" t="n">
-        <v>0.1916047334671021</v>
+        <v>0.1981529742479324</v>
       </c>
       <c r="H115" t="n">
-        <v>0.02404699369880306</v>
+        <v>0.03059523447963344</v>
       </c>
       <c r="I115" t="n">
-        <v>0.02404699369880306</v>
+        <v>0.03059523447963344</v>
       </c>
       <c r="J115" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K115" t="n">
-        <v>0.319926917552948</v>
+        <v>0.3108648657798767</v>
       </c>
       <c r="L115" t="n">
-        <v>-0.03160989543443354</v>
+        <v>-0.04067194720750483</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03160989543443354</v>
+        <v>0.04067194720750483</v>
       </c>
     </row>
     <row r="116">
@@ -5182,37 +5182,37 @@
         <v>0.158021052195933</v>
       </c>
       <c r="C116" t="n">
-        <v>0.1923376023769379</v>
+        <v>0.2033474296331406</v>
       </c>
       <c r="D116" t="n">
-        <v>0.03431655018100488</v>
+        <v>0.04532637743720758</v>
       </c>
       <c r="E116" t="n">
-        <v>0.03431655018100488</v>
+        <v>0.04532637743720758</v>
       </c>
       <c r="F116" t="n">
         <v>0.166232626919058</v>
       </c>
       <c r="G116" t="n">
-        <v>0.1883851438760757</v>
+        <v>0.1960363984107971</v>
       </c>
       <c r="H116" t="n">
-        <v>0.02215251695701775</v>
+        <v>0.02980377149173913</v>
       </c>
       <c r="I116" t="n">
-        <v>0.02215251695701775</v>
+        <v>0.02980377149173913</v>
       </c>
       <c r="J116" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K116" t="n">
-        <v>0.3219757676124573</v>
+        <v>0.3120913803577423</v>
       </c>
       <c r="L116" t="n">
-        <v>-0.02956104537492427</v>
+        <v>-0.03944543262963923</v>
       </c>
       <c r="M116" t="n">
-        <v>0.02956104537492427</v>
+        <v>0.03944543262963923</v>
       </c>
     </row>
     <row r="117">
@@ -5223,37 +5223,37 @@
         <v>0.1649968874283053</v>
       </c>
       <c r="C117" t="n">
-        <v>0.1889634728431702</v>
+        <v>0.201800599694252</v>
       </c>
       <c r="D117" t="n">
-        <v>0.02396658541486482</v>
+        <v>0.03680371226594667</v>
       </c>
       <c r="E117" t="n">
-        <v>0.02396658541486482</v>
+        <v>0.03680371226594667</v>
       </c>
       <c r="F117" t="n">
         <v>0.1706375341902103</v>
       </c>
       <c r="G117" t="n">
-        <v>0.1853664964437485</v>
+        <v>0.1942292004823685</v>
       </c>
       <c r="H117" t="n">
-        <v>0.01472896225353815</v>
+        <v>0.02359166629215814</v>
       </c>
       <c r="I117" t="n">
-        <v>0.01472896225353815</v>
+        <v>0.02359166629215814</v>
       </c>
       <c r="J117" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K117" t="n">
-        <v>0.3232576847076416</v>
+        <v>0.3128941357135773</v>
       </c>
       <c r="L117" t="n">
-        <v>-0.02827912827973994</v>
+        <v>-0.03864267727380427</v>
       </c>
       <c r="M117" t="n">
-        <v>0.02827912827973994</v>
+        <v>0.03864267727380427</v>
       </c>
     </row>
     <row r="118">
@@ -5264,37 +5264,37 @@
         <v>0.1709543938244647</v>
       </c>
       <c r="C118" t="n">
-        <v>0.1864829361438751</v>
+        <v>0.2005647122859955</v>
       </c>
       <c r="D118" t="n">
-        <v>0.01552854231941045</v>
+        <v>0.02961031846153081</v>
       </c>
       <c r="E118" t="n">
-        <v>0.01552854231941045</v>
+        <v>0.02961031846153081</v>
       </c>
       <c r="F118" t="n">
         <v>0.1748534312619884</v>
       </c>
       <c r="G118" t="n">
-        <v>0.1830392628908157</v>
+        <v>0.1926808655261993</v>
       </c>
       <c r="H118" t="n">
-        <v>0.008185831628827384</v>
+        <v>0.01782743426421099</v>
       </c>
       <c r="I118" t="n">
-        <v>0.008185831628827384</v>
+        <v>0.01782743426421099</v>
       </c>
       <c r="J118" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K118" t="n">
-        <v>0.323938399553299</v>
+        <v>0.3135925531387329</v>
       </c>
       <c r="L118" t="n">
-        <v>-0.02759841343408259</v>
+        <v>-0.03794425984864863</v>
       </c>
       <c r="M118" t="n">
-        <v>0.02759841343408259</v>
+        <v>0.03794425984864863</v>
       </c>
     </row>
     <row r="119">
@@ -5305,37 +5305,37 @@
         <v>0.1643078446538837</v>
       </c>
       <c r="C119" t="n">
-        <v>0.1846266686916351</v>
+        <v>0.1998088210821152</v>
       </c>
       <c r="D119" t="n">
-        <v>0.02031882403775145</v>
+        <v>0.0355009764282315</v>
       </c>
       <c r="E119" t="n">
-        <v>0.02031882403775145</v>
+        <v>0.0355009764282315</v>
       </c>
       <c r="F119" t="n">
         <v>0.169052094222726</v>
       </c>
       <c r="G119" t="n">
-        <v>0.1812760978937149</v>
+        <v>0.1917701363563538</v>
       </c>
       <c r="H119" t="n">
-        <v>0.01222400367098889</v>
+        <v>0.02271804213362774</v>
       </c>
       <c r="I119" t="n">
-        <v>0.01222400367098889</v>
+        <v>0.02271804213362774</v>
       </c>
       <c r="J119" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K119" t="n">
-        <v>0.3245520293712616</v>
+        <v>0.314287394285202</v>
       </c>
       <c r="L119" t="n">
-        <v>-0.02698478361611995</v>
+        <v>-0.03724941870217952</v>
       </c>
       <c r="M119" t="n">
-        <v>0.02698478361611995</v>
+        <v>0.03724941870217952</v>
       </c>
     </row>
     <row r="120">
@@ -5346,37 +5346,37 @@
         <v>0.1639718440289577</v>
       </c>
       <c r="C120" t="n">
-        <v>0.1829621940851212</v>
+        <v>0.1992321163415909</v>
       </c>
       <c r="D120" t="n">
-        <v>0.01899035005616348</v>
+        <v>0.03526027231263321</v>
       </c>
       <c r="E120" t="n">
-        <v>0.01899035005616348</v>
+        <v>0.03526027231263321</v>
       </c>
       <c r="F120" t="n">
         <v>0.169563682550203</v>
       </c>
       <c r="G120" t="n">
-        <v>0.1796498745679855</v>
+        <v>0.1910927444696426</v>
       </c>
       <c r="H120" t="n">
-        <v>0.01008619201778252</v>
+        <v>0.02152906191943962</v>
       </c>
       <c r="I120" t="n">
-        <v>0.01008619201778252</v>
+        <v>0.02152906191943962</v>
       </c>
       <c r="J120" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K120" t="n">
-        <v>0.3250903785228729</v>
+        <v>0.314897745847702</v>
       </c>
       <c r="L120" t="n">
-        <v>-0.02644643446450862</v>
+        <v>-0.03663906713967952</v>
       </c>
       <c r="M120" t="n">
-        <v>0.02644643446450862</v>
+        <v>0.03663906713967952</v>
       </c>
     </row>
     <row r="121">
@@ -5387,37 +5387,37 @@
         <v>0.159929382649718</v>
       </c>
       <c r="C121" t="n">
-        <v>0.1816024333238602</v>
+        <v>0.1987995654344559</v>
       </c>
       <c r="D121" t="n">
-        <v>0.02167305067414219</v>
+        <v>0.03887018278473789</v>
       </c>
       <c r="E121" t="n">
-        <v>0.02167305067414219</v>
+        <v>0.03887018278473789</v>
       </c>
       <c r="F121" t="n">
         <v>0.166317429974781</v>
       </c>
       <c r="G121" t="n">
-        <v>0.178327202796936</v>
+        <v>0.1906299144029617</v>
       </c>
       <c r="H121" t="n">
-        <v>0.01200977282215504</v>
+        <v>0.02431248442818074</v>
       </c>
       <c r="I121" t="n">
-        <v>0.01200977282215504</v>
+        <v>0.02431248442818074</v>
       </c>
       <c r="J121" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K121" t="n">
-        <v>0.3255082666873932</v>
+        <v>0.315388560295105</v>
       </c>
       <c r="L121" t="n">
-        <v>-0.02602854629998835</v>
+        <v>-0.03614825269227656</v>
       </c>
       <c r="M121" t="n">
-        <v>0.02602854629998835</v>
+        <v>0.03614825269227656</v>
       </c>
     </row>
     <row r="122">
@@ -5428,37 +5428,37 @@
         <v>0.159684030426406</v>
       </c>
       <c r="C122" t="n">
-        <v>0.1806464195251465</v>
+        <v>0.1983835697174072</v>
       </c>
       <c r="D122" t="n">
-        <v>0.02096238909874049</v>
+        <v>0.03869953929100123</v>
       </c>
       <c r="E122" t="n">
-        <v>0.02096238909874049</v>
+        <v>0.03869953929100123</v>
       </c>
       <c r="F122" t="n">
         <v>0.165375312093581</v>
       </c>
       <c r="G122" t="n">
-        <v>0.1773907840251923</v>
+        <v>0.1901735216379166</v>
       </c>
       <c r="H122" t="n">
-        <v>0.01201547193161126</v>
+        <v>0.02479820954433556</v>
       </c>
       <c r="I122" t="n">
-        <v>0.01201547193161126</v>
+        <v>0.02479820954433556</v>
       </c>
       <c r="J122" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K122" t="n">
-        <v>0.325759083032608</v>
+        <v>0.3156717717647552</v>
       </c>
       <c r="L122" t="n">
-        <v>-0.02577772995477351</v>
+        <v>-0.03586504122262629</v>
       </c>
       <c r="M122" t="n">
-        <v>0.02577772995477351</v>
+        <v>0.03586504122262629</v>
       </c>
     </row>
     <row r="123">
@@ -5469,37 +5469,37 @@
         <v>0.1561552130878537</v>
       </c>
       <c r="C123" t="n">
-        <v>0.1799047142267227</v>
+        <v>0.1978897303342819</v>
       </c>
       <c r="D123" t="n">
-        <v>0.02374950113886906</v>
+        <v>0.04173451724642827</v>
       </c>
       <c r="E123" t="n">
-        <v>0.02374950113886906</v>
+        <v>0.04173451724642827</v>
       </c>
       <c r="F123" t="n">
         <v>0.162477418892385</v>
       </c>
       <c r="G123" t="n">
-        <v>0.1766606122255325</v>
+        <v>0.1896566897630692</v>
       </c>
       <c r="H123" t="n">
-        <v>0.01418319333314752</v>
+        <v>0.02717927087068414</v>
       </c>
       <c r="I123" t="n">
-        <v>0.01418319333314752</v>
+        <v>0.02717927087068414</v>
       </c>
       <c r="J123" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K123" t="n">
-        <v>0.3259286880493164</v>
+        <v>0.3158752918243408</v>
       </c>
       <c r="L123" t="n">
-        <v>-0.02560812493806514</v>
+        <v>-0.03566152116304072</v>
       </c>
       <c r="M123" t="n">
-        <v>0.02560812493806514</v>
+        <v>0.03566152116304072</v>
       </c>
     </row>
     <row r="124">
@@ -5510,37 +5510,37 @@
         <v>0.15734525479335</v>
       </c>
       <c r="C124" t="n">
-        <v>0.1789969652891159</v>
+        <v>0.1972799003124237</v>
       </c>
       <c r="D124" t="n">
-        <v>0.02165171049576589</v>
+        <v>0.03993464551907369</v>
       </c>
       <c r="E124" t="n">
-        <v>0.02165171049576589</v>
+        <v>0.03993464551907369</v>
       </c>
       <c r="F124" t="n">
         <v>0.1630565649772037</v>
       </c>
       <c r="G124" t="n">
-        <v>0.1757629215717316</v>
+        <v>0.1889471411705017</v>
       </c>
       <c r="H124" t="n">
-        <v>0.0127063565945279</v>
+        <v>0.02589057619329804</v>
       </c>
       <c r="I124" t="n">
-        <v>0.0127063565945279</v>
+        <v>0.02589057619329804</v>
       </c>
       <c r="J124" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K124" t="n">
-        <v>0.3261222541332245</v>
+        <v>0.3160327672958374</v>
       </c>
       <c r="L124" t="n">
-        <v>-0.02541455885415705</v>
+        <v>-0.03550404569154414</v>
       </c>
       <c r="M124" t="n">
-        <v>0.02541455885415705</v>
+        <v>0.03550404569154414</v>
       </c>
     </row>
     <row r="125">
@@ -5551,37 +5551,37 @@
         <v>0.151838567980671</v>
       </c>
       <c r="C125" t="n">
-        <v>0.1783686429262161</v>
+        <v>0.1968018412590027</v>
       </c>
       <c r="D125" t="n">
-        <v>0.02653007494554513</v>
+        <v>0.04496327327833169</v>
       </c>
       <c r="E125" t="n">
-        <v>0.02653007494554513</v>
+        <v>0.04496327327833169</v>
       </c>
       <c r="F125" t="n">
         <v>0.1584940561224717</v>
       </c>
       <c r="G125" t="n">
-        <v>0.1751399040222168</v>
+        <v>0.1883300095796585</v>
       </c>
       <c r="H125" t="n">
-        <v>0.01664584789974513</v>
+        <v>0.02983595345718684</v>
       </c>
       <c r="I125" t="n">
-        <v>0.01664584789974513</v>
+        <v>0.02983595345718684</v>
       </c>
       <c r="J125" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K125" t="n">
-        <v>0.3262476623058319</v>
+        <v>0.3160918056964874</v>
       </c>
       <c r="L125" t="n">
-        <v>-0.02528915068154963</v>
+        <v>-0.03544500729089411</v>
       </c>
       <c r="M125" t="n">
-        <v>0.02528915068154963</v>
+        <v>0.03544500729089411</v>
       </c>
     </row>
     <row r="126">
@@ -5592,37 +5592,37 @@
         <v>0.1474099068505786</v>
       </c>
       <c r="C126" t="n">
-        <v>0.1777194440364838</v>
+        <v>0.1962399184703827</v>
       </c>
       <c r="D126" t="n">
-        <v>0.03030953718590512</v>
+        <v>0.04883001161980405</v>
       </c>
       <c r="E126" t="n">
-        <v>0.03030953718590512</v>
+        <v>0.04883001161980405</v>
       </c>
       <c r="F126" t="n">
         <v>0.1546894037768477</v>
       </c>
       <c r="G126" t="n">
-        <v>0.1744880229234695</v>
+        <v>0.1875319480895996</v>
       </c>
       <c r="H126" t="n">
-        <v>0.01979861914662187</v>
+        <v>0.03284254431275194</v>
       </c>
       <c r="I126" t="n">
-        <v>0.01979861914662187</v>
+        <v>0.03284254431275194</v>
       </c>
       <c r="J126" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K126" t="n">
-        <v>0.3263624608516693</v>
+        <v>0.3160927295684814</v>
       </c>
       <c r="L126" t="n">
-        <v>-0.02517435213571223</v>
+        <v>-0.0354440834189001</v>
       </c>
       <c r="M126" t="n">
-        <v>0.02517435213571223</v>
+        <v>0.0354440834189001</v>
       </c>
     </row>
     <row r="127">
@@ -5633,37 +5633,37 @@
         <v>0.1451170419135307</v>
       </c>
       <c r="C127" t="n">
-        <v>0.1767445504665375</v>
+        <v>0.1954412758350372</v>
       </c>
       <c r="D127" t="n">
-        <v>0.03162750855300681</v>
+        <v>0.05032423392150656</v>
       </c>
       <c r="E127" t="n">
-        <v>0.03162750855300681</v>
+        <v>0.05032423392150656</v>
       </c>
       <c r="F127" t="n">
         <v>0.1558979898964127</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1735112518072128</v>
+        <v>0.1864264160394669</v>
       </c>
       <c r="H127" t="n">
-        <v>0.01761326191080018</v>
+        <v>0.0305284261430542</v>
       </c>
       <c r="I127" t="n">
-        <v>0.01761326191080018</v>
+        <v>0.0305284261430542</v>
       </c>
       <c r="J127" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K127" t="n">
-        <v>0.326552152633667</v>
+        <v>0.3161299824714661</v>
       </c>
       <c r="L127" t="n">
-        <v>-0.02498466035371455</v>
+        <v>-0.03540683051591548</v>
       </c>
       <c r="M127" t="n">
-        <v>0.02498466035371455</v>
+        <v>0.03540683051591548</v>
       </c>
     </row>
     <row r="128">
@@ -5674,37 +5674,37 @@
         <v>0.146870584248106</v>
       </c>
       <c r="C128" t="n">
-        <v>0.1754400879144669</v>
+        <v>0.1944687366485596</v>
       </c>
       <c r="D128" t="n">
-        <v>0.02856950366636088</v>
+        <v>0.04759815240045359</v>
       </c>
       <c r="E128" t="n">
-        <v>0.02856950366636088</v>
+        <v>0.04759815240045359</v>
       </c>
       <c r="F128" t="n">
         <v>0.1606466050387363</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1722157746553421</v>
+        <v>0.1851597428321838</v>
       </c>
       <c r="H128" t="n">
-        <v>0.01156916961660578</v>
+        <v>0.02451313779344752</v>
       </c>
       <c r="I128" t="n">
-        <v>0.01156916961660578</v>
+        <v>0.02451313779344752</v>
       </c>
       <c r="J128" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K128" t="n">
-        <v>0.326855331659317</v>
+        <v>0.3161970973014832</v>
       </c>
       <c r="L128" t="n">
-        <v>-0.02468148132806453</v>
+        <v>-0.03533971568589839</v>
       </c>
       <c r="M128" t="n">
-        <v>0.02468148132806453</v>
+        <v>0.03533971568589839</v>
       </c>
     </row>
     <row r="129">
@@ -5715,37 +5715,37 @@
         <v>0.1501193632155007</v>
       </c>
       <c r="C129" t="n">
-        <v>0.1741351187229156</v>
+        <v>0.1935730129480362</v>
       </c>
       <c r="D129" t="n">
-        <v>0.02401575550741497</v>
+        <v>0.04345364973253552</v>
       </c>
       <c r="E129" t="n">
-        <v>0.02401575550741497</v>
+        <v>0.04345364973253552</v>
       </c>
       <c r="F129" t="n">
         <v>0.159670069243979</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1709268689155579</v>
+        <v>0.1840723007917404</v>
       </c>
       <c r="H129" t="n">
-        <v>0.01125679967157886</v>
+        <v>0.02440223154776142</v>
       </c>
       <c r="I129" t="n">
-        <v>0.01125679967157886</v>
+        <v>0.02440223154776142</v>
       </c>
       <c r="J129" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K129" t="n">
-        <v>0.3272045254707336</v>
+        <v>0.3163565099239349</v>
       </c>
       <c r="L129" t="n">
-        <v>-0.0243322875166479</v>
+        <v>-0.03518030306344661</v>
       </c>
       <c r="M129" t="n">
-        <v>0.0243322875166479</v>
+        <v>0.03518030306344661</v>
       </c>
     </row>
     <row r="130">
@@ -5756,37 +5756,37 @@
         <v>0.151063433555504</v>
       </c>
       <c r="C130" t="n">
-        <v>0.1732351332902908</v>
+        <v>0.1930637955665588</v>
       </c>
       <c r="D130" t="n">
-        <v>0.02217169973478683</v>
+        <v>0.04200036201105484</v>
       </c>
       <c r="E130" t="n">
-        <v>0.02217169973478683</v>
+        <v>0.04200036201105484</v>
       </c>
       <c r="F130" t="n">
         <v>0.1541412414455343</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1700247675180435</v>
+        <v>0.1836379617452621</v>
       </c>
       <c r="H130" t="n">
-        <v>0.0158835260725092</v>
+        <v>0.02949672029972783</v>
       </c>
       <c r="I130" t="n">
-        <v>0.0158835260725092</v>
+        <v>0.02949672029972783</v>
       </c>
       <c r="J130" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K130" t="n">
-        <v>0.3274370133876801</v>
+        <v>0.3164539337158203</v>
       </c>
       <c r="L130" t="n">
-        <v>-0.02409979959970149</v>
+        <v>-0.03508287927156123</v>
       </c>
       <c r="M130" t="n">
-        <v>0.02409979959970149</v>
+        <v>0.03508287927156123</v>
       </c>
     </row>
     <row r="131">
@@ -5797,37 +5797,37 @@
         <v>0.150424903156234</v>
       </c>
       <c r="C131" t="n">
-        <v>0.1724095344543457</v>
+        <v>0.1927204132080078</v>
       </c>
       <c r="D131" t="n">
-        <v>0.02198463129811171</v>
+        <v>0.04229551005177382</v>
       </c>
       <c r="E131" t="n">
-        <v>0.02198463129811171</v>
+        <v>0.04229551005177382</v>
       </c>
       <c r="F131" t="n">
         <v>0.145753447401079</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1691980808973312</v>
+        <v>0.1834062486886978</v>
       </c>
       <c r="H131" t="n">
-        <v>0.02344463349625225</v>
+        <v>0.03765280128761883</v>
       </c>
       <c r="I131" t="n">
-        <v>0.02344463349625225</v>
+        <v>0.03765280128761883</v>
       </c>
       <c r="J131" t="n">
         <v>0.2709493260302253</v>
       </c>
       <c r="K131" t="n">
-        <v>0.3276274800300598</v>
+        <v>0.3165376484394073</v>
       </c>
       <c r="L131" t="n">
-        <v>0.0566781539998345</v>
+        <v>0.04558832240918204</v>
       </c>
       <c r="M131" t="n">
-        <v>0.0566781539998345</v>
+        <v>0.04558832240918204</v>
       </c>
     </row>
     <row r="132">
@@ -5838,37 +5838,37 @@
         <v>0.1470189714328184</v>
       </c>
       <c r="C132" t="n">
-        <v>0.1723758429288864</v>
+        <v>0.1923284828662872</v>
       </c>
       <c r="D132" t="n">
-        <v>0.02535687149606805</v>
+        <v>0.04530951143346887</v>
       </c>
       <c r="E132" t="n">
-        <v>0.02535687149606805</v>
+        <v>0.04530951143346887</v>
       </c>
       <c r="F132" t="n">
         <v>0.1407806511548597</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1692841053009033</v>
+        <v>0.1830406188964844</v>
       </c>
       <c r="H132" t="n">
-        <v>0.02850345414604366</v>
+        <v>0.04225996774162472</v>
       </c>
       <c r="I132" t="n">
-        <v>0.02850345414604366</v>
+        <v>0.04225996774162472</v>
       </c>
       <c r="J132" t="n">
         <v>0.2481947970032127</v>
       </c>
       <c r="K132" t="n">
-        <v>0.3248527646064758</v>
+        <v>0.3134747445583344</v>
       </c>
       <c r="L132" t="n">
-        <v>0.07665796760326316</v>
+        <v>0.06527994755512168</v>
       </c>
       <c r="M132" t="n">
-        <v>0.07665796760326316</v>
+        <v>0.06527994755512168</v>
       </c>
     </row>
     <row r="133">
@@ -5879,37 +5879,37 @@
         <v>0.145049795298602</v>
       </c>
       <c r="C133" t="n">
-        <v>0.172926276922226</v>
+        <v>0.191766768693924</v>
       </c>
       <c r="D133" t="n">
-        <v>0.02787648162362397</v>
+        <v>0.04671697339532196</v>
       </c>
       <c r="E133" t="n">
-        <v>0.02787648162362397</v>
+        <v>0.04671697339532196</v>
       </c>
       <c r="F133" t="n">
         <v>0.1371442936551317</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1699404865503311</v>
+        <v>0.1823495328426361</v>
       </c>
       <c r="H133" t="n">
-        <v>0.03279619289519944</v>
+        <v>0.04520523918750444</v>
       </c>
       <c r="I133" t="n">
-        <v>0.03279619289519944</v>
+        <v>0.04520523918750444</v>
       </c>
       <c r="J133" t="n">
         <v>0.239845013604234</v>
       </c>
       <c r="K133" t="n">
-        <v>0.3199016153812408</v>
+        <v>0.3084732592105865</v>
       </c>
       <c r="L133" t="n">
-        <v>0.08005660177700688</v>
+        <v>0.06862824560635258</v>
       </c>
       <c r="M133" t="n">
-        <v>0.08005660177700688</v>
+        <v>0.06862824560635258</v>
       </c>
     </row>
     <row r="134">
@@ -5920,37 +5920,37 @@
         <v>0.1487443255609854</v>
       </c>
       <c r="C134" t="n">
-        <v>0.1740721166133881</v>
+        <v>0.1911706924438477</v>
       </c>
       <c r="D134" t="n">
-        <v>0.02532779105240271</v>
+        <v>0.0424263668828623</v>
       </c>
       <c r="E134" t="n">
-        <v>0.02532779105240271</v>
+        <v>0.0424263668828623</v>
       </c>
       <c r="F134" t="n">
         <v>0.140039908460322</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1710787862539291</v>
+        <v>0.181336909532547</v>
       </c>
       <c r="H134" t="n">
-        <v>0.03103887779360714</v>
+        <v>0.041297001072225</v>
       </c>
       <c r="I134" t="n">
-        <v>0.03103887779360714</v>
+        <v>0.041297001072225</v>
       </c>
       <c r="J134" t="n">
         <v>0.2575349461328303</v>
       </c>
       <c r="K134" t="n">
-        <v>0.3137070834636688</v>
+        <v>0.3027718067169189</v>
       </c>
       <c r="L134" t="n">
-        <v>0.05617213733083848</v>
+        <v>0.0452368605840886</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05617213733083848</v>
+        <v>0.0452368605840886</v>
       </c>
     </row>
     <row r="135">
@@ -5961,37 +5961,37 @@
         <v>0.1582976939984373</v>
       </c>
       <c r="C135" t="n">
-        <v>0.1754964888095856</v>
+        <v>0.1905088722705841</v>
       </c>
       <c r="D135" t="n">
-        <v>0.01719879481114825</v>
+        <v>0.03221117827214678</v>
       </c>
       <c r="E135" t="n">
-        <v>0.01719879481114825</v>
+        <v>0.03221117827214678</v>
       </c>
       <c r="F135" t="n">
         <v>0.148383054919239</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1722938120365143</v>
+        <v>0.180129200220108</v>
       </c>
       <c r="H135" t="n">
-        <v>0.02391075711727528</v>
+        <v>0.03174614530086903</v>
       </c>
       <c r="I135" t="n">
-        <v>0.02391075711727528</v>
+        <v>0.03174614530086903</v>
       </c>
       <c r="J135" t="n">
         <v>0.2543140207344117</v>
       </c>
       <c r="K135" t="n">
-        <v>0.3078323900699615</v>
+        <v>0.2980780005455017</v>
       </c>
       <c r="L135" t="n">
-        <v>0.05351836933554988</v>
+        <v>0.04376397981109004</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05351836933554988</v>
+        <v>0.04376397981109004</v>
       </c>
     </row>
     <row r="136">
@@ -6002,37 +6002,37 @@
         <v>0.1666436300843993</v>
       </c>
       <c r="C136" t="n">
-        <v>0.1777018457651138</v>
+        <v>0.1900596469640732</v>
       </c>
       <c r="D136" t="n">
-        <v>0.01105821568071449</v>
+        <v>0.02341601687967385</v>
       </c>
       <c r="E136" t="n">
-        <v>0.01105821568071449</v>
+        <v>0.02341601687967385</v>
       </c>
       <c r="F136" t="n">
         <v>0.1562602725937737</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1740496754646301</v>
+        <v>0.1792436391115189</v>
       </c>
       <c r="H136" t="n">
-        <v>0.01778940287085645</v>
+        <v>0.02298336651774519</v>
       </c>
       <c r="I136" t="n">
-        <v>0.01778940287085645</v>
+        <v>0.02298336651774519</v>
       </c>
       <c r="J136" t="n">
         <v>0.2533636790571773</v>
       </c>
       <c r="K136" t="n">
-        <v>0.3023214042186737</v>
+        <v>0.2945572435855865</v>
       </c>
       <c r="L136" t="n">
-        <v>0.04895772516149638</v>
+        <v>0.04119356452840922</v>
       </c>
       <c r="M136" t="n">
-        <v>0.04895772516149638</v>
+        <v>0.04119356452840922</v>
       </c>
     </row>
     <row r="137">
@@ -6043,37 +6043,37 @@
         <v>0.1797675377547283</v>
       </c>
       <c r="C137" t="n">
-        <v>0.1808288842439651</v>
+        <v>0.1904988139867783</v>
       </c>
       <c r="D137" t="n">
-        <v>0.001061346489236809</v>
+        <v>0.01073127623204992</v>
       </c>
       <c r="E137" t="n">
-        <v>0.001061346489236809</v>
+        <v>0.01073127623204992</v>
       </c>
       <c r="F137" t="n">
         <v>0.169004425092046</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1764006614685059</v>
+        <v>0.179228886961937</v>
       </c>
       <c r="H137" t="n">
-        <v>0.007396236376459836</v>
+        <v>0.01022446186989093</v>
       </c>
       <c r="I137" t="n">
-        <v>0.007396236376459836</v>
+        <v>0.01022446186989093</v>
       </c>
       <c r="J137" t="n">
         <v>0.2535926041820016</v>
       </c>
       <c r="K137" t="n">
-        <v>0.2973414063453674</v>
+        <v>0.292001485824585</v>
       </c>
       <c r="L137" t="n">
-        <v>0.0437488021633658</v>
+        <v>0.03840888164258333</v>
       </c>
       <c r="M137" t="n">
-        <v>0.0437488021633658</v>
+        <v>0.03840888164258333</v>
       </c>
     </row>
     <row r="138">
@@ -6084,37 +6084,37 @@
         <v>0.185249561574142</v>
       </c>
       <c r="C138" t="n">
-        <v>0.1847745776176453</v>
+        <v>0.1916075944900513</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.0004749839564967273</v>
+        <v>0.006358032915909279</v>
       </c>
       <c r="E138" t="n">
-        <v>0.0004749839564967273</v>
+        <v>0.006358032915909279</v>
       </c>
       <c r="F138" t="n">
         <v>0.1735552234322554</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1794704347848892</v>
+        <v>0.1800362914800644</v>
       </c>
       <c r="H138" t="n">
-        <v>0.00591521135263387</v>
+        <v>0.006481068047809041</v>
       </c>
       <c r="I138" t="n">
-        <v>0.00591521135263387</v>
+        <v>0.006481068047809041</v>
       </c>
       <c r="J138" t="n">
         <v>0.259780895171028</v>
       </c>
       <c r="K138" t="n">
-        <v>0.2929916381835938</v>
+        <v>0.2903876900672913</v>
       </c>
       <c r="L138" t="n">
-        <v>0.03321074301256571</v>
+        <v>0.03060679489626322</v>
       </c>
       <c r="M138" t="n">
-        <v>0.03321074301256571</v>
+        <v>0.03060679489626322</v>
       </c>
     </row>
     <row r="139">
@@ -6125,37 +6125,37 @@
         <v>0.1888794792594617</v>
       </c>
       <c r="C139" t="n">
-        <v>0.1890171468257904</v>
+        <v>0.1934235095977783</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0001376675663287419</v>
+        <v>0.004544030338316657</v>
       </c>
       <c r="E139" t="n">
-        <v>0.0001376675663287419</v>
+        <v>0.004544030338316657</v>
       </c>
       <c r="F139" t="n">
         <v>0.177090105595755</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1822984516620636</v>
+        <v>0.1816746443510056</v>
       </c>
       <c r="H139" t="n">
-        <v>0.0052083460663086</v>
+        <v>0.004584538755250556</v>
       </c>
       <c r="I139" t="n">
-        <v>0.0052083460663086</v>
+        <v>0.004584538755250556</v>
       </c>
       <c r="J139" t="n">
         <v>0.2642217904110464</v>
       </c>
       <c r="K139" t="n">
-        <v>0.2895273566246033</v>
+        <v>0.2897072434425354</v>
       </c>
       <c r="L139" t="n">
-        <v>0.0253055662135569</v>
+        <v>0.02548545303148902</v>
       </c>
       <c r="M139" t="n">
-        <v>0.0253055662135569</v>
+        <v>0.02548545303148902</v>
       </c>
     </row>
     <row r="140">
@@ -6166,37 +6166,37 @@
         <v>0.183536986659265</v>
       </c>
       <c r="C140" t="n">
-        <v>0.192980021238327</v>
+        <v>0.1954004615545273</v>
       </c>
       <c r="D140" t="n">
-        <v>0.009443034579062037</v>
+        <v>0.01186347489526229</v>
       </c>
       <c r="E140" t="n">
-        <v>0.009443034579062037</v>
+        <v>0.01186347489526229</v>
       </c>
       <c r="F140" t="n">
         <v>0.1712943495225563</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1845924705266953</v>
+        <v>0.1834108531475067</v>
       </c>
       <c r="H140" t="n">
-        <v>0.01329812100413894</v>
+        <v>0.0121165036249504</v>
       </c>
       <c r="I140" t="n">
-        <v>0.01329812100413894</v>
+        <v>0.0121165036249504</v>
       </c>
       <c r="J140" t="n">
         <v>0.264888687612175</v>
       </c>
       <c r="K140" t="n">
-        <v>0.2866463363170624</v>
+        <v>0.2894014120101929</v>
       </c>
       <c r="L140" t="n">
-        <v>0.02175764870488739</v>
+        <v>0.02451272439801788</v>
       </c>
       <c r="M140" t="n">
-        <v>0.02175764870488739</v>
+        <v>0.02451272439801788</v>
       </c>
     </row>
     <row r="141">
@@ -6207,37 +6207,37 @@
         <v>0.1785644474979223</v>
       </c>
       <c r="C141" t="n">
-        <v>0.1966576129198074</v>
+        <v>0.1972779035568237</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0180931654218851</v>
+        <v>0.0187134560589014</v>
       </c>
       <c r="E141" t="n">
-        <v>0.0180931654218851</v>
+        <v>0.0187134560589014</v>
       </c>
       <c r="F141" t="n">
         <v>0.164598881061465</v>
       </c>
       <c r="G141" t="n">
-        <v>0.187161847949028</v>
+        <v>0.1848376542329788</v>
       </c>
       <c r="H141" t="n">
-        <v>0.02256296688756301</v>
+        <v>0.02023877317151382</v>
       </c>
       <c r="I141" t="n">
-        <v>0.02256296688756301</v>
+        <v>0.02023877317151382</v>
       </c>
       <c r="J141" t="n">
         <v>0.2622113574606696</v>
       </c>
       <c r="K141" t="n">
-        <v>0.2841965556144714</v>
+        <v>0.2892933189868927</v>
       </c>
       <c r="L141" t="n">
-        <v>0.02198519815380179</v>
+        <v>0.02708196152622305</v>
       </c>
       <c r="M141" t="n">
-        <v>0.02198519815380179</v>
+        <v>0.02708196152622305</v>
       </c>
     </row>
     <row r="142">
@@ -6248,37 +6248,37 @@
         <v>0.165976384998477</v>
       </c>
       <c r="C142" t="n">
-        <v>0.1988214403390884</v>
+        <v>0.1983902156352997</v>
       </c>
       <c r="D142" t="n">
-        <v>0.03284505534061144</v>
+        <v>0.03241383063682268</v>
       </c>
       <c r="E142" t="n">
-        <v>0.03284505534061144</v>
+        <v>0.03241383063682268</v>
       </c>
       <c r="F142" t="n">
         <v>0.1498709155805387</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1890729069709778</v>
+        <v>0.1860650926828384</v>
       </c>
       <c r="H142" t="n">
-        <v>0.03920199139043912</v>
+        <v>0.03619417710229977</v>
       </c>
       <c r="I142" t="n">
-        <v>0.03920199139043912</v>
+        <v>0.03619417710229977</v>
       </c>
       <c r="J142" t="n">
         <v>0.275747905989452</v>
       </c>
       <c r="K142" t="n">
-        <v>0.2837506234645844</v>
+        <v>0.2892199158668518</v>
       </c>
       <c r="L142" t="n">
-        <v>0.008002717475132315</v>
+        <v>0.01347200987739977</v>
       </c>
       <c r="M142" t="n">
-        <v>0.008002717475132315</v>
+        <v>0.01347200987739977</v>
       </c>
     </row>
     <row r="143">
@@ -6289,37 +6289,37 @@
         <v>0.159047332782219</v>
       </c>
       <c r="C143" t="n">
-        <v>0.1994116455316544</v>
+        <v>0.1988037973642349</v>
       </c>
       <c r="D143" t="n">
-        <v>0.04036431274943536</v>
+        <v>0.03975646458201593</v>
       </c>
       <c r="E143" t="n">
-        <v>0.04036431274943536</v>
+        <v>0.03975646458201593</v>
       </c>
       <c r="F143" t="n">
         <v>0.1434472526767003</v>
       </c>
       <c r="G143" t="n">
-        <v>0.189792588353157</v>
+        <v>0.1863946318626404</v>
       </c>
       <c r="H143" t="n">
-        <v>0.04634533567645671</v>
+        <v>0.04294737918594005</v>
       </c>
       <c r="I143" t="n">
-        <v>0.04634533567645671</v>
+        <v>0.04294737918594005</v>
       </c>
       <c r="J143" t="n">
         <v>0.2979110734659626</v>
       </c>
       <c r="K143" t="n">
-        <v>0.2843153774738312</v>
+        <v>0.2894282639026642</v>
       </c>
       <c r="L143" t="n">
-        <v>-0.01359569599213145</v>
+        <v>-0.008482809563298443</v>
       </c>
       <c r="M143" t="n">
-        <v>0.01359569599213145</v>
+        <v>0.008482809563298443</v>
       </c>
     </row>
     <row r="144">
@@ -6330,37 +6330,37 @@
         <v>0.1611310643509127</v>
       </c>
       <c r="C144" t="n">
-        <v>0.1984852850437164</v>
+        <v>0.1987016946077347</v>
       </c>
       <c r="D144" t="n">
-        <v>0.03735422069280378</v>
+        <v>0.03757063025682203</v>
       </c>
       <c r="E144" t="n">
-        <v>0.03735422069280378</v>
+        <v>0.03757063025682203</v>
       </c>
       <c r="F144" t="n">
         <v>0.1477098792688477</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1893543601036072</v>
+        <v>0.1860767304897308</v>
       </c>
       <c r="H144" t="n">
-        <v>0.0416444808347595</v>
+        <v>0.03836685122088315</v>
       </c>
       <c r="I144" t="n">
-        <v>0.0416444808347595</v>
+        <v>0.03836685122088315</v>
       </c>
       <c r="J144" t="n">
         <v>0.324350155750139</v>
       </c>
       <c r="K144" t="n">
-        <v>0.2860714793205261</v>
+        <v>0.2905453741550446</v>
       </c>
       <c r="L144" t="n">
-        <v>-0.03827867642961286</v>
+        <v>-0.03380478159509442</v>
       </c>
       <c r="M144" t="n">
-        <v>0.03827867642961286</v>
+        <v>0.03380478159509442</v>
       </c>
     </row>
     <row r="145">
@@ -6371,37 +6371,37 @@
         <v>0.181318758393424</v>
       </c>
       <c r="C145" t="n">
-        <v>0.1967873871326447</v>
+        <v>0.1984839141368866</v>
       </c>
       <c r="D145" t="n">
-        <v>0.01546862873922064</v>
+        <v>0.01716515574346258</v>
       </c>
       <c r="E145" t="n">
-        <v>0.01546862873922064</v>
+        <v>0.01716515574346258</v>
       </c>
       <c r="F145" t="n">
         <v>0.173104632682473</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1883054971694946</v>
+        <v>0.1854457557201385</v>
       </c>
       <c r="H145" t="n">
-        <v>0.01520086448702163</v>
+        <v>0.01234112303766555</v>
       </c>
       <c r="I145" t="n">
-        <v>0.01520086448702163</v>
+        <v>0.01234112303766555</v>
       </c>
       <c r="J145" t="n">
         <v>0.333549779656972</v>
       </c>
       <c r="K145" t="n">
-        <v>0.2889752984046936</v>
+        <v>0.2929967641830444</v>
       </c>
       <c r="L145" t="n">
-        <v>-0.04457448125227836</v>
+        <v>-0.04055301547392753</v>
       </c>
       <c r="M145" t="n">
-        <v>0.04457448125227836</v>
+        <v>0.04055301547392753</v>
       </c>
     </row>
     <row r="146">
@@ -6412,37 +6412,37 @@
         <v>0.198631985433976</v>
       </c>
       <c r="C146" t="n">
-        <v>0.1955738961696625</v>
+        <v>0.1985837370157242</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.003058089264313529</v>
+        <v>-4.82484182518228e-05</v>
       </c>
       <c r="E146" t="n">
-        <v>0.003058089264313529</v>
+        <v>4.82484182518228e-05</v>
       </c>
       <c r="F146" t="n">
         <v>0.1981284624968607</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1874780654907227</v>
+        <v>0.1855542957782745</v>
       </c>
       <c r="H146" t="n">
-        <v>-0.01065039700613801</v>
+        <v>-0.01257416671858613</v>
       </c>
       <c r="I146" t="n">
-        <v>0.01065039700613801</v>
+        <v>0.01257416671858613</v>
       </c>
       <c r="J146" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K146" t="n">
-        <v>0.2932326793670654</v>
+        <v>0.2963491976261139</v>
       </c>
       <c r="L146" t="n">
-        <v>-0.05830413362031611</v>
+        <v>-0.05518761536126765</v>
       </c>
       <c r="M146" t="n">
-        <v>0.05830413362031611</v>
+        <v>0.05518761536126765</v>
       </c>
     </row>
     <row r="147">
@@ -6453,37 +6453,37 @@
         <v>0.2164134597854117</v>
       </c>
       <c r="C147" t="n">
-        <v>0.1954582929611206</v>
+        <v>0.1994011551141739</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.02095516682429108</v>
+        <v>-0.01701230467123779</v>
       </c>
       <c r="E147" t="n">
-        <v>0.02095516682429108</v>
+        <v>0.01701230467123779</v>
       </c>
       <c r="F147" t="n">
         <v>0.2219325449655963</v>
       </c>
       <c r="G147" t="n">
-        <v>0.187812551856041</v>
+        <v>0.1869565844535828</v>
       </c>
       <c r="H147" t="n">
-        <v>-0.03411999310955538</v>
+        <v>-0.03497596051201357</v>
       </c>
       <c r="I147" t="n">
-        <v>0.03411999310955538</v>
+        <v>0.03497596051201357</v>
       </c>
       <c r="J147" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K147" t="n">
-        <v>0.2983596324920654</v>
+        <v>0.3004142940044403</v>
       </c>
       <c r="L147" t="n">
-        <v>-0.05317718049531611</v>
+        <v>-0.05112251898294123</v>
       </c>
       <c r="M147" t="n">
-        <v>0.05317718049531611</v>
+        <v>0.05112251898294123</v>
       </c>
     </row>
     <row r="148">
@@ -6494,37 +6494,37 @@
         <v>0.224500191587222</v>
       </c>
       <c r="C148" t="n">
-        <v>0.1966510713100433</v>
+        <v>0.2010322064161301</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.02784912027717865</v>
+        <v>-0.02346798517109192</v>
       </c>
       <c r="E148" t="n">
-        <v>0.02784912027717865</v>
+        <v>0.02346798517109192</v>
       </c>
       <c r="F148" t="n">
         <v>0.2328287417105643</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1893971860408783</v>
+        <v>0.1898585706949234</v>
       </c>
       <c r="H148" t="n">
-        <v>-0.04343155566968604</v>
+        <v>-0.04297017101564093</v>
       </c>
       <c r="I148" t="n">
-        <v>0.04343155566968604</v>
+        <v>0.04297017101564093</v>
       </c>
       <c r="J148" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K148" t="n">
-        <v>0.303458571434021</v>
+        <v>0.3043306469917297</v>
       </c>
       <c r="L148" t="n">
-        <v>-0.04807824155336055</v>
+        <v>-0.04720616599565181</v>
       </c>
       <c r="M148" t="n">
-        <v>0.04807824155336055</v>
+        <v>0.04720616599565181</v>
       </c>
     </row>
     <row r="149">
@@ -6535,37 +6535,37 @@
         <v>0.238028222215791</v>
       </c>
       <c r="C149" t="n">
-        <v>0.1990521550178528</v>
+        <v>0.2035965472459793</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.0389760671979382</v>
+        <v>-0.03443167496981167</v>
       </c>
       <c r="E149" t="n">
-        <v>0.0389760671979382</v>
+        <v>0.03443167496981167</v>
       </c>
       <c r="F149" t="n">
         <v>0.2441425471520846</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1921255439519882</v>
+        <v>0.1939869374036789</v>
       </c>
       <c r="H149" t="n">
-        <v>-0.05201700320009642</v>
+        <v>-0.05015560974840574</v>
       </c>
       <c r="I149" t="n">
-        <v>0.05201700320009642</v>
+        <v>0.05015560974840574</v>
       </c>
       <c r="J149" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K149" t="n">
-        <v>0.3077385425567627</v>
+        <v>0.3072634637355804</v>
       </c>
       <c r="L149" t="n">
-        <v>-0.04379827043061885</v>
+        <v>-0.0442733492518011</v>
       </c>
       <c r="M149" t="n">
-        <v>0.04379827043061885</v>
+        <v>0.0442733492518011</v>
       </c>
     </row>
     <row r="150">
@@ -6576,37 +6576,37 @@
         <v>0.2525954695566859</v>
       </c>
       <c r="C150" t="n">
-        <v>0.2026443332433701</v>
+        <v>0.2080433964729309</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.04995113631331588</v>
+        <v>-0.04455207308375503</v>
       </c>
       <c r="E150" t="n">
-        <v>0.04995113631331588</v>
+        <v>0.04455207308375503</v>
       </c>
       <c r="F150" t="n">
         <v>0.2569254808847476</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1960863769054413</v>
+        <v>0.1996756941080093</v>
       </c>
       <c r="H150" t="n">
-        <v>-0.06083910397930636</v>
+        <v>-0.05724978677673831</v>
       </c>
       <c r="I150" t="n">
-        <v>0.06083910397930636</v>
+        <v>0.05724978677673831</v>
       </c>
       <c r="J150" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K150" t="n">
-        <v>0.3109198212623596</v>
+        <v>0.3086692690849304</v>
       </c>
       <c r="L150" t="n">
-        <v>-0.04061699172502192</v>
+        <v>-0.04286754390245112</v>
       </c>
       <c r="M150" t="n">
-        <v>0.04061699172502192</v>
+        <v>0.04286754390245112</v>
       </c>
     </row>
     <row r="151">
@@ -6617,37 +6617,37 @@
         <v>0.270707854256093</v>
       </c>
       <c r="C151" t="n">
-        <v>0.2080591171979904</v>
+        <v>0.2141532003879547</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.06264873705810259</v>
+        <v>-0.05655465386813829</v>
       </c>
       <c r="E151" t="n">
-        <v>0.06264873705810259</v>
+        <v>0.05655465386813829</v>
       </c>
       <c r="F151" t="n">
         <v>0.2718008480482443</v>
       </c>
       <c r="G151" t="n">
-        <v>0.2021205127239227</v>
+        <v>0.2067248523235321</v>
       </c>
       <c r="H151" t="n">
-        <v>-0.06968033532432155</v>
+        <v>-0.06507599572471218</v>
       </c>
       <c r="I151" t="n">
-        <v>0.06968033532432155</v>
+        <v>0.06507599572471218</v>
       </c>
       <c r="J151" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K151" t="n">
-        <v>0.3127751350402832</v>
+        <v>0.3086494207382202</v>
       </c>
       <c r="L151" t="n">
-        <v>-0.03876167794709834</v>
+        <v>-0.04288739224916133</v>
       </c>
       <c r="M151" t="n">
-        <v>0.03876167794709834</v>
+        <v>0.04288739224916133</v>
       </c>
     </row>
     <row r="152">
@@ -6658,37 +6658,37 @@
         <v>0.279686136648052</v>
       </c>
       <c r="C152" t="n">
-        <v>0.2151271402835846</v>
+        <v>0.2212678790092468</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.06455899636446744</v>
+        <v>-0.0584182576388052</v>
       </c>
       <c r="E152" t="n">
-        <v>0.06455899636446744</v>
+        <v>0.0584182576388052</v>
       </c>
       <c r="F152" t="n">
         <v>0.2782458619472547</v>
       </c>
       <c r="G152" t="n">
-        <v>0.2097983360290527</v>
+        <v>0.2143747806549072</v>
       </c>
       <c r="H152" t="n">
-        <v>-0.06844752591820197</v>
+        <v>-0.06387108129234748</v>
       </c>
       <c r="I152" t="n">
-        <v>0.06844752591820197</v>
+        <v>0.06387108129234748</v>
       </c>
       <c r="J152" t="n">
         <v>0.3465455382231826</v>
       </c>
       <c r="K152" t="n">
-        <v>0.3132382035255432</v>
+        <v>0.307336688041687</v>
       </c>
       <c r="L152" t="n">
-        <v>-0.03330733469763941</v>
+        <v>-0.03920885018149561</v>
       </c>
       <c r="M152" t="n">
-        <v>0.03330733469763941</v>
+        <v>0.03920885018149561</v>
       </c>
     </row>
     <row r="153">
@@ -6699,37 +6699,37 @@
         <v>0.2863950502545537</v>
       </c>
       <c r="C153" t="n">
-        <v>0.2235160768032074</v>
+        <v>0.2301109433174133</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.0628789734513463</v>
+        <v>-0.05628410693714037</v>
       </c>
       <c r="E153" t="n">
-        <v>0.0628789734513463</v>
+        <v>0.05628410693714037</v>
       </c>
       <c r="F153" t="n">
         <v>0.2850903906106533</v>
       </c>
       <c r="G153" t="n">
-        <v>0.2185429185628891</v>
+        <v>0.221574455499649</v>
       </c>
       <c r="H153" t="n">
-        <v>-0.06654747204776423</v>
+        <v>-0.06351593511100428</v>
       </c>
       <c r="I153" t="n">
-        <v>0.06654747204776423</v>
+        <v>0.06351593511100428</v>
       </c>
       <c r="J153" t="n">
         <v>0.3256581108630893</v>
       </c>
       <c r="K153" t="n">
-        <v>0.3119537532329559</v>
+        <v>0.3031563758850098</v>
       </c>
       <c r="L153" t="n">
-        <v>-0.01370435763013339</v>
+        <v>-0.02250173497807956</v>
       </c>
       <c r="M153" t="n">
-        <v>0.01370435763013339</v>
+        <v>0.02250173497807956</v>
       </c>
     </row>
     <row r="154">
@@ -6740,37 +6740,37 @@
         <v>0.2950974103429234</v>
       </c>
       <c r="C154" t="n">
-        <v>0.2324598729610443</v>
+        <v>0.240420013666153</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.06263753738187905</v>
+        <v>-0.05467739667677041</v>
       </c>
       <c r="E154" t="n">
-        <v>0.06263753738187905</v>
+        <v>0.05467739667677041</v>
       </c>
       <c r="F154" t="n">
         <v>0.295508089951071</v>
       </c>
       <c r="G154" t="n">
-        <v>0.2275723218917847</v>
+        <v>0.2262808680534363</v>
       </c>
       <c r="H154" t="n">
-        <v>-0.06793576805928631</v>
+        <v>-0.06922722189763469</v>
       </c>
       <c r="I154" t="n">
-        <v>0.06793576805928631</v>
+        <v>0.06922722189763469</v>
       </c>
       <c r="J154" t="n">
         <v>0.3199561163922373</v>
       </c>
       <c r="K154" t="n">
-        <v>0.3084863424301147</v>
+        <v>0.2966932952404022</v>
       </c>
       <c r="L154" t="n">
-        <v>-0.01146977396212256</v>
+        <v>-0.02326282115183509</v>
       </c>
       <c r="M154" t="n">
-        <v>0.01146977396212256</v>
+        <v>0.02326282115183509</v>
       </c>
     </row>
     <row r="155">
@@ -6781,37 +6781,37 @@
         <v>0.3142143094450007</v>
       </c>
       <c r="C155" t="n">
-        <v>0.2412551641464233</v>
+        <v>0.2498447448015213</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.07295914529857733</v>
+        <v>-0.06436956464347937</v>
       </c>
       <c r="E155" t="n">
-        <v>0.07295914529857733</v>
+        <v>0.06436956464347937</v>
       </c>
       <c r="F155" t="n">
         <v>0.3154065125533116</v>
       </c>
       <c r="G155" t="n">
-        <v>0.2363397032022476</v>
+        <v>0.2307016104459763</v>
       </c>
       <c r="H155" t="n">
-        <v>-0.07906680935106403</v>
+        <v>-0.08470490210733539</v>
       </c>
       <c r="I155" t="n">
-        <v>0.07906680935106403</v>
+        <v>0.08470490210733539</v>
       </c>
       <c r="J155" t="n">
         <v>0.3049077755746917</v>
       </c>
       <c r="K155" t="n">
-        <v>0.3022837042808533</v>
+        <v>0.2890618145465851</v>
       </c>
       <c r="L155" t="n">
-        <v>-0.002624071293838404</v>
+        <v>-0.01584596102810659</v>
       </c>
       <c r="M155" t="n">
-        <v>0.002624071293838404</v>
+        <v>0.01584596102810659</v>
       </c>
     </row>
     <row r="156">
@@ -6822,37 +6822,37 @@
         <v>0.329521086051315</v>
       </c>
       <c r="C156" t="n">
-        <v>0.2491410225629807</v>
+        <v>0.2578640282154083</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.08038006348833432</v>
+        <v>-0.07165705783590665</v>
       </c>
       <c r="E156" t="n">
-        <v>0.08038006348833432</v>
+        <v>0.07165705783590665</v>
       </c>
       <c r="F156" t="n">
         <v>0.3305609521334953</v>
       </c>
       <c r="G156" t="n">
-        <v>0.2442253977060318</v>
+        <v>0.2360554337501526</v>
       </c>
       <c r="H156" t="n">
-        <v>-0.08633555442746355</v>
+        <v>-0.09450551838334276</v>
       </c>
       <c r="I156" t="n">
-        <v>0.08633555442746355</v>
+        <v>0.09450551838334276</v>
       </c>
       <c r="J156" t="n">
         <v>0.293185925091355</v>
       </c>
       <c r="K156" t="n">
-        <v>0.2952476441860199</v>
+        <v>0.2810976803302765</v>
       </c>
       <c r="L156" t="n">
-        <v>0.002061719094664904</v>
+        <v>-0.0120882447610785</v>
       </c>
       <c r="M156" t="n">
-        <v>0.002061719094664904</v>
+        <v>0.0120882447610785</v>
       </c>
     </row>
     <row r="157">
@@ -6863,37 +6863,37 @@
         <v>0.333844124481072</v>
       </c>
       <c r="C157" t="n">
-        <v>0.2564452290534973</v>
+        <v>0.2651848495006561</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.07739889542757467</v>
+        <v>-0.06865927498041585</v>
       </c>
       <c r="E157" t="n">
-        <v>0.07739889542757467</v>
+        <v>0.06865927498041585</v>
       </c>
       <c r="F157" t="n">
         <v>0.333724374216379</v>
       </c>
       <c r="G157" t="n">
-        <v>0.2509519755840302</v>
+        <v>0.2412033528089523</v>
       </c>
       <c r="H157" t="n">
-        <v>-0.08277239863234881</v>
+        <v>-0.09252102140742663</v>
       </c>
       <c r="I157" t="n">
-        <v>0.08277239863234881</v>
+        <v>0.09252102140742663</v>
       </c>
       <c r="J157" t="n">
         <v>0.2791314520275426</v>
       </c>
       <c r="K157" t="n">
-        <v>0.2873213291168213</v>
+        <v>0.2733459770679474</v>
       </c>
       <c r="L157" t="n">
-        <v>0.008189877089278652</v>
+        <v>-0.005785474959595249</v>
       </c>
       <c r="M157" t="n">
-        <v>0.008189877089278652</v>
+        <v>0.005785474959595249</v>
       </c>
     </row>
     <row r="158">
@@ -6904,37 +6904,37 @@
         <v>0.3275173531852716</v>
       </c>
       <c r="C158" t="n">
-        <v>0.2629716098308563</v>
+        <v>0.270350456237793</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.06454574335441532</v>
+        <v>-0.05716689694747867</v>
       </c>
       <c r="E158" t="n">
-        <v>0.06454574335441532</v>
+        <v>0.05716689694747867</v>
       </c>
       <c r="F158" t="n">
         <v>0.3260827381834017</v>
       </c>
       <c r="G158" t="n">
-        <v>0.2565774917602539</v>
+        <v>0.2452058494091034</v>
       </c>
       <c r="H158" t="n">
-        <v>-0.06950524642314776</v>
+        <v>-0.08087688877429827</v>
       </c>
       <c r="I158" t="n">
-        <v>0.06950524642314776</v>
+        <v>0.08087688877429827</v>
       </c>
       <c r="J158" t="n">
         <v>0.2672360884383073</v>
       </c>
       <c r="K158" t="n">
-        <v>0.2792123556137085</v>
+        <v>0.2667883634567261</v>
       </c>
       <c r="L158" t="n">
-        <v>0.01197626717540118</v>
+        <v>-0.0004477249815812434</v>
       </c>
       <c r="M158" t="n">
-        <v>0.01197626717540118</v>
+        <v>0.0004477249815812434</v>
       </c>
     </row>
     <row r="159">
@@ -6945,37 +6945,37 @@
         <v>0.3220803243255976</v>
       </c>
       <c r="C159" t="n">
-        <v>0.2669644951820374</v>
+        <v>0.275050938129425</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.05511582914356028</v>
+        <v>-0.04702938619617258</v>
       </c>
       <c r="E159" t="n">
-        <v>0.05511582914356028</v>
+        <v>0.04702938619617258</v>
       </c>
       <c r="F159" t="n">
         <v>0.3182318113192963</v>
       </c>
       <c r="G159" t="n">
-        <v>0.2613289058208466</v>
+        <v>0.2473791688680649</v>
       </c>
       <c r="H159" t="n">
-        <v>-0.05690290549844973</v>
+        <v>-0.07085264245123141</v>
       </c>
       <c r="I159" t="n">
-        <v>0.05690290549844973</v>
+        <v>0.07085264245123141</v>
       </c>
       <c r="J159" t="n">
         <v>0.2579858296113366</v>
       </c>
       <c r="K159" t="n">
-        <v>0.2733903825283051</v>
+        <v>0.26382777094841</v>
       </c>
       <c r="L159" t="n">
-        <v>0.01540455291696841</v>
+        <v>0.005841941337073386</v>
       </c>
       <c r="M159" t="n">
-        <v>0.01540455291696841</v>
+        <v>0.005841941337073386</v>
       </c>
     </row>
     <row r="160">
@@ -6986,37 +6986,37 @@
         <v>0.321199841413617</v>
       </c>
       <c r="C160" t="n">
-        <v>0.2688096463680267</v>
+        <v>0.2777713239192963</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.05239019504559023</v>
+        <v>-0.0434285174943207</v>
       </c>
       <c r="E160" t="n">
-        <v>0.05239019504559023</v>
+        <v>0.0434285174943207</v>
       </c>
       <c r="F160" t="n">
         <v>0.314425143150634</v>
       </c>
       <c r="G160" t="n">
-        <v>0.2642585635185242</v>
+        <v>0.2486234903335571</v>
       </c>
       <c r="H160" t="n">
-        <v>-0.05016657963210985</v>
+        <v>-0.06580165281707689</v>
       </c>
       <c r="I160" t="n">
-        <v>0.05016657963210985</v>
+        <v>0.06580165281707689</v>
       </c>
       <c r="J160" t="n">
         <v>0.2554667667372419</v>
       </c>
       <c r="K160" t="n">
-        <v>0.2695799171924591</v>
+        <v>0.2628165483474731</v>
       </c>
       <c r="L160" t="n">
-        <v>0.01411315045521716</v>
+        <v>0.007349781610231199</v>
       </c>
       <c r="M160" t="n">
-        <v>0.01411315045521716</v>
+        <v>0.007349781610231199</v>
       </c>
     </row>
     <row r="161">
@@ -7027,37 +7027,37 @@
         <v>0.3203201247547297</v>
       </c>
       <c r="C161" t="n">
-        <v>0.2690987586975098</v>
+        <v>0.2793034017086029</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.05122136605721989</v>
+        <v>-0.04101672304612675</v>
       </c>
       <c r="E161" t="n">
-        <v>0.05122136605721989</v>
+        <v>0.04101672304612675</v>
       </c>
       <c r="F161" t="n">
         <v>0.3126659250224297</v>
       </c>
       <c r="G161" t="n">
-        <v>0.2654881179332733</v>
+        <v>0.248933732509613</v>
       </c>
       <c r="H161" t="n">
-        <v>-0.04717780708915637</v>
+        <v>-0.06373219251281664</v>
       </c>
       <c r="I161" t="n">
-        <v>0.04717780708915637</v>
+        <v>0.06373219251281664</v>
       </c>
       <c r="J161" t="n">
         <v>0.2564649122345333</v>
       </c>
       <c r="K161" t="n">
-        <v>0.2672805786132812</v>
+        <v>0.2620420455932617</v>
       </c>
       <c r="L161" t="n">
-        <v>0.01081566637874792</v>
+        <v>0.005577133358728392</v>
       </c>
       <c r="M161" t="n">
-        <v>0.01081566637874792</v>
+        <v>0.005577133358728392</v>
       </c>
     </row>
     <row r="162">
@@ -7068,37 +7068,37 @@
         <v>0.321686736464939</v>
       </c>
       <c r="C162" t="n">
-        <v>0.2693338394165039</v>
+        <v>0.2797160148620605</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.0523528970484351</v>
+        <v>-0.04197072160287846</v>
       </c>
       <c r="E162" t="n">
-        <v>0.0523528970484351</v>
+        <v>0.04197072160287846</v>
       </c>
       <c r="F162" t="n">
         <v>0.312325921103638</v>
       </c>
       <c r="G162" t="n">
-        <v>0.2652206122875214</v>
+        <v>0.2486181557178497</v>
       </c>
       <c r="H162" t="n">
-        <v>-0.04710530881611663</v>
+        <v>-0.06370776538578826</v>
       </c>
       <c r="I162" t="n">
-        <v>0.04710530881611663</v>
+        <v>0.06370776538578826</v>
       </c>
       <c r="J162" t="n">
         <v>0.2563378847567994</v>
       </c>
       <c r="K162" t="n">
-        <v>0.2656953632831573</v>
+        <v>0.2613029181957245</v>
       </c>
       <c r="L162" t="n">
-        <v>0.009357478526357987</v>
+        <v>0.004965033438925126</v>
       </c>
       <c r="M162" t="n">
-        <v>0.009357478526357987</v>
+        <v>0.004965033438925126</v>
       </c>
     </row>
     <row r="163">
@@ -7109,37 +7109,37 @@
         <v>0.3223743049260167</v>
       </c>
       <c r="C163" t="n">
-        <v>0.2692544162273407</v>
+        <v>0.2795077562332153</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.05311988869867595</v>
+        <v>-0.04286654869280132</v>
       </c>
       <c r="E163" t="n">
-        <v>0.05311988869867595</v>
+        <v>0.04286654869280132</v>
       </c>
       <c r="F163" t="n">
         <v>0.3120223969652877</v>
       </c>
       <c r="G163" t="n">
-        <v>0.2647332549095154</v>
+        <v>0.2479759603738785</v>
       </c>
       <c r="H163" t="n">
-        <v>-0.04728914205577228</v>
+        <v>-0.06404643659140918</v>
       </c>
       <c r="I163" t="n">
-        <v>0.04728914205577228</v>
+        <v>0.06404643659140918</v>
       </c>
       <c r="J163" t="n">
         <v>0.2571494802327283</v>
       </c>
       <c r="K163" t="n">
-        <v>0.2645118832588196</v>
+        <v>0.2606744766235352</v>
       </c>
       <c r="L163" t="n">
-        <v>0.007362403026091258</v>
+        <v>0.003524996390806834</v>
       </c>
       <c r="M163" t="n">
-        <v>0.007362403026091258</v>
+        <v>0.003524996390806834</v>
       </c>
     </row>
     <row r="164">
@@ -7150,37 +7150,37 @@
         <v>0.3215428822646886</v>
       </c>
       <c r="C164" t="n">
-        <v>0.2690878510475159</v>
+        <v>0.2789969742298126</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.05245503121717277</v>
+        <v>-0.04254590803487601</v>
       </c>
       <c r="E164" t="n">
-        <v>0.05245503121717277</v>
+        <v>0.04254590803487601</v>
       </c>
       <c r="F164" t="n">
         <v>0.310374154201732</v>
       </c>
       <c r="G164" t="n">
-        <v>0.2643354535102844</v>
+        <v>0.2472295165061951</v>
       </c>
       <c r="H164" t="n">
-        <v>-0.04603870069144755</v>
+        <v>-0.06314463769553691</v>
       </c>
       <c r="I164" t="n">
-        <v>0.04603870069144755</v>
+        <v>0.06314463769553691</v>
       </c>
       <c r="J164" t="n">
         <v>0.2590512166467536</v>
       </c>
       <c r="K164" t="n">
-        <v>0.2637159824371338</v>
+        <v>0.2601718604564667</v>
       </c>
       <c r="L164" t="n">
-        <v>0.004664765790380165</v>
+        <v>0.001120643809713051</v>
       </c>
       <c r="M164" t="n">
-        <v>0.004664765790380165</v>
+        <v>0.001120643809713051</v>
       </c>
     </row>
     <row r="165">
@@ -7191,37 +7191,37 @@
         <v>0.3168836250136843</v>
       </c>
       <c r="C165" t="n">
-        <v>0.268733024597168</v>
+        <v>0.2782288491725922</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.04815060041651636</v>
+        <v>-0.03865477584109217</v>
       </c>
       <c r="E165" t="n">
-        <v>0.04815060041651636</v>
+        <v>0.03865477584109217</v>
       </c>
       <c r="F165" t="n">
         <v>0.3069845233504573</v>
       </c>
       <c r="G165" t="n">
-        <v>0.2637817561626434</v>
+        <v>0.2464399337768555</v>
       </c>
       <c r="H165" t="n">
-        <v>-0.04320276718781391</v>
+        <v>-0.06054458957360187</v>
       </c>
       <c r="I165" t="n">
-        <v>0.04320276718781391</v>
+        <v>0.06054458957360187</v>
       </c>
       <c r="J165" t="n">
         <v>0.261058198507437</v>
       </c>
       <c r="K165" t="n">
-        <v>0.263206273317337</v>
+        <v>0.2598205208778381</v>
       </c>
       <c r="L165" t="n">
-        <v>0.002148074809900036</v>
+        <v>-0.001237677629598866</v>
       </c>
       <c r="M165" t="n">
-        <v>0.002148074809900036</v>
+        <v>0.001237677629598866</v>
       </c>
     </row>
     <row r="166">
@@ -7232,37 +7232,37 @@
         <v>0.312086804237977</v>
       </c>
       <c r="C166" t="n">
-        <v>0.268106609582901</v>
+        <v>0.277185320854187</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.04398019465507602</v>
+        <v>-0.03490148338379001</v>
       </c>
       <c r="E166" t="n">
-        <v>0.04398019465507602</v>
+        <v>0.03490148338379001</v>
       </c>
       <c r="F166" t="n">
         <v>0.3022930806442113</v>
       </c>
       <c r="G166" t="n">
-        <v>0.2630023956298828</v>
+        <v>0.2456274330615997</v>
       </c>
       <c r="H166" t="n">
-        <v>-0.03929068501432853</v>
+        <v>-0.05666564758261161</v>
       </c>
       <c r="I166" t="n">
-        <v>0.03929068501432853</v>
+        <v>0.05666564758261161</v>
       </c>
       <c r="J166" t="n">
         <v>0.260799147933884</v>
       </c>
       <c r="K166" t="n">
-        <v>0.2630241215229034</v>
+        <v>0.2596356868743896</v>
       </c>
       <c r="L166" t="n">
-        <v>0.002224973589019463</v>
+        <v>-0.001163461059494331</v>
       </c>
       <c r="M166" t="n">
-        <v>0.002224973589019463</v>
+        <v>0.001163461059494331</v>
       </c>
     </row>
     <row r="167">
@@ -7273,37 +7273,37 @@
         <v>0.3095769043754766</v>
       </c>
       <c r="C167" t="n">
-        <v>0.267219752073288</v>
+        <v>0.2759244740009308</v>
       </c>
       <c r="D167" t="n">
-        <v>-0.04235715230218867</v>
+        <v>-0.03365243037454585</v>
       </c>
       <c r="E167" t="n">
-        <v>0.04235715230218867</v>
+        <v>0.03365243037454585</v>
       </c>
       <c r="F167" t="n">
         <v>0.300083644191577</v>
       </c>
       <c r="G167" t="n">
-        <v>0.2619872093200684</v>
+        <v>0.2447717785835266</v>
       </c>
       <c r="H167" t="n">
-        <v>-0.03809643487150866</v>
+        <v>-0.0553118656080504</v>
       </c>
       <c r="I167" t="n">
-        <v>0.03809643487150866</v>
+        <v>0.0553118656080504</v>
       </c>
       <c r="J167" t="n">
         <v>0.260405534851603</v>
       </c>
       <c r="K167" t="n">
-        <v>0.2630538046360016</v>
+        <v>0.2595539391040802</v>
       </c>
       <c r="L167" t="n">
-        <v>0.002648269784398583</v>
+        <v>-0.0008515957475228042</v>
       </c>
       <c r="M167" t="n">
-        <v>0.002648269784398583</v>
+        <v>0.0008515957475228042</v>
       </c>
     </row>
     <row r="168">
@@ -7314,37 +7314,37 @@
         <v>0.3071483825891413</v>
       </c>
       <c r="C168" t="n">
-        <v>0.2662736177444458</v>
+        <v>0.274668961763382</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.04087476484469549</v>
+        <v>-0.03247942082575933</v>
       </c>
       <c r="E168" t="n">
-        <v>0.04087476484469549</v>
+        <v>0.03247942082575933</v>
       </c>
       <c r="F168" t="n">
         <v>0.2967726958810373</v>
       </c>
       <c r="G168" t="n">
-        <v>0.2609456181526184</v>
+        <v>0.2439450323581696</v>
       </c>
       <c r="H168" t="n">
-        <v>-0.03582707772841892</v>
+        <v>-0.05282766352286777</v>
       </c>
       <c r="I168" t="n">
-        <v>0.03582707772841892</v>
+        <v>0.05282766352286777</v>
       </c>
       <c r="J168" t="n">
         <v>0.2577678670880707</v>
       </c>
       <c r="K168" t="n">
-        <v>0.2631690204143524</v>
+        <v>0.25950688123703</v>
       </c>
       <c r="L168" t="n">
-        <v>0.005401153326281716</v>
+        <v>0.001739014148959328</v>
       </c>
       <c r="M168" t="n">
-        <v>0.005401153326281716</v>
+        <v>0.001739014148959328</v>
       </c>
     </row>
     <row r="169">
@@ -7355,37 +7355,37 @@
         <v>0.3011944487543753</v>
       </c>
       <c r="C169" t="n">
-        <v>0.265343189239502</v>
+        <v>0.2734707593917847</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.03585125951487339</v>
+        <v>-0.02772368936259068</v>
       </c>
       <c r="E169" t="n">
-        <v>0.03585125951487339</v>
+        <v>0.02772368936259068</v>
       </c>
       <c r="F169" t="n">
         <v>0.291500056866333</v>
       </c>
       <c r="G169" t="n">
-        <v>0.2599396109580994</v>
+        <v>0.2430947422981262</v>
       </c>
       <c r="H169" t="n">
-        <v>-0.03156044590823365</v>
+        <v>-0.04840531456820679</v>
       </c>
       <c r="I169" t="n">
-        <v>0.03156044590823365</v>
+        <v>0.04840531456820679</v>
       </c>
       <c r="J169" t="n">
         <v>0.262489934050508</v>
       </c>
       <c r="K169" t="n">
-        <v>0.2632320821285248</v>
+        <v>0.2594108581542969</v>
       </c>
       <c r="L169" t="n">
-        <v>0.0007421480780167578</v>
+        <v>-0.003079075896211148</v>
       </c>
       <c r="M169" t="n">
-        <v>0.0007421480780167578</v>
+        <v>0.003079075896211148</v>
       </c>
     </row>
     <row r="170">
@@ -7396,37 +7396,37 @@
         <v>0.2997443993424495</v>
       </c>
       <c r="C170" t="n">
-        <v>0.2643337547779083</v>
+        <v>0.2721811234951019</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.03541064456454113</v>
+        <v>-0.02756327584734752</v>
       </c>
       <c r="E170" t="n">
-        <v>0.03541064456454113</v>
+        <v>0.02756327584734752</v>
       </c>
       <c r="F170" t="n">
         <v>0.289278257068974</v>
       </c>
       <c r="G170" t="n">
-        <v>0.2588692903518677</v>
+        <v>0.242136687040329</v>
       </c>
       <c r="H170" t="n">
-        <v>-0.03040896671710636</v>
+        <v>-0.04714157002864505</v>
       </c>
       <c r="I170" t="n">
-        <v>0.03040896671710636</v>
+        <v>0.04714157002864505</v>
       </c>
       <c r="J170" t="n">
         <v>0.2645010715573111</v>
       </c>
       <c r="K170" t="n">
-        <v>0.2632957696914673</v>
+        <v>0.2592793405056</v>
       </c>
       <c r="L170" t="n">
-        <v>-0.001205301865843778</v>
+        <v>-0.005221731051711087</v>
       </c>
       <c r="M170" t="n">
-        <v>0.001205301865843778</v>
+        <v>0.005221731051711087</v>
       </c>
     </row>
   </sheetData>

--- a/segment_predictions_cluster_4_3outputs.xlsx
+++ b/segment_predictions_cluster_4_3outputs.xlsx
@@ -508,37 +508,37 @@
         <v>0.331862926265305</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2841943502426147</v>
+        <v>0.2652319669723511</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.04766857602269026</v>
+        <v>-0.06663095929295393</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04766857602269026</v>
+        <v>0.06663095929295393</v>
       </c>
       <c r="F2" t="n">
         <v>0.2982462147539837</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2501530647277832</v>
+        <v>0.2566251158714294</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.04809315002620046</v>
+        <v>-0.04162109888255422</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04809315002620046</v>
+        <v>0.04162109888255422</v>
       </c>
       <c r="J2" t="n">
         <v>0.2794714430366034</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2595258057117462</v>
+        <v>0.2765454947948456</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.01994563732485716</v>
+        <v>-0.002925948241757792</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01994563732485716</v>
+        <v>0.002925948241757792</v>
       </c>
     </row>
     <row r="3">
@@ -549,37 +549,37 @@
         <v>0.3376031348797077</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2822328805923462</v>
+        <v>0.2638824284076691</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.05537025428736148</v>
+        <v>-0.0737207064720386</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05537025428736148</v>
+        <v>0.0737207064720386</v>
       </c>
       <c r="F3" t="n">
         <v>0.3039114070613413</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2488896995782852</v>
+        <v>0.255071222782135</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.05502170748305613</v>
+        <v>-0.04884018427920633</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05502170748305613</v>
+        <v>0.04884018427920633</v>
       </c>
       <c r="J3" t="n">
         <v>0.2820945301031627</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2595193088054657</v>
+        <v>0.276003509759903</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.02257522129769696</v>
+        <v>-0.006091020343259701</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02257522129769696</v>
+        <v>0.006091020343259701</v>
       </c>
     </row>
     <row r="4">
@@ -590,37 +590,37 @@
         <v>0.342875381475612</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2809078097343445</v>
+        <v>0.2629058361053467</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.06196757174126755</v>
+        <v>-0.07996954537026535</v>
       </c>
       <c r="E4" t="n">
-        <v>0.06196757174126755</v>
+        <v>0.07996954537026535</v>
       </c>
       <c r="F4" t="n">
         <v>0.3083684006184597</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2481212317943573</v>
+        <v>0.2539471685886383</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.06024716882410236</v>
+        <v>-0.05442123202982135</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06024716882410236</v>
+        <v>0.05442123202982135</v>
       </c>
       <c r="J4" t="n">
         <v>0.2856378020455904</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2595798075199127</v>
+        <v>0.2756061851978302</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.02605799452567764</v>
+        <v>-0.01003161684776016</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02605799452567764</v>
+        <v>0.01003161684776016</v>
       </c>
     </row>
     <row r="5">
@@ -631,37 +631,37 @@
         <v>0.345121710126261</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2803177833557129</v>
+        <v>0.2624214589595795</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.06480392677054808</v>
+        <v>-0.0827002511666815</v>
       </c>
       <c r="E5" t="n">
-        <v>0.06480392677054808</v>
+        <v>0.0827002511666815</v>
       </c>
       <c r="F5" t="n">
         <v>0.310275043776571</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2478752732276917</v>
+        <v>0.253377765417099</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.06239977054887935</v>
+        <v>-0.056897278359472</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06239977054887935</v>
+        <v>0.056897278359472</v>
       </c>
       <c r="J5" t="n">
         <v>0.285340140443725</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2597131133079529</v>
+        <v>0.2754114866256714</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.02562702713577214</v>
+        <v>-0.009928653818053634</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02562702713577214</v>
+        <v>0.009928653818053634</v>
       </c>
     </row>
     <row r="6">
@@ -672,37 +672,37 @@
         <v>0.3441637690322987</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2802974283695221</v>
+        <v>0.2622813582420349</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.06386634066277663</v>
+        <v>-0.08188241079026382</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06386634066277663</v>
+        <v>0.08188241079026382</v>
       </c>
       <c r="F6" t="n">
         <v>0.3085427235703064</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2480311393737793</v>
+        <v>0.2531275451183319</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.06051158419652708</v>
+        <v>-0.05541517845197447</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06051158419652708</v>
+        <v>0.05541517845197447</v>
       </c>
       <c r="J6" t="n">
         <v>0.2846459209254197</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2599032819271088</v>
+        <v>0.2754088044166565</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.02474263899831092</v>
+        <v>-0.009237116508763188</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02474263899831092</v>
+        <v>0.009237116508763188</v>
       </c>
     </row>
     <row r="7">
@@ -713,37 +713,37 @@
         <v>0.3249733625319047</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2805184125900269</v>
+        <v>0.2622591853141785</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.04445494994187782</v>
+        <v>-0.06271417721772621</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04445494994187782</v>
+        <v>0.06271417721772621</v>
       </c>
       <c r="F7" t="n">
         <v>0.2907521333678237</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2483393102884293</v>
+        <v>0.2529473006725311</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.04241282307939448</v>
+        <v>-0.03780483269529261</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04241282307939448</v>
+        <v>0.03780483269529261</v>
       </c>
       <c r="J7" t="n">
         <v>0.2862702763763643</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2600880265235901</v>
+        <v>0.2755083441734314</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.02618224985277423</v>
+        <v>-0.01076193220293292</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02618224985277423</v>
+        <v>0.01076193220293292</v>
       </c>
     </row>
     <row r="8">
@@ -754,37 +754,37 @@
         <v>0.2912620505172104</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2800745666027069</v>
+        <v>0.2620497047901154</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01118748391450347</v>
+        <v>-0.02921234572709502</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01118748391450347</v>
+        <v>0.02921234572709502</v>
       </c>
       <c r="F8" t="n">
         <v>0.260904813744696</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2480316758155823</v>
+        <v>0.2525021731853485</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.01287313792911376</v>
+        <v>-0.00840264055934753</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01287313792911376</v>
+        <v>0.00840264055934753</v>
       </c>
       <c r="J8" t="n">
         <v>0.2889255449349253</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2600874602794647</v>
+        <v>0.2755698263645172</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.02883808465546062</v>
+        <v>-0.01335571857040813</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02883808465546062</v>
+        <v>0.01335571857040813</v>
       </c>
     </row>
     <row r="9">
@@ -795,37 +795,37 @@
         <v>0.2587419236728813</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2778859734535217</v>
+        <v>0.2611722648143768</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01914404978064038</v>
+        <v>0.002430341141495485</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01914404978064038</v>
+        <v>0.002430341141495485</v>
       </c>
       <c r="F9" t="n">
         <v>0.2329019747465387</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2462859600782394</v>
+        <v>0.2511353492736816</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01338398533170074</v>
+        <v>0.01823337452714294</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01338398533170074</v>
+        <v>0.01823337452714294</v>
       </c>
       <c r="J9" t="n">
         <v>0.2915943049886713</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2597738802433014</v>
+        <v>0.2754584848880768</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.03182042474536995</v>
+        <v>-0.01613582010059456</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03182042474536995</v>
+        <v>0.01613582010059456</v>
       </c>
     </row>
     <row r="10">
@@ -836,37 +836,37 @@
         <v>0.254634302761235</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2735410928726196</v>
+        <v>0.2594255805015564</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01890679011138463</v>
+        <v>0.004791277740321398</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01890679011138463</v>
+        <v>0.004791277740321398</v>
       </c>
       <c r="F10" t="n">
         <v>0.2309116994266977</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2428327053785324</v>
+        <v>0.2486229240894318</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01192100595183473</v>
+        <v>0.01771122466273409</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01192100595183473</v>
+        <v>0.01771122466273409</v>
       </c>
       <c r="J10" t="n">
         <v>0.2906345633751543</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2591390907764435</v>
+        <v>0.2750633955001831</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.03149547259871083</v>
+        <v>-0.0155711678749712</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03149547259871083</v>
+        <v>0.0155711678749712</v>
       </c>
     </row>
     <row r="11">
@@ -877,37 +877,37 @@
         <v>0.2762739543589456</v>
       </c>
       <c r="C11" t="n">
-        <v>0.268095463514328</v>
+        <v>0.257172554731369</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.008178490844617636</v>
+        <v>-0.01910139962757662</v>
       </c>
       <c r="E11" t="n">
-        <v>0.008178490844617636</v>
+        <v>0.01910139962757662</v>
       </c>
       <c r="F11" t="n">
         <v>0.2497897465741117</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2385488152503967</v>
+        <v>0.2454609721899033</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.01124093132371495</v>
+        <v>-0.004328774384208423</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01124093132371495</v>
+        <v>0.004328774384208423</v>
       </c>
       <c r="J11" t="n">
         <v>0.2899356026005867</v>
       </c>
       <c r="K11" t="n">
-        <v>0.258405327796936</v>
+        <v>0.2744660377502441</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.03153027480365062</v>
+        <v>-0.01546956485034251</v>
       </c>
       <c r="M11" t="n">
-        <v>0.03153027480365062</v>
+        <v>0.01546956485034251</v>
       </c>
     </row>
     <row r="12">
@@ -918,37 +918,37 @@
         <v>0.2996546821893907</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2632900178432465</v>
+        <v>0.2550930082798004</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.03636466434614422</v>
+        <v>-0.04456167390959026</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03636466434614422</v>
+        <v>0.04456167390959026</v>
       </c>
       <c r="F12" t="n">
         <v>0.2698637674626783</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2349502593278885</v>
+        <v>0.2425597608089447</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.03491350813478983</v>
+        <v>-0.02730400665373361</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03491350813478983</v>
+        <v>0.02730400665373361</v>
       </c>
       <c r="J12" t="n">
         <v>0.287637085162268</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2579394280910492</v>
+        <v>0.273909330368042</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.02969765707121885</v>
+        <v>-0.01372775479422605</v>
       </c>
       <c r="M12" t="n">
-        <v>0.02969765707121885</v>
+        <v>0.01372775479422605</v>
       </c>
     </row>
     <row r="13">
@@ -959,37 +959,37 @@
         <v>0.315600541553797</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2601384818553925</v>
+        <v>0.2534432113170624</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.05546205969840456</v>
+        <v>-0.06215733023673464</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05546205969840456</v>
+        <v>0.06215733023673464</v>
       </c>
       <c r="F13" t="n">
         <v>0.2842232303973297</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2329461276531219</v>
+        <v>0.2401538789272308</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.05127710274420777</v>
+        <v>-0.04406935147009888</v>
       </c>
       <c r="I13" t="n">
-        <v>0.05127710274420777</v>
+        <v>0.04406935147009888</v>
       </c>
       <c r="J13" t="n">
         <v>0.2862728892218083</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2580825388431549</v>
+        <v>0.2735174000263214</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.02819035037865342</v>
+        <v>-0.01275548919548691</v>
       </c>
       <c r="M13" t="n">
-        <v>0.02819035037865342</v>
+        <v>0.01275548919548691</v>
       </c>
     </row>
     <row r="14">
@@ -1000,37 +1000,37 @@
         <v>0.3192064235183714</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2587953805923462</v>
+        <v>0.252263993024826</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.06041104292602517</v>
+        <v>-0.06694243049354531</v>
       </c>
       <c r="E14" t="n">
-        <v>0.06041104292602517</v>
+        <v>0.06694243049354531</v>
       </c>
       <c r="F14" t="n">
         <v>0.287919078940672</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2327548712491989</v>
+        <v>0.2383434772491455</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.05516420769147307</v>
+        <v>-0.04957560169152647</v>
       </c>
       <c r="I14" t="n">
-        <v>0.05516420769147307</v>
+        <v>0.04957560169152647</v>
       </c>
       <c r="J14" t="n">
         <v>0.285062548182077</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2588683366775513</v>
+        <v>0.2733111977577209</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.02619421150452572</v>
+        <v>-0.01175135042435604</v>
       </c>
       <c r="M14" t="n">
-        <v>0.02619421150452572</v>
+        <v>0.01175135042435604</v>
       </c>
     </row>
     <row r="15">
@@ -1041,37 +1041,37 @@
         <v>0.32038135066928</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2590824365615845</v>
+        <v>0.2514135539531708</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.06129891410769556</v>
+        <v>-0.06896779671610925</v>
       </c>
       <c r="E15" t="n">
-        <v>0.06129891410769556</v>
+        <v>0.06896779671610925</v>
       </c>
       <c r="F15" t="n">
         <v>0.290391574254862</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2337079346179962</v>
+        <v>0.2371605038642883</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.05668363963686579</v>
+        <v>-0.05323107039057368</v>
       </c>
       <c r="I15" t="n">
-        <v>0.05668363963686579</v>
+        <v>0.05323107039057368</v>
       </c>
       <c r="J15" t="n">
         <v>0.2865757520427674</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2598442137241364</v>
+        <v>0.273159384727478</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.02673153831863101</v>
+        <v>-0.01341636731528933</v>
       </c>
       <c r="M15" t="n">
-        <v>0.02673153831863101</v>
+        <v>0.01341636731528933</v>
       </c>
     </row>
     <row r="16">
@@ -1082,37 +1082,37 @@
         <v>0.3135119094530743</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2604284286499023</v>
+        <v>0.2509422898292542</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.05308348080317199</v>
+        <v>-0.06256961962382018</v>
       </c>
       <c r="E16" t="n">
-        <v>0.05308348080317199</v>
+        <v>0.06256961962382018</v>
       </c>
       <c r="F16" t="n">
         <v>0.283125815749312</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2354599684476852</v>
+        <v>0.2366104274988174</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.04766584730162676</v>
+        <v>-0.04651538825049456</v>
       </c>
       <c r="I16" t="n">
-        <v>0.04766584730162676</v>
+        <v>0.04651538825049456</v>
       </c>
       <c r="J16" t="n">
         <v>0.286927616871731</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2605971992015839</v>
+        <v>0.2731130123138428</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0263304176701471</v>
+        <v>-0.01381460455788819</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0263304176701471</v>
+        <v>0.01381460455788819</v>
       </c>
     </row>
     <row r="17">
@@ -1123,37 +1123,37 @@
         <v>0.27886858413823</v>
       </c>
       <c r="C17" t="n">
-        <v>0.261998325586319</v>
+        <v>0.2507625222206116</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.01687025855191104</v>
+        <v>-0.02810606191761844</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01687025855191104</v>
+        <v>0.02810606191761844</v>
       </c>
       <c r="F17" t="n">
         <v>0.254041057402823</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2371466606855392</v>
+        <v>0.236459419131279</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.01689439671728377</v>
+        <v>-0.01758163827154402</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01689439671728377</v>
+        <v>0.01758163827154402</v>
       </c>
       <c r="J17" t="n">
         <v>0.2864683927314987</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2609613537788391</v>
+        <v>0.273176521062851</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.02550703895265954</v>
+        <v>-0.0132918716686477</v>
       </c>
       <c r="M17" t="n">
-        <v>0.02550703895265954</v>
+        <v>0.0132918716686477</v>
       </c>
     </row>
     <row r="18">
@@ -1164,37 +1164,37 @@
         <v>0.2462619525526814</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2623939216136932</v>
+        <v>0.2505868375301361</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01613196906101189</v>
+        <v>0.004324884977454757</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01613196906101189</v>
+        <v>0.004324884977454757</v>
       </c>
       <c r="F18" t="n">
         <v>0.225489778735492</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2374593615531921</v>
+        <v>0.2363362014293671</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01196958281770014</v>
+        <v>0.01084642269387506</v>
       </c>
       <c r="I18" t="n">
-        <v>0.01196958281770014</v>
+        <v>0.01084642269387506</v>
       </c>
       <c r="J18" t="n">
         <v>0.2865023103504753</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2608883082866669</v>
+        <v>0.273181676864624</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.02561400206380843</v>
+        <v>-0.01332063348585127</v>
       </c>
       <c r="M18" t="n">
-        <v>0.02561400206380843</v>
+        <v>0.01332063348585127</v>
       </c>
     </row>
     <row r="19">
@@ -1205,37 +1205,37 @@
         <v>0.21504594322637</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2607741057872772</v>
+        <v>0.2502409219741821</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0457281625609072</v>
+        <v>0.03519497874781211</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0457281625609072</v>
+        <v>0.03519497874781211</v>
       </c>
       <c r="F19" t="n">
         <v>0.1999753860339757</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2358097285032272</v>
+        <v>0.2359724044799805</v>
       </c>
       <c r="H19" t="n">
-        <v>0.03583434246925157</v>
+        <v>0.03599701844600481</v>
       </c>
       <c r="I19" t="n">
-        <v>0.03583434246925157</v>
+        <v>0.03599701844600481</v>
       </c>
       <c r="J19" t="n">
         <v>0.2832515763682853</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2603182196617126</v>
+        <v>0.273026168346405</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.02293335670657265</v>
+        <v>-0.01022540802188027</v>
       </c>
       <c r="M19" t="n">
-        <v>0.02293335670657265</v>
+        <v>0.01022540802188027</v>
       </c>
     </row>
     <row r="20">
@@ -1246,37 +1246,37 @@
         <v>0.2073126776458883</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2569345235824585</v>
+        <v>0.2493218630552292</v>
       </c>
       <c r="D20" t="n">
-        <v>0.04962184593657015</v>
+        <v>0.04200918540934084</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04962184593657015</v>
+        <v>0.04200918540934084</v>
       </c>
       <c r="F20" t="n">
         <v>0.1930910268638246</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2316967844963074</v>
+        <v>0.2348681390285492</v>
       </c>
       <c r="H20" t="n">
-        <v>0.03860575763248272</v>
+        <v>0.04177711216472454</v>
       </c>
       <c r="I20" t="n">
-        <v>0.03860575763248272</v>
+        <v>0.04177711216472454</v>
       </c>
       <c r="J20" t="n">
         <v>0.2836562768935663</v>
       </c>
       <c r="K20" t="n">
-        <v>0.259920060634613</v>
+        <v>0.2725529074668884</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.02373621625895328</v>
+        <v>-0.01110336942667789</v>
       </c>
       <c r="M20" t="n">
-        <v>0.02373621625895328</v>
+        <v>0.01110336942667789</v>
       </c>
     </row>
     <row r="21">
@@ -1287,37 +1287,37 @@
         <v>0.202473892292009</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2515844404697418</v>
+        <v>0.2474852353334427</v>
       </c>
       <c r="D21" t="n">
-        <v>0.04911054817773283</v>
+        <v>0.0450113430414337</v>
       </c>
       <c r="E21" t="n">
-        <v>0.04911054817773283</v>
+        <v>0.0450113430414337</v>
       </c>
       <c r="F21" t="n">
         <v>0.188123075947316</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2258215844631195</v>
+        <v>0.232536107301712</v>
       </c>
       <c r="H21" t="n">
-        <v>0.03769850851580347</v>
+        <v>0.044413031354396</v>
       </c>
       <c r="I21" t="n">
-        <v>0.03769850851580347</v>
+        <v>0.044413031354396</v>
       </c>
       <c r="J21" t="n">
         <v>0.282270725428681</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2606631219387054</v>
+        <v>0.2717616260051727</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.02160760348997554</v>
+        <v>-0.01050909942350825</v>
       </c>
       <c r="M21" t="n">
-        <v>0.02160760348997554</v>
+        <v>0.01050909942350825</v>
       </c>
     </row>
     <row r="22">
@@ -1328,37 +1328,37 @@
         <v>0.205039173647155</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2453635334968567</v>
+        <v>0.2444151639938354</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0403243598497017</v>
+        <v>0.03937599034668046</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0403243598497017</v>
+        <v>0.03937599034668046</v>
       </c>
       <c r="F22" t="n">
         <v>0.188916617912522</v>
       </c>
       <c r="G22" t="n">
-        <v>0.21938756108284</v>
+        <v>0.2285774201154709</v>
       </c>
       <c r="H22" t="n">
-        <v>0.03047094317031798</v>
+        <v>0.0396608022029489</v>
       </c>
       <c r="I22" t="n">
-        <v>0.03047094317031798</v>
+        <v>0.0396608022029489</v>
       </c>
       <c r="J22" t="n">
         <v>0.2864073546291143</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2630844712257385</v>
+        <v>0.2707706689834595</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.02332288340337579</v>
+        <v>-0.01563668564565485</v>
       </c>
       <c r="M22" t="n">
-        <v>0.02332288340337579</v>
+        <v>0.01563668564565485</v>
       </c>
     </row>
     <row r="23">
@@ -1369,37 +1369,37 @@
         <v>0.2080460253748494</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2390740960836411</v>
+        <v>0.240435004234314</v>
       </c>
       <c r="D23" t="n">
-        <v>0.03102807070879168</v>
+        <v>0.0323889788594646</v>
       </c>
       <c r="E23" t="n">
-        <v>0.03102807070879168</v>
+        <v>0.0323889788594646</v>
       </c>
       <c r="F23" t="n">
         <v>0.191948481805974</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2135313600301743</v>
+        <v>0.2233025133609772</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02158287822420024</v>
+        <v>0.03135403155500316</v>
       </c>
       <c r="I23" t="n">
-        <v>0.02158287822420024</v>
+        <v>0.03135403155500316</v>
       </c>
       <c r="J23" t="n">
         <v>0.2879919294535087</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2666230201721191</v>
+        <v>0.269960880279541</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.02136890928138951</v>
+        <v>-0.01803104917396764</v>
       </c>
       <c r="M23" t="n">
-        <v>0.02136890928138951</v>
+        <v>0.01803104917396764</v>
       </c>
     </row>
     <row r="24">
@@ -1410,37 +1410,37 @@
         <v>0.2065739934233334</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2320616543292999</v>
+        <v>0.2360653132200241</v>
       </c>
       <c r="D24" t="n">
-        <v>0.02548766090596657</v>
+        <v>0.02949131979669076</v>
       </c>
       <c r="E24" t="n">
-        <v>0.02548766090596657</v>
+        <v>0.02949131979669076</v>
       </c>
       <c r="F24" t="n">
         <v>0.1910735864911153</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2095489501953125</v>
+        <v>0.2174695879220963</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0184753637041972</v>
+        <v>0.02639600143098095</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0184753637041972</v>
+        <v>0.02639600143098095</v>
       </c>
       <c r="J24" t="n">
         <v>0.2926965572797153</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2725301682949066</v>
+        <v>0.2691879272460938</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.02016638898480871</v>
+        <v>-0.02350863003362158</v>
       </c>
       <c r="M24" t="n">
-        <v>0.02016638898480871</v>
+        <v>0.02350863003362158</v>
       </c>
     </row>
     <row r="25">
@@ -1451,37 +1451,37 @@
         <v>0.1989607518898854</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2253959476947784</v>
+        <v>0.2314137369394302</v>
       </c>
       <c r="D25" t="n">
-        <v>0.02643519580489309</v>
+        <v>0.03245298504954489</v>
       </c>
       <c r="E25" t="n">
-        <v>0.02643519580489309</v>
+        <v>0.03245298504954489</v>
       </c>
       <c r="F25" t="n">
         <v>0.185403573899135</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2066705673933029</v>
+        <v>0.2122571170330048</v>
       </c>
       <c r="H25" t="n">
-        <v>0.02126699349416791</v>
+        <v>0.02685354313386976</v>
       </c>
       <c r="I25" t="n">
-        <v>0.02126699349416791</v>
+        <v>0.02685354313386976</v>
       </c>
       <c r="J25" t="n">
         <v>0.2896564705967967</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2779000103473663</v>
+        <v>0.2690676748752594</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.01175646024943033</v>
+        <v>-0.02058879572153727</v>
       </c>
       <c r="M25" t="n">
-        <v>0.01175646024943033</v>
+        <v>0.02058879572153727</v>
       </c>
     </row>
     <row r="26">
@@ -1492,37 +1492,37 @@
         <v>0.198324173518148</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2196717113256454</v>
+        <v>0.2260459363460541</v>
       </c>
       <c r="D26" t="n">
-        <v>0.02134753780749743</v>
+        <v>0.02772176282790606</v>
       </c>
       <c r="E26" t="n">
-        <v>0.02134753780749743</v>
+        <v>0.02772176282790606</v>
       </c>
       <c r="F26" t="n">
         <v>0.1842367660527393</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2043906003236771</v>
+        <v>0.2088776826858521</v>
       </c>
       <c r="H26" t="n">
-        <v>0.02015383427093773</v>
+        <v>0.02464091663311271</v>
       </c>
       <c r="I26" t="n">
-        <v>0.02015383427093773</v>
+        <v>0.02464091663311271</v>
       </c>
       <c r="J26" t="n">
         <v>0.2896878136786367</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2826468050479889</v>
+        <v>0.2705354690551758</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.007041008630647771</v>
+        <v>-0.01915234462346088</v>
       </c>
       <c r="M26" t="n">
-        <v>0.007041008630647771</v>
+        <v>0.01915234462346088</v>
       </c>
     </row>
     <row r="27">
@@ -1533,37 +1533,37 @@
         <v>0.1981176845382227</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2156623303890228</v>
+        <v>0.2212564200162888</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01754464585080015</v>
+        <v>0.02313873547806608</v>
       </c>
       <c r="E27" t="n">
-        <v>0.01754464585080015</v>
+        <v>0.02313873547806608</v>
       </c>
       <c r="F27" t="n">
         <v>0.1841061036149977</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2026184946298599</v>
+        <v>0.2060435265302658</v>
       </c>
       <c r="H27" t="n">
-        <v>0.01851239101486224</v>
+        <v>0.02193742291526812</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01851239101486224</v>
+        <v>0.02193742291526812</v>
       </c>
       <c r="J27" t="n">
         <v>0.28726510959875</v>
       </c>
       <c r="K27" t="n">
-        <v>0.2863370478153229</v>
+        <v>0.2720133662223816</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0009280617834271365</v>
+        <v>-0.01525174337636842</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0009280617834271365</v>
+        <v>0.01525174337636842</v>
       </c>
     </row>
     <row r="28">
@@ -1574,37 +1574,37 @@
         <v>0.2026503925366977</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2134785652160645</v>
+        <v>0.2179702073335648</v>
       </c>
       <c r="D28" t="n">
-        <v>0.01082817267936678</v>
+        <v>0.01531981479686709</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01082817267936678</v>
+        <v>0.01531981479686709</v>
       </c>
       <c r="F28" t="n">
         <v>0.1881079677184013</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2012645751237869</v>
+        <v>0.2041327953338623</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0131566074053856</v>
+        <v>0.01602482761546098</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0131566074053856</v>
+        <v>0.01602482761546098</v>
       </c>
       <c r="J28" t="n">
         <v>0.2886047220876533</v>
       </c>
       <c r="K28" t="n">
-        <v>0.2886493504047394</v>
+        <v>0.2730683088302612</v>
       </c>
       <c r="L28" t="n">
-        <v>4.462831708607062e-05</v>
+        <v>-0.01553641325739208</v>
       </c>
       <c r="M28" t="n">
-        <v>4.462831708607062e-05</v>
+        <v>0.01553641325739208</v>
       </c>
     </row>
     <row r="29">
@@ -1615,37 +1615,37 @@
         <v>0.203647885156303</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2123103141784668</v>
+        <v>0.2161458134651184</v>
       </c>
       <c r="D29" t="n">
-        <v>0.00866242902216377</v>
+        <v>0.01249792830881538</v>
       </c>
       <c r="E29" t="n">
-        <v>0.00866242902216377</v>
+        <v>0.01249792830881538</v>
       </c>
       <c r="F29" t="n">
         <v>0.1887814264803243</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2004278749227524</v>
+        <v>0.2031169235706329</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01164644844242804</v>
+        <v>0.0143354970903086</v>
       </c>
       <c r="I29" t="n">
-        <v>0.01164644844242804</v>
+        <v>0.0143354970903086</v>
       </c>
       <c r="J29" t="n">
         <v>0.289500747731677</v>
       </c>
       <c r="K29" t="n">
-        <v>0.2897838950157166</v>
+        <v>0.2737317085266113</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0002831472840395532</v>
+        <v>-0.01576903920506567</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0002831472840395532</v>
+        <v>0.01576903920506567</v>
       </c>
     </row>
     <row r="30">
@@ -1656,37 +1656,37 @@
         <v>0.2062518778595683</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2118169665336609</v>
+        <v>0.2155618816614151</v>
       </c>
       <c r="D30" t="n">
-        <v>0.005565088674092555</v>
+        <v>0.009310003801846767</v>
       </c>
       <c r="E30" t="n">
-        <v>0.005565088674092555</v>
+        <v>0.009310003801846767</v>
       </c>
       <c r="F30" t="n">
         <v>0.190617029967052</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2001281380653381</v>
+        <v>0.2028303891420364</v>
       </c>
       <c r="H30" t="n">
-        <v>0.00951110809828612</v>
+        <v>0.01221335917498442</v>
       </c>
       <c r="I30" t="n">
-        <v>0.00951110809828612</v>
+        <v>0.01221335917498442</v>
       </c>
       <c r="J30" t="n">
         <v>0.287641922738561</v>
       </c>
       <c r="K30" t="n">
-        <v>0.2902241051197052</v>
+        <v>0.2741006910800934</v>
       </c>
       <c r="L30" t="n">
-        <v>0.002582182381144216</v>
+        <v>-0.0135412316584676</v>
       </c>
       <c r="M30" t="n">
-        <v>0.002582182381144216</v>
+        <v>0.0135412316584676</v>
       </c>
     </row>
     <row r="31">
@@ -1697,37 +1697,37 @@
         <v>0.2052494375370937</v>
       </c>
       <c r="C31" t="n">
-        <v>0.211717501282692</v>
+        <v>0.215375617146492</v>
       </c>
       <c r="D31" t="n">
-        <v>0.006468063745598274</v>
+        <v>0.01012617960939832</v>
       </c>
       <c r="E31" t="n">
-        <v>0.006468063745598274</v>
+        <v>0.01012617960939832</v>
       </c>
       <c r="F31" t="n">
         <v>0.1897704657459006</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2001855224370956</v>
+        <v>0.2028017640113831</v>
       </c>
       <c r="H31" t="n">
-        <v>0.010415056691195</v>
+        <v>0.01303129826548241</v>
       </c>
       <c r="I31" t="n">
-        <v>0.010415056691195</v>
+        <v>0.01303129826548241</v>
       </c>
       <c r="J31" t="n">
         <v>0.286019680811968</v>
       </c>
       <c r="K31" t="n">
-        <v>0.2903705537319183</v>
+        <v>0.2743291854858398</v>
       </c>
       <c r="L31" t="n">
-        <v>0.004350872919950344</v>
+        <v>-0.01169049532612815</v>
       </c>
       <c r="M31" t="n">
-        <v>0.004350872919950344</v>
+        <v>0.01169049532612815</v>
       </c>
     </row>
     <row r="32">
@@ -1738,37 +1738,37 @@
         <v>0.2092060931680033</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2118212431669235</v>
+        <v>0.2154248952865601</v>
       </c>
       <c r="D32" t="n">
-        <v>0.002615149998920208</v>
+        <v>0.006218802118556743</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002615149998920208</v>
+        <v>0.006218802118556743</v>
       </c>
       <c r="F32" t="n">
         <v>0.1925981289982923</v>
       </c>
       <c r="G32" t="n">
-        <v>0.2003772705793381</v>
+        <v>0.2029091864824295</v>
       </c>
       <c r="H32" t="n">
-        <v>0.007779141581045756</v>
+        <v>0.01031105748413719</v>
       </c>
       <c r="I32" t="n">
-        <v>0.007779141581045756</v>
+        <v>0.01031105748413719</v>
       </c>
       <c r="J32" t="n">
         <v>0.282297746591783</v>
       </c>
       <c r="K32" t="n">
-        <v>0.290270060300827</v>
+        <v>0.2744541466236115</v>
       </c>
       <c r="L32" t="n">
-        <v>0.007972313709043999</v>
+        <v>-0.007843599968171577</v>
       </c>
       <c r="M32" t="n">
-        <v>0.007972313709043999</v>
+        <v>0.007843599968171577</v>
       </c>
     </row>
     <row r="33">
@@ -1779,37 +1779,37 @@
         <v>0.213009279014097</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2121168524026871</v>
+        <v>0.2155048400163651</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.0008924266114099522</v>
+        <v>0.002495561002268026</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0008924266114099522</v>
+        <v>0.002495561002268026</v>
       </c>
       <c r="F33" t="n">
         <v>0.1958058914379253</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2007161676883698</v>
+        <v>0.2030286192893982</v>
       </c>
       <c r="H33" t="n">
-        <v>0.004910276250444406</v>
+        <v>0.007222727851472849</v>
       </c>
       <c r="I33" t="n">
-        <v>0.004910276250444406</v>
+        <v>0.007222727851472849</v>
       </c>
       <c r="J33" t="n">
         <v>0.2804082058966567</v>
       </c>
       <c r="K33" t="n">
-        <v>0.2899582087993622</v>
+        <v>0.2743968963623047</v>
       </c>
       <c r="L33" t="n">
-        <v>0.009550002902705523</v>
+        <v>-0.006011309534351972</v>
       </c>
       <c r="M33" t="n">
-        <v>0.009550002902705523</v>
+        <v>0.006011309534351972</v>
       </c>
     </row>
     <row r="34">
@@ -1820,37 +1820,37 @@
         <v>0.217329750732902</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2125865668058395</v>
+        <v>0.2156232744455338</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.004743183927062494</v>
+        <v>-0.00170647628736828</v>
       </c>
       <c r="E34" t="n">
-        <v>0.004743183927062494</v>
+        <v>0.00170647628736828</v>
       </c>
       <c r="F34" t="n">
         <v>0.198712784834276</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2012985646724701</v>
+        <v>0.2031950056552887</v>
       </c>
       <c r="H34" t="n">
-        <v>0.00258577983819408</v>
+        <v>0.004482220821012683</v>
       </c>
       <c r="I34" t="n">
-        <v>0.00258577983819408</v>
+        <v>0.004482220821012683</v>
       </c>
       <c r="J34" t="n">
         <v>0.284168277369981</v>
       </c>
       <c r="K34" t="n">
-        <v>0.2895044982433319</v>
+        <v>0.2742478549480438</v>
       </c>
       <c r="L34" t="n">
-        <v>0.00533622087335095</v>
+        <v>-0.009920422421937136</v>
       </c>
       <c r="M34" t="n">
-        <v>0.00533622087335095</v>
+        <v>0.009920422421937136</v>
       </c>
     </row>
     <row r="35">
@@ -1861,37 +1861,37 @@
         <v>0.217210403055539</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2132604867219925</v>
+        <v>0.2159980833530426</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.003949916333546494</v>
+        <v>-0.001212319702496384</v>
       </c>
       <c r="E35" t="n">
-        <v>0.003949916333546494</v>
+        <v>0.001212319702496384</v>
       </c>
       <c r="F35" t="n">
         <v>0.1992244091671897</v>
       </c>
       <c r="G35" t="n">
-        <v>0.2020232379436493</v>
+        <v>0.2035278379917145</v>
       </c>
       <c r="H35" t="n">
-        <v>0.002798828776459622</v>
+        <v>0.004303428824524808</v>
       </c>
       <c r="I35" t="n">
-        <v>0.002798828776459622</v>
+        <v>0.004303428824524808</v>
       </c>
       <c r="J35" t="n">
         <v>0.2868018723125443</v>
       </c>
       <c r="K35" t="n">
-        <v>0.2890315353870392</v>
+        <v>0.2739867269992828</v>
       </c>
       <c r="L35" t="n">
-        <v>0.002229663074494848</v>
+        <v>-0.0128151453132615</v>
       </c>
       <c r="M35" t="n">
-        <v>0.002229663074494848</v>
+        <v>0.0128151453132615</v>
       </c>
     </row>
     <row r="36">
@@ -1902,37 +1902,37 @@
         <v>0.2137150393990463</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2141816765069962</v>
+        <v>0.2167651206254959</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0004666371079498077</v>
+        <v>0.003050081226449564</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0004666371079498077</v>
+        <v>0.003050081226449564</v>
       </c>
       <c r="F36" t="n">
         <v>0.1965960622653127</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2028060257434845</v>
+        <v>0.2041066139936447</v>
       </c>
       <c r="H36" t="n">
-        <v>0.00620996347817182</v>
+        <v>0.007510551728332038</v>
       </c>
       <c r="I36" t="n">
-        <v>0.00620996347817182</v>
+        <v>0.007510551728332038</v>
       </c>
       <c r="J36" t="n">
         <v>0.2883384806570466</v>
       </c>
       <c r="K36" t="n">
-        <v>0.2884426116943359</v>
+        <v>0.2737465798854828</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0001041310372892901</v>
+        <v>-0.01459190077156386</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0001041310372892901</v>
+        <v>0.01459190077156386</v>
       </c>
     </row>
     <row r="37">
@@ -1943,37 +1943,37 @@
         <v>0.2084897950443374</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2150224596261978</v>
+        <v>0.2175691425800323</v>
       </c>
       <c r="D37" t="n">
-        <v>0.006532664581860442</v>
+        <v>0.009079347535694976</v>
       </c>
       <c r="E37" t="n">
-        <v>0.006532664581860442</v>
+        <v>0.009079347535694976</v>
       </c>
       <c r="F37" t="n">
         <v>0.1927734142542437</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2034353911876678</v>
+        <v>0.2046673744916916</v>
       </c>
       <c r="H37" t="n">
-        <v>0.01066197693342419</v>
+        <v>0.01189396023744793</v>
       </c>
       <c r="I37" t="n">
-        <v>0.01066197693342419</v>
+        <v>0.01189396023744793</v>
       </c>
       <c r="J37" t="n">
         <v>0.285167101068315</v>
       </c>
       <c r="K37" t="n">
-        <v>0.2879668474197388</v>
+        <v>0.2735224664211273</v>
       </c>
       <c r="L37" t="n">
-        <v>0.002799746351423771</v>
+        <v>-0.01164463464718768</v>
       </c>
       <c r="M37" t="n">
-        <v>0.002799746351423771</v>
+        <v>0.01164463464718768</v>
       </c>
     </row>
     <row r="38">
@@ -1984,37 +1984,37 @@
         <v>0.2049759004226014</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2155274003744125</v>
+        <v>0.2182287722826004</v>
       </c>
       <c r="D38" t="n">
-        <v>0.01055149995181118</v>
+        <v>0.01325287185999904</v>
       </c>
       <c r="E38" t="n">
-        <v>0.01055149995181118</v>
+        <v>0.01325287185999904</v>
       </c>
       <c r="F38" t="n">
         <v>0.189489587626156</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2037313431501389</v>
+        <v>0.2050588876008987</v>
       </c>
       <c r="H38" t="n">
-        <v>0.01424175552398288</v>
+        <v>0.01556929997474277</v>
       </c>
       <c r="I38" t="n">
-        <v>0.01424175552398288</v>
+        <v>0.01556929997474277</v>
       </c>
       <c r="J38" t="n">
         <v>0.287813079584776</v>
       </c>
       <c r="K38" t="n">
-        <v>0.2875230610370636</v>
+        <v>0.2732981145381927</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.0002900185477123784</v>
+        <v>-0.01451496504658323</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0002900185477123784</v>
+        <v>0.01451496504658323</v>
       </c>
     </row>
     <row r="39">
@@ -2025,37 +2025,37 @@
         <v>0.2032905616694244</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2156205773353577</v>
+        <v>0.2185350805521011</v>
       </c>
       <c r="D39" t="n">
-        <v>0.01233001566593331</v>
+        <v>0.01524451888267678</v>
       </c>
       <c r="E39" t="n">
-        <v>0.01233001566593331</v>
+        <v>0.01524451888267678</v>
       </c>
       <c r="F39" t="n">
         <v>0.188205423626509</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2036502063274384</v>
+        <v>0.2051595002412796</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01544478270092933</v>
+        <v>0.01695407661477058</v>
       </c>
       <c r="I39" t="n">
-        <v>0.01544478270092933</v>
+        <v>0.01695407661477058</v>
       </c>
       <c r="J39" t="n">
         <v>0.288163467421121</v>
       </c>
       <c r="K39" t="n">
-        <v>0.2873713374137878</v>
+        <v>0.2731253206729889</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.0007921300073331916</v>
+        <v>-0.01503814674813214</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0007921300073331916</v>
+        <v>0.01503814674813214</v>
       </c>
     </row>
     <row r="40">
@@ -2066,37 +2066,37 @@
         <v>0.2041664361452084</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2154255509376526</v>
+        <v>0.2186272591352463</v>
       </c>
       <c r="D40" t="n">
-        <v>0.01125911479244424</v>
+        <v>0.01446082299003792</v>
       </c>
       <c r="E40" t="n">
-        <v>0.01125911479244424</v>
+        <v>0.01446082299003792</v>
       </c>
       <c r="F40" t="n">
         <v>0.189105018398858</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2033157199621201</v>
+        <v>0.2050732523202896</v>
       </c>
       <c r="H40" t="n">
-        <v>0.01421070156326207</v>
+        <v>0.01596823392143162</v>
       </c>
       <c r="I40" t="n">
-        <v>0.01421070156326207</v>
+        <v>0.01596823392143162</v>
       </c>
       <c r="J40" t="n">
         <v>0.287160373273769</v>
       </c>
       <c r="K40" t="n">
-        <v>0.2874209880828857</v>
+        <v>0.2729805409908295</v>
       </c>
       <c r="L40" t="n">
-        <v>0.0002606148091167104</v>
+        <v>-0.01417983228293956</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0002606148091167104</v>
+        <v>0.01417983228293956</v>
       </c>
     </row>
     <row r="41">
@@ -2107,37 +2107,37 @@
         <v>0.203557938116441</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2150502502918243</v>
+        <v>0.2185167223215103</v>
       </c>
       <c r="D41" t="n">
-        <v>0.01149231217538335</v>
+        <v>0.01495878420506933</v>
       </c>
       <c r="E41" t="n">
-        <v>0.01149231217538335</v>
+        <v>0.01495878420506933</v>
       </c>
       <c r="F41" t="n">
         <v>0.188458057571033</v>
       </c>
       <c r="G41" t="n">
-        <v>0.2028896063566208</v>
+        <v>0.2048742324113846</v>
       </c>
       <c r="H41" t="n">
-        <v>0.01443154878558781</v>
+        <v>0.0164161748403516</v>
       </c>
       <c r="I41" t="n">
-        <v>0.01443154878558781</v>
+        <v>0.0164161748403516</v>
       </c>
       <c r="J41" t="n">
         <v>0.2847389576227167</v>
       </c>
       <c r="K41" t="n">
-        <v>0.2876122891902924</v>
+        <v>0.2729368209838867</v>
       </c>
       <c r="L41" t="n">
-        <v>0.002873331567575688</v>
+        <v>-0.01180213663882995</v>
       </c>
       <c r="M41" t="n">
-        <v>0.002873331567575688</v>
+        <v>0.01180213663882995</v>
       </c>
     </row>
     <row r="42">
@@ -2148,37 +2148,37 @@
         <v>0.203532031129288</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2145859450101852</v>
+        <v>0.2183297276496887</v>
       </c>
       <c r="D42" t="n">
-        <v>0.01105391388089724</v>
+        <v>0.01479769652040072</v>
       </c>
       <c r="E42" t="n">
-        <v>0.01105391388089724</v>
+        <v>0.01479769652040072</v>
       </c>
       <c r="F42" t="n">
         <v>0.187997549050791</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2024301588535309</v>
+        <v>0.2046248018741608</v>
       </c>
       <c r="H42" t="n">
-        <v>0.01443260980273986</v>
+        <v>0.01662725282336974</v>
       </c>
       <c r="I42" t="n">
-        <v>0.01443260980273986</v>
+        <v>0.01662725282336974</v>
       </c>
       <c r="J42" t="n">
         <v>0.2864378327703707</v>
       </c>
       <c r="K42" t="n">
-        <v>0.287763774394989</v>
+        <v>0.2728990912437439</v>
       </c>
       <c r="L42" t="n">
-        <v>0.001325941624618354</v>
+        <v>-0.01353874152662676</v>
       </c>
       <c r="M42" t="n">
-        <v>0.001325941624618354</v>
+        <v>0.01353874152662676</v>
       </c>
     </row>
     <row r="43">
@@ -2189,37 +2189,37 @@
         <v>0.2039787079498343</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2140416204929352</v>
+        <v>0.2179604023694992</v>
       </c>
       <c r="D43" t="n">
-        <v>0.01006291254310085</v>
+        <v>0.01398169441966488</v>
       </c>
       <c r="E43" t="n">
-        <v>0.01006291254310085</v>
+        <v>0.01398169441966488</v>
       </c>
       <c r="F43" t="n">
         <v>0.188215132464866</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2019760459661484</v>
+        <v>0.204319030046463</v>
       </c>
       <c r="H43" t="n">
-        <v>0.01376091350128239</v>
+        <v>0.01610389758159703</v>
       </c>
       <c r="I43" t="n">
-        <v>0.01376091350128239</v>
+        <v>0.01610389758159703</v>
       </c>
       <c r="J43" t="n">
         <v>0.2894212646501537</v>
       </c>
       <c r="K43" t="n">
-        <v>0.2880529761314392</v>
+        <v>0.2730224132537842</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.001368288518714456</v>
+        <v>-0.01639885139636948</v>
       </c>
       <c r="M43" t="n">
-        <v>0.001368288518714456</v>
+        <v>0.01639885139636948</v>
       </c>
     </row>
     <row r="44">
@@ -2230,37 +2230,37 @@
         <v>0.211221707995631</v>
       </c>
       <c r="C44" t="n">
-        <v>0.2135145962238312</v>
+        <v>0.2174693942070007</v>
       </c>
       <c r="D44" t="n">
-        <v>0.002292888228200174</v>
+        <v>0.00624768621136973</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002292888228200174</v>
+        <v>0.00624768621136973</v>
       </c>
       <c r="F44" t="n">
         <v>0.194413573264925</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2015904635190964</v>
+        <v>0.2040068209171295</v>
       </c>
       <c r="H44" t="n">
-        <v>0.00717689025417137</v>
+        <v>0.009593247652204512</v>
       </c>
       <c r="I44" t="n">
-        <v>0.00717689025417137</v>
+        <v>0.009593247652204512</v>
       </c>
       <c r="J44" t="n">
         <v>0.290775144509641</v>
       </c>
       <c r="K44" t="n">
-        <v>0.288526862859726</v>
+        <v>0.2733062207698822</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.002248281649915029</v>
+        <v>-0.01746892373975878</v>
       </c>
       <c r="M44" t="n">
-        <v>0.002248281649915029</v>
+        <v>0.01746892373975878</v>
       </c>
     </row>
     <row r="45">
@@ -2271,37 +2271,37 @@
         <v>0.2122922898817417</v>
       </c>
       <c r="C45" t="n">
-        <v>0.2133072465658188</v>
+        <v>0.2170341312885284</v>
       </c>
       <c r="D45" t="n">
-        <v>0.001014956684077112</v>
+        <v>0.004741841406786768</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001014956684077112</v>
+        <v>0.004741841406786768</v>
       </c>
       <c r="F45" t="n">
         <v>0.1953861612265697</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2015417814254761</v>
+        <v>0.2038319706916809</v>
       </c>
       <c r="H45" t="n">
-        <v>0.006155620198906392</v>
+        <v>0.008445809465111226</v>
       </c>
       <c r="I45" t="n">
-        <v>0.006155620198906392</v>
+        <v>0.008445809465111226</v>
       </c>
       <c r="J45" t="n">
         <v>0.2905074626921387</v>
       </c>
       <c r="K45" t="n">
-        <v>0.2890591621398926</v>
+        <v>0.2736313939094543</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.001448300552246096</v>
+        <v>-0.01687606878268433</v>
       </c>
       <c r="M45" t="n">
-        <v>0.001448300552246096</v>
+        <v>0.01687606878268433</v>
       </c>
     </row>
     <row r="46">
@@ -2312,37 +2312,37 @@
         <v>0.2131152568577933</v>
       </c>
       <c r="C46" t="n">
-        <v>0.2134060561656952</v>
+        <v>0.2167743742465973</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0002907993079018512</v>
+        <v>0.003659117388803951</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0002907993079018512</v>
+        <v>0.003659117388803951</v>
       </c>
       <c r="F46" t="n">
         <v>0.1956811735245343</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2017495632171631</v>
+        <v>0.203821986913681</v>
       </c>
       <c r="H46" t="n">
-        <v>0.006068389692628767</v>
+        <v>0.008140813389146712</v>
       </c>
       <c r="I46" t="n">
-        <v>0.006068389692628767</v>
+        <v>0.008140813389146712</v>
       </c>
       <c r="J46" t="n">
         <v>0.2892459101858207</v>
       </c>
       <c r="K46" t="n">
-        <v>0.2894544005393982</v>
+        <v>0.2739254832267761</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0002084903535775062</v>
+        <v>-0.01532042695904456</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0002084903535775062</v>
+        <v>0.01532042695904456</v>
       </c>
     </row>
     <row r="47">
@@ -2353,37 +2353,37 @@
         <v>0.2093618905181164</v>
       </c>
       <c r="C47" t="n">
-        <v>0.213722437620163</v>
+        <v>0.216775581240654</v>
       </c>
       <c r="D47" t="n">
-        <v>0.004360547102046614</v>
+        <v>0.007413690722537641</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004360547102046614</v>
+        <v>0.007413690722537641</v>
       </c>
       <c r="F47" t="n">
         <v>0.1927908593230017</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2021507173776627</v>
+        <v>0.2039828151464462</v>
       </c>
       <c r="H47" t="n">
-        <v>0.009359858054660997</v>
+        <v>0.01119195582344457</v>
       </c>
       <c r="I47" t="n">
-        <v>0.009359858054660997</v>
+        <v>0.01119195582344457</v>
       </c>
       <c r="J47" t="n">
         <v>0.283614314149063</v>
       </c>
       <c r="K47" t="n">
-        <v>0.2896255254745483</v>
+        <v>0.274121880531311</v>
       </c>
       <c r="L47" t="n">
-        <v>0.006011211325485377</v>
+        <v>-0.009492433617751928</v>
       </c>
       <c r="M47" t="n">
-        <v>0.006011211325485377</v>
+        <v>0.009492433617751928</v>
       </c>
     </row>
     <row r="48">
@@ -2394,37 +2394,37 @@
         <v>0.2128292280356393</v>
       </c>
       <c r="C48" t="n">
-        <v>0.2140129059553146</v>
+        <v>0.2169418931007385</v>
       </c>
       <c r="D48" t="n">
-        <v>0.001183677919675302</v>
+        <v>0.004112665065099191</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001183677919675302</v>
+        <v>0.004112665065099191</v>
       </c>
       <c r="F48" t="n">
         <v>0.1963884778537243</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2024903446435928</v>
+        <v>0.2041915208101273</v>
       </c>
       <c r="H48" t="n">
-        <v>0.006101866789868488</v>
+        <v>0.007803042956402911</v>
       </c>
       <c r="I48" t="n">
-        <v>0.006101866789868488</v>
+        <v>0.007803042956402911</v>
       </c>
       <c r="J48" t="n">
         <v>0.282734026574404</v>
       </c>
       <c r="K48" t="n">
-        <v>0.2893967628479004</v>
+        <v>0.2741847932338715</v>
       </c>
       <c r="L48" t="n">
-        <v>0.006662736273496395</v>
+        <v>-0.008549233340532536</v>
       </c>
       <c r="M48" t="n">
-        <v>0.006662736273496395</v>
+        <v>0.008549233340532536</v>
       </c>
     </row>
     <row r="49">
@@ -2435,37 +2435,37 @@
         <v>0.2131324130252227</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2144151479005814</v>
+        <v>0.2172828614711761</v>
       </c>
       <c r="D49" t="n">
-        <v>0.001282734875358682</v>
+        <v>0.00415044844595347</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001282734875358682</v>
+        <v>0.00415044844595347</v>
       </c>
       <c r="F49" t="n">
         <v>0.1973895002313253</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2028704583644867</v>
+        <v>0.204457014799118</v>
       </c>
       <c r="H49" t="n">
-        <v>0.005480958133161379</v>
+        <v>0.007067514567792726</v>
       </c>
       <c r="I49" t="n">
-        <v>0.005480958133161379</v>
+        <v>0.007067514567792726</v>
       </c>
       <c r="J49" t="n">
         <v>0.2805695986458083</v>
       </c>
       <c r="K49" t="n">
-        <v>0.2888843715190887</v>
+        <v>0.274042159318924</v>
       </c>
       <c r="L49" t="n">
-        <v>0.008314772873280418</v>
+        <v>-0.006527439326884377</v>
       </c>
       <c r="M49" t="n">
-        <v>0.008314772873280418</v>
+        <v>0.006527439326884377</v>
       </c>
     </row>
     <row r="50">
@@ -2476,37 +2476,37 @@
         <v>0.2142428509530927</v>
       </c>
       <c r="C50" t="n">
-        <v>0.214839980006218</v>
+        <v>0.21770279109478</v>
       </c>
       <c r="D50" t="n">
-        <v>0.000597129053125256</v>
+        <v>0.003459940141687268</v>
       </c>
       <c r="E50" t="n">
-        <v>0.000597129053125256</v>
+        <v>0.003459940141687268</v>
       </c>
       <c r="F50" t="n">
         <v>0.1980230006783533</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2032395154237747</v>
+        <v>0.2047332972288132</v>
       </c>
       <c r="H50" t="n">
-        <v>0.005216514745421397</v>
+        <v>0.006710296550459849</v>
       </c>
       <c r="I50" t="n">
-        <v>0.005216514745421397</v>
+        <v>0.006710296550459849</v>
       </c>
       <c r="J50" t="n">
         <v>0.2815728561122373</v>
       </c>
       <c r="K50" t="n">
-        <v>0.2881908118724823</v>
+        <v>0.2737661600112915</v>
       </c>
       <c r="L50" t="n">
-        <v>0.006617955760244987</v>
+        <v>-0.007806696100945809</v>
       </c>
       <c r="M50" t="n">
-        <v>0.006617955760244987</v>
+        <v>0.007806696100945809</v>
       </c>
     </row>
     <row r="51">
@@ -2517,37 +2517,37 @@
         <v>0.215190912796217</v>
       </c>
       <c r="C51" t="n">
-        <v>0.2152612954378128</v>
+        <v>0.2181242406368256</v>
       </c>
       <c r="D51" t="n">
-        <v>7.038264159578422e-05</v>
+        <v>0.002933327840608541</v>
       </c>
       <c r="E51" t="n">
-        <v>7.038264159578422e-05</v>
+        <v>0.002933327840608541</v>
       </c>
       <c r="F51" t="n">
         <v>0.1984580726855477</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2035891860723495</v>
+        <v>0.2050044536590576</v>
       </c>
       <c r="H51" t="n">
-        <v>0.005131113386801861</v>
+        <v>0.00654638097350993</v>
       </c>
       <c r="I51" t="n">
-        <v>0.005131113386801861</v>
+        <v>0.00654638097350993</v>
       </c>
       <c r="J51" t="n">
         <v>0.282220528842802</v>
       </c>
       <c r="K51" t="n">
-        <v>0.2875147461891174</v>
+        <v>0.2734831571578979</v>
       </c>
       <c r="L51" t="n">
-        <v>0.005294217346315466</v>
+        <v>-0.008737371684904016</v>
       </c>
       <c r="M51" t="n">
-        <v>0.005294217346315466</v>
+        <v>0.008737371684904016</v>
       </c>
     </row>
     <row r="52">
@@ -2558,37 +2558,37 @@
         <v>0.2180199940037937</v>
       </c>
       <c r="C52" t="n">
-        <v>0.2156973779201508</v>
+        <v>0.2186025977134705</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.002322616083642925</v>
+        <v>0.0005826037096767767</v>
       </c>
       <c r="E52" t="n">
-        <v>0.002322616083642925</v>
+        <v>0.0005826037096767767</v>
       </c>
       <c r="F52" t="n">
         <v>0.2007671415105997</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2039306461811066</v>
+        <v>0.2053119838237762</v>
       </c>
       <c r="H52" t="n">
-        <v>0.003163504670506884</v>
+        <v>0.004544842313176561</v>
       </c>
       <c r="I52" t="n">
-        <v>0.003163504670506884</v>
+        <v>0.004544842313176561</v>
       </c>
       <c r="J52" t="n">
         <v>0.2828211791255217</v>
       </c>
       <c r="K52" t="n">
-        <v>0.2868834435939789</v>
+        <v>0.2732294797897339</v>
       </c>
       <c r="L52" t="n">
-        <v>0.0040622644684572</v>
+        <v>-0.009591699335787796</v>
       </c>
       <c r="M52" t="n">
-        <v>0.0040622644684572</v>
+        <v>0.009591699335787796</v>
       </c>
     </row>
     <row r="53">
@@ -2599,37 +2599,37 @@
         <v>0.218841388212077</v>
       </c>
       <c r="C53" t="n">
-        <v>0.216221421957016</v>
+        <v>0.2191518992185593</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.002619966255061001</v>
+        <v>0.0003105110064822725</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002619966255061001</v>
+        <v>0.0003105110064822725</v>
       </c>
       <c r="F53" t="n">
         <v>0.202367804684991</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2043242007493973</v>
+        <v>0.2056598216295242</v>
       </c>
       <c r="H53" t="n">
-        <v>0.001956396064406257</v>
+        <v>0.00329201694453321</v>
       </c>
       <c r="I53" t="n">
-        <v>0.001956396064406257</v>
+        <v>0.00329201694453321</v>
       </c>
       <c r="J53" t="n">
         <v>0.2867743387333037</v>
       </c>
       <c r="K53" t="n">
-        <v>0.2863090932369232</v>
+        <v>0.2729364931583405</v>
       </c>
       <c r="L53" t="n">
-        <v>-0.0004652454963804398</v>
+        <v>-0.0138378455749632</v>
       </c>
       <c r="M53" t="n">
-        <v>0.0004652454963804398</v>
+        <v>0.0138378455749632</v>
       </c>
     </row>
     <row r="54">
@@ -2640,37 +2640,37 @@
         <v>0.214825189258443</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2169451713562012</v>
+        <v>0.2197573184967041</v>
       </c>
       <c r="D54" t="n">
-        <v>0.002119982097758183</v>
+        <v>0.004932129238261113</v>
       </c>
       <c r="E54" t="n">
-        <v>0.002119982097758183</v>
+        <v>0.004932129238261113</v>
       </c>
       <c r="F54" t="n">
         <v>0.200124860140475</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2046893239021301</v>
+        <v>0.2060464024543762</v>
       </c>
       <c r="H54" t="n">
-        <v>0.004564463761655119</v>
+        <v>0.005921542313901212</v>
       </c>
       <c r="I54" t="n">
-        <v>0.004564463761655119</v>
+        <v>0.005921542313901212</v>
       </c>
       <c r="J54" t="n">
         <v>0.2887732703984323</v>
       </c>
       <c r="K54" t="n">
-        <v>0.2859874665737152</v>
+        <v>0.2726571559906006</v>
       </c>
       <c r="L54" t="n">
-        <v>-0.002785803824717104</v>
+        <v>-0.01611611440783173</v>
       </c>
       <c r="M54" t="n">
-        <v>0.002785803824717104</v>
+        <v>0.01611611440783173</v>
       </c>
     </row>
     <row r="55">
@@ -2681,37 +2681,37 @@
         <v>0.2142327244219527</v>
       </c>
       <c r="C55" t="n">
-        <v>0.2174668610095978</v>
+        <v>0.2200994342565536</v>
       </c>
       <c r="D55" t="n">
-        <v>0.003234136587645126</v>
+        <v>0.005866709834600997</v>
       </c>
       <c r="E55" t="n">
-        <v>0.003234136587645126</v>
+        <v>0.005866709834600997</v>
       </c>
       <c r="F55" t="n">
         <v>0.200261270860225</v>
       </c>
       <c r="G55" t="n">
-        <v>0.2049608081579208</v>
+        <v>0.2062821090221405</v>
       </c>
       <c r="H55" t="n">
-        <v>0.004699537297695816</v>
+        <v>0.006020838161915482</v>
       </c>
       <c r="I55" t="n">
-        <v>0.004699537297695816</v>
+        <v>0.006020838161915482</v>
       </c>
       <c r="J55" t="n">
         <v>0.290470138414101</v>
       </c>
       <c r="K55" t="n">
-        <v>0.2859309613704681</v>
+        <v>0.2725134789943695</v>
       </c>
       <c r="L55" t="n">
-        <v>-0.00453917704363288</v>
+        <v>-0.01795665941973151</v>
       </c>
       <c r="M55" t="n">
-        <v>0.00453917704363288</v>
+        <v>0.01795665941973151</v>
       </c>
     </row>
     <row r="56">
@@ -2722,37 +2722,37 @@
         <v>0.211510146683006</v>
       </c>
       <c r="C56" t="n">
-        <v>0.2178509533405304</v>
+        <v>0.2203935384750366</v>
       </c>
       <c r="D56" t="n">
-        <v>0.006340806657524373</v>
+        <v>0.008883391792030598</v>
       </c>
       <c r="E56" t="n">
-        <v>0.006340806657524373</v>
+        <v>0.008883391792030598</v>
       </c>
       <c r="F56" t="n">
         <v>0.196527119335654</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2051764130592346</v>
+        <v>0.2064933478832245</v>
       </c>
       <c r="H56" t="n">
-        <v>0.008649293723580614</v>
+        <v>0.009966228547570483</v>
       </c>
       <c r="I56" t="n">
-        <v>0.008649293723580614</v>
+        <v>0.009966228547570483</v>
       </c>
       <c r="J56" t="n">
         <v>0.293509813200369</v>
       </c>
       <c r="K56" t="n">
-        <v>0.2860428690910339</v>
+        <v>0.272474080324173</v>
       </c>
       <c r="L56" t="n">
-        <v>-0.007466944109335072</v>
+        <v>-0.02103573287619603</v>
       </c>
       <c r="M56" t="n">
-        <v>0.007466944109335072</v>
+        <v>0.02103573287619603</v>
       </c>
     </row>
     <row r="57">
@@ -2763,37 +2763,37 @@
         <v>0.214575209786125</v>
       </c>
       <c r="C57" t="n">
-        <v>0.2179487645626068</v>
+        <v>0.2205900549888611</v>
       </c>
       <c r="D57" t="n">
-        <v>0.003373554776481796</v>
+        <v>0.006014845202736069</v>
       </c>
       <c r="E57" t="n">
-        <v>0.003373554776481796</v>
+        <v>0.006014845202736069</v>
       </c>
       <c r="F57" t="n">
         <v>0.198098841749791</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2052474319934845</v>
+        <v>0.2066340148448944</v>
       </c>
       <c r="H57" t="n">
-        <v>0.00714859024369352</v>
+        <v>0.008535173095103432</v>
       </c>
       <c r="I57" t="n">
-        <v>0.00714859024369352</v>
+        <v>0.008535173095103432</v>
       </c>
       <c r="J57" t="n">
         <v>0.2928223296567403</v>
       </c>
       <c r="K57" t="n">
-        <v>0.2863783240318298</v>
+        <v>0.272574782371521</v>
       </c>
       <c r="L57" t="n">
-        <v>-0.006444005624910487</v>
+        <v>-0.02024754728521933</v>
       </c>
       <c r="M57" t="n">
-        <v>0.006444005624910487</v>
+        <v>0.02024754728521933</v>
       </c>
     </row>
     <row r="58">
@@ -2804,37 +2804,37 @@
         <v>0.223719990614258</v>
       </c>
       <c r="C58" t="n">
-        <v>0.2180131673812866</v>
+        <v>0.2208741903305054</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.00570682323297142</v>
+        <v>-0.00284580028375267</v>
       </c>
       <c r="E58" t="n">
-        <v>0.00570682323297142</v>
+        <v>0.00284580028375267</v>
       </c>
       <c r="F58" t="n">
         <v>0.2053124087502493</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2053223103284836</v>
+        <v>0.2068537920713425</v>
       </c>
       <c r="H58" t="n">
-        <v>9.901578234244868e-06</v>
+        <v>0.001541383321093132</v>
       </c>
       <c r="I58" t="n">
-        <v>9.901578234244868e-06</v>
+        <v>0.001541383321093132</v>
       </c>
       <c r="J58" t="n">
         <v>0.2991796884544833</v>
       </c>
       <c r="K58" t="n">
-        <v>0.2866918444633484</v>
+        <v>0.2728180885314941</v>
       </c>
       <c r="L58" t="n">
-        <v>-0.01248784399113495</v>
+        <v>-0.0263615999229892</v>
       </c>
       <c r="M58" t="n">
-        <v>0.01248784399113495</v>
+        <v>0.0263615999229892</v>
       </c>
     </row>
     <row r="59">
@@ -2845,37 +2845,37 @@
         <v>0.2411653539166033</v>
       </c>
       <c r="C59" t="n">
-        <v>0.2183367758989334</v>
+        <v>0.2211869359016418</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.02282857801766994</v>
+        <v>-0.0199784180149615</v>
       </c>
       <c r="E59" t="n">
-        <v>0.02282857801766994</v>
+        <v>0.0199784180149615</v>
       </c>
       <c r="F59" t="n">
         <v>0.2206260335041823</v>
       </c>
       <c r="G59" t="n">
-        <v>0.2056868076324463</v>
+        <v>0.2072140574455261</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.01493922587173602</v>
+        <v>-0.01341197605865618</v>
       </c>
       <c r="I59" t="n">
-        <v>0.01493922587173602</v>
+        <v>0.01341197605865618</v>
       </c>
       <c r="J59" t="n">
         <v>0.3003931807571103</v>
       </c>
       <c r="K59" t="n">
-        <v>0.2871800065040588</v>
+        <v>0.2732914686203003</v>
       </c>
       <c r="L59" t="n">
-        <v>-0.01321317425305146</v>
+        <v>-0.02710171213681001</v>
       </c>
       <c r="M59" t="n">
-        <v>0.01321317425305146</v>
+        <v>0.02710171213681001</v>
       </c>
     </row>
     <row r="60">
@@ -2886,37 +2886,37 @@
         <v>0.2608190144570524</v>
       </c>
       <c r="C60" t="n">
-        <v>0.2196820676326752</v>
+        <v>0.2219451665878296</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.04113694682437719</v>
+        <v>-0.03887384786922277</v>
       </c>
       <c r="E60" t="n">
-        <v>0.04113694682437719</v>
+        <v>0.03887384786922277</v>
       </c>
       <c r="F60" t="n">
         <v>0.2391368274589634</v>
       </c>
       <c r="G60" t="n">
-        <v>0.2067922949790955</v>
+        <v>0.2080774307250977</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.0323445324798679</v>
+        <v>-0.03105939673386571</v>
       </c>
       <c r="I60" t="n">
-        <v>0.0323445324798679</v>
+        <v>0.03105939673386571</v>
       </c>
       <c r="J60" t="n">
         <v>0.304178393110156</v>
       </c>
       <c r="K60" t="n">
-        <v>0.2874330878257751</v>
+        <v>0.273939847946167</v>
       </c>
       <c r="L60" t="n">
-        <v>-0.0167453052843809</v>
+        <v>-0.03023854516398905</v>
       </c>
       <c r="M60" t="n">
-        <v>0.0167453052843809</v>
+        <v>0.03023854516398905</v>
       </c>
     </row>
     <row r="61">
@@ -2927,37 +2927,37 @@
         <v>0.2762794392028811</v>
       </c>
       <c r="C61" t="n">
-        <v>0.2225959300994873</v>
+        <v>0.2234289348125458</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.05368350910339376</v>
+        <v>-0.05285050439033528</v>
       </c>
       <c r="E61" t="n">
-        <v>0.05368350910339376</v>
+        <v>0.05285050439033528</v>
       </c>
       <c r="F61" t="n">
         <v>0.2546357239925003</v>
       </c>
       <c r="G61" t="n">
-        <v>0.2089414894580841</v>
+        <v>0.2096709311008453</v>
       </c>
       <c r="H61" t="n">
-        <v>-0.04569423453441623</v>
+        <v>-0.044964792891655</v>
       </c>
       <c r="I61" t="n">
-        <v>0.04569423453441623</v>
+        <v>0.044964792891655</v>
       </c>
       <c r="J61" t="n">
         <v>0.30176542946254</v>
       </c>
       <c r="K61" t="n">
-        <v>0.2872163355350494</v>
+        <v>0.2746752202510834</v>
       </c>
       <c r="L61" t="n">
-        <v>-0.01454909392749054</v>
+        <v>-0.02709020921145661</v>
       </c>
       <c r="M61" t="n">
-        <v>0.01454909392749054</v>
+        <v>0.02709020921145661</v>
       </c>
     </row>
     <row r="62">
@@ -2968,37 +2968,37 @@
         <v>0.2906584385024787</v>
       </c>
       <c r="C62" t="n">
-        <v>0.227154940366745</v>
+        <v>0.2257302105426788</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.06350349813573369</v>
+        <v>-0.06492822795979986</v>
       </c>
       <c r="E62" t="n">
-        <v>0.06350349813573369</v>
+        <v>0.06492822795979986</v>
       </c>
       <c r="F62" t="n">
         <v>0.2698691169047527</v>
       </c>
       <c r="G62" t="n">
-        <v>0.2120580077171326</v>
+        <v>0.2119999825954437</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.05781110918762011</v>
+        <v>-0.05786913430930896</v>
       </c>
       <c r="I62" t="n">
-        <v>0.05781110918762011</v>
+        <v>0.05786913430930896</v>
       </c>
       <c r="J62" t="n">
         <v>0.3018521079604387</v>
       </c>
       <c r="K62" t="n">
-        <v>0.2861296534538269</v>
+        <v>0.2753234505653381</v>
       </c>
       <c r="L62" t="n">
-        <v>-0.01572245450661175</v>
+        <v>-0.02652865739510052</v>
       </c>
       <c r="M62" t="n">
-        <v>0.01572245450661175</v>
+        <v>0.02652865739510052</v>
       </c>
     </row>
     <row r="63">
@@ -3009,37 +3009,37 @@
         <v>0.3034959202488147</v>
       </c>
       <c r="C63" t="n">
-        <v>0.2331366539001465</v>
+        <v>0.2288153767585754</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.07035926634866824</v>
+        <v>-0.07468054349023928</v>
       </c>
       <c r="E63" t="n">
-        <v>0.07035926634866824</v>
+        <v>0.07468054349023928</v>
       </c>
       <c r="F63" t="n">
         <v>0.2859905112202073</v>
       </c>
       <c r="G63" t="n">
-        <v>0.215989738702774</v>
+        <v>0.214987650513649</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.07000077251743325</v>
+        <v>-0.07100286070655831</v>
       </c>
       <c r="I63" t="n">
-        <v>0.07000077251743325</v>
+        <v>0.07100286070655831</v>
       </c>
       <c r="J63" t="n">
         <v>0.2930568621702513</v>
       </c>
       <c r="K63" t="n">
-        <v>0.2840979993343353</v>
+        <v>0.2758303880691528</v>
       </c>
       <c r="L63" t="n">
-        <v>-0.008958862835916015</v>
+        <v>-0.01722647410109851</v>
       </c>
       <c r="M63" t="n">
-        <v>0.008958862835916015</v>
+        <v>0.01722647410109851</v>
       </c>
     </row>
     <row r="64">
@@ -3050,37 +3050,37 @@
         <v>0.3145761536648971</v>
       </c>
       <c r="C64" t="n">
-        <v>0.2399244010448456</v>
+        <v>0.2326724231243134</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.07465175262005147</v>
+        <v>-0.0819037305405837</v>
       </c>
       <c r="E64" t="n">
-        <v>0.07465175262005147</v>
+        <v>0.0819037305405837</v>
       </c>
       <c r="F64" t="n">
         <v>0.2947722268919084</v>
       </c>
       <c r="G64" t="n">
-        <v>0.2212528735399246</v>
+        <v>0.218489408493042</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.07351935335198373</v>
+        <v>-0.07628281839886636</v>
       </c>
       <c r="I64" t="n">
-        <v>0.07351935335198373</v>
+        <v>0.07628281839886636</v>
       </c>
       <c r="J64" t="n">
         <v>0.2692517811839587</v>
       </c>
       <c r="K64" t="n">
-        <v>0.2808658480644226</v>
+        <v>0.2758729457855225</v>
       </c>
       <c r="L64" t="n">
-        <v>0.0116140668804639</v>
+        <v>0.006621164601563756</v>
       </c>
       <c r="M64" t="n">
-        <v>0.0116140668804639</v>
+        <v>0.006621164601563756</v>
       </c>
     </row>
     <row r="65">
@@ -3091,37 +3091,37 @@
         <v>0.3348610710927744</v>
       </c>
       <c r="C65" t="n">
-        <v>0.2473633140325546</v>
+        <v>0.2372078895568848</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.08749775706021978</v>
+        <v>-0.09765318153588964</v>
       </c>
       <c r="E65" t="n">
-        <v>0.08749775706021978</v>
+        <v>0.09765318153588964</v>
       </c>
       <c r="F65" t="n">
         <v>0.30710189064796</v>
       </c>
       <c r="G65" t="n">
-        <v>0.2269610464572906</v>
+        <v>0.2222419679164886</v>
       </c>
       <c r="H65" t="n">
-        <v>-0.0801408441906693</v>
+        <v>-0.0848599227314713</v>
       </c>
       <c r="I65" t="n">
-        <v>0.0801408441906693</v>
+        <v>0.0848599227314713</v>
       </c>
       <c r="J65" t="n">
         <v>0.2478737761932014</v>
       </c>
       <c r="K65" t="n">
-        <v>0.2756629288196564</v>
+        <v>0.2750623822212219</v>
       </c>
       <c r="L65" t="n">
-        <v>0.02778915262645501</v>
+        <v>0.02718860602802056</v>
       </c>
       <c r="M65" t="n">
-        <v>0.02778915262645501</v>
+        <v>0.02718860602802056</v>
       </c>
     </row>
     <row r="66">
@@ -3132,37 +3132,37 @@
         <v>0.3491582017163167</v>
       </c>
       <c r="C66" t="n">
-        <v>0.2546220123767853</v>
+        <v>0.2422509044408798</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.0945361893395314</v>
+        <v>-0.1069072972754369</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0945361893395314</v>
+        <v>0.1069072972754369</v>
       </c>
       <c r="F66" t="n">
         <v>0.3088283618459047</v>
       </c>
       <c r="G66" t="n">
-        <v>0.2327315211296082</v>
+        <v>0.2260903418064117</v>
       </c>
       <c r="H66" t="n">
-        <v>-0.07609684071629652</v>
+        <v>-0.08273802003949293</v>
       </c>
       <c r="I66" t="n">
-        <v>0.07609684071629652</v>
+        <v>0.08273802003949293</v>
       </c>
       <c r="J66" t="n">
         <v>0.231366599682626</v>
       </c>
       <c r="K66" t="n">
-        <v>0.269499659538269</v>
+        <v>0.2733637690544128</v>
       </c>
       <c r="L66" t="n">
-        <v>0.03813305985564305</v>
+        <v>0.04199716937178685</v>
       </c>
       <c r="M66" t="n">
-        <v>0.03813305985564305</v>
+        <v>0.04199716937178685</v>
       </c>
     </row>
     <row r="67">
@@ -3173,37 +3173,37 @@
         <v>0.3502013580787004</v>
       </c>
       <c r="C67" t="n">
-        <v>0.2606069445610046</v>
+        <v>0.2464954257011414</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.08959441351769576</v>
+        <v>-0.103705932377559</v>
       </c>
       <c r="E67" t="n">
-        <v>0.08959441351769576</v>
+        <v>0.103705932377559</v>
       </c>
       <c r="F67" t="n">
         <v>0.3068407476156046</v>
       </c>
       <c r="G67" t="n">
-        <v>0.2371773719787598</v>
+        <v>0.2314139902591705</v>
       </c>
       <c r="H67" t="n">
-        <v>-0.06966337563684488</v>
+        <v>-0.07542675735643412</v>
       </c>
       <c r="I67" t="n">
-        <v>0.06966337563684488</v>
+        <v>0.07542675735643412</v>
       </c>
       <c r="J67" t="n">
         <v>0.2304818170513103</v>
       </c>
       <c r="K67" t="n">
-        <v>0.263148695230484</v>
+        <v>0.2722593247890472</v>
       </c>
       <c r="L67" t="n">
-        <v>0.03266687817917369</v>
+        <v>0.04177750773773692</v>
       </c>
       <c r="M67" t="n">
-        <v>0.03266687817917369</v>
+        <v>0.04177750773773692</v>
       </c>
     </row>
     <row r="68">
@@ -3214,37 +3214,37 @@
         <v>0.32090251008221</v>
       </c>
       <c r="C68" t="n">
-        <v>0.2660937011241913</v>
+        <v>0.2498494833707809</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.05480880895801876</v>
+        <v>-0.0710530267114291</v>
       </c>
       <c r="E68" t="n">
-        <v>0.05480880895801876</v>
+        <v>0.0710530267114291</v>
       </c>
       <c r="F68" t="n">
         <v>0.2840668057556613</v>
       </c>
       <c r="G68" t="n">
-        <v>0.2404603958129883</v>
+        <v>0.2368625998497009</v>
       </c>
       <c r="H68" t="n">
-        <v>-0.04360640994267301</v>
+        <v>-0.04720420590596036</v>
       </c>
       <c r="I68" t="n">
-        <v>0.04360640994267301</v>
+        <v>0.04720420590596036</v>
       </c>
       <c r="J68" t="n">
         <v>0.2182019152905437</v>
       </c>
       <c r="K68" t="n">
-        <v>0.2608881294727325</v>
+        <v>0.2720901966094971</v>
       </c>
       <c r="L68" t="n">
-        <v>0.04268621418218888</v>
+        <v>0.0538882813189534</v>
       </c>
       <c r="M68" t="n">
-        <v>0.04268621418218888</v>
+        <v>0.0538882813189534</v>
       </c>
     </row>
     <row r="69">
@@ -3255,37 +3255,37 @@
         <v>0.2895049021744476</v>
       </c>
       <c r="C69" t="n">
-        <v>0.2693939507007599</v>
+        <v>0.251971036195755</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.02011095147368774</v>
+        <v>-0.03753386597869263</v>
       </c>
       <c r="E69" t="n">
-        <v>0.02011095147368774</v>
+        <v>0.03753386597869263</v>
       </c>
       <c r="F69" t="n">
         <v>0.2600225751928724</v>
       </c>
       <c r="G69" t="n">
-        <v>0.241531565785408</v>
+        <v>0.2407675087451935</v>
       </c>
       <c r="H69" t="n">
-        <v>-0.01849100940746434</v>
+        <v>-0.01925506644767888</v>
       </c>
       <c r="I69" t="n">
-        <v>0.01849100940746434</v>
+        <v>0.01925506644767888</v>
       </c>
       <c r="J69" t="n">
         <v>0.2140880376000146</v>
       </c>
       <c r="K69" t="n">
-        <v>0.2597391903400421</v>
+        <v>0.2717262208461761</v>
       </c>
       <c r="L69" t="n">
-        <v>0.04565115274002748</v>
+        <v>0.05763818324616152</v>
       </c>
       <c r="M69" t="n">
-        <v>0.04565115274002748</v>
+        <v>0.05763818324616152</v>
       </c>
     </row>
     <row r="70">
@@ -3296,37 +3296,37 @@
         <v>0.268465296070206</v>
       </c>
       <c r="C70" t="n">
-        <v>0.2695719301700592</v>
+        <v>0.2527703642845154</v>
       </c>
       <c r="D70" t="n">
-        <v>0.001106634099853177</v>
+        <v>-0.01569493178569065</v>
       </c>
       <c r="E70" t="n">
-        <v>0.001106634099853177</v>
+        <v>0.01569493178569065</v>
       </c>
       <c r="F70" t="n">
         <v>0.2453703081905406</v>
       </c>
       <c r="G70" t="n">
-        <v>0.2403661459684372</v>
+        <v>0.2432539016008377</v>
       </c>
       <c r="H70" t="n">
-        <v>-0.005004162222103453</v>
+        <v>-0.00211640658970294</v>
       </c>
       <c r="I70" t="n">
-        <v>0.005004162222103453</v>
+        <v>0.00211640658970294</v>
       </c>
       <c r="J70" t="n">
         <v>0.213855411118472</v>
       </c>
       <c r="K70" t="n">
-        <v>0.2584075331687927</v>
+        <v>0.2708610594272614</v>
       </c>
       <c r="L70" t="n">
-        <v>0.04455212205032075</v>
+        <v>0.05700564830878938</v>
       </c>
       <c r="M70" t="n">
-        <v>0.04455212205032075</v>
+        <v>0.05700564830878938</v>
       </c>
     </row>
     <row r="71">
@@ -3337,37 +3337,37 @@
         <v>0.2607771941673123</v>
       </c>
       <c r="C71" t="n">
-        <v>0.266904354095459</v>
+        <v>0.2520456612110138</v>
       </c>
       <c r="D71" t="n">
-        <v>0.006127159928146664</v>
+        <v>-0.008731532956298527</v>
       </c>
       <c r="E71" t="n">
-        <v>0.006127159928146664</v>
+        <v>0.008731532956298527</v>
       </c>
       <c r="F71" t="n">
         <v>0.2415597409391703</v>
       </c>
       <c r="G71" t="n">
-        <v>0.2374598532915115</v>
+        <v>0.2441627681255341</v>
       </c>
       <c r="H71" t="n">
-        <v>-0.004099887647658784</v>
+        <v>0.002603027186363738</v>
       </c>
       <c r="I71" t="n">
-        <v>0.004099887647658784</v>
+        <v>0.002603027186363738</v>
       </c>
       <c r="J71" t="n">
         <v>0.215918528299899</v>
       </c>
       <c r="K71" t="n">
-        <v>0.2570726871490479</v>
+        <v>0.2693639099597931</v>
       </c>
       <c r="L71" t="n">
-        <v>0.04115415884914886</v>
+        <v>0.0534453816598941</v>
       </c>
       <c r="M71" t="n">
-        <v>0.04115415884914886</v>
+        <v>0.0534453816598941</v>
       </c>
     </row>
     <row r="72">
@@ -3378,37 +3378,37 @@
         <v>0.25861514833906</v>
       </c>
       <c r="C72" t="n">
-        <v>0.2625848948955536</v>
+        <v>0.2506694495677948</v>
       </c>
       <c r="D72" t="n">
-        <v>0.00396974655649357</v>
+        <v>-0.007945698771265219</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00396974655649357</v>
+        <v>0.007945698771265219</v>
       </c>
       <c r="F72" t="n">
         <v>0.2426575210418427</v>
       </c>
       <c r="G72" t="n">
-        <v>0.2335672676563263</v>
+        <v>0.2436128109693527</v>
       </c>
       <c r="H72" t="n">
-        <v>-0.009090253385516361</v>
+        <v>0.0009552899275100668</v>
       </c>
       <c r="I72" t="n">
-        <v>0.009090253385516361</v>
+        <v>0.0009552899275100668</v>
       </c>
       <c r="J72" t="n">
         <v>0.216822263321521</v>
       </c>
       <c r="K72" t="n">
-        <v>0.2558330893516541</v>
+        <v>0.268039733171463</v>
       </c>
       <c r="L72" t="n">
-        <v>0.03901082603013303</v>
+        <v>0.05121746984994199</v>
       </c>
       <c r="M72" t="n">
-        <v>0.03901082603013303</v>
+        <v>0.05121746984994199</v>
       </c>
     </row>
     <row r="73">
@@ -3419,37 +3419,37 @@
         <v>0.2506198477454347</v>
       </c>
       <c r="C73" t="n">
-        <v>0.2576252222061157</v>
+        <v>0.2487741410732269</v>
       </c>
       <c r="D73" t="n">
-        <v>0.007005374460681058</v>
+        <v>-0.001845706672207736</v>
       </c>
       <c r="E73" t="n">
-        <v>0.007005374460681058</v>
+        <v>0.001845706672207736</v>
       </c>
       <c r="F73" t="n">
         <v>0.2342001328281367</v>
       </c>
       <c r="G73" t="n">
-        <v>0.2294274121522903</v>
+        <v>0.2422951757907867</v>
       </c>
       <c r="H73" t="n">
-        <v>-0.004772720675846331</v>
+        <v>0.008095042962650068</v>
       </c>
       <c r="I73" t="n">
-        <v>0.004772720675846331</v>
+        <v>0.008095042962650068</v>
       </c>
       <c r="J73" t="n">
         <v>0.2195424822560084</v>
       </c>
       <c r="K73" t="n">
-        <v>0.2548635005950928</v>
+        <v>0.2664830386638641</v>
       </c>
       <c r="L73" t="n">
-        <v>0.03532101833908441</v>
+        <v>0.04694055640785577</v>
       </c>
       <c r="M73" t="n">
-        <v>0.03532101833908441</v>
+        <v>0.04694055640785577</v>
       </c>
     </row>
     <row r="74">
@@ -3460,37 +3460,37 @@
         <v>0.2432524562722977</v>
       </c>
       <c r="C74" t="n">
-        <v>0.2522782981395721</v>
+        <v>0.2462771832942963</v>
       </c>
       <c r="D74" t="n">
-        <v>0.009025841867274481</v>
+        <v>0.003024727021998602</v>
       </c>
       <c r="E74" t="n">
-        <v>0.009025841867274481</v>
+        <v>0.003024727021998602</v>
       </c>
       <c r="F74" t="n">
         <v>0.226066718825007</v>
       </c>
       <c r="G74" t="n">
-        <v>0.2254472970962524</v>
+        <v>0.2400125712156296</v>
       </c>
       <c r="H74" t="n">
-        <v>-0.0006194217287545933</v>
+        <v>0.01394585239062254</v>
       </c>
       <c r="I74" t="n">
-        <v>0.0006194217287545933</v>
+        <v>0.01394585239062254</v>
       </c>
       <c r="J74" t="n">
         <v>0.2280612725020577</v>
       </c>
       <c r="K74" t="n">
-        <v>0.2542697191238403</v>
+        <v>0.2648621201515198</v>
       </c>
       <c r="L74" t="n">
-        <v>0.02620844662178268</v>
+        <v>0.03680084764946212</v>
       </c>
       <c r="M74" t="n">
-        <v>0.02620844662178268</v>
+        <v>0.03680084764946212</v>
       </c>
     </row>
     <row r="75">
@@ -3501,37 +3501,37 @@
         <v>0.2338150838726734</v>
       </c>
       <c r="C75" t="n">
-        <v>0.2470091730356216</v>
+        <v>0.243369847536087</v>
       </c>
       <c r="D75" t="n">
-        <v>0.01319408916294829</v>
+        <v>0.009554763663413679</v>
       </c>
       <c r="E75" t="n">
-        <v>0.01319408916294829</v>
+        <v>0.009554763663413679</v>
       </c>
       <c r="F75" t="n">
         <v>0.2158239607117997</v>
       </c>
       <c r="G75" t="n">
-        <v>0.2218727320432663</v>
+        <v>0.2368515580892563</v>
       </c>
       <c r="H75" t="n">
-        <v>0.006048771331466612</v>
+        <v>0.0210275973774566</v>
       </c>
       <c r="I75" t="n">
-        <v>0.006048771331466612</v>
+        <v>0.0210275973774566</v>
       </c>
       <c r="J75" t="n">
         <v>0.238630447073526</v>
       </c>
       <c r="K75" t="n">
-        <v>0.2539748251438141</v>
+        <v>0.2634089291095734</v>
       </c>
       <c r="L75" t="n">
-        <v>0.0153443780702881</v>
+        <v>0.02477848203604738</v>
       </c>
       <c r="M75" t="n">
-        <v>0.0153443780702881</v>
+        <v>0.02477848203604738</v>
       </c>
     </row>
     <row r="76">
@@ -3542,37 +3542,37 @@
         <v>0.22922836348017</v>
       </c>
       <c r="C76" t="n">
-        <v>0.242280125617981</v>
+        <v>0.2399242222309113</v>
       </c>
       <c r="D76" t="n">
-        <v>0.01305176213781092</v>
+        <v>0.01069585875074122</v>
       </c>
       <c r="E76" t="n">
-        <v>0.01305176213781092</v>
+        <v>0.01069585875074122</v>
       </c>
       <c r="F76" t="n">
         <v>0.2110783454149023</v>
       </c>
       <c r="G76" t="n">
-        <v>0.2186319380998611</v>
+        <v>0.2326449900865555</v>
       </c>
       <c r="H76" t="n">
-        <v>0.00755359268495881</v>
+        <v>0.02156664467165315</v>
       </c>
       <c r="I76" t="n">
-        <v>0.00755359268495881</v>
+        <v>0.02156664467165315</v>
       </c>
       <c r="J76" t="n">
         <v>0.245864992427809</v>
       </c>
       <c r="K76" t="n">
-        <v>0.2546253502368927</v>
+        <v>0.2621053755283356</v>
       </c>
       <c r="L76" t="n">
-        <v>0.008760357809083713</v>
+        <v>0.01624038310052658</v>
       </c>
       <c r="M76" t="n">
-        <v>0.008760357809083713</v>
+        <v>0.01624038310052658</v>
       </c>
     </row>
     <row r="77">
@@ -3583,37 +3583,37 @@
         <v>0.2313878595499783</v>
       </c>
       <c r="C77" t="n">
-        <v>0.2382404953241348</v>
+        <v>0.236259937286377</v>
       </c>
       <c r="D77" t="n">
-        <v>0.006852635774156485</v>
+        <v>0.004872077736398611</v>
       </c>
       <c r="E77" t="n">
-        <v>0.006852635774156485</v>
+        <v>0.004872077736398611</v>
       </c>
       <c r="F77" t="n">
         <v>0.212551157730563</v>
       </c>
       <c r="G77" t="n">
-        <v>0.215976357460022</v>
+        <v>0.2278305739164352</v>
       </c>
       <c r="H77" t="n">
-        <v>0.003425199729458983</v>
+        <v>0.01527941618587225</v>
       </c>
       <c r="I77" t="n">
-        <v>0.003425199729458983</v>
+        <v>0.01527941618587225</v>
       </c>
       <c r="J77" t="n">
         <v>0.2557148716039554</v>
       </c>
       <c r="K77" t="n">
-        <v>0.2563413083553314</v>
+        <v>0.2610140144824982</v>
       </c>
       <c r="L77" t="n">
-        <v>0.0006264367513760249</v>
+        <v>0.005299142878542773</v>
       </c>
       <c r="M77" t="n">
-        <v>0.0006264367513760249</v>
+        <v>0.005299142878542773</v>
       </c>
     </row>
     <row r="78">
@@ -3624,37 +3624,37 @@
         <v>0.237731294806062</v>
       </c>
       <c r="C78" t="n">
-        <v>0.2353142201900482</v>
+        <v>0.2327623665332794</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.002417074616013815</v>
+        <v>-0.004968928272782613</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002417074616013815</v>
+        <v>0.004968928272782613</v>
       </c>
       <c r="F78" t="n">
         <v>0.2179493229205927</v>
       </c>
       <c r="G78" t="n">
-        <v>0.2133221328258514</v>
+        <v>0.2229879051446915</v>
       </c>
       <c r="H78" t="n">
-        <v>-0.004627190094741218</v>
+        <v>0.005038582224098809</v>
       </c>
       <c r="I78" t="n">
-        <v>0.004627190094741218</v>
+        <v>0.005038582224098809</v>
       </c>
       <c r="J78" t="n">
         <v>0.2504361735672423</v>
       </c>
       <c r="K78" t="n">
-        <v>0.2594411373138428</v>
+        <v>0.2601777911186218</v>
       </c>
       <c r="L78" t="n">
-        <v>0.009004963746600425</v>
+        <v>0.009741617551379478</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009004963746600425</v>
+        <v>0.009741617551379478</v>
       </c>
     </row>
     <row r="79">
@@ -3665,37 +3665,37 @@
         <v>0.2415441855604054</v>
       </c>
       <c r="C79" t="n">
-        <v>0.2335030287504196</v>
+        <v>0.2303790599107742</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.008041156809985739</v>
+        <v>-0.01116512564963112</v>
       </c>
       <c r="E79" t="n">
-        <v>0.008041156809985739</v>
+        <v>0.01116512564963112</v>
       </c>
       <c r="F79" t="n">
         <v>0.22029666374013</v>
       </c>
       <c r="G79" t="n">
-        <v>0.2115038931369781</v>
+        <v>0.2192938625812531</v>
       </c>
       <c r="H79" t="n">
-        <v>-0.008792770603151867</v>
+        <v>-0.001002801158876965</v>
       </c>
       <c r="I79" t="n">
-        <v>0.008792770603151867</v>
+        <v>0.001002801158876965</v>
       </c>
       <c r="J79" t="n">
         <v>0.2492919922106906</v>
       </c>
       <c r="K79" t="n">
-        <v>0.2626036405563354</v>
+        <v>0.2598598301410675</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0133116483456448</v>
+        <v>0.01056783793037686</v>
       </c>
       <c r="M79" t="n">
-        <v>0.0133116483456448</v>
+        <v>0.01056783793037686</v>
       </c>
     </row>
     <row r="80">
@@ -3706,37 +3706,37 @@
         <v>0.2378803748914187</v>
       </c>
       <c r="C80" t="n">
-        <v>0.2326453626155853</v>
+        <v>0.2292936593294144</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.00523501227583334</v>
+        <v>-0.008586715562004299</v>
       </c>
       <c r="E80" t="n">
-        <v>0.00523501227583334</v>
+        <v>0.008586715562004299</v>
       </c>
       <c r="F80" t="n">
         <v>0.215208963281733</v>
       </c>
       <c r="G80" t="n">
-        <v>0.2105498909950256</v>
+        <v>0.2169466763734818</v>
       </c>
       <c r="H80" t="n">
-        <v>-0.004659072286707366</v>
+        <v>0.001737713091748749</v>
       </c>
       <c r="I80" t="n">
-        <v>0.004659072286707366</v>
+        <v>0.001737713091748749</v>
       </c>
       <c r="J80" t="n">
         <v>0.2399217963667027</v>
       </c>
       <c r="K80" t="n">
-        <v>0.2647958695888519</v>
+        <v>0.2601336240768433</v>
       </c>
       <c r="L80" t="n">
-        <v>0.02487407322214927</v>
+        <v>0.0202118277101406</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02487407322214927</v>
+        <v>0.0202118277101406</v>
       </c>
     </row>
     <row r="81">
@@ -3747,37 +3747,37 @@
         <v>0.2344885709047017</v>
       </c>
       <c r="C81" t="n">
-        <v>0.2319147735834122</v>
+        <v>0.2285555005073547</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.002573797321289512</v>
+        <v>-0.005933070397346946</v>
       </c>
       <c r="E81" t="n">
-        <v>0.002573797321289512</v>
+        <v>0.005933070397346946</v>
       </c>
       <c r="F81" t="n">
         <v>0.2116482928738407</v>
       </c>
       <c r="G81" t="n">
-        <v>0.2101554274559021</v>
+        <v>0.2153430730104446</v>
       </c>
       <c r="H81" t="n">
-        <v>-0.001492865417938583</v>
+        <v>0.003694780136603959</v>
       </c>
       <c r="I81" t="n">
-        <v>0.001492865417938583</v>
+        <v>0.003694780136603959</v>
       </c>
       <c r="J81" t="n">
         <v>0.2379900039261433</v>
       </c>
       <c r="K81" t="n">
-        <v>0.2660820484161377</v>
+        <v>0.2603570818901062</v>
       </c>
       <c r="L81" t="n">
-        <v>0.02809204448999436</v>
+        <v>0.02236707796396287</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02809204448999436</v>
+        <v>0.02236707796396287</v>
       </c>
     </row>
     <row r="82">
@@ -3788,37 +3788,37 @@
         <v>0.235407863538262</v>
       </c>
       <c r="C82" t="n">
-        <v>0.2309498935937881</v>
+        <v>0.2277053147554398</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.004457969944473866</v>
+        <v>-0.007702548782822255</v>
       </c>
       <c r="E82" t="n">
-        <v>0.004457969944473866</v>
+        <v>0.007702548782822255</v>
       </c>
       <c r="F82" t="n">
         <v>0.211451595408296</v>
       </c>
       <c r="G82" t="n">
-        <v>0.2099706530570984</v>
+        <v>0.21380415558815</v>
       </c>
       <c r="H82" t="n">
-        <v>-0.001480942351197584</v>
+        <v>0.002352560179854052</v>
       </c>
       <c r="I82" t="n">
-        <v>0.001480942351197584</v>
+        <v>0.002352560179854052</v>
       </c>
       <c r="J82" t="n">
         <v>0.23277252110303</v>
       </c>
       <c r="K82" t="n">
-        <v>0.2670110762119293</v>
+        <v>0.2606366276741028</v>
       </c>
       <c r="L82" t="n">
-        <v>0.03423855510889931</v>
+        <v>0.02786410657107277</v>
       </c>
       <c r="M82" t="n">
-        <v>0.03423855510889931</v>
+        <v>0.02786410657107277</v>
       </c>
     </row>
     <row r="83">
@@ -3829,37 +3829,37 @@
         <v>0.2374924880826207</v>
       </c>
       <c r="C83" t="n">
-        <v>0.2299363911151886</v>
+        <v>0.2268119752407074</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.007556096967432063</v>
+        <v>-0.01068051284191326</v>
       </c>
       <c r="E83" t="n">
-        <v>0.007556096967432063</v>
+        <v>0.01068051284191326</v>
       </c>
       <c r="F83" t="n">
         <v>0.2133194019172633</v>
       </c>
       <c r="G83" t="n">
-        <v>0.2097625583410263</v>
+        <v>0.2123690843582153</v>
       </c>
       <c r="H83" t="n">
-        <v>-0.003556843576237007</v>
+        <v>-0.0009503175590479807</v>
       </c>
       <c r="I83" t="n">
-        <v>0.003556843576237007</v>
+        <v>0.0009503175590479807</v>
       </c>
       <c r="J83" t="n">
         <v>0.2322599659262153</v>
       </c>
       <c r="K83" t="n">
-        <v>0.2675824761390686</v>
+        <v>0.2607861161231995</v>
       </c>
       <c r="L83" t="n">
-        <v>0.03532251021285326</v>
+        <v>0.02852615019698412</v>
       </c>
       <c r="M83" t="n">
-        <v>0.03532251021285326</v>
+        <v>0.02852615019698412</v>
       </c>
     </row>
     <row r="84">
@@ -3870,37 +3870,37 @@
         <v>0.2413295981215107</v>
       </c>
       <c r="C84" t="n">
-        <v>0.2292517274618149</v>
+        <v>0.2261871099472046</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.01207787065969579</v>
+        <v>-0.01514248817430608</v>
       </c>
       <c r="E84" t="n">
-        <v>0.01207787065969579</v>
+        <v>0.01514248817430608</v>
       </c>
       <c r="F84" t="n">
         <v>0.2154258804286577</v>
       </c>
       <c r="G84" t="n">
-        <v>0.2096182256937027</v>
+        <v>0.2114251405000687</v>
       </c>
       <c r="H84" t="n">
-        <v>-0.005807654734954953</v>
+        <v>-0.004000739928588987</v>
       </c>
       <c r="I84" t="n">
-        <v>0.005807654734954953</v>
+        <v>0.004000739928588987</v>
       </c>
       <c r="J84" t="n">
         <v>0.236034503030367</v>
       </c>
       <c r="K84" t="n">
-        <v>0.2676321268081665</v>
+        <v>0.2608498632907867</v>
       </c>
       <c r="L84" t="n">
-        <v>0.03159762377779951</v>
+        <v>0.02481536026041975</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03159762377779951</v>
+        <v>0.02481536026041975</v>
       </c>
     </row>
     <row r="85">
@@ -3911,37 +3911,37 @@
         <v>0.2386142412509777</v>
       </c>
       <c r="C85" t="n">
-        <v>0.2290011048316956</v>
+        <v>0.2258811742067337</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.009613136419282103</v>
+        <v>-0.01273306704424396</v>
       </c>
       <c r="E85" t="n">
-        <v>0.009613136419282103</v>
+        <v>0.01273306704424396</v>
       </c>
       <c r="F85" t="n">
         <v>0.2121878119748154</v>
       </c>
       <c r="G85" t="n">
-        <v>0.209610790014267</v>
+        <v>0.21102574467659</v>
       </c>
       <c r="H85" t="n">
-        <v>-0.002577021960548403</v>
+        <v>-0.001162067298225405</v>
       </c>
       <c r="I85" t="n">
-        <v>0.002577021960548403</v>
+        <v>0.001162067298225405</v>
       </c>
       <c r="J85" t="n">
         <v>0.2353123249578843</v>
       </c>
       <c r="K85" t="n">
-        <v>0.267425000667572</v>
+        <v>0.2608375251293182</v>
       </c>
       <c r="L85" t="n">
-        <v>0.03211267570968768</v>
+        <v>0.02552520017143389</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03211267570968768</v>
+        <v>0.02552520017143389</v>
       </c>
     </row>
     <row r="86">
@@ -3952,37 +3952,37 @@
         <v>0.2460396845663703</v>
       </c>
       <c r="C86" t="n">
-        <v>0.2289565950632095</v>
+        <v>0.2258210331201553</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.01708308950316081</v>
+        <v>-0.02021865144621501</v>
       </c>
       <c r="E86" t="n">
-        <v>0.01708308950316081</v>
+        <v>0.02021865144621501</v>
       </c>
       <c r="F86" t="n">
         <v>0.217246472856942</v>
       </c>
       <c r="G86" t="n">
-        <v>0.2095131874084473</v>
+        <v>0.211099699139595</v>
       </c>
       <c r="H86" t="n">
-        <v>-0.007733285448494748</v>
+        <v>-0.006146773717346982</v>
       </c>
       <c r="I86" t="n">
-        <v>0.007733285448494748</v>
+        <v>0.006146773717346982</v>
       </c>
       <c r="J86" t="n">
         <v>0.2397891843289783</v>
       </c>
       <c r="K86" t="n">
-        <v>0.2669966518878937</v>
+        <v>0.2607043385505676</v>
       </c>
       <c r="L86" t="n">
-        <v>0.02720746755891534</v>
+        <v>0.02091515422158929</v>
       </c>
       <c r="M86" t="n">
-        <v>0.02720746755891534</v>
+        <v>0.02091515422158929</v>
       </c>
     </row>
     <row r="87">
@@ -3993,37 +3993,37 @@
         <v>0.24154849321513</v>
       </c>
       <c r="C87" t="n">
-        <v>0.2292892932891846</v>
+        <v>0.2260162681341171</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.01225919992594546</v>
+        <v>-0.0155322250810129</v>
       </c>
       <c r="E87" t="n">
-        <v>0.01225919992594546</v>
+        <v>0.0155322250810129</v>
       </c>
       <c r="F87" t="n">
         <v>0.2102696702064757</v>
       </c>
       <c r="G87" t="n">
-        <v>0.2096236050128937</v>
+        <v>0.2115328907966614</v>
       </c>
       <c r="H87" t="n">
-        <v>-0.0006460651935820128</v>
+        <v>0.001263220590185687</v>
       </c>
       <c r="I87" t="n">
-        <v>0.0006460651935820128</v>
+        <v>0.001263220590185687</v>
       </c>
       <c r="J87" t="n">
         <v>0.2387764738576307</v>
       </c>
       <c r="K87" t="n">
-        <v>0.2666096389293671</v>
+        <v>0.2605791091918945</v>
       </c>
       <c r="L87" t="n">
-        <v>0.02783316507173639</v>
+        <v>0.02180263533426385</v>
       </c>
       <c r="M87" t="n">
-        <v>0.02783316507173639</v>
+        <v>0.02180263533426385</v>
       </c>
     </row>
     <row r="88">
@@ -4034,37 +4034,37 @@
         <v>0.2402607932583244</v>
       </c>
       <c r="C88" t="n">
-        <v>0.2294756770133972</v>
+        <v>0.226079136133194</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.01078511624492715</v>
+        <v>-0.01418165712513039</v>
       </c>
       <c r="E88" t="n">
-        <v>0.01078511624492715</v>
+        <v>0.01418165712513039</v>
       </c>
       <c r="F88" t="n">
         <v>0.2082368661423093</v>
       </c>
       <c r="G88" t="n">
-        <v>0.2095905840396881</v>
+        <v>0.2118736356496811</v>
       </c>
       <c r="H88" t="n">
-        <v>0.001353717897378787</v>
+        <v>0.003636769507371768</v>
       </c>
       <c r="I88" t="n">
-        <v>0.001353717897378787</v>
+        <v>0.003636769507371768</v>
       </c>
       <c r="J88" t="n">
         <v>0.2450224568365203</v>
       </c>
       <c r="K88" t="n">
-        <v>0.2664074003696442</v>
+        <v>0.2603502869606018</v>
       </c>
       <c r="L88" t="n">
-        <v>0.02138494353312384</v>
+        <v>0.01532783012408148</v>
       </c>
       <c r="M88" t="n">
-        <v>0.02138494353312384</v>
+        <v>0.01532783012408148</v>
       </c>
     </row>
     <row r="89">
@@ -4075,37 +4075,37 @@
         <v>0.2337152014158647</v>
       </c>
       <c r="C89" t="n">
-        <v>0.2294401228427887</v>
+        <v>0.2260104715824127</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.004275078573075963</v>
+        <v>-0.00770472983345194</v>
       </c>
       <c r="E89" t="n">
-        <v>0.004275078573075963</v>
+        <v>0.00770472983345194</v>
       </c>
       <c r="F89" t="n">
         <v>0.2017711069373737</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2095049917697906</v>
+        <v>0.2118598222732544</v>
       </c>
       <c r="H89" t="n">
-        <v>0.007733884832416993</v>
+        <v>0.01008871533588074</v>
       </c>
       <c r="I89" t="n">
-        <v>0.007733884832416993</v>
+        <v>0.01008871533588074</v>
       </c>
       <c r="J89" t="n">
         <v>0.2450239230981034</v>
       </c>
       <c r="K89" t="n">
-        <v>0.2666487097740173</v>
+        <v>0.2602719962596893</v>
       </c>
       <c r="L89" t="n">
-        <v>0.02162478667591397</v>
+        <v>0.01524807316158597</v>
       </c>
       <c r="M89" t="n">
-        <v>0.02162478667591397</v>
+        <v>0.01524807316158597</v>
       </c>
     </row>
     <row r="90">
@@ -4116,37 +4116,37 @@
         <v>0.231574161383359</v>
       </c>
       <c r="C90" t="n">
-        <v>0.2290004938840866</v>
+        <v>0.2257367968559265</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.002573667499272375</v>
+        <v>-0.00583736452743247</v>
       </c>
       <c r="E90" t="n">
-        <v>0.002573667499272375</v>
+        <v>0.00583736452743247</v>
       </c>
       <c r="F90" t="n">
         <v>0.1990688126621827</v>
       </c>
       <c r="G90" t="n">
-        <v>0.2091507613658905</v>
+        <v>0.2114981561899185</v>
       </c>
       <c r="H90" t="n">
-        <v>0.01008194870370782</v>
+        <v>0.01242934352773584</v>
       </c>
       <c r="I90" t="n">
-        <v>0.01008194870370782</v>
+        <v>0.01242934352773584</v>
       </c>
       <c r="J90" t="n">
         <v>0.248078274529971</v>
       </c>
       <c r="K90" t="n">
-        <v>0.2671715617179871</v>
+        <v>0.2602280378341675</v>
       </c>
       <c r="L90" t="n">
-        <v>0.01909328718801606</v>
+        <v>0.01214976330419648</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01909328718801606</v>
+        <v>0.01214976330419648</v>
       </c>
     </row>
     <row r="91">
@@ -4157,37 +4157,37 @@
         <v>0.2313337078216063</v>
       </c>
       <c r="C91" t="n">
-        <v>0.2283296585083008</v>
+        <v>0.2255181521177292</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.003004049313305557</v>
+        <v>-0.005815555703877151</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003004049313305557</v>
+        <v>0.005815555703877151</v>
       </c>
       <c r="F91" t="n">
         <v>0.1975610667219576</v>
       </c>
       <c r="G91" t="n">
-        <v>0.2086176127195358</v>
+        <v>0.2110187113285065</v>
       </c>
       <c r="H91" t="n">
-        <v>0.01105654599757819</v>
+        <v>0.01345764460654883</v>
       </c>
       <c r="I91" t="n">
-        <v>0.01105654599757819</v>
+        <v>0.01345764460654883</v>
       </c>
       <c r="J91" t="n">
         <v>0.2475960872065603</v>
       </c>
       <c r="K91" t="n">
-        <v>0.2678132653236389</v>
+        <v>0.2603559195995331</v>
       </c>
       <c r="L91" t="n">
-        <v>0.02021717811707857</v>
+        <v>0.01275983239297274</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02021717811707857</v>
+        <v>0.01275983239297274</v>
       </c>
     </row>
     <row r="92">
@@ -4198,37 +4198,37 @@
         <v>0.2245181298867186</v>
       </c>
       <c r="C92" t="n">
-        <v>0.2274882644414902</v>
+        <v>0.2252748012542725</v>
       </c>
       <c r="D92" t="n">
-        <v>0.002970134554771547</v>
+        <v>0.000756671367553835</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002970134554771547</v>
+        <v>0.000756671367553835</v>
       </c>
       <c r="F92" t="n">
         <v>0.1898639519464283</v>
       </c>
       <c r="G92" t="n">
-        <v>0.207954153418541</v>
+        <v>0.2104568183422089</v>
       </c>
       <c r="H92" t="n">
-        <v>0.01809020147211263</v>
+        <v>0.02059286639578053</v>
       </c>
       <c r="I92" t="n">
-        <v>0.01809020147211263</v>
+        <v>0.02059286639578053</v>
       </c>
       <c r="J92" t="n">
         <v>0.25039829434849</v>
       </c>
       <c r="K92" t="n">
-        <v>0.268517017364502</v>
+        <v>0.2605155408382416</v>
       </c>
       <c r="L92" t="n">
-        <v>0.01811872301601197</v>
+        <v>0.0101172464897516</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01811872301601197</v>
+        <v>0.0101172464897516</v>
       </c>
     </row>
     <row r="93">
@@ -4239,37 +4239,37 @@
         <v>0.221693384758994</v>
       </c>
       <c r="C93" t="n">
-        <v>0.2261734157800674</v>
+        <v>0.2248231321573257</v>
       </c>
       <c r="D93" t="n">
-        <v>0.004480031021073444</v>
+        <v>0.003129747398331745</v>
       </c>
       <c r="E93" t="n">
-        <v>0.004480031021073444</v>
+        <v>0.003129747398331745</v>
       </c>
       <c r="F93" t="n">
         <v>0.186643102861707</v>
       </c>
       <c r="G93" t="n">
-        <v>0.2069308012723923</v>
+        <v>0.2095219939947128</v>
       </c>
       <c r="H93" t="n">
-        <v>0.02028769841068526</v>
+        <v>0.02287889113300581</v>
       </c>
       <c r="I93" t="n">
-        <v>0.02028769841068526</v>
+        <v>0.02287889113300581</v>
       </c>
       <c r="J93" t="n">
         <v>0.254098784403936</v>
       </c>
       <c r="K93" t="n">
-        <v>0.2694464325904846</v>
+        <v>0.2607241272926331</v>
       </c>
       <c r="L93" t="n">
-        <v>0.0153476481865486</v>
+        <v>0.006625342888697039</v>
       </c>
       <c r="M93" t="n">
-        <v>0.0153476481865486</v>
+        <v>0.006625342888697039</v>
       </c>
     </row>
     <row r="94">
@@ -4280,37 +4280,37 @@
         <v>0.2190875316130207</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2245058715343475</v>
+        <v>0.2241398394107819</v>
       </c>
       <c r="D94" t="n">
-        <v>0.00541833992132687</v>
+        <v>0.005052307797761196</v>
       </c>
       <c r="E94" t="n">
-        <v>0.00541833992132687</v>
+        <v>0.005052307797761196</v>
       </c>
       <c r="F94" t="n">
         <v>0.1843841728188063</v>
       </c>
       <c r="G94" t="n">
-        <v>0.2057118713855743</v>
+        <v>0.2082258760929108</v>
       </c>
       <c r="H94" t="n">
-        <v>0.021327698566768</v>
+        <v>0.02384170327410443</v>
       </c>
       <c r="I94" t="n">
-        <v>0.021327698566768</v>
+        <v>0.02384170327410443</v>
       </c>
       <c r="J94" t="n">
         <v>0.2553552514339654</v>
       </c>
       <c r="K94" t="n">
-        <v>0.2706666886806488</v>
+        <v>0.2609413862228394</v>
       </c>
       <c r="L94" t="n">
-        <v>0.01531143724668343</v>
+        <v>0.005586134788873987</v>
       </c>
       <c r="M94" t="n">
-        <v>0.01531143724668343</v>
+        <v>0.005586134788873987</v>
       </c>
     </row>
     <row r="95">
@@ -4321,37 +4321,37 @@
         <v>0.221553349526793</v>
       </c>
       <c r="C95" t="n">
-        <v>0.2226053476333618</v>
+        <v>0.2232098132371902</v>
       </c>
       <c r="D95" t="n">
-        <v>0.001051998106568836</v>
+        <v>0.001656463710397266</v>
       </c>
       <c r="E95" t="n">
-        <v>0.001051998106568836</v>
+        <v>0.001656463710397266</v>
       </c>
       <c r="F95" t="n">
         <v>0.1867105823866677</v>
       </c>
       <c r="G95" t="n">
-        <v>0.2044040113687515</v>
+        <v>0.206622838973999</v>
       </c>
       <c r="H95" t="n">
-        <v>0.01769342898208384</v>
+        <v>0.01991225658733134</v>
       </c>
       <c r="I95" t="n">
-        <v>0.01769342898208384</v>
+        <v>0.01991225658733134</v>
       </c>
       <c r="J95" t="n">
         <v>0.2577775277445903</v>
       </c>
       <c r="K95" t="n">
-        <v>0.2721092998981476</v>
+        <v>0.2610954642295837</v>
       </c>
       <c r="L95" t="n">
-        <v>0.01433177215355724</v>
+        <v>0.0033179364849934</v>
       </c>
       <c r="M95" t="n">
-        <v>0.01433177215355724</v>
+        <v>0.0033179364849934</v>
       </c>
     </row>
     <row r="96">
@@ -4362,37 +4362,37 @@
         <v>0.2156110885327547</v>
       </c>
       <c r="C96" t="n">
-        <v>0.220890149474144</v>
+        <v>0.2223418802022934</v>
       </c>
       <c r="D96" t="n">
-        <v>0.005279060941389302</v>
+        <v>0.006730791669538716</v>
       </c>
       <c r="E96" t="n">
-        <v>0.005279060941389302</v>
+        <v>0.006730791669538716</v>
       </c>
       <c r="F96" t="n">
         <v>0.1821441297178017</v>
       </c>
       <c r="G96" t="n">
-        <v>0.2032994329929352</v>
+        <v>0.2050932943820953</v>
       </c>
       <c r="H96" t="n">
-        <v>0.02115530327513351</v>
+        <v>0.02294916466429367</v>
       </c>
       <c r="I96" t="n">
-        <v>0.02115530327513351</v>
+        <v>0.02294916466429367</v>
       </c>
       <c r="J96" t="n">
         <v>0.258056034018445</v>
       </c>
       <c r="K96" t="n">
-        <v>0.2735434770584106</v>
+        <v>0.2612621784210205</v>
       </c>
       <c r="L96" t="n">
-        <v>0.01548744303996563</v>
+        <v>0.003206144402575495</v>
       </c>
       <c r="M96" t="n">
-        <v>0.01548744303996563</v>
+        <v>0.003206144402575495</v>
       </c>
     </row>
     <row r="97">
@@ -4403,37 +4403,37 @@
         <v>0.2079636931791327</v>
       </c>
       <c r="C97" t="n">
-        <v>0.2190233319997787</v>
+        <v>0.2212418168783188</v>
       </c>
       <c r="D97" t="n">
-        <v>0.01105963882064609</v>
+        <v>0.01327812369918613</v>
       </c>
       <c r="E97" t="n">
-        <v>0.01105963882064609</v>
+        <v>0.01327812369918613</v>
       </c>
       <c r="F97" t="n">
         <v>0.1753129854812537</v>
       </c>
       <c r="G97" t="n">
-        <v>0.202224925160408</v>
+        <v>0.2033747434616089</v>
       </c>
       <c r="H97" t="n">
-        <v>0.02691193967915437</v>
+        <v>0.02806175798035523</v>
       </c>
       <c r="I97" t="n">
-        <v>0.02691193967915437</v>
+        <v>0.02806175798035523</v>
       </c>
       <c r="J97" t="n">
         <v>0.2601931428836884</v>
       </c>
       <c r="K97" t="n">
-        <v>0.2751224935054779</v>
+        <v>0.2613664269447327</v>
       </c>
       <c r="L97" t="n">
-        <v>0.01492935062178952</v>
+        <v>0.001173284061044277</v>
       </c>
       <c r="M97" t="n">
-        <v>0.01492935062178952</v>
+        <v>0.001173284061044277</v>
       </c>
     </row>
     <row r="98">
@@ -4444,37 +4444,37 @@
         <v>0.2012663257400713</v>
       </c>
       <c r="C98" t="n">
-        <v>0.216989740729332</v>
+        <v>0.219810739159584</v>
       </c>
       <c r="D98" t="n">
-        <v>0.01572341498926064</v>
+        <v>0.01854441341951271</v>
       </c>
       <c r="E98" t="n">
-        <v>0.01572341498926064</v>
+        <v>0.01854441341951271</v>
       </c>
       <c r="F98" t="n">
         <v>0.1691645970560106</v>
       </c>
       <c r="G98" t="n">
-        <v>0.20125712454319</v>
+        <v>0.2024190574884415</v>
       </c>
       <c r="H98" t="n">
-        <v>0.03209252748717936</v>
+        <v>0.03325446043243083</v>
       </c>
       <c r="I98" t="n">
-        <v>0.03209252748717936</v>
+        <v>0.03325446043243083</v>
       </c>
       <c r="J98" t="n">
         <v>0.2606660424991694</v>
       </c>
       <c r="K98" t="n">
-        <v>0.2766402661800385</v>
+        <v>0.2621753811836243</v>
       </c>
       <c r="L98" t="n">
-        <v>0.01597422368086909</v>
+        <v>0.001509338684454908</v>
       </c>
       <c r="M98" t="n">
-        <v>0.01597422368086909</v>
+        <v>0.001509338684454908</v>
       </c>
     </row>
     <row r="99">
@@ -4485,37 +4485,37 @@
         <v>0.2046700040355947</v>
       </c>
       <c r="C99" t="n">
-        <v>0.214708223938942</v>
+        <v>0.218201220035553</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0100382199033473</v>
+        <v>0.01353121599995832</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0100382199033473</v>
+        <v>0.01353121599995832</v>
       </c>
       <c r="F99" t="n">
         <v>0.1719932519320857</v>
       </c>
       <c r="G99" t="n">
-        <v>0.2000828236341476</v>
+        <v>0.2012781798839569</v>
       </c>
       <c r="H99" t="n">
-        <v>0.02808957170206197</v>
+        <v>0.02928492795187124</v>
       </c>
       <c r="I99" t="n">
-        <v>0.02808957170206197</v>
+        <v>0.02928492795187124</v>
       </c>
       <c r="J99" t="n">
         <v>0.264238613807641</v>
       </c>
       <c r="K99" t="n">
-        <v>0.2781825661659241</v>
+        <v>0.2628638446331024</v>
       </c>
       <c r="L99" t="n">
-        <v>0.01394395235828311</v>
+        <v>-0.001374769174538548</v>
       </c>
       <c r="M99" t="n">
-        <v>0.01394395235828311</v>
+        <v>0.001374769174538548</v>
       </c>
     </row>
     <row r="100">
@@ -4526,37 +4526,37 @@
         <v>0.209469597421481</v>
       </c>
       <c r="C100" t="n">
-        <v>0.2127045691013336</v>
+        <v>0.2167800515890121</v>
       </c>
       <c r="D100" t="n">
-        <v>0.003234971679852622</v>
+        <v>0.00731045416753115</v>
       </c>
       <c r="E100" t="n">
-        <v>0.003234971679852622</v>
+        <v>0.00731045416753115</v>
       </c>
       <c r="F100" t="n">
         <v>0.1757880456891507</v>
       </c>
       <c r="G100" t="n">
-        <v>0.1991267651319504</v>
+        <v>0.2002914249897003</v>
       </c>
       <c r="H100" t="n">
-        <v>0.02333871944279972</v>
+        <v>0.02450337930054966</v>
       </c>
       <c r="I100" t="n">
-        <v>0.02333871944279972</v>
+        <v>0.02450337930054966</v>
       </c>
       <c r="J100" t="n">
         <v>0.2652103877637764</v>
       </c>
       <c r="K100" t="n">
-        <v>0.2795107662677765</v>
+        <v>0.2635935246944427</v>
       </c>
       <c r="L100" t="n">
-        <v>0.01430037850400012</v>
+        <v>-0.001616863069333618</v>
       </c>
       <c r="M100" t="n">
-        <v>0.01430037850400012</v>
+        <v>0.001616863069333618</v>
       </c>
     </row>
     <row r="101">
@@ -4567,37 +4567,37 @@
         <v>0.2116167877737643</v>
       </c>
       <c r="C101" t="n">
-        <v>0.2112522274255753</v>
+        <v>0.2155267596244812</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.0003645603481890747</v>
+        <v>0.00390997185071687</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0003645603481890747</v>
+        <v>0.00390997185071687</v>
       </c>
       <c r="F101" t="n">
         <v>0.176884319113865</v>
       </c>
       <c r="G101" t="n">
-        <v>0.1984497606754303</v>
+        <v>0.1994970440864563</v>
       </c>
       <c r="H101" t="n">
-        <v>0.02156544156156529</v>
+        <v>0.02261272497259129</v>
       </c>
       <c r="I101" t="n">
-        <v>0.02156544156156529</v>
+        <v>0.02261272497259129</v>
       </c>
       <c r="J101" t="n">
         <v>0.274689690317315</v>
       </c>
       <c r="K101" t="n">
-        <v>0.2807291150093079</v>
+        <v>0.264331579208374</v>
       </c>
       <c r="L101" t="n">
-        <v>0.006039424691992867</v>
+        <v>-0.01035811110894097</v>
       </c>
       <c r="M101" t="n">
-        <v>0.006039424691992867</v>
+        <v>0.01035811110894097</v>
       </c>
     </row>
     <row r="102">
@@ -4608,37 +4608,37 @@
         <v>0.2156720006859293</v>
       </c>
       <c r="C102" t="n">
-        <v>0.2104572504758835</v>
+        <v>0.2144881635904312</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.005214750210045832</v>
+        <v>-0.001183837095498103</v>
       </c>
       <c r="E102" t="n">
-        <v>0.005214750210045832</v>
+        <v>0.001183837095498103</v>
       </c>
       <c r="F102" t="n">
         <v>0.179775805962017</v>
       </c>
       <c r="G102" t="n">
-        <v>0.1979701519012451</v>
+        <v>0.1989883631467819</v>
       </c>
       <c r="H102" t="n">
-        <v>0.01819434593922811</v>
+        <v>0.01921255718476492</v>
       </c>
       <c r="I102" t="n">
-        <v>0.01819434593922811</v>
+        <v>0.01921255718476492</v>
       </c>
       <c r="J102" t="n">
         <v>0.27913994053486</v>
       </c>
       <c r="K102" t="n">
-        <v>0.2822533547878265</v>
+        <v>0.265304297208786</v>
       </c>
       <c r="L102" t="n">
-        <v>0.003113414252966518</v>
+        <v>-0.01383564332607401</v>
       </c>
       <c r="M102" t="n">
-        <v>0.003113414252966518</v>
+        <v>0.01383564332607401</v>
       </c>
     </row>
     <row r="103">
@@ -4649,37 +4649,37 @@
         <v>0.2137607570472594</v>
       </c>
       <c r="C103" t="n">
-        <v>0.2102098762989044</v>
+        <v>0.2139628082513809</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.00355088074835494</v>
+        <v>0.0002020512041215616</v>
       </c>
       <c r="E103" t="n">
-        <v>0.00355088074835494</v>
+        <v>0.0002020512041215616</v>
       </c>
       <c r="F103" t="n">
         <v>0.1788279556987037</v>
       </c>
       <c r="G103" t="n">
-        <v>0.1979369074106216</v>
+        <v>0.1989067643880844</v>
       </c>
       <c r="H103" t="n">
-        <v>0.01910895171191798</v>
+        <v>0.02007880868938075</v>
       </c>
       <c r="I103" t="n">
-        <v>0.01910895171191798</v>
+        <v>0.02007880868938075</v>
       </c>
       <c r="J103" t="n">
         <v>0.284735021076739</v>
       </c>
       <c r="K103" t="n">
-        <v>0.283674031496048</v>
+        <v>0.2663271129131317</v>
       </c>
       <c r="L103" t="n">
-        <v>-0.001060989580691007</v>
+        <v>-0.01840790816360727</v>
       </c>
       <c r="M103" t="n">
-        <v>0.001060989580691007</v>
+        <v>0.01840790816360727</v>
       </c>
     </row>
     <row r="104">
@@ -4690,37 +4690,37 @@
         <v>0.2120574779956093</v>
       </c>
       <c r="C104" t="n">
-        <v>0.2102991789579391</v>
+        <v>0.2137061804533005</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.001758299037670191</v>
+        <v>0.001648702457691137</v>
       </c>
       <c r="E104" t="n">
-        <v>0.001758299037670191</v>
+        <v>0.001648702457691137</v>
       </c>
       <c r="F104" t="n">
         <v>0.1798074587158147</v>
       </c>
       <c r="G104" t="n">
-        <v>0.1980960071086884</v>
+        <v>0.1990561783313751</v>
       </c>
       <c r="H104" t="n">
-        <v>0.01828854839287367</v>
+        <v>0.01924871961556043</v>
       </c>
       <c r="I104" t="n">
-        <v>0.01828854839287367</v>
+        <v>0.01924871961556043</v>
       </c>
       <c r="J104" t="n">
         <v>0.2854351651611557</v>
       </c>
       <c r="K104" t="n">
-        <v>0.2850366234779358</v>
+        <v>0.2674160301685333</v>
       </c>
       <c r="L104" t="n">
-        <v>-0.0003985416832198996</v>
+        <v>-0.01801913499262237</v>
       </c>
       <c r="M104" t="n">
-        <v>0.0003985416832198996</v>
+        <v>0.01801913499262237</v>
       </c>
     </row>
     <row r="105">
@@ -4731,37 +4731,37 @@
         <v>0.2082311511037787</v>
       </c>
       <c r="C105" t="n">
-        <v>0.2105080038309097</v>
+        <v>0.2136339396238327</v>
       </c>
       <c r="D105" t="n">
-        <v>0.002276852727131073</v>
+        <v>0.005402788520054047</v>
       </c>
       <c r="E105" t="n">
-        <v>0.002276852727131073</v>
+        <v>0.005402788520054047</v>
       </c>
       <c r="F105" t="n">
         <v>0.1848092756632267</v>
       </c>
       <c r="G105" t="n">
-        <v>0.1983765810728073</v>
+        <v>0.1993567794561386</v>
       </c>
       <c r="H105" t="n">
-        <v>0.01356730540958062</v>
+        <v>0.01454750379291192</v>
       </c>
       <c r="I105" t="n">
-        <v>0.01356730540958062</v>
+        <v>0.01454750379291192</v>
       </c>
       <c r="J105" t="n">
         <v>0.2958664895039677</v>
       </c>
       <c r="K105" t="n">
-        <v>0.2862689197063446</v>
+        <v>0.2685346007347107</v>
       </c>
       <c r="L105" t="n">
-        <v>-0.009597569797623107</v>
+        <v>-0.02733188876925702</v>
       </c>
       <c r="M105" t="n">
-        <v>0.009597569797623107</v>
+        <v>0.02733188876925702</v>
       </c>
     </row>
     <row r="106">
@@ -4772,37 +4772,37 @@
         <v>0.2042682118230887</v>
       </c>
       <c r="C106" t="n">
-        <v>0.2107705324888229</v>
+        <v>0.2135920971632004</v>
       </c>
       <c r="D106" t="n">
-        <v>0.006502320665734279</v>
+        <v>0.009323885340111721</v>
       </c>
       <c r="E106" t="n">
-        <v>0.006502320665734279</v>
+        <v>0.009323885340111721</v>
       </c>
       <c r="F106" t="n">
         <v>0.190876889476569</v>
       </c>
       <c r="G106" t="n">
-        <v>0.1986828595399857</v>
+        <v>0.1997523158788681</v>
       </c>
       <c r="H106" t="n">
-        <v>0.007805970063416656</v>
+        <v>0.008875426402299103</v>
       </c>
       <c r="I106" t="n">
-        <v>0.007805970063416656</v>
+        <v>0.008875426402299103</v>
       </c>
       <c r="J106" t="n">
         <v>0.326778064983143</v>
       </c>
       <c r="K106" t="n">
-        <v>0.2877009809017181</v>
+        <v>0.2698289155960083</v>
       </c>
       <c r="L106" t="n">
-        <v>-0.03907708408142491</v>
+        <v>-0.05694914938713475</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03907708408142491</v>
+        <v>0.05694914938713475</v>
       </c>
     </row>
     <row r="107">
@@ -4813,37 +4813,37 @@
         <v>0.1971433652608703</v>
       </c>
       <c r="C107" t="n">
-        <v>0.2111985981464386</v>
+        <v>0.2139769792556763</v>
       </c>
       <c r="D107" t="n">
-        <v>0.01405523288556829</v>
+        <v>0.01683361399480596</v>
       </c>
       <c r="E107" t="n">
-        <v>0.01405523288556829</v>
+        <v>0.01683361399480596</v>
       </c>
       <c r="F107" t="n">
         <v>0.1942982416331723</v>
       </c>
       <c r="G107" t="n">
-        <v>0.1989549249410629</v>
+        <v>0.2005745470523834</v>
       </c>
       <c r="H107" t="n">
-        <v>0.004656683307890597</v>
+        <v>0.006276305419211092</v>
       </c>
       <c r="I107" t="n">
-        <v>0.004656683307890597</v>
+        <v>0.006276305419211092</v>
       </c>
       <c r="J107" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K107" t="n">
-        <v>0.2899997532367706</v>
+        <v>0.2716867029666901</v>
       </c>
       <c r="L107" t="n">
-        <v>-0.06153705975061091</v>
+        <v>-0.07985011002069148</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06153705975061091</v>
+        <v>0.07985011002069148</v>
       </c>
     </row>
     <row r="108">
@@ -4854,37 +4854,37 @@
         <v>0.1961257855870943</v>
       </c>
       <c r="C108" t="n">
-        <v>0.211520180106163</v>
+        <v>0.2147798985242844</v>
       </c>
       <c r="D108" t="n">
-        <v>0.01539439451906868</v>
+        <v>0.01865411293719002</v>
       </c>
       <c r="E108" t="n">
-        <v>0.01539439451906868</v>
+        <v>0.01865411293719002</v>
       </c>
       <c r="F108" t="n">
         <v>0.2003755885272997</v>
       </c>
       <c r="G108" t="n">
-        <v>0.1995193958282471</v>
+        <v>0.2018092721700668</v>
       </c>
       <c r="H108" t="n">
-        <v>-0.0008561926990525992</v>
+        <v>0.001433683642767164</v>
       </c>
       <c r="I108" t="n">
-        <v>0.0008561926990525992</v>
+        <v>0.001433683642767164</v>
       </c>
       <c r="J108" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K108" t="n">
-        <v>0.2933989465236664</v>
+        <v>0.2741526961326599</v>
       </c>
       <c r="L108" t="n">
-        <v>-0.05813786646371516</v>
+        <v>-0.07738411685472163</v>
       </c>
       <c r="M108" t="n">
-        <v>0.05813786646371516</v>
+        <v>0.07738411685472163</v>
       </c>
     </row>
     <row r="109">
@@ -4895,37 +4895,37 @@
         <v>0.1964792890722673</v>
       </c>
       <c r="C109" t="n">
-        <v>0.2118569016456604</v>
+        <v>0.2158529162406921</v>
       </c>
       <c r="D109" t="n">
-        <v>0.01537761257339307</v>
+        <v>0.01937362716842481</v>
       </c>
       <c r="E109" t="n">
-        <v>0.01537761257339307</v>
+        <v>0.01937362716842481</v>
       </c>
       <c r="F109" t="n">
         <v>0.203993235946781</v>
       </c>
       <c r="G109" t="n">
-        <v>0.2002461552619934</v>
+        <v>0.2033234983682632</v>
       </c>
       <c r="H109" t="n">
-        <v>-0.003747080684787601</v>
+        <v>-0.0006697375785177651</v>
       </c>
       <c r="I109" t="n">
-        <v>0.003747080684787601</v>
+        <v>0.0006697375785177651</v>
       </c>
       <c r="J109" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K109" t="n">
-        <v>0.296929270029068</v>
+        <v>0.2768921256065369</v>
       </c>
       <c r="L109" t="n">
-        <v>-0.05460754295831355</v>
+        <v>-0.07464468738084468</v>
       </c>
       <c r="M109" t="n">
-        <v>0.05460754295831355</v>
+        <v>0.07464468738084468</v>
       </c>
     </row>
     <row r="110">
@@ -4936,37 +4936,37 @@
         <v>0.1932206625566903</v>
       </c>
       <c r="C110" t="n">
-        <v>0.2120811939239502</v>
+        <v>0.2167897075414658</v>
       </c>
       <c r="D110" t="n">
-        <v>0.01886053136725985</v>
+        <v>0.02356904498477541</v>
       </c>
       <c r="E110" t="n">
-        <v>0.01886053136725985</v>
+        <v>0.02356904498477541</v>
       </c>
       <c r="F110" t="n">
         <v>0.2018237426561683</v>
       </c>
       <c r="G110" t="n">
-        <v>0.2010367661714554</v>
+        <v>0.2048344612121582</v>
       </c>
       <c r="H110" t="n">
-        <v>-0.000786976484712959</v>
+        <v>0.003010718555989861</v>
       </c>
       <c r="I110" t="n">
-        <v>0.000786976484712959</v>
+        <v>0.003010718555989861</v>
       </c>
       <c r="J110" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K110" t="n">
-        <v>0.3002481460571289</v>
+        <v>0.2797329127788544</v>
       </c>
       <c r="L110" t="n">
-        <v>-0.05128866693025264</v>
+        <v>-0.07180390020852717</v>
       </c>
       <c r="M110" t="n">
-        <v>0.05128866693025264</v>
+        <v>0.07180390020852717</v>
       </c>
     </row>
     <row r="111">
@@ -4977,37 +4977,37 @@
         <v>0.1803128039865833</v>
       </c>
       <c r="C111" t="n">
-        <v>0.212033286690712</v>
+        <v>0.2171755582094193</v>
       </c>
       <c r="D111" t="n">
-        <v>0.03172048270412864</v>
+        <v>0.03686275422283591</v>
       </c>
       <c r="E111" t="n">
-        <v>0.03172048270412864</v>
+        <v>0.03686275422283591</v>
       </c>
       <c r="F111" t="n">
         <v>0.1892069067357883</v>
       </c>
       <c r="G111" t="n">
-        <v>0.2016894817352295</v>
+        <v>0.2059248387813568</v>
       </c>
       <c r="H111" t="n">
-        <v>0.01248257499944116</v>
+        <v>0.01671793204556848</v>
       </c>
       <c r="I111" t="n">
-        <v>0.01248257499944116</v>
+        <v>0.01671793204556848</v>
       </c>
       <c r="J111" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K111" t="n">
-        <v>0.3031437397003174</v>
+        <v>0.2825816571712494</v>
       </c>
       <c r="L111" t="n">
-        <v>-0.04839307328706416</v>
+        <v>-0.06895515581613215</v>
       </c>
       <c r="M111" t="n">
-        <v>0.04839307328706416</v>
+        <v>0.06895515581613215</v>
       </c>
     </row>
     <row r="112">
@@ -5018,37 +5018,37 @@
         <v>0.172940109350906</v>
       </c>
       <c r="C112" t="n">
-        <v>0.2113466560840607</v>
+        <v>0.2169798016548157</v>
       </c>
       <c r="D112" t="n">
-        <v>0.03840654673315469</v>
+        <v>0.04403969230390969</v>
       </c>
       <c r="E112" t="n">
-        <v>0.03840654673315469</v>
+        <v>0.04403969230390969</v>
       </c>
       <c r="F112" t="n">
         <v>0.181661915902805</v>
       </c>
       <c r="G112" t="n">
-        <v>0.2016481310129166</v>
+        <v>0.2064024955034256</v>
       </c>
       <c r="H112" t="n">
-        <v>0.01998621511011156</v>
+        <v>0.02474057960062059</v>
       </c>
       <c r="I112" t="n">
-        <v>0.01998621511011156</v>
+        <v>0.02474057960062059</v>
       </c>
       <c r="J112" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K112" t="n">
-        <v>0.3055553734302521</v>
+        <v>0.2850863635540009</v>
       </c>
       <c r="L112" t="n">
-        <v>-0.04598143955712947</v>
+        <v>-0.06645044943338069</v>
       </c>
       <c r="M112" t="n">
-        <v>0.04598143955712947</v>
+        <v>0.06645044943338069</v>
       </c>
     </row>
     <row r="113">
@@ -5059,37 +5059,37 @@
         <v>0.1734547500024383</v>
       </c>
       <c r="C113" t="n">
-        <v>0.2098878026008606</v>
+        <v>0.2162435799837112</v>
       </c>
       <c r="D113" t="n">
-        <v>0.03643305259842225</v>
+        <v>0.0427888299812729</v>
       </c>
       <c r="E113" t="n">
-        <v>0.03643305259842225</v>
+        <v>0.0427888299812729</v>
       </c>
       <c r="F113" t="n">
         <v>0.183200833452436</v>
       </c>
       <c r="G113" t="n">
-        <v>0.2008404284715652</v>
+        <v>0.2063818275928497</v>
       </c>
       <c r="H113" t="n">
-        <v>0.01763959501912923</v>
+        <v>0.02318099414041372</v>
       </c>
       <c r="I113" t="n">
-        <v>0.01763959501912923</v>
+        <v>0.02318099414041372</v>
       </c>
       <c r="J113" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K113" t="n">
-        <v>0.3076386451721191</v>
+        <v>0.2873872816562653</v>
       </c>
       <c r="L113" t="n">
-        <v>-0.0438981678152624</v>
+        <v>-0.06414953133111628</v>
       </c>
       <c r="M113" t="n">
-        <v>0.0438981678152624</v>
+        <v>0.06414953133111628</v>
       </c>
     </row>
     <row r="114">
@@ -5100,37 +5100,37 @@
         <v>0.1641702477371877</v>
       </c>
       <c r="C114" t="n">
-        <v>0.2081330716609955</v>
+        <v>0.2153043448925018</v>
       </c>
       <c r="D114" t="n">
-        <v>0.04396282392380782</v>
+        <v>0.05113409715531417</v>
       </c>
       <c r="E114" t="n">
-        <v>0.04396282392380782</v>
+        <v>0.05113409715531417</v>
       </c>
       <c r="F114" t="n">
         <v>0.1744994628441336</v>
       </c>
       <c r="G114" t="n">
-        <v>0.1997335106134415</v>
+        <v>0.2061280310153961</v>
       </c>
       <c r="H114" t="n">
-        <v>0.02523404776930782</v>
+        <v>0.03162856817126247</v>
       </c>
       <c r="I114" t="n">
-        <v>0.02523404776930782</v>
+        <v>0.03162856817126247</v>
       </c>
       <c r="J114" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K114" t="n">
-        <v>0.3093472719192505</v>
+        <v>0.2894105017185211</v>
       </c>
       <c r="L114" t="n">
-        <v>-0.04218954106813105</v>
+        <v>-0.06212631126886042</v>
       </c>
       <c r="M114" t="n">
-        <v>0.04218954106813105</v>
+        <v>0.06212631126886042</v>
       </c>
     </row>
     <row r="115">
@@ -5141,37 +5141,37 @@
         <v>0.1568245706022757</v>
       </c>
       <c r="C115" t="n">
-        <v>0.2059033066034317</v>
+        <v>0.2140152603387833</v>
       </c>
       <c r="D115" t="n">
-        <v>0.04907873600115603</v>
+        <v>0.05719068973650759</v>
       </c>
       <c r="E115" t="n">
-        <v>0.04907873600115603</v>
+        <v>0.05719068973650759</v>
       </c>
       <c r="F115" t="n">
         <v>0.167557739768299</v>
       </c>
       <c r="G115" t="n">
-        <v>0.1981529742479324</v>
+        <v>0.2055334597826004</v>
       </c>
       <c r="H115" t="n">
-        <v>0.03059523447963344</v>
+        <v>0.03797572001430141</v>
       </c>
       <c r="I115" t="n">
-        <v>0.03059523447963344</v>
+        <v>0.03797572001430141</v>
       </c>
       <c r="J115" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K115" t="n">
-        <v>0.3108648657798767</v>
+        <v>0.2912588715553284</v>
       </c>
       <c r="L115" t="n">
-        <v>-0.04067194720750483</v>
+        <v>-0.06027794143205317</v>
       </c>
       <c r="M115" t="n">
-        <v>0.04067194720750483</v>
+        <v>0.06027794143205317</v>
       </c>
     </row>
     <row r="116">
@@ -5182,37 +5182,37 @@
         <v>0.158021052195933</v>
       </c>
       <c r="C116" t="n">
-        <v>0.2033474296331406</v>
+        <v>0.2123391628265381</v>
       </c>
       <c r="D116" t="n">
-        <v>0.04532637743720758</v>
+        <v>0.0543181106306051</v>
       </c>
       <c r="E116" t="n">
-        <v>0.04532637743720758</v>
+        <v>0.0543181106306051</v>
       </c>
       <c r="F116" t="n">
         <v>0.166232626919058</v>
       </c>
       <c r="G116" t="n">
-        <v>0.1960363984107971</v>
+        <v>0.204516276717186</v>
       </c>
       <c r="H116" t="n">
-        <v>0.02980377149173913</v>
+        <v>0.03828364979812798</v>
       </c>
       <c r="I116" t="n">
-        <v>0.02980377149173913</v>
+        <v>0.03828364979812798</v>
       </c>
       <c r="J116" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K116" t="n">
-        <v>0.3120913803577423</v>
+        <v>0.2927528023719788</v>
       </c>
       <c r="L116" t="n">
-        <v>-0.03944543262963923</v>
+        <v>-0.05878401061540278</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03944543262963923</v>
+        <v>0.05878401061540278</v>
       </c>
     </row>
     <row r="117">
@@ -5223,37 +5223,37 @@
         <v>0.1649968874283053</v>
       </c>
       <c r="C117" t="n">
-        <v>0.201800599694252</v>
+        <v>0.2104247957468033</v>
       </c>
       <c r="D117" t="n">
-        <v>0.03680371226594667</v>
+        <v>0.04542790831849794</v>
       </c>
       <c r="E117" t="n">
-        <v>0.03680371226594667</v>
+        <v>0.04542790831849794</v>
       </c>
       <c r="F117" t="n">
         <v>0.1706375341902103</v>
       </c>
       <c r="G117" t="n">
-        <v>0.1942292004823685</v>
+        <v>0.2030833959579468</v>
       </c>
       <c r="H117" t="n">
-        <v>0.02359166629215814</v>
+        <v>0.03244586176773645</v>
       </c>
       <c r="I117" t="n">
-        <v>0.02359166629215814</v>
+        <v>0.03244586176773645</v>
       </c>
       <c r="J117" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K117" t="n">
-        <v>0.3128941357135773</v>
+        <v>0.2934999465942383</v>
       </c>
       <c r="L117" t="n">
-        <v>-0.03864267727380427</v>
+        <v>-0.05803686639314326</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03864267727380427</v>
+        <v>0.05803686639314326</v>
       </c>
     </row>
     <row r="118">
@@ -5264,37 +5264,37 @@
         <v>0.1709543938244647</v>
       </c>
       <c r="C118" t="n">
-        <v>0.2005647122859955</v>
+        <v>0.2085688263177872</v>
       </c>
       <c r="D118" t="n">
-        <v>0.02961031846153081</v>
+        <v>0.0376144324933225</v>
       </c>
       <c r="E118" t="n">
-        <v>0.02961031846153081</v>
+        <v>0.0376144324933225</v>
       </c>
       <c r="F118" t="n">
         <v>0.1748534312619884</v>
       </c>
       <c r="G118" t="n">
-        <v>0.1926808655261993</v>
+        <v>0.2015923261642456</v>
       </c>
       <c r="H118" t="n">
-        <v>0.01782743426421099</v>
+        <v>0.02673889490225725</v>
       </c>
       <c r="I118" t="n">
-        <v>0.01782743426421099</v>
+        <v>0.02673889490225725</v>
       </c>
       <c r="J118" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K118" t="n">
-        <v>0.3135925531387329</v>
+        <v>0.2937467098236084</v>
       </c>
       <c r="L118" t="n">
-        <v>-0.03794425984864863</v>
+        <v>-0.05779010316377314</v>
       </c>
       <c r="M118" t="n">
-        <v>0.03794425984864863</v>
+        <v>0.05779010316377314</v>
       </c>
     </row>
     <row r="119">
@@ -5305,37 +5305,37 @@
         <v>0.1643078446538837</v>
       </c>
       <c r="C119" t="n">
-        <v>0.1998088210821152</v>
+        <v>0.2072318196296692</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0355009764282315</v>
+        <v>0.04292397497578551</v>
       </c>
       <c r="E119" t="n">
-        <v>0.0355009764282315</v>
+        <v>0.04292397497578551</v>
       </c>
       <c r="F119" t="n">
         <v>0.169052094222726</v>
       </c>
       <c r="G119" t="n">
-        <v>0.1917701363563538</v>
+        <v>0.2010270953178406</v>
       </c>
       <c r="H119" t="n">
-        <v>0.02271804213362774</v>
+        <v>0.03197500109511456</v>
       </c>
       <c r="I119" t="n">
-        <v>0.02271804213362774</v>
+        <v>0.03197500109511456</v>
       </c>
       <c r="J119" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K119" t="n">
-        <v>0.314287394285202</v>
+        <v>0.2941340208053589</v>
       </c>
       <c r="L119" t="n">
-        <v>-0.03724941870217952</v>
+        <v>-0.05740279218202265</v>
       </c>
       <c r="M119" t="n">
-        <v>0.03724941870217952</v>
+        <v>0.05740279218202265</v>
       </c>
     </row>
     <row r="120">
@@ -5346,37 +5346,37 @@
         <v>0.1639718440289577</v>
       </c>
       <c r="C120" t="n">
-        <v>0.1992321163415909</v>
+        <v>0.2060893326997757</v>
       </c>
       <c r="D120" t="n">
-        <v>0.03526027231263321</v>
+        <v>0.04211748867081802</v>
       </c>
       <c r="E120" t="n">
-        <v>0.03526027231263321</v>
+        <v>0.04211748867081802</v>
       </c>
       <c r="F120" t="n">
         <v>0.169563682550203</v>
       </c>
       <c r="G120" t="n">
-        <v>0.1910927444696426</v>
+        <v>0.2007957547903061</v>
       </c>
       <c r="H120" t="n">
-        <v>0.02152906191943962</v>
+        <v>0.03123207224010308</v>
       </c>
       <c r="I120" t="n">
-        <v>0.02152906191943962</v>
+        <v>0.03123207224010308</v>
       </c>
       <c r="J120" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K120" t="n">
-        <v>0.314897745847702</v>
+        <v>0.2945598959922791</v>
       </c>
       <c r="L120" t="n">
-        <v>-0.03663906713967952</v>
+        <v>-0.05697691699510249</v>
       </c>
       <c r="M120" t="n">
-        <v>0.03663906713967952</v>
+        <v>0.05697691699510249</v>
       </c>
     </row>
     <row r="121">
@@ -5387,37 +5387,37 @@
         <v>0.159929382649718</v>
       </c>
       <c r="C121" t="n">
-        <v>0.1987995654344559</v>
+        <v>0.2050953358411789</v>
       </c>
       <c r="D121" t="n">
-        <v>0.03887018278473789</v>
+        <v>0.04516595319146091</v>
       </c>
       <c r="E121" t="n">
-        <v>0.03887018278473789</v>
+        <v>0.04516595319146091</v>
       </c>
       <c r="F121" t="n">
         <v>0.166317429974781</v>
       </c>
       <c r="G121" t="n">
-        <v>0.1906299144029617</v>
+        <v>0.2006081789731979</v>
       </c>
       <c r="H121" t="n">
-        <v>0.02431248442818074</v>
+        <v>0.03429074899841694</v>
       </c>
       <c r="I121" t="n">
-        <v>0.02431248442818074</v>
+        <v>0.03429074899841694</v>
       </c>
       <c r="J121" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K121" t="n">
-        <v>0.315388560295105</v>
+        <v>0.294963002204895</v>
       </c>
       <c r="L121" t="n">
-        <v>-0.03614825269227656</v>
+        <v>-0.05657381078248652</v>
       </c>
       <c r="M121" t="n">
-        <v>0.03614825269227656</v>
+        <v>0.05657381078248652</v>
       </c>
     </row>
     <row r="122">
@@ -5428,37 +5428,37 @@
         <v>0.159684030426406</v>
       </c>
       <c r="C122" t="n">
-        <v>0.1983835697174072</v>
+        <v>0.2044847160577774</v>
       </c>
       <c r="D122" t="n">
-        <v>0.03869953929100123</v>
+        <v>0.04480068563137141</v>
       </c>
       <c r="E122" t="n">
-        <v>0.03869953929100123</v>
+        <v>0.04480068563137141</v>
       </c>
       <c r="F122" t="n">
         <v>0.165375312093581</v>
       </c>
       <c r="G122" t="n">
-        <v>0.1901735216379166</v>
+        <v>0.2004682570695877</v>
       </c>
       <c r="H122" t="n">
-        <v>0.02479820954433556</v>
+        <v>0.03509294497600671</v>
       </c>
       <c r="I122" t="n">
-        <v>0.02479820954433556</v>
+        <v>0.03509294497600671</v>
       </c>
       <c r="J122" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K122" t="n">
-        <v>0.3156717717647552</v>
+        <v>0.2951818108558655</v>
       </c>
       <c r="L122" t="n">
-        <v>-0.03586504122262629</v>
+        <v>-0.05635500213151606</v>
       </c>
       <c r="M122" t="n">
-        <v>0.03586504122262629</v>
+        <v>0.05635500213151606</v>
       </c>
     </row>
     <row r="123">
@@ -5469,37 +5469,37 @@
         <v>0.1561552130878537</v>
       </c>
       <c r="C123" t="n">
-        <v>0.1978897303342819</v>
+        <v>0.2040782123804092</v>
       </c>
       <c r="D123" t="n">
-        <v>0.04173451724642827</v>
+        <v>0.04792299929255558</v>
       </c>
       <c r="E123" t="n">
-        <v>0.04173451724642827</v>
+        <v>0.04792299929255558</v>
       </c>
       <c r="F123" t="n">
         <v>0.162477418892385</v>
       </c>
       <c r="G123" t="n">
-        <v>0.1896566897630692</v>
+        <v>0.2003560811281204</v>
       </c>
       <c r="H123" t="n">
-        <v>0.02717927087068414</v>
+        <v>0.03787866223573541</v>
       </c>
       <c r="I123" t="n">
-        <v>0.02717927087068414</v>
+        <v>0.03787866223573541</v>
       </c>
       <c r="J123" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K123" t="n">
-        <v>0.3158752918243408</v>
+        <v>0.2953048050403595</v>
       </c>
       <c r="L123" t="n">
-        <v>-0.03566152116304072</v>
+        <v>-0.05623200794702204</v>
       </c>
       <c r="M123" t="n">
-        <v>0.03566152116304072</v>
+        <v>0.05623200794702204</v>
       </c>
     </row>
     <row r="124">
@@ -5510,37 +5510,37 @@
         <v>0.15734525479335</v>
       </c>
       <c r="C124" t="n">
-        <v>0.1972799003124237</v>
+        <v>0.2036016136407852</v>
       </c>
       <c r="D124" t="n">
-        <v>0.03993464551907369</v>
+        <v>0.0462563588474352</v>
       </c>
       <c r="E124" t="n">
-        <v>0.03993464551907369</v>
+        <v>0.0462563588474352</v>
       </c>
       <c r="F124" t="n">
         <v>0.1630565649772037</v>
       </c>
       <c r="G124" t="n">
-        <v>0.1889471411705017</v>
+        <v>0.2002153545618057</v>
       </c>
       <c r="H124" t="n">
-        <v>0.02589057619329804</v>
+        <v>0.03715878958460206</v>
       </c>
       <c r="I124" t="n">
-        <v>0.02589057619329804</v>
+        <v>0.03715878958460206</v>
       </c>
       <c r="J124" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K124" t="n">
-        <v>0.3160327672958374</v>
+        <v>0.2954378426074982</v>
       </c>
       <c r="L124" t="n">
-        <v>-0.03550404569154414</v>
+        <v>-0.05609897037988337</v>
       </c>
       <c r="M124" t="n">
-        <v>0.03550404569154414</v>
+        <v>0.05609897037988337</v>
       </c>
     </row>
     <row r="125">
@@ -5551,37 +5551,37 @@
         <v>0.151838567980671</v>
       </c>
       <c r="C125" t="n">
-        <v>0.1968018412590027</v>
+        <v>0.2033484131097794</v>
       </c>
       <c r="D125" t="n">
-        <v>0.04496327327833169</v>
+        <v>0.05150984512910836</v>
       </c>
       <c r="E125" t="n">
-        <v>0.04496327327833169</v>
+        <v>0.05150984512910836</v>
       </c>
       <c r="F125" t="n">
         <v>0.1584940561224717</v>
       </c>
       <c r="G125" t="n">
-        <v>0.1883300095796585</v>
+        <v>0.2000491768121719</v>
       </c>
       <c r="H125" t="n">
-        <v>0.02983595345718684</v>
+        <v>0.04155512068970027</v>
       </c>
       <c r="I125" t="n">
-        <v>0.02983595345718684</v>
+        <v>0.04155512068970027</v>
       </c>
       <c r="J125" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K125" t="n">
-        <v>0.3160918056964874</v>
+        <v>0.2954249382019043</v>
       </c>
       <c r="L125" t="n">
-        <v>-0.03544500729089411</v>
+        <v>-0.05611187478547724</v>
       </c>
       <c r="M125" t="n">
-        <v>0.03544500729089411</v>
+        <v>0.05611187478547724</v>
       </c>
     </row>
     <row r="126">
@@ -5592,37 +5592,37 @@
         <v>0.1474099068505786</v>
       </c>
       <c r="C126" t="n">
-        <v>0.1962399184703827</v>
+        <v>0.2032014429569244</v>
       </c>
       <c r="D126" t="n">
-        <v>0.04883001161980405</v>
+        <v>0.0557915361063458</v>
       </c>
       <c r="E126" t="n">
-        <v>0.04883001161980405</v>
+        <v>0.0557915361063458</v>
       </c>
       <c r="F126" t="n">
         <v>0.1546894037768477</v>
       </c>
       <c r="G126" t="n">
-        <v>0.1875319480895996</v>
+        <v>0.1999139189720154</v>
       </c>
       <c r="H126" t="n">
-        <v>0.03284254431275194</v>
+        <v>0.04522451519516771</v>
       </c>
       <c r="I126" t="n">
-        <v>0.03284254431275194</v>
+        <v>0.04522451519516771</v>
       </c>
       <c r="J126" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K126" t="n">
-        <v>0.3160927295684814</v>
+        <v>0.2953498661518097</v>
       </c>
       <c r="L126" t="n">
-        <v>-0.0354440834189001</v>
+        <v>-0.05618694683557185</v>
       </c>
       <c r="M126" t="n">
-        <v>0.0354440834189001</v>
+        <v>0.05618694683557185</v>
       </c>
     </row>
     <row r="127">
@@ -5633,37 +5633,37 @@
         <v>0.1451170419135307</v>
       </c>
       <c r="C127" t="n">
-        <v>0.1954412758350372</v>
+        <v>0.2029397636651993</v>
       </c>
       <c r="D127" t="n">
-        <v>0.05032423392150656</v>
+        <v>0.05782272175166861</v>
       </c>
       <c r="E127" t="n">
-        <v>0.05032423392150656</v>
+        <v>0.05782272175166861</v>
       </c>
       <c r="F127" t="n">
         <v>0.1558979898964127</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1864264160394669</v>
+        <v>0.1997061967849731</v>
       </c>
       <c r="H127" t="n">
-        <v>0.0305284261430542</v>
+        <v>0.04380820688856049</v>
       </c>
       <c r="I127" t="n">
-        <v>0.0305284261430542</v>
+        <v>0.04380820688856049</v>
       </c>
       <c r="J127" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K127" t="n">
-        <v>0.3161299824714661</v>
+        <v>0.2952559888362885</v>
       </c>
       <c r="L127" t="n">
-        <v>-0.03540683051591548</v>
+        <v>-0.05628082415109309</v>
       </c>
       <c r="M127" t="n">
-        <v>0.03540683051591548</v>
+        <v>0.05628082415109309</v>
       </c>
     </row>
     <row r="128">
@@ -5674,37 +5674,37 @@
         <v>0.146870584248106</v>
       </c>
       <c r="C128" t="n">
-        <v>0.1944687366485596</v>
+        <v>0.2024315148591995</v>
       </c>
       <c r="D128" t="n">
-        <v>0.04759815240045359</v>
+        <v>0.05556093061109355</v>
       </c>
       <c r="E128" t="n">
-        <v>0.04759815240045359</v>
+        <v>0.05556093061109355</v>
       </c>
       <c r="F128" t="n">
         <v>0.1606466050387363</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1851597428321838</v>
+        <v>0.1993719637393951</v>
       </c>
       <c r="H128" t="n">
-        <v>0.02451313779344752</v>
+        <v>0.03872535870065882</v>
       </c>
       <c r="I128" t="n">
-        <v>0.02451313779344752</v>
+        <v>0.03872535870065882</v>
       </c>
       <c r="J128" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K128" t="n">
-        <v>0.3161970973014832</v>
+        <v>0.2951923012733459</v>
       </c>
       <c r="L128" t="n">
-        <v>-0.03533971568589839</v>
+        <v>-0.05634451171403559</v>
       </c>
       <c r="M128" t="n">
-        <v>0.03533971568589839</v>
+        <v>0.05634451171403559</v>
       </c>
     </row>
     <row r="129">
@@ -5715,37 +5715,37 @@
         <v>0.1501193632155007</v>
       </c>
       <c r="C129" t="n">
-        <v>0.1935730129480362</v>
+        <v>0.2017709463834763</v>
       </c>
       <c r="D129" t="n">
-        <v>0.04345364973253552</v>
+        <v>0.05165158316797558</v>
       </c>
       <c r="E129" t="n">
-        <v>0.04345364973253552</v>
+        <v>0.05165158316797558</v>
       </c>
       <c r="F129" t="n">
         <v>0.159670069243979</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1840723007917404</v>
+        <v>0.1989817321300507</v>
       </c>
       <c r="H129" t="n">
-        <v>0.02440223154776142</v>
+        <v>0.03931166288607166</v>
       </c>
       <c r="I129" t="n">
-        <v>0.02440223154776142</v>
+        <v>0.03931166288607166</v>
       </c>
       <c r="J129" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K129" t="n">
-        <v>0.3163565099239349</v>
+        <v>0.2951854169368744</v>
       </c>
       <c r="L129" t="n">
-        <v>-0.03518030306344661</v>
+        <v>-0.05635139605050715</v>
       </c>
       <c r="M129" t="n">
-        <v>0.03518030306344661</v>
+        <v>0.05635139605050715</v>
       </c>
     </row>
     <row r="130">
@@ -5756,37 +5756,37 @@
         <v>0.151063433555504</v>
       </c>
       <c r="C130" t="n">
-        <v>0.1930637955665588</v>
+        <v>0.2013053447008133</v>
       </c>
       <c r="D130" t="n">
-        <v>0.04200036201105484</v>
+        <v>0.05024191114530929</v>
       </c>
       <c r="E130" t="n">
-        <v>0.04200036201105484</v>
+        <v>0.05024191114530929</v>
       </c>
       <c r="F130" t="n">
         <v>0.1541412414455343</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1836379617452621</v>
+        <v>0.198715478181839</v>
       </c>
       <c r="H130" t="n">
-        <v>0.02949672029972783</v>
+        <v>0.04457423673630467</v>
       </c>
       <c r="I130" t="n">
-        <v>0.02949672029972783</v>
+        <v>0.04457423673630467</v>
       </c>
       <c r="J130" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K130" t="n">
-        <v>0.3164539337158203</v>
+        <v>0.2951880395412445</v>
       </c>
       <c r="L130" t="n">
-        <v>-0.03508287927156123</v>
+        <v>-0.05634877344613703</v>
       </c>
       <c r="M130" t="n">
-        <v>0.03508287927156123</v>
+        <v>0.05634877344613703</v>
       </c>
     </row>
     <row r="131">
@@ -5797,37 +5797,37 @@
         <v>0.150424903156234</v>
       </c>
       <c r="C131" t="n">
-        <v>0.1927204132080078</v>
+        <v>0.2008557319641113</v>
       </c>
       <c r="D131" t="n">
-        <v>0.04229551005177382</v>
+        <v>0.05043082880787733</v>
       </c>
       <c r="E131" t="n">
-        <v>0.04229551005177382</v>
+        <v>0.05043082880787733</v>
       </c>
       <c r="F131" t="n">
         <v>0.145753447401079</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1834062486886978</v>
+        <v>0.1984695345163345</v>
       </c>
       <c r="H131" t="n">
-        <v>0.03765280128761883</v>
+        <v>0.05271608711525555</v>
       </c>
       <c r="I131" t="n">
-        <v>0.03765280128761883</v>
+        <v>0.05271608711525555</v>
       </c>
       <c r="J131" t="n">
         <v>0.2709493260302253</v>
       </c>
       <c r="K131" t="n">
-        <v>0.3165376484394073</v>
+        <v>0.2952229380607605</v>
       </c>
       <c r="L131" t="n">
-        <v>0.04558832240918204</v>
+        <v>0.02427361203053519</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04558832240918204</v>
+        <v>0.02427361203053519</v>
       </c>
     </row>
     <row r="132">
@@ -5838,37 +5838,37 @@
         <v>0.1470189714328184</v>
       </c>
       <c r="C132" t="n">
-        <v>0.1923284828662872</v>
+        <v>0.2001006603240967</v>
       </c>
       <c r="D132" t="n">
-        <v>0.04530951143346887</v>
+        <v>0.05308168889127832</v>
       </c>
       <c r="E132" t="n">
-        <v>0.04530951143346887</v>
+        <v>0.05308168889127832</v>
       </c>
       <c r="F132" t="n">
         <v>0.1407806511548597</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1830406188964844</v>
+        <v>0.1975230723619461</v>
       </c>
       <c r="H132" t="n">
-        <v>0.04225996774162472</v>
+        <v>0.05674242120708645</v>
       </c>
       <c r="I132" t="n">
-        <v>0.04225996774162472</v>
+        <v>0.05674242120708645</v>
       </c>
       <c r="J132" t="n">
         <v>0.2481947970032127</v>
       </c>
       <c r="K132" t="n">
-        <v>0.3134747445583344</v>
+        <v>0.2937569618225098</v>
       </c>
       <c r="L132" t="n">
-        <v>0.06527994755512168</v>
+        <v>0.04556216481929709</v>
       </c>
       <c r="M132" t="n">
-        <v>0.06527994755512168</v>
+        <v>0.04556216481929709</v>
       </c>
     </row>
     <row r="133">
@@ -5879,37 +5879,37 @@
         <v>0.145049795298602</v>
       </c>
       <c r="C133" t="n">
-        <v>0.191766768693924</v>
+        <v>0.1989864706993103</v>
       </c>
       <c r="D133" t="n">
-        <v>0.04671697339532196</v>
+        <v>0.05393667540070832</v>
       </c>
       <c r="E133" t="n">
-        <v>0.04671697339532196</v>
+        <v>0.05393667540070832</v>
       </c>
       <c r="F133" t="n">
         <v>0.1371442936551317</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1823495328426361</v>
+        <v>0.1959607303142548</v>
       </c>
       <c r="H133" t="n">
-        <v>0.04520523918750444</v>
+        <v>0.05881643665912309</v>
       </c>
       <c r="I133" t="n">
-        <v>0.04520523918750444</v>
+        <v>0.05881643665912309</v>
       </c>
       <c r="J133" t="n">
         <v>0.239845013604234</v>
       </c>
       <c r="K133" t="n">
-        <v>0.3084732592105865</v>
+        <v>0.2911657392978668</v>
       </c>
       <c r="L133" t="n">
-        <v>0.06862824560635258</v>
+        <v>0.05132072569363286</v>
       </c>
       <c r="M133" t="n">
-        <v>0.06862824560635258</v>
+        <v>0.05132072569363286</v>
       </c>
     </row>
     <row r="134">
@@ -5920,37 +5920,37 @@
         <v>0.1487443255609854</v>
       </c>
       <c r="C134" t="n">
-        <v>0.1911706924438477</v>
+        <v>0.1976849287748337</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0424263668828623</v>
+        <v>0.04894060321384833</v>
       </c>
       <c r="E134" t="n">
-        <v>0.0424263668828623</v>
+        <v>0.04894060321384833</v>
       </c>
       <c r="F134" t="n">
         <v>0.140039908460322</v>
       </c>
       <c r="G134" t="n">
-        <v>0.181336909532547</v>
+        <v>0.1939888745546341</v>
       </c>
       <c r="H134" t="n">
-        <v>0.041297001072225</v>
+        <v>0.0539489660943121</v>
       </c>
       <c r="I134" t="n">
-        <v>0.041297001072225</v>
+        <v>0.0539489660943121</v>
       </c>
       <c r="J134" t="n">
         <v>0.2575349461328303</v>
       </c>
       <c r="K134" t="n">
-        <v>0.3027718067169189</v>
+        <v>0.2878090739250183</v>
       </c>
       <c r="L134" t="n">
-        <v>0.0452368605840886</v>
+        <v>0.03027412779218797</v>
       </c>
       <c r="M134" t="n">
-        <v>0.0452368605840886</v>
+        <v>0.03027412779218797</v>
       </c>
     </row>
     <row r="135">
@@ -5961,37 +5961,37 @@
         <v>0.1582976939984373</v>
       </c>
       <c r="C135" t="n">
-        <v>0.1905088722705841</v>
+        <v>0.1963412314653397</v>
       </c>
       <c r="D135" t="n">
-        <v>0.03221117827214678</v>
+        <v>0.03804353746690234</v>
       </c>
       <c r="E135" t="n">
-        <v>0.03221117827214678</v>
+        <v>0.03804353746690234</v>
       </c>
       <c r="F135" t="n">
         <v>0.148383054919239</v>
       </c>
       <c r="G135" t="n">
-        <v>0.180129200220108</v>
+        <v>0.1919596642255783</v>
       </c>
       <c r="H135" t="n">
-        <v>0.03174614530086903</v>
+        <v>0.0435766093063393</v>
       </c>
       <c r="I135" t="n">
-        <v>0.03174614530086903</v>
+        <v>0.0435766093063393</v>
       </c>
       <c r="J135" t="n">
         <v>0.2543140207344117</v>
       </c>
       <c r="K135" t="n">
-        <v>0.2980780005455017</v>
+        <v>0.2844466269016266</v>
       </c>
       <c r="L135" t="n">
-        <v>0.04376397981109004</v>
+        <v>0.03013260616721491</v>
       </c>
       <c r="M135" t="n">
-        <v>0.04376397981109004</v>
+        <v>0.03013260616721491</v>
       </c>
     </row>
     <row r="136">
@@ -6002,37 +6002,37 @@
         <v>0.1666436300843993</v>
       </c>
       <c r="C136" t="n">
-        <v>0.1900596469640732</v>
+        <v>0.1952368170022964</v>
       </c>
       <c r="D136" t="n">
-        <v>0.02341601687967385</v>
+        <v>0.02859318691789711</v>
       </c>
       <c r="E136" t="n">
-        <v>0.02341601687967385</v>
+        <v>0.02859318691789711</v>
       </c>
       <c r="F136" t="n">
         <v>0.1562602725937737</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1792436391115189</v>
+        <v>0.1900587975978851</v>
       </c>
       <c r="H136" t="n">
-        <v>0.02298336651774519</v>
+        <v>0.03379852500411146</v>
       </c>
       <c r="I136" t="n">
-        <v>0.02298336651774519</v>
+        <v>0.03379852500411146</v>
       </c>
       <c r="J136" t="n">
         <v>0.2533636790571773</v>
       </c>
       <c r="K136" t="n">
-        <v>0.2945572435855865</v>
+        <v>0.2811059951782227</v>
       </c>
       <c r="L136" t="n">
-        <v>0.04119356452840922</v>
+        <v>0.02774231612104533</v>
       </c>
       <c r="M136" t="n">
-        <v>0.04119356452840922</v>
+        <v>0.02774231612104533</v>
       </c>
     </row>
     <row r="137">
@@ -6043,37 +6043,37 @@
         <v>0.1797675377547283</v>
       </c>
       <c r="C137" t="n">
-        <v>0.1904988139867783</v>
+        <v>0.1944398581981659</v>
       </c>
       <c r="D137" t="n">
-        <v>0.01073127623204992</v>
+        <v>0.01467232044343755</v>
       </c>
       <c r="E137" t="n">
-        <v>0.01073127623204992</v>
+        <v>0.01467232044343755</v>
       </c>
       <c r="F137" t="n">
         <v>0.169004425092046</v>
       </c>
       <c r="G137" t="n">
-        <v>0.179228886961937</v>
+        <v>0.1883908659219742</v>
       </c>
       <c r="H137" t="n">
-        <v>0.01022446186989093</v>
+        <v>0.01938644082992816</v>
       </c>
       <c r="I137" t="n">
-        <v>0.01022446186989093</v>
+        <v>0.01938644082992816</v>
       </c>
       <c r="J137" t="n">
         <v>0.2535926041820016</v>
       </c>
       <c r="K137" t="n">
-        <v>0.292001485824585</v>
+        <v>0.2779168486595154</v>
       </c>
       <c r="L137" t="n">
-        <v>0.03840888164258333</v>
+        <v>0.02432424447751375</v>
       </c>
       <c r="M137" t="n">
-        <v>0.03840888164258333</v>
+        <v>0.02432424447751375</v>
       </c>
     </row>
     <row r="138">
@@ -6084,37 +6084,37 @@
         <v>0.185249561574142</v>
       </c>
       <c r="C138" t="n">
-        <v>0.1916075944900513</v>
+        <v>0.1939710080623627</v>
       </c>
       <c r="D138" t="n">
-        <v>0.006358032915909279</v>
+        <v>0.00872144648822068</v>
       </c>
       <c r="E138" t="n">
-        <v>0.006358032915909279</v>
+        <v>0.00872144648822068</v>
       </c>
       <c r="F138" t="n">
         <v>0.1735552234322554</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1800362914800644</v>
+        <v>0.1867610812187195</v>
       </c>
       <c r="H138" t="n">
-        <v>0.006481068047809041</v>
+        <v>0.01320585778646413</v>
       </c>
       <c r="I138" t="n">
-        <v>0.006481068047809041</v>
+        <v>0.01320585778646413</v>
       </c>
       <c r="J138" t="n">
         <v>0.259780895171028</v>
       </c>
       <c r="K138" t="n">
-        <v>0.2903876900672913</v>
+        <v>0.2748323976993561</v>
       </c>
       <c r="L138" t="n">
-        <v>0.03060679489626322</v>
+        <v>0.01505150252832804</v>
       </c>
       <c r="M138" t="n">
-        <v>0.03060679489626322</v>
+        <v>0.01505150252832804</v>
       </c>
     </row>
     <row r="139">
@@ -6125,37 +6125,37 @@
         <v>0.1888794792594617</v>
       </c>
       <c r="C139" t="n">
-        <v>0.1934235095977783</v>
+        <v>0.1944556683301926</v>
       </c>
       <c r="D139" t="n">
-        <v>0.004544030338316657</v>
+        <v>0.005576189070730903</v>
       </c>
       <c r="E139" t="n">
-        <v>0.004544030338316657</v>
+        <v>0.005576189070730903</v>
       </c>
       <c r="F139" t="n">
         <v>0.177090105595755</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1816746443510056</v>
+        <v>0.186097040772438</v>
       </c>
       <c r="H139" t="n">
-        <v>0.004584538755250556</v>
+        <v>0.009006935176683051</v>
       </c>
       <c r="I139" t="n">
-        <v>0.004584538755250556</v>
+        <v>0.009006935176683051</v>
       </c>
       <c r="J139" t="n">
         <v>0.2642217904110464</v>
       </c>
       <c r="K139" t="n">
-        <v>0.2897072434425354</v>
+        <v>0.2718639373779297</v>
       </c>
       <c r="L139" t="n">
-        <v>0.02548545303148902</v>
+        <v>0.007642146966883312</v>
       </c>
       <c r="M139" t="n">
-        <v>0.02548545303148902</v>
+        <v>0.007642146966883312</v>
       </c>
     </row>
     <row r="140">
@@ -6166,37 +6166,37 @@
         <v>0.183536986659265</v>
       </c>
       <c r="C140" t="n">
-        <v>0.1954004615545273</v>
+        <v>0.1957396864891052</v>
       </c>
       <c r="D140" t="n">
-        <v>0.01186347489526229</v>
+        <v>0.01220269982984024</v>
       </c>
       <c r="E140" t="n">
-        <v>0.01186347489526229</v>
+        <v>0.01220269982984024</v>
       </c>
       <c r="F140" t="n">
         <v>0.1712943495225563</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1834108531475067</v>
+        <v>0.1866480112075806</v>
       </c>
       <c r="H140" t="n">
-        <v>0.0121165036249504</v>
+        <v>0.01535366168502425</v>
       </c>
       <c r="I140" t="n">
-        <v>0.0121165036249504</v>
+        <v>0.01535366168502425</v>
       </c>
       <c r="J140" t="n">
         <v>0.264888687612175</v>
       </c>
       <c r="K140" t="n">
-        <v>0.2894014120101929</v>
+        <v>0.2693062424659729</v>
       </c>
       <c r="L140" t="n">
-        <v>0.02451272439801788</v>
+        <v>0.004417554853797911</v>
       </c>
       <c r="M140" t="n">
-        <v>0.02451272439801788</v>
+        <v>0.004417554853797911</v>
       </c>
     </row>
     <row r="141">
@@ -6207,37 +6207,37 @@
         <v>0.1785644474979223</v>
       </c>
       <c r="C141" t="n">
-        <v>0.1972779035568237</v>
+        <v>0.1971281915903091</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0187134560589014</v>
+        <v>0.01856374409238681</v>
       </c>
       <c r="E141" t="n">
-        <v>0.0187134560589014</v>
+        <v>0.01856374409238681</v>
       </c>
       <c r="F141" t="n">
         <v>0.164598881061465</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1848376542329788</v>
+        <v>0.1872686445713043</v>
       </c>
       <c r="H141" t="n">
-        <v>0.02023877317151382</v>
+        <v>0.02266976350983932</v>
       </c>
       <c r="I141" t="n">
-        <v>0.02023877317151382</v>
+        <v>0.02266976350983932</v>
       </c>
       <c r="J141" t="n">
         <v>0.2622113574606696</v>
       </c>
       <c r="K141" t="n">
-        <v>0.2892933189868927</v>
+        <v>0.2670683562755585</v>
       </c>
       <c r="L141" t="n">
-        <v>0.02708196152622305</v>
+        <v>0.004856998814888824</v>
       </c>
       <c r="M141" t="n">
-        <v>0.02708196152622305</v>
+        <v>0.004856998814888824</v>
       </c>
     </row>
     <row r="142">
@@ -6248,37 +6248,37 @@
         <v>0.165976384998477</v>
       </c>
       <c r="C142" t="n">
-        <v>0.1983902156352997</v>
+        <v>0.1988271623849869</v>
       </c>
       <c r="D142" t="n">
-        <v>0.03241383063682268</v>
+        <v>0.03285077738650988</v>
       </c>
       <c r="E142" t="n">
-        <v>0.03241383063682268</v>
+        <v>0.03285077738650988</v>
       </c>
       <c r="F142" t="n">
         <v>0.1498709155805387</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1860650926828384</v>
+        <v>0.1885487139225006</v>
       </c>
       <c r="H142" t="n">
-        <v>0.03619417710229977</v>
+        <v>0.03867779834196194</v>
       </c>
       <c r="I142" t="n">
-        <v>0.03619417710229977</v>
+        <v>0.03867779834196194</v>
       </c>
       <c r="J142" t="n">
         <v>0.275747905989452</v>
       </c>
       <c r="K142" t="n">
-        <v>0.2892199158668518</v>
+        <v>0.2668338716030121</v>
       </c>
       <c r="L142" t="n">
-        <v>0.01347200987739977</v>
+        <v>-0.008914034386439951</v>
       </c>
       <c r="M142" t="n">
-        <v>0.01347200987739977</v>
+        <v>0.008914034386439951</v>
       </c>
     </row>
     <row r="143">
@@ -6289,37 +6289,37 @@
         <v>0.159047332782219</v>
       </c>
       <c r="C143" t="n">
-        <v>0.1988037973642349</v>
+        <v>0.2003440260887146</v>
       </c>
       <c r="D143" t="n">
-        <v>0.03975646458201593</v>
+        <v>0.0412966933064956</v>
       </c>
       <c r="E143" t="n">
-        <v>0.03975646458201593</v>
+        <v>0.0412966933064956</v>
       </c>
       <c r="F143" t="n">
         <v>0.1434472526767003</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1863946318626404</v>
+        <v>0.1896459609270096</v>
       </c>
       <c r="H143" t="n">
-        <v>0.04294737918594005</v>
+        <v>0.04619870825030925</v>
       </c>
       <c r="I143" t="n">
-        <v>0.04294737918594005</v>
+        <v>0.04619870825030925</v>
       </c>
       <c r="J143" t="n">
         <v>0.2979110734659626</v>
       </c>
       <c r="K143" t="n">
-        <v>0.2894282639026642</v>
+        <v>0.2672517895698547</v>
       </c>
       <c r="L143" t="n">
-        <v>-0.008482809563298443</v>
+        <v>-0.03065928389610789</v>
       </c>
       <c r="M143" t="n">
-        <v>0.008482809563298443</v>
+        <v>0.03065928389610789</v>
       </c>
     </row>
     <row r="144">
@@ -6330,37 +6330,37 @@
         <v>0.1611310643509127</v>
       </c>
       <c r="C144" t="n">
-        <v>0.1987016946077347</v>
+        <v>0.2015407383441925</v>
       </c>
       <c r="D144" t="n">
-        <v>0.03757063025682203</v>
+        <v>0.04040967399327985</v>
       </c>
       <c r="E144" t="n">
-        <v>0.03757063025682203</v>
+        <v>0.04040967399327985</v>
       </c>
       <c r="F144" t="n">
         <v>0.1477098792688477</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1860767304897308</v>
+        <v>0.190471425652504</v>
       </c>
       <c r="H144" t="n">
-        <v>0.03836685122088315</v>
+        <v>0.04276154638365628</v>
       </c>
       <c r="I144" t="n">
-        <v>0.03836685122088315</v>
+        <v>0.04276154638365628</v>
       </c>
       <c r="J144" t="n">
         <v>0.324350155750139</v>
       </c>
       <c r="K144" t="n">
-        <v>0.2905453741550446</v>
+        <v>0.2682819962501526</v>
       </c>
       <c r="L144" t="n">
-        <v>-0.03380478159509442</v>
+        <v>-0.05606815949998639</v>
       </c>
       <c r="M144" t="n">
-        <v>0.03380478159509442</v>
+        <v>0.05606815949998639</v>
       </c>
     </row>
     <row r="145">
@@ -6371,37 +6371,37 @@
         <v>0.181318758393424</v>
       </c>
       <c r="C145" t="n">
-        <v>0.1984839141368866</v>
+        <v>0.2023471295833588</v>
       </c>
       <c r="D145" t="n">
-        <v>0.01716515574346258</v>
+        <v>0.02102837118993475</v>
       </c>
       <c r="E145" t="n">
-        <v>0.01716515574346258</v>
+        <v>0.02102837118993475</v>
       </c>
       <c r="F145" t="n">
         <v>0.173104632682473</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1854457557201385</v>
+        <v>0.191036731004715</v>
       </c>
       <c r="H145" t="n">
-        <v>0.01234112303766555</v>
+        <v>0.01793209832224196</v>
       </c>
       <c r="I145" t="n">
-        <v>0.01234112303766555</v>
+        <v>0.01793209832224196</v>
       </c>
       <c r="J145" t="n">
         <v>0.333549779656972</v>
       </c>
       <c r="K145" t="n">
-        <v>0.2929967641830444</v>
+        <v>0.2697060108184814</v>
       </c>
       <c r="L145" t="n">
-        <v>-0.04055301547392753</v>
+        <v>-0.06384376883849052</v>
       </c>
       <c r="M145" t="n">
-        <v>0.04055301547392753</v>
+        <v>0.06384376883849052</v>
       </c>
     </row>
     <row r="146">
@@ -6412,37 +6412,37 @@
         <v>0.198631985433976</v>
       </c>
       <c r="C146" t="n">
-        <v>0.1985837370157242</v>
+        <v>0.2031053304672241</v>
       </c>
       <c r="D146" t="n">
-        <v>-4.82484182518228e-05</v>
+        <v>0.004473345033248116</v>
       </c>
       <c r="E146" t="n">
-        <v>4.82484182518228e-05</v>
+        <v>0.004473345033248116</v>
       </c>
       <c r="F146" t="n">
         <v>0.1981284624968607</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1855542957782745</v>
+        <v>0.1919973343610764</v>
       </c>
       <c r="H146" t="n">
-        <v>-0.01257416671858613</v>
+        <v>-0.006131128135784314</v>
       </c>
       <c r="I146" t="n">
-        <v>0.01257416671858613</v>
+        <v>0.006131128135784314</v>
       </c>
       <c r="J146" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K146" t="n">
-        <v>0.2963491976261139</v>
+        <v>0.2720299959182739</v>
       </c>
       <c r="L146" t="n">
-        <v>-0.05518761536126765</v>
+        <v>-0.07950681706910762</v>
       </c>
       <c r="M146" t="n">
-        <v>0.05518761536126765</v>
+        <v>0.07950681706910762</v>
       </c>
     </row>
     <row r="147">
@@ -6453,37 +6453,37 @@
         <v>0.2164134597854117</v>
       </c>
       <c r="C147" t="n">
-        <v>0.1994011551141739</v>
+        <v>0.2042786478996277</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.01701230467123779</v>
+        <v>-0.012134811885784</v>
       </c>
       <c r="E147" t="n">
-        <v>0.01701230467123779</v>
+        <v>0.012134811885784</v>
       </c>
       <c r="F147" t="n">
         <v>0.2219325449655963</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1869565844535828</v>
+        <v>0.1937738209962845</v>
       </c>
       <c r="H147" t="n">
-        <v>-0.03497596051201357</v>
+        <v>-0.02815872396931185</v>
       </c>
       <c r="I147" t="n">
-        <v>0.03497596051201357</v>
+        <v>0.02815872396931185</v>
       </c>
       <c r="J147" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K147" t="n">
-        <v>0.3004142940044403</v>
+        <v>0.27520552277565</v>
       </c>
       <c r="L147" t="n">
-        <v>-0.05112251898294123</v>
+        <v>-0.07633129021173152</v>
       </c>
       <c r="M147" t="n">
-        <v>0.05112251898294123</v>
+        <v>0.07633129021173152</v>
       </c>
     </row>
     <row r="148">
@@ -6494,37 +6494,37 @@
         <v>0.224500191587222</v>
       </c>
       <c r="C148" t="n">
-        <v>0.2010322064161301</v>
+        <v>0.2054919898509979</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.02346798517109192</v>
+        <v>-0.01900820173622406</v>
       </c>
       <c r="E148" t="n">
-        <v>0.02346798517109192</v>
+        <v>0.01900820173622406</v>
       </c>
       <c r="F148" t="n">
         <v>0.2328287417105643</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1898585706949234</v>
+        <v>0.195960134267807</v>
       </c>
       <c r="H148" t="n">
-        <v>-0.04297017101564093</v>
+        <v>-0.03686860744275733</v>
       </c>
       <c r="I148" t="n">
-        <v>0.04297017101564093</v>
+        <v>0.03686860744275733</v>
       </c>
       <c r="J148" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K148" t="n">
-        <v>0.3043306469917297</v>
+        <v>0.278834342956543</v>
       </c>
       <c r="L148" t="n">
-        <v>-0.04720616599565181</v>
+        <v>-0.07270247003083857</v>
       </c>
       <c r="M148" t="n">
-        <v>0.04720616599565181</v>
+        <v>0.07270247003083857</v>
       </c>
     </row>
     <row r="149">
@@ -6535,37 +6535,37 @@
         <v>0.238028222215791</v>
       </c>
       <c r="C149" t="n">
-        <v>0.2035965472459793</v>
+        <v>0.2073295116424561</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.03443167496981167</v>
+        <v>-0.03069871057333493</v>
       </c>
       <c r="E149" t="n">
-        <v>0.03443167496981167</v>
+        <v>0.03069871057333493</v>
       </c>
       <c r="F149" t="n">
         <v>0.2441425471520846</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1939869374036789</v>
+        <v>0.1987691074609756</v>
       </c>
       <c r="H149" t="n">
-        <v>-0.05015560974840574</v>
+        <v>-0.04537343969110899</v>
       </c>
       <c r="I149" t="n">
-        <v>0.05015560974840574</v>
+        <v>0.04537343969110899</v>
       </c>
       <c r="J149" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K149" t="n">
-        <v>0.3072634637355804</v>
+        <v>0.2823325395584106</v>
       </c>
       <c r="L149" t="n">
-        <v>-0.0442733492518011</v>
+        <v>-0.0692042734289709</v>
       </c>
       <c r="M149" t="n">
-        <v>0.0442733492518011</v>
+        <v>0.0692042734289709</v>
       </c>
     </row>
     <row r="150">
@@ -6576,37 +6576,37 @@
         <v>0.2525954695566859</v>
       </c>
       <c r="C150" t="n">
-        <v>0.2080433964729309</v>
+        <v>0.2099689841270447</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.04455207308375503</v>
+        <v>-0.04262648542964126</v>
       </c>
       <c r="E150" t="n">
-        <v>0.04455207308375503</v>
+        <v>0.04262648542964126</v>
       </c>
       <c r="F150" t="n">
         <v>0.2569254808847476</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1996756941080093</v>
+        <v>0.2022316008806229</v>
       </c>
       <c r="H150" t="n">
-        <v>-0.05724978677673831</v>
+        <v>-0.05469388000412478</v>
       </c>
       <c r="I150" t="n">
-        <v>0.05724978677673831</v>
+        <v>0.05469388000412478</v>
       </c>
       <c r="J150" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K150" t="n">
-        <v>0.3086692690849304</v>
+        <v>0.2855245471000671</v>
       </c>
       <c r="L150" t="n">
-        <v>-0.04286754390245112</v>
+        <v>-0.0660122658873144</v>
       </c>
       <c r="M150" t="n">
-        <v>0.04286754390245112</v>
+        <v>0.0660122658873144</v>
       </c>
     </row>
     <row r="151">
@@ -6617,37 +6617,37 @@
         <v>0.270707854256093</v>
       </c>
       <c r="C151" t="n">
-        <v>0.2141532003879547</v>
+        <v>0.2137473225593567</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.05655465386813829</v>
+        <v>-0.05696053169673632</v>
       </c>
       <c r="E151" t="n">
-        <v>0.05655465386813829</v>
+        <v>0.05696053169673632</v>
       </c>
       <c r="F151" t="n">
         <v>0.2718008480482443</v>
       </c>
       <c r="G151" t="n">
-        <v>0.2067248523235321</v>
+        <v>0.2064518630504608</v>
       </c>
       <c r="H151" t="n">
-        <v>-0.06507599572471218</v>
+        <v>-0.06534898499778347</v>
       </c>
       <c r="I151" t="n">
-        <v>0.06507599572471218</v>
+        <v>0.06534898499778347</v>
       </c>
       <c r="J151" t="n">
         <v>0.3515368129873815</v>
       </c>
       <c r="K151" t="n">
-        <v>0.3086494207382202</v>
+        <v>0.2882233262062073</v>
       </c>
       <c r="L151" t="n">
-        <v>-0.04288739224916133</v>
+        <v>-0.06331348678117427</v>
       </c>
       <c r="M151" t="n">
-        <v>0.04288739224916133</v>
+        <v>0.06331348678117427</v>
       </c>
     </row>
     <row r="152">
@@ -6658,37 +6658,37 @@
         <v>0.279686136648052</v>
       </c>
       <c r="C152" t="n">
-        <v>0.2212678790092468</v>
+        <v>0.2186439335346222</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.0584182576388052</v>
+        <v>-0.06104220311342984</v>
       </c>
       <c r="E152" t="n">
-        <v>0.0584182576388052</v>
+        <v>0.06104220311342984</v>
       </c>
       <c r="F152" t="n">
         <v>0.2782458619472547</v>
       </c>
       <c r="G152" t="n">
-        <v>0.2143747806549072</v>
+        <v>0.2113741934299469</v>
       </c>
       <c r="H152" t="n">
-        <v>-0.06387108129234748</v>
+        <v>-0.0668716685173078</v>
       </c>
       <c r="I152" t="n">
-        <v>0.06387108129234748</v>
+        <v>0.0668716685173078</v>
       </c>
       <c r="J152" t="n">
         <v>0.3465455382231826</v>
       </c>
       <c r="K152" t="n">
-        <v>0.307336688041687</v>
+        <v>0.290401816368103</v>
       </c>
       <c r="L152" t="n">
-        <v>-0.03920885018149561</v>
+        <v>-0.0561437218550796</v>
       </c>
       <c r="M152" t="n">
-        <v>0.03920885018149561</v>
+        <v>0.0561437218550796</v>
       </c>
     </row>
     <row r="153">
@@ -6699,37 +6699,37 @@
         <v>0.2863950502545537</v>
       </c>
       <c r="C153" t="n">
-        <v>0.2301109433174133</v>
+        <v>0.2247777134180069</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.05628410693714037</v>
+        <v>-0.0616173368365468</v>
       </c>
       <c r="E153" t="n">
-        <v>0.05628410693714037</v>
+        <v>0.0616173368365468</v>
       </c>
       <c r="F153" t="n">
         <v>0.2850903906106533</v>
       </c>
       <c r="G153" t="n">
-        <v>0.221574455499649</v>
+        <v>0.2168030887842178</v>
       </c>
       <c r="H153" t="n">
-        <v>-0.06351593511100428</v>
+        <v>-0.0682873018264355</v>
       </c>
       <c r="I153" t="n">
-        <v>0.06351593511100428</v>
+        <v>0.0682873018264355</v>
       </c>
       <c r="J153" t="n">
         <v>0.3256581108630893</v>
       </c>
       <c r="K153" t="n">
-        <v>0.3031563758850098</v>
+        <v>0.2914091050624847</v>
       </c>
       <c r="L153" t="n">
-        <v>-0.02250173497807956</v>
+        <v>-0.03424900580060458</v>
       </c>
       <c r="M153" t="n">
-        <v>0.02250173497807956</v>
+        <v>0.03424900580060458</v>
       </c>
     </row>
     <row r="154">
@@ -6740,37 +6740,37 @@
         <v>0.2950974103429234</v>
       </c>
       <c r="C154" t="n">
-        <v>0.240420013666153</v>
+        <v>0.2316185981035233</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.05467739667677041</v>
+        <v>-0.06347881223940011</v>
       </c>
       <c r="E154" t="n">
-        <v>0.05467739667677041</v>
+        <v>0.06347881223940011</v>
       </c>
       <c r="F154" t="n">
         <v>0.295508089951071</v>
       </c>
       <c r="G154" t="n">
-        <v>0.2262808680534363</v>
+        <v>0.2222453504800797</v>
       </c>
       <c r="H154" t="n">
-        <v>-0.06922722189763469</v>
+        <v>-0.07326273947099132</v>
       </c>
       <c r="I154" t="n">
-        <v>0.06922722189763469</v>
+        <v>0.07326273947099132</v>
       </c>
       <c r="J154" t="n">
         <v>0.3199561163922373</v>
       </c>
       <c r="K154" t="n">
-        <v>0.2966932952404022</v>
+        <v>0.2908781766891479</v>
       </c>
       <c r="L154" t="n">
-        <v>-0.02326282115183509</v>
+        <v>-0.02907793970308936</v>
       </c>
       <c r="M154" t="n">
-        <v>0.02326282115183509</v>
+        <v>0.02907793970308936</v>
       </c>
     </row>
     <row r="155">
@@ -6781,37 +6781,37 @@
         <v>0.3142143094450007</v>
       </c>
       <c r="C155" t="n">
-        <v>0.2498447448015213</v>
+        <v>0.2386650294065475</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.06436956464347937</v>
+        <v>-0.07554928003845313</v>
       </c>
       <c r="E155" t="n">
-        <v>0.06436956464347937</v>
+        <v>0.07554928003845313</v>
       </c>
       <c r="F155" t="n">
         <v>0.3154065125533116</v>
       </c>
       <c r="G155" t="n">
-        <v>0.2307016104459763</v>
+        <v>0.2274084389209747</v>
       </c>
       <c r="H155" t="n">
-        <v>-0.08470490210733539</v>
+        <v>-0.08799807363233692</v>
       </c>
       <c r="I155" t="n">
-        <v>0.08470490210733539</v>
+        <v>0.08799807363233692</v>
       </c>
       <c r="J155" t="n">
         <v>0.3049077755746917</v>
       </c>
       <c r="K155" t="n">
-        <v>0.2890618145465851</v>
+        <v>0.2891182005405426</v>
       </c>
       <c r="L155" t="n">
-        <v>-0.01584596102810659</v>
+        <v>-0.01578957503414907</v>
       </c>
       <c r="M155" t="n">
-        <v>0.01584596102810659</v>
+        <v>0.01578957503414907</v>
       </c>
     </row>
     <row r="156">
@@ -6822,37 +6822,37 @@
         <v>0.329521086051315</v>
       </c>
       <c r="C156" t="n">
-        <v>0.2578640282154083</v>
+        <v>0.2452020347118378</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.07165705783590665</v>
+        <v>-0.0843190513394772</v>
       </c>
       <c r="E156" t="n">
-        <v>0.07165705783590665</v>
+        <v>0.0843190513394772</v>
       </c>
       <c r="F156" t="n">
         <v>0.3305609521334953</v>
       </c>
       <c r="G156" t="n">
-        <v>0.2360554337501526</v>
+        <v>0.2321122139692307</v>
       </c>
       <c r="H156" t="n">
-        <v>-0.09450551838334276</v>
+        <v>-0.09844873816426469</v>
       </c>
       <c r="I156" t="n">
-        <v>0.09450551838334276</v>
+        <v>0.09844873816426469</v>
       </c>
       <c r="J156" t="n">
         <v>0.293185925091355</v>
       </c>
       <c r="K156" t="n">
-        <v>0.2810976803302765</v>
+        <v>0.2868359982967377</v>
       </c>
       <c r="L156" t="n">
-        <v>-0.0120882447610785</v>
+        <v>-0.006349926794617322</v>
       </c>
       <c r="M156" t="n">
-        <v>0.0120882447610785</v>
+        <v>0.006349926794617322</v>
       </c>
     </row>
     <row r="157">
@@ -6863,37 +6863,37 @@
         <v>0.333844124481072</v>
       </c>
       <c r="C157" t="n">
-        <v>0.2651848495006561</v>
+        <v>0.2506546676158905</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.06865927498041585</v>
+        <v>-0.08318945686518148</v>
       </c>
       <c r="E157" t="n">
-        <v>0.06865927498041585</v>
+        <v>0.08318945686518148</v>
       </c>
       <c r="F157" t="n">
         <v>0.333724374216379</v>
       </c>
       <c r="G157" t="n">
-        <v>0.2412033528089523</v>
+        <v>0.2357219606637955</v>
       </c>
       <c r="H157" t="n">
-        <v>-0.09252102140742663</v>
+        <v>-0.09800241355258349</v>
       </c>
       <c r="I157" t="n">
-        <v>0.09252102140742663</v>
+        <v>0.09800241355258349</v>
       </c>
       <c r="J157" t="n">
         <v>0.2791314520275426</v>
       </c>
       <c r="K157" t="n">
-        <v>0.2733459770679474</v>
+        <v>0.2838900983333588</v>
       </c>
       <c r="L157" t="n">
-        <v>-0.005785474959595249</v>
+        <v>0.004758646305816128</v>
       </c>
       <c r="M157" t="n">
-        <v>0.005785474959595249</v>
+        <v>0.004758646305816128</v>
       </c>
     </row>
     <row r="158">
@@ -6904,37 +6904,37 @@
         <v>0.3275173531852716</v>
       </c>
       <c r="C158" t="n">
-        <v>0.270350456237793</v>
+        <v>0.2554658651351929</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.05716689694747867</v>
+        <v>-0.07205148805007877</v>
       </c>
       <c r="E158" t="n">
-        <v>0.05716689694747867</v>
+        <v>0.07205148805007877</v>
       </c>
       <c r="F158" t="n">
         <v>0.3260827381834017</v>
       </c>
       <c r="G158" t="n">
-        <v>0.2452058494091034</v>
+        <v>0.2387616783380508</v>
       </c>
       <c r="H158" t="n">
-        <v>-0.08087688877429827</v>
+        <v>-0.08732105984535082</v>
       </c>
       <c r="I158" t="n">
-        <v>0.08087688877429827</v>
+        <v>0.08732105984535082</v>
       </c>
       <c r="J158" t="n">
         <v>0.2672360884383073</v>
       </c>
       <c r="K158" t="n">
-        <v>0.2667883634567261</v>
+        <v>0.2807082831859589</v>
       </c>
       <c r="L158" t="n">
-        <v>-0.0004477249815812434</v>
+        <v>0.01347219474765154</v>
       </c>
       <c r="M158" t="n">
-        <v>0.0004477249815812434</v>
+        <v>0.01347219474765154</v>
       </c>
     </row>
     <row r="159">
@@ -6945,37 +6945,37 @@
         <v>0.3220803243255976</v>
       </c>
       <c r="C159" t="n">
-        <v>0.275050938129425</v>
+        <v>0.258520781993866</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.04702938619617258</v>
+        <v>-0.06355954233173167</v>
       </c>
       <c r="E159" t="n">
-        <v>0.04702938619617258</v>
+        <v>0.06355954233173167</v>
       </c>
       <c r="F159" t="n">
         <v>0.3182318113192963</v>
       </c>
       <c r="G159" t="n">
-        <v>0.2473791688680649</v>
+        <v>0.2428016364574432</v>
       </c>
       <c r="H159" t="n">
-        <v>-0.07085264245123141</v>
+        <v>-0.07543017486185305</v>
       </c>
       <c r="I159" t="n">
-        <v>0.07085264245123141</v>
+        <v>0.07543017486185305</v>
       </c>
       <c r="J159" t="n">
         <v>0.2579858296113366</v>
       </c>
       <c r="K159" t="n">
-        <v>0.26382777094841</v>
+        <v>0.278736025094986</v>
       </c>
       <c r="L159" t="n">
-        <v>0.005841941337073386</v>
+        <v>0.02075019548364931</v>
       </c>
       <c r="M159" t="n">
-        <v>0.005841941337073386</v>
+        <v>0.02075019548364931</v>
       </c>
     </row>
     <row r="160">
@@ -6986,37 +6986,37 @@
         <v>0.321199841413617</v>
       </c>
       <c r="C160" t="n">
-        <v>0.2777713239192963</v>
+        <v>0.2600983083248138</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.0434285174943207</v>
+        <v>-0.06110153308880312</v>
       </c>
       <c r="E160" t="n">
-        <v>0.0434285174943207</v>
+        <v>0.06110153308880312</v>
       </c>
       <c r="F160" t="n">
         <v>0.314425143150634</v>
       </c>
       <c r="G160" t="n">
-        <v>0.2486234903335571</v>
+        <v>0.2462301552295685</v>
       </c>
       <c r="H160" t="n">
-        <v>-0.06580165281707689</v>
+        <v>-0.06819498792106554</v>
       </c>
       <c r="I160" t="n">
-        <v>0.06580165281707689</v>
+        <v>0.06819498792106554</v>
       </c>
       <c r="J160" t="n">
         <v>0.2554667667372419</v>
       </c>
       <c r="K160" t="n">
-        <v>0.2628165483474731</v>
+        <v>0.2779682576656342</v>
       </c>
       <c r="L160" t="n">
-        <v>0.007349781610231199</v>
+        <v>0.02250149092839221</v>
       </c>
       <c r="M160" t="n">
-        <v>0.007349781610231199</v>
+        <v>0.02250149092839221</v>
       </c>
     </row>
     <row r="161">
@@ -7027,37 +7027,37 @@
         <v>0.3203201247547297</v>
       </c>
       <c r="C161" t="n">
-        <v>0.2793034017086029</v>
+        <v>0.2609701156616211</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.04101672304612675</v>
+        <v>-0.05935000909310856</v>
       </c>
       <c r="E161" t="n">
-        <v>0.04101672304612675</v>
+        <v>0.05935000909310856</v>
       </c>
       <c r="F161" t="n">
         <v>0.3126659250224297</v>
       </c>
       <c r="G161" t="n">
-        <v>0.248933732509613</v>
+        <v>0.2485990971326828</v>
       </c>
       <c r="H161" t="n">
-        <v>-0.06373219251281664</v>
+        <v>-0.06406682788974688</v>
       </c>
       <c r="I161" t="n">
-        <v>0.06373219251281664</v>
+        <v>0.06406682788974688</v>
       </c>
       <c r="J161" t="n">
         <v>0.2564649122345333</v>
       </c>
       <c r="K161" t="n">
-        <v>0.2620420455932617</v>
+        <v>0.2771852016448975</v>
       </c>
       <c r="L161" t="n">
-        <v>0.005577133358728392</v>
+        <v>0.02072028941036413</v>
       </c>
       <c r="M161" t="n">
-        <v>0.005577133358728392</v>
+        <v>0.02072028941036413</v>
       </c>
     </row>
     <row r="162">
@@ -7068,37 +7068,37 @@
         <v>0.321686736464939</v>
       </c>
       <c r="C162" t="n">
-        <v>0.2797160148620605</v>
+        <v>0.2612367868423462</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.04197072160287846</v>
+        <v>-0.06044994962259281</v>
       </c>
       <c r="E162" t="n">
-        <v>0.04197072160287846</v>
+        <v>0.06044994962259281</v>
       </c>
       <c r="F162" t="n">
         <v>0.312325921103638</v>
       </c>
       <c r="G162" t="n">
-        <v>0.2486181557178497</v>
+        <v>0.2500964999198914</v>
       </c>
       <c r="H162" t="n">
-        <v>-0.06370776538578826</v>
+        <v>-0.06222942118374664</v>
       </c>
       <c r="I162" t="n">
-        <v>0.06370776538578826</v>
+        <v>0.06222942118374664</v>
       </c>
       <c r="J162" t="n">
         <v>0.2563378847567994</v>
       </c>
       <c r="K162" t="n">
-        <v>0.2613029181957245</v>
+        <v>0.2762494385242462</v>
       </c>
       <c r="L162" t="n">
-        <v>0.004965033438925126</v>
+        <v>0.01991155376744685</v>
       </c>
       <c r="M162" t="n">
-        <v>0.004965033438925126</v>
+        <v>0.01991155376744685</v>
       </c>
     </row>
     <row r="163">
@@ -7109,37 +7109,37 @@
         <v>0.3223743049260167</v>
       </c>
       <c r="C163" t="n">
-        <v>0.2795077562332153</v>
+        <v>0.2610920667648315</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.04286654869280132</v>
+        <v>-0.06128223816118511</v>
       </c>
       <c r="E163" t="n">
-        <v>0.04286654869280132</v>
+        <v>0.06128223816118511</v>
       </c>
       <c r="F163" t="n">
         <v>0.3120223969652877</v>
       </c>
       <c r="G163" t="n">
-        <v>0.2479759603738785</v>
+        <v>0.2511581778526306</v>
       </c>
       <c r="H163" t="n">
-        <v>-0.06404643659140918</v>
+        <v>-0.06086421911265705</v>
       </c>
       <c r="I163" t="n">
-        <v>0.06404643659140918</v>
+        <v>0.06086421911265705</v>
       </c>
       <c r="J163" t="n">
         <v>0.2571494802327283</v>
       </c>
       <c r="K163" t="n">
-        <v>0.2606744766235352</v>
+        <v>0.2751677930355072</v>
       </c>
       <c r="L163" t="n">
-        <v>0.003524996390806834</v>
+        <v>0.01801831280277888</v>
       </c>
       <c r="M163" t="n">
-        <v>0.003524996390806834</v>
+        <v>0.01801831280277888</v>
       </c>
     </row>
     <row r="164">
@@ -7150,37 +7150,37 @@
         <v>0.3215428822646886</v>
       </c>
       <c r="C164" t="n">
-        <v>0.2789969742298126</v>
+        <v>0.2610349357128143</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.04254590803487601</v>
+        <v>-0.0605079465518743</v>
       </c>
       <c r="E164" t="n">
-        <v>0.04254590803487601</v>
+        <v>0.0605079465518743</v>
       </c>
       <c r="F164" t="n">
         <v>0.310374154201732</v>
       </c>
       <c r="G164" t="n">
-        <v>0.2472295165061951</v>
+        <v>0.2523051202297211</v>
       </c>
       <c r="H164" t="n">
-        <v>-0.06314463769553691</v>
+        <v>-0.05806903397201091</v>
       </c>
       <c r="I164" t="n">
-        <v>0.06314463769553691</v>
+        <v>0.05806903397201091</v>
       </c>
       <c r="J164" t="n">
         <v>0.2590512166467536</v>
       </c>
       <c r="K164" t="n">
-        <v>0.2601718604564667</v>
+        <v>0.2743209898471832</v>
       </c>
       <c r="L164" t="n">
-        <v>0.001120643809713051</v>
+        <v>0.0152697732004296</v>
       </c>
       <c r="M164" t="n">
-        <v>0.001120643809713051</v>
+        <v>0.0152697732004296</v>
       </c>
     </row>
     <row r="165">
@@ -7191,37 +7191,37 @@
         <v>0.3168836250136843</v>
       </c>
       <c r="C165" t="n">
-        <v>0.2782288491725922</v>
+        <v>0.2607676088809967</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.03865477584109217</v>
+        <v>-0.05611601613268763</v>
       </c>
       <c r="E165" t="n">
-        <v>0.03865477584109217</v>
+        <v>0.05611601613268763</v>
       </c>
       <c r="F165" t="n">
         <v>0.3069845233504573</v>
       </c>
       <c r="G165" t="n">
-        <v>0.2464399337768555</v>
+        <v>0.2529602944850922</v>
       </c>
       <c r="H165" t="n">
-        <v>-0.06054458957360187</v>
+        <v>-0.05402422886536518</v>
       </c>
       <c r="I165" t="n">
-        <v>0.06054458957360187</v>
+        <v>0.05402422886536518</v>
       </c>
       <c r="J165" t="n">
         <v>0.261058198507437</v>
       </c>
       <c r="K165" t="n">
-        <v>0.2598205208778381</v>
+        <v>0.2735448181629181</v>
       </c>
       <c r="L165" t="n">
-        <v>-0.001237677629598866</v>
+        <v>0.01248661965548109</v>
       </c>
       <c r="M165" t="n">
-        <v>0.001237677629598866</v>
+        <v>0.01248661965548109</v>
       </c>
     </row>
     <row r="166">
@@ -7232,37 +7232,37 @@
         <v>0.312086804237977</v>
       </c>
       <c r="C166" t="n">
-        <v>0.277185320854187</v>
+        <v>0.2601668238639832</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.03490148338379001</v>
+        <v>-0.05191998037399387</v>
       </c>
       <c r="E166" t="n">
-        <v>0.03490148338379001</v>
+        <v>0.05191998037399387</v>
       </c>
       <c r="F166" t="n">
         <v>0.3022930806442113</v>
       </c>
       <c r="G166" t="n">
-        <v>0.2456274330615997</v>
+        <v>0.2528560161590576</v>
       </c>
       <c r="H166" t="n">
-        <v>-0.05666564758261161</v>
+        <v>-0.04943706448515373</v>
       </c>
       <c r="I166" t="n">
-        <v>0.05666564758261161</v>
+        <v>0.04943706448515373</v>
       </c>
       <c r="J166" t="n">
         <v>0.260799147933884</v>
       </c>
       <c r="K166" t="n">
-        <v>0.2596356868743896</v>
+        <v>0.2728904187679291</v>
       </c>
       <c r="L166" t="n">
-        <v>-0.001163461059494331</v>
+        <v>0.0120912708340451</v>
       </c>
       <c r="M166" t="n">
-        <v>0.001163461059494331</v>
+        <v>0.0120912708340451</v>
       </c>
     </row>
     <row r="167">
@@ -7273,37 +7273,37 @@
         <v>0.3095769043754766</v>
       </c>
       <c r="C167" t="n">
-        <v>0.2759244740009308</v>
+        <v>0.2592865824699402</v>
       </c>
       <c r="D167" t="n">
-        <v>-0.03365243037454585</v>
+        <v>-0.05029032190553645</v>
       </c>
       <c r="E167" t="n">
-        <v>0.03365243037454585</v>
+        <v>0.05029032190553645</v>
       </c>
       <c r="F167" t="n">
         <v>0.300083644191577</v>
       </c>
       <c r="G167" t="n">
-        <v>0.2447717785835266</v>
+        <v>0.2521567046642303</v>
       </c>
       <c r="H167" t="n">
-        <v>-0.0553118656080504</v>
+        <v>-0.04792693952734667</v>
       </c>
       <c r="I167" t="n">
-        <v>0.0553118656080504</v>
+        <v>0.04792693952734667</v>
       </c>
       <c r="J167" t="n">
         <v>0.260405534851603</v>
       </c>
       <c r="K167" t="n">
-        <v>0.2595539391040802</v>
+        <v>0.2723157107830048</v>
       </c>
       <c r="L167" t="n">
-        <v>-0.0008515957475228042</v>
+        <v>0.01191017593140176</v>
       </c>
       <c r="M167" t="n">
-        <v>0.0008515957475228042</v>
+        <v>0.01191017593140176</v>
       </c>
     </row>
     <row r="168">
@@ -7314,37 +7314,37 @@
         <v>0.3071483825891413</v>
       </c>
       <c r="C168" t="n">
-        <v>0.274668961763382</v>
+        <v>0.2583920955657959</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.03247942082575933</v>
+        <v>-0.04875628702334539</v>
       </c>
       <c r="E168" t="n">
-        <v>0.03247942082575933</v>
+        <v>0.04875628702334539</v>
       </c>
       <c r="F168" t="n">
         <v>0.2967726958810373</v>
       </c>
       <c r="G168" t="n">
-        <v>0.2439450323581696</v>
+        <v>0.2512258291244507</v>
       </c>
       <c r="H168" t="n">
-        <v>-0.05282766352286777</v>
+        <v>-0.04554686675658665</v>
       </c>
       <c r="I168" t="n">
-        <v>0.05282766352286777</v>
+        <v>0.04554686675658665</v>
       </c>
       <c r="J168" t="n">
         <v>0.2577678670880707</v>
       </c>
       <c r="K168" t="n">
-        <v>0.25950688123703</v>
+        <v>0.2718823254108429</v>
       </c>
       <c r="L168" t="n">
-        <v>0.001739014148959328</v>
+        <v>0.01411445832277219</v>
       </c>
       <c r="M168" t="n">
-        <v>0.001739014148959328</v>
+        <v>0.01411445832277219</v>
       </c>
     </row>
     <row r="169">
@@ -7355,37 +7355,37 @@
         <v>0.3011944487543753</v>
       </c>
       <c r="C169" t="n">
-        <v>0.2734707593917847</v>
+        <v>0.2576364576816559</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.02772368936259068</v>
+        <v>-0.04355799107271946</v>
       </c>
       <c r="E169" t="n">
-        <v>0.02772368936259068</v>
+        <v>0.04355799107271946</v>
       </c>
       <c r="F169" t="n">
         <v>0.291500056866333</v>
       </c>
       <c r="G169" t="n">
-        <v>0.2430947422981262</v>
+        <v>0.2503522336483002</v>
       </c>
       <c r="H169" t="n">
-        <v>-0.04840531456820679</v>
+        <v>-0.04114782321803284</v>
       </c>
       <c r="I169" t="n">
-        <v>0.04840531456820679</v>
+        <v>0.04114782321803284</v>
       </c>
       <c r="J169" t="n">
         <v>0.262489934050508</v>
       </c>
       <c r="K169" t="n">
-        <v>0.2594108581542969</v>
+        <v>0.2715680003166199</v>
       </c>
       <c r="L169" t="n">
-        <v>-0.003079075896211148</v>
+        <v>0.009078066266111851</v>
       </c>
       <c r="M169" t="n">
-        <v>0.003079075896211148</v>
+        <v>0.009078066266111851</v>
       </c>
     </row>
     <row r="170">
@@ -7396,37 +7396,37 @@
         <v>0.2997443993424495</v>
       </c>
       <c r="C170" t="n">
-        <v>0.2721811234951019</v>
+        <v>0.2569765746593475</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.02756327584734752</v>
+        <v>-0.04276782468310192</v>
       </c>
       <c r="E170" t="n">
-        <v>0.02756327584734752</v>
+        <v>0.04276782468310192</v>
       </c>
       <c r="F170" t="n">
         <v>0.289278257068974</v>
       </c>
       <c r="G170" t="n">
-        <v>0.242136687040329</v>
+        <v>0.2494686841964722</v>
       </c>
       <c r="H170" t="n">
-        <v>-0.04714157002864505</v>
+        <v>-0.03980957287250186</v>
       </c>
       <c r="I170" t="n">
-        <v>0.04714157002864505</v>
+        <v>0.03980957287250186</v>
       </c>
       <c r="J170" t="n">
         <v>0.2645010715573111</v>
       </c>
       <c r="K170" t="n">
-        <v>0.2592793405056</v>
+        <v>0.2713631391525269</v>
       </c>
       <c r="L170" t="n">
-        <v>-0.005221731051711087</v>
+        <v>0.006862067595215793</v>
       </c>
       <c r="M170" t="n">
-        <v>0.005221731051711087</v>
+        <v>0.006862067595215793</v>
       </c>
     </row>
   </sheetData>
